--- a/Bases_de_Dados_(2022-2023)/Wales Welsh Premier League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Wales Welsh Premier League_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="495" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="170">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -413,6 +413,9 @@
   </si>
   <si>
     <t>['90+2']</t>
+  </si>
+  <si>
+    <t>['20', '34', '52']</t>
   </si>
   <si>
     <t>['40', '75']</t>
@@ -882,7 +885,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK73"/>
+  <dimension ref="A1:BK74"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1126,7 +1129,7 @@
         <v>77</v>
       </c>
       <c r="P2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q2">
         <v>5</v>
@@ -1216,7 +1219,7 @@
         <v>0.17</v>
       </c>
       <c r="AT2">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1890,7 +1893,7 @@
         <v>80</v>
       </c>
       <c r="P6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q6">
         <v>6</v>
@@ -2463,7 +2466,7 @@
         <v>80</v>
       </c>
       <c r="P9" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q9">
         <v>11</v>
@@ -2741,7 +2744,7 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AT10">
         <v>0.2</v>
@@ -3227,7 +3230,7 @@
         <v>80</v>
       </c>
       <c r="P13" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q13">
         <v>2</v>
@@ -3505,7 +3508,7 @@
         <v>0</v>
       </c>
       <c r="AS14">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AT14">
         <v>1.17</v>
@@ -3609,7 +3612,7 @@
         <v>87</v>
       </c>
       <c r="P15" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q15">
         <v>6</v>
@@ -3800,7 +3803,7 @@
         <v>88</v>
       </c>
       <c r="P16" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q16">
         <v>6</v>
@@ -3890,7 +3893,7 @@
         <v>1.5</v>
       </c>
       <c r="AT16">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AU16">
         <v>1.01</v>
@@ -3991,7 +3994,7 @@
         <v>89</v>
       </c>
       <c r="P17" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q17">
         <v>5</v>
@@ -4373,7 +4376,7 @@
         <v>91</v>
       </c>
       <c r="P19" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q19">
         <v>3</v>
@@ -4564,7 +4567,7 @@
         <v>92</v>
       </c>
       <c r="P20" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q20">
         <v>3</v>
@@ -5328,7 +5331,7 @@
         <v>96</v>
       </c>
       <c r="P24" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q24">
         <v>7</v>
@@ -5519,7 +5522,7 @@
         <v>80</v>
       </c>
       <c r="P25" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q25">
         <v>1</v>
@@ -5710,7 +5713,7 @@
         <v>97</v>
       </c>
       <c r="P26" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q26">
         <v>7</v>
@@ -5901,7 +5904,7 @@
         <v>98</v>
       </c>
       <c r="P27" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q27">
         <v>2</v>
@@ -6474,7 +6477,7 @@
         <v>101</v>
       </c>
       <c r="P30" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q30">
         <v>7</v>
@@ -6665,7 +6668,7 @@
         <v>80</v>
       </c>
       <c r="P31" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q31">
         <v>1</v>
@@ -6856,7 +6859,7 @@
         <v>102</v>
       </c>
       <c r="P32" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q32">
         <v>1</v>
@@ -7047,7 +7050,7 @@
         <v>103</v>
       </c>
       <c r="P33" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q33">
         <v>7</v>
@@ -7238,7 +7241,7 @@
         <v>80</v>
       </c>
       <c r="P34" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q34">
         <v>1</v>
@@ -7429,7 +7432,7 @@
         <v>104</v>
       </c>
       <c r="P35" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q35">
         <v>3</v>
@@ -7811,7 +7814,7 @@
         <v>106</v>
       </c>
       <c r="P37" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q37">
         <v>6</v>
@@ -8002,7 +8005,7 @@
         <v>107</v>
       </c>
       <c r="P38" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q38">
         <v>6</v>
@@ -8283,7 +8286,7 @@
         <v>2.17</v>
       </c>
       <c r="AT39">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AU39">
         <v>1.87</v>
@@ -8384,7 +8387,7 @@
         <v>94</v>
       </c>
       <c r="P40" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q40">
         <v>7</v>
@@ -8853,7 +8856,7 @@
         <v>1.5</v>
       </c>
       <c r="AS42">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AT42">
         <v>1</v>
@@ -8957,7 +8960,7 @@
         <v>111</v>
       </c>
       <c r="P43" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q43">
         <v>8</v>
@@ -9148,7 +9151,7 @@
         <v>80</v>
       </c>
       <c r="P44" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q44">
         <v>6</v>
@@ -9530,7 +9533,7 @@
         <v>80</v>
       </c>
       <c r="P46" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q46">
         <v>4</v>
@@ -9721,7 +9724,7 @@
         <v>113</v>
       </c>
       <c r="P47" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q47">
         <v>6</v>
@@ -9912,7 +9915,7 @@
         <v>114</v>
       </c>
       <c r="P48" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q48">
         <v>4</v>
@@ -10103,7 +10106,7 @@
         <v>80</v>
       </c>
       <c r="P49" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q49">
         <v>0</v>
@@ -10294,7 +10297,7 @@
         <v>115</v>
       </c>
       <c r="P50" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q50">
         <v>6</v>
@@ -10485,7 +10488,7 @@
         <v>116</v>
       </c>
       <c r="P51" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q51">
         <v>4</v>
@@ -10766,7 +10769,7 @@
         <v>2</v>
       </c>
       <c r="AT52">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AU52">
         <v>1.55</v>
@@ -11440,7 +11443,7 @@
         <v>121</v>
       </c>
       <c r="P56" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q56">
         <v>4</v>
@@ -11822,7 +11825,7 @@
         <v>80</v>
       </c>
       <c r="P58" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q58">
         <v>4</v>
@@ -11909,7 +11912,7 @@
         <v>2.5</v>
       </c>
       <c r="AS58">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AT58">
         <v>2.67</v>
@@ -12204,7 +12207,7 @@
         <v>80</v>
       </c>
       <c r="P60" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q60">
         <v>2</v>
@@ -12395,7 +12398,7 @@
         <v>124</v>
       </c>
       <c r="P61" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q61">
         <v>3</v>
@@ -12485,7 +12488,7 @@
         <v>2.57</v>
       </c>
       <c r="AT61">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="AU61">
         <v>1.51</v>
@@ -12586,7 +12589,7 @@
         <v>125</v>
       </c>
       <c r="P62" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q62">
         <v>9</v>
@@ -12777,7 +12780,7 @@
         <v>80</v>
       </c>
       <c r="P63" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q63">
         <v>5</v>
@@ -12968,7 +12971,7 @@
         <v>80</v>
       </c>
       <c r="P64" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q64">
         <v>5</v>
@@ -13732,7 +13735,7 @@
         <v>129</v>
       </c>
       <c r="P68" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q68">
         <v>2</v>
@@ -13923,7 +13926,7 @@
         <v>130</v>
       </c>
       <c r="P69" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q69">
         <v>1</v>
@@ -14114,7 +14117,7 @@
         <v>80</v>
       </c>
       <c r="P70" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q70">
         <v>2</v>
@@ -14392,7 +14395,7 @@
         <v>1.4</v>
       </c>
       <c r="AS71">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AT71">
         <v>1.33</v>
@@ -14496,7 +14499,7 @@
         <v>80</v>
       </c>
       <c r="P72" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q72">
         <v>4</v>
@@ -14687,7 +14690,7 @@
         <v>132</v>
       </c>
       <c r="P73" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q73">
         <v>2</v>
@@ -14829,6 +14832,197 @@
       </c>
       <c r="BK73">
         <v>13</v>
+      </c>
+    </row>
+    <row r="74" spans="1:63">
+      <c r="A74" s="1">
+        <v>73</v>
+      </c>
+      <c r="B74">
+        <v>2655331</v>
+      </c>
+      <c r="C74" t="s">
+        <v>63</v>
+      </c>
+      <c r="D74" t="s">
+        <v>64</v>
+      </c>
+      <c r="E74" s="2">
+        <v>44869.69791666666</v>
+      </c>
+      <c r="F74">
+        <v>14</v>
+      </c>
+      <c r="G74" t="s">
+        <v>72</v>
+      </c>
+      <c r="H74" t="s">
+        <v>75</v>
+      </c>
+      <c r="I74">
+        <v>2</v>
+      </c>
+      <c r="J74">
+        <v>0</v>
+      </c>
+      <c r="K74">
+        <v>2</v>
+      </c>
+      <c r="L74">
+        <v>3</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>3</v>
+      </c>
+      <c r="O74" t="s">
+        <v>133</v>
+      </c>
+      <c r="P74" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q74">
+        <v>5</v>
+      </c>
+      <c r="R74">
+        <v>2</v>
+      </c>
+      <c r="S74">
+        <v>7</v>
+      </c>
+      <c r="T74">
+        <v>1.74</v>
+      </c>
+      <c r="U74">
+        <v>2.6</v>
+      </c>
+      <c r="V74">
+        <v>7</v>
+      </c>
+      <c r="W74">
+        <v>1.25</v>
+      </c>
+      <c r="X74">
+        <v>3.6</v>
+      </c>
+      <c r="Y74">
+        <v>2.2</v>
+      </c>
+      <c r="Z74">
+        <v>1.58</v>
+      </c>
+      <c r="AA74">
+        <v>4.7</v>
+      </c>
+      <c r="AB74">
+        <v>1.15</v>
+      </c>
+      <c r="AC74">
+        <v>1.33</v>
+      </c>
+      <c r="AD74">
+        <v>4.75</v>
+      </c>
+      <c r="AE74">
+        <v>6.5</v>
+      </c>
+      <c r="AF74">
+        <v>1.02</v>
+      </c>
+      <c r="AG74">
+        <v>12</v>
+      </c>
+      <c r="AH74">
+        <v>1.17</v>
+      </c>
+      <c r="AI74">
+        <v>4.5</v>
+      </c>
+      <c r="AJ74">
+        <v>1.55</v>
+      </c>
+      <c r="AK74">
+        <v>2.3</v>
+      </c>
+      <c r="AL74">
+        <v>1.81</v>
+      </c>
+      <c r="AM74">
+        <v>1.95</v>
+      </c>
+      <c r="AN74">
+        <v>1.03</v>
+      </c>
+      <c r="AO74">
+        <v>1.11</v>
+      </c>
+      <c r="AP74">
+        <v>3.15</v>
+      </c>
+      <c r="AQ74">
+        <v>1.6</v>
+      </c>
+      <c r="AR74">
+        <v>0.6</v>
+      </c>
+      <c r="AS74">
+        <v>1.83</v>
+      </c>
+      <c r="AT74">
+        <v>0.5</v>
+      </c>
+      <c r="AU74">
+        <v>1.06</v>
+      </c>
+      <c r="AV74">
+        <v>1.43</v>
+      </c>
+      <c r="AW74">
+        <v>2.49</v>
+      </c>
+      <c r="AX74">
+        <v>0</v>
+      </c>
+      <c r="AY74">
+        <v>0</v>
+      </c>
+      <c r="AZ74">
+        <v>0</v>
+      </c>
+      <c r="BA74">
+        <v>1.4</v>
+      </c>
+      <c r="BB74">
+        <v>1.73</v>
+      </c>
+      <c r="BC74">
+        <v>2.25</v>
+      </c>
+      <c r="BD74">
+        <v>3.1</v>
+      </c>
+      <c r="BE74">
+        <v>0</v>
+      </c>
+      <c r="BF74">
+        <v>4</v>
+      </c>
+      <c r="BG74">
+        <v>4</v>
+      </c>
+      <c r="BH74">
+        <v>8</v>
+      </c>
+      <c r="BI74">
+        <v>1</v>
+      </c>
+      <c r="BJ74">
+        <v>12</v>
+      </c>
+      <c r="BK74">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Wales Welsh Premier League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Wales Welsh Premier League_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="567" uniqueCount="182">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -418,6 +418,24 @@
     <t>['20', '34', '52']</t>
   </si>
   <si>
+    <t>['19', '23']</t>
+  </si>
+  <si>
+    <t>['38', '45+4', '68', '90+1']</t>
+  </si>
+  <si>
+    <t>['68', '72', '90+4']</t>
+  </si>
+  <si>
+    <t>['4', '32']</t>
+  </si>
+  <si>
+    <t>['35']</t>
+  </si>
+  <si>
+    <t>['65']</t>
+  </si>
+  <si>
     <t>['40', '75']</t>
   </si>
   <si>
@@ -524,6 +542,24 @@
   </si>
   <si>
     <t>['36', '42', '46']</t>
+  </si>
+  <si>
+    <t>['22', '70']</t>
+  </si>
+  <si>
+    <t>['15', '20', '28', '36', '74']</t>
+  </si>
+  <si>
+    <t>['10', '49', '63']</t>
+  </si>
+  <si>
+    <t>['31']</t>
+  </si>
+  <si>
+    <t>['73', '86']</t>
+  </si>
+  <si>
+    <t>['62', '70', '84', '90+1']</t>
   </si>
 </sst>
 </file>
@@ -885,7 +921,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK74"/>
+  <dimension ref="A1:BK85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1129,7 +1165,7 @@
         <v>77</v>
       </c>
       <c r="P2" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="Q2">
         <v>5</v>
@@ -1216,7 +1252,7 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AT2">
         <v>0.5</v>
@@ -1407,10 +1443,10 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AT3">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -1601,7 +1637,7 @@
         <v>1.43</v>
       </c>
       <c r="AT4">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -1789,10 +1825,10 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AT5">
-        <v>2.67</v>
+        <v>2.43</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -1893,7 +1929,7 @@
         <v>80</v>
       </c>
       <c r="P6" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="Q6">
         <v>6</v>
@@ -1980,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AT6">
         <v>1.11</v>
@@ -2171,10 +2207,10 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AT7">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -2362,7 +2398,7 @@
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AT8">
         <v>0</v>
@@ -2466,7 +2502,7 @@
         <v>80</v>
       </c>
       <c r="P9" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="Q9">
         <v>11</v>
@@ -2553,7 +2589,7 @@
         <v>3</v>
       </c>
       <c r="AS9">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AT9">
         <v>1.11</v>
@@ -2747,7 +2783,7 @@
         <v>1.83</v>
       </c>
       <c r="AT10">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -2935,10 +2971,10 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>2.57</v>
+        <v>2.25</v>
       </c>
       <c r="AT11">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AU11">
         <v>0</v>
@@ -3129,7 +3165,7 @@
         <v>3</v>
       </c>
       <c r="AT12">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -3230,7 +3266,7 @@
         <v>80</v>
       </c>
       <c r="P13" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="Q13">
         <v>2</v>
@@ -3317,10 +3353,10 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AT13">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AU13">
         <v>0</v>
@@ -3511,7 +3547,7 @@
         <v>1.83</v>
       </c>
       <c r="AT14">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AU14">
         <v>0.86</v>
@@ -3612,7 +3648,7 @@
         <v>87</v>
       </c>
       <c r="P15" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="Q15">
         <v>6</v>
@@ -3702,7 +3738,7 @@
         <v>3</v>
       </c>
       <c r="AT15">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AU15">
         <v>2.27</v>
@@ -3803,7 +3839,7 @@
         <v>88</v>
       </c>
       <c r="P16" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="Q16">
         <v>6</v>
@@ -3890,7 +3926,7 @@
         <v>3</v>
       </c>
       <c r="AS16">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AT16">
         <v>0.5</v>
@@ -3994,7 +4030,7 @@
         <v>89</v>
       </c>
       <c r="P17" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="Q17">
         <v>5</v>
@@ -4081,7 +4117,7 @@
         <v>3</v>
       </c>
       <c r="AS17">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AT17">
         <v>1.11</v>
@@ -4376,7 +4412,7 @@
         <v>91</v>
       </c>
       <c r="P19" t="s">
-        <v>140</v>
+        <v>146</v>
       </c>
       <c r="Q19">
         <v>3</v>
@@ -4463,10 +4499,10 @@
         <v>3</v>
       </c>
       <c r="AS19">
-        <v>2.57</v>
+        <v>2.25</v>
       </c>
       <c r="AT19">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AU19">
         <v>1.64</v>
@@ -4567,7 +4603,7 @@
         <v>92</v>
       </c>
       <c r="P20" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="Q20">
         <v>3</v>
@@ -4654,7 +4690,7 @@
         <v>2</v>
       </c>
       <c r="AS20">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AT20">
         <v>1.11</v>
@@ -4845,10 +4881,10 @@
         <v>0</v>
       </c>
       <c r="AS21">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AT21">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AU21">
         <v>1.94</v>
@@ -5036,10 +5072,10 @@
         <v>0</v>
       </c>
       <c r="AS22">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AT22">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AU22">
         <v>1.67</v>
@@ -5227,10 +5263,10 @@
         <v>0</v>
       </c>
       <c r="AS23">
+        <v>1</v>
+      </c>
+      <c r="AT23">
         <v>0.67</v>
-      </c>
-      <c r="AT23">
-        <v>0.6</v>
       </c>
       <c r="AU23">
         <v>1.14</v>
@@ -5331,7 +5367,7 @@
         <v>96</v>
       </c>
       <c r="P24" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="Q24">
         <v>7</v>
@@ -5418,10 +5454,10 @@
         <v>1</v>
       </c>
       <c r="AS24">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AT24">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="AU24">
         <v>1.86</v>
@@ -5522,7 +5558,7 @@
         <v>80</v>
       </c>
       <c r="P25" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="Q25">
         <v>1</v>
@@ -5609,10 +5645,10 @@
         <v>1</v>
       </c>
       <c r="AS25">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AT25">
-        <v>2.67</v>
+        <v>2.43</v>
       </c>
       <c r="AU25">
         <v>0.36</v>
@@ -5713,7 +5749,7 @@
         <v>97</v>
       </c>
       <c r="P26" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="Q26">
         <v>7</v>
@@ -5800,7 +5836,7 @@
         <v>0</v>
       </c>
       <c r="AS26">
-        <v>2.57</v>
+        <v>2.25</v>
       </c>
       <c r="AT26">
         <v>0</v>
@@ -5904,7 +5940,7 @@
         <v>98</v>
       </c>
       <c r="P27" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="Q27">
         <v>2</v>
@@ -5991,10 +6027,10 @@
         <v>0</v>
       </c>
       <c r="AS27">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AT27">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AU27">
         <v>0.36</v>
@@ -6182,7 +6218,7 @@
         <v>2.25</v>
       </c>
       <c r="AS28">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AT28">
         <v>1.11</v>
@@ -6373,10 +6409,10 @@
         <v>0</v>
       </c>
       <c r="AS29">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AT29">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AU29">
         <v>1.49</v>
@@ -6477,7 +6513,7 @@
         <v>101</v>
       </c>
       <c r="P30" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="Q30">
         <v>7</v>
@@ -6567,7 +6603,7 @@
         <v>1.43</v>
       </c>
       <c r="AT30">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AU30">
         <v>2.4</v>
@@ -6668,7 +6704,7 @@
         <v>80</v>
       </c>
       <c r="P31" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="Q31">
         <v>1</v>
@@ -6755,10 +6791,10 @@
         <v>2</v>
       </c>
       <c r="AS31">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AT31">
-        <v>2.67</v>
+        <v>2.43</v>
       </c>
       <c r="AU31">
         <v>1.33</v>
@@ -6859,7 +6895,7 @@
         <v>102</v>
       </c>
       <c r="P32" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="Q32">
         <v>1</v>
@@ -6946,10 +6982,10 @@
         <v>0</v>
       </c>
       <c r="AS32">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AT32">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AU32">
         <v>0.67</v>
@@ -7050,7 +7086,7 @@
         <v>103</v>
       </c>
       <c r="P33" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="Q33">
         <v>7</v>
@@ -7137,10 +7173,10 @@
         <v>0.5</v>
       </c>
       <c r="AS33">
-        <v>2.57</v>
+        <v>2.25</v>
       </c>
       <c r="AT33">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="AU33">
         <v>1.54</v>
@@ -7241,7 +7277,7 @@
         <v>80</v>
       </c>
       <c r="P34" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="Q34">
         <v>1</v>
@@ -7328,10 +7364,10 @@
         <v>2.33</v>
       </c>
       <c r="AS34">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AT34">
-        <v>2.67</v>
+        <v>2.43</v>
       </c>
       <c r="AU34">
         <v>1.89</v>
@@ -7432,7 +7468,7 @@
         <v>104</v>
       </c>
       <c r="P35" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="Q35">
         <v>3</v>
@@ -7519,10 +7555,10 @@
         <v>1</v>
       </c>
       <c r="AS35">
-        <v>1.67</v>
+        <v>1</v>
       </c>
       <c r="AT35">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AU35">
         <v>0</v>
@@ -7710,7 +7746,7 @@
         <v>0</v>
       </c>
       <c r="AS36">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AT36">
         <v>0</v>
@@ -7814,7 +7850,7 @@
         <v>106</v>
       </c>
       <c r="P37" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="Q37">
         <v>6</v>
@@ -7901,10 +7937,10 @@
         <v>0</v>
       </c>
       <c r="AS37">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AT37">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AU37">
         <v>1.19</v>
@@ -8005,7 +8041,7 @@
         <v>107</v>
       </c>
       <c r="P38" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="Q38">
         <v>6</v>
@@ -8092,10 +8128,10 @@
         <v>1.5</v>
       </c>
       <c r="AS38">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AT38">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AU38">
         <v>1.47</v>
@@ -8283,7 +8319,7 @@
         <v>1.5</v>
       </c>
       <c r="AS39">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AT39">
         <v>0.5</v>
@@ -8387,7 +8423,7 @@
         <v>94</v>
       </c>
       <c r="P40" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="Q40">
         <v>7</v>
@@ -8665,10 +8701,10 @@
         <v>0</v>
       </c>
       <c r="AS41">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AT41">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AU41">
         <v>1.62</v>
@@ -8859,7 +8895,7 @@
         <v>1.83</v>
       </c>
       <c r="AT42">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AU42">
         <v>1.16</v>
@@ -8960,7 +8996,7 @@
         <v>111</v>
       </c>
       <c r="P43" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="Q43">
         <v>8</v>
@@ -9151,7 +9187,7 @@
         <v>80</v>
       </c>
       <c r="P44" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="Q44">
         <v>6</v>
@@ -9238,10 +9274,10 @@
         <v>0</v>
       </c>
       <c r="AS44">
-        <v>2.57</v>
+        <v>2.25</v>
       </c>
       <c r="AT44">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AU44">
         <v>1.48</v>
@@ -9432,7 +9468,7 @@
         <v>1.43</v>
       </c>
       <c r="AT45">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AU45">
         <v>1.79</v>
@@ -9533,7 +9569,7 @@
         <v>80</v>
       </c>
       <c r="P46" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="Q46">
         <v>4</v>
@@ -9620,10 +9656,10 @@
         <v>1</v>
       </c>
       <c r="AS46">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AT46">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AU46">
         <v>1.26</v>
@@ -9724,7 +9760,7 @@
         <v>113</v>
       </c>
       <c r="P47" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="Q47">
         <v>6</v>
@@ -9811,10 +9847,10 @@
         <v>0</v>
       </c>
       <c r="AS47">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AT47">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AU47">
         <v>1.89</v>
@@ -9915,7 +9951,7 @@
         <v>114</v>
       </c>
       <c r="P48" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="Q48">
         <v>4</v>
@@ -10002,7 +10038,7 @@
         <v>0</v>
       </c>
       <c r="AS48">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AT48">
         <v>0</v>
@@ -10106,7 +10142,7 @@
         <v>80</v>
       </c>
       <c r="P49" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="Q49">
         <v>0</v>
@@ -10193,10 +10229,10 @@
         <v>1.4</v>
       </c>
       <c r="AS49">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AT49">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AU49">
         <v>1.52</v>
@@ -10297,7 +10333,7 @@
         <v>115</v>
       </c>
       <c r="P50" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="Q50">
         <v>6</v>
@@ -10387,7 +10423,7 @@
         <v>3</v>
       </c>
       <c r="AT50">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AU50">
         <v>2.26</v>
@@ -10488,7 +10524,7 @@
         <v>116</v>
       </c>
       <c r="P51" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="Q51">
         <v>4</v>
@@ -10575,10 +10611,10 @@
         <v>1</v>
       </c>
       <c r="AS51">
-        <v>1.67</v>
+        <v>1</v>
       </c>
       <c r="AT51">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AU51">
         <v>1.04</v>
@@ -10766,7 +10802,7 @@
         <v>1</v>
       </c>
       <c r="AS52">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AT52">
         <v>0.5</v>
@@ -10957,10 +10993,10 @@
         <v>0.33</v>
       </c>
       <c r="AS53">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AT53">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="AU53">
         <v>1.64</v>
@@ -11148,10 +11184,10 @@
         <v>0</v>
       </c>
       <c r="AS54">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AT54">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AU54">
         <v>1.44</v>
@@ -11339,7 +11375,7 @@
         <v>1.43</v>
       </c>
       <c r="AS55">
-        <v>2.57</v>
+        <v>2.25</v>
       </c>
       <c r="AT55">
         <v>1.11</v>
@@ -11443,7 +11479,7 @@
         <v>121</v>
       </c>
       <c r="P56" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="Q56">
         <v>4</v>
@@ -11530,10 +11566,10 @@
         <v>1</v>
       </c>
       <c r="AS56">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AT56">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AU56">
         <v>1.45</v>
@@ -11721,10 +11757,10 @@
         <v>0.25</v>
       </c>
       <c r="AS57">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AT57">
-        <v>0.2</v>
+        <v>1</v>
       </c>
       <c r="AU57">
         <v>0.85</v>
@@ -11825,7 +11861,7 @@
         <v>80</v>
       </c>
       <c r="P58" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="Q58">
         <v>4</v>
@@ -11915,7 +11951,7 @@
         <v>1.83</v>
       </c>
       <c r="AT58">
-        <v>2.67</v>
+        <v>2.43</v>
       </c>
       <c r="AU58">
         <v>1.18</v>
@@ -12103,10 +12139,10 @@
         <v>0.75</v>
       </c>
       <c r="AS59">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AT59">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AU59">
         <v>1.59</v>
@@ -12207,7 +12243,7 @@
         <v>80</v>
       </c>
       <c r="P60" t="s">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="Q60">
         <v>2</v>
@@ -12294,10 +12330,10 @@
         <v>1</v>
       </c>
       <c r="AS60">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AT60">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AU60">
         <v>1.28</v>
@@ -12398,7 +12434,7 @@
         <v>124</v>
       </c>
       <c r="P61" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="Q61">
         <v>3</v>
@@ -12485,7 +12521,7 @@
         <v>0.75</v>
       </c>
       <c r="AS61">
-        <v>2.57</v>
+        <v>2.25</v>
       </c>
       <c r="AT61">
         <v>0.5</v>
@@ -12589,7 +12625,7 @@
         <v>125</v>
       </c>
       <c r="P62" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="Q62">
         <v>9</v>
@@ -12679,7 +12715,7 @@
         <v>1.43</v>
       </c>
       <c r="AT62">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AU62">
         <v>1.58</v>
@@ -12780,7 +12816,7 @@
         <v>80</v>
       </c>
       <c r="P63" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="Q63">
         <v>5</v>
@@ -12867,10 +12903,10 @@
         <v>0.6</v>
       </c>
       <c r="AS63">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AT63">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AU63">
         <v>1.17</v>
@@ -12971,7 +13007,7 @@
         <v>80</v>
       </c>
       <c r="P64" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="Q64">
         <v>5</v>
@@ -13058,10 +13094,10 @@
         <v>0.75</v>
       </c>
       <c r="AS64">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AT64">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AU64">
         <v>1.87</v>
@@ -13252,7 +13288,7 @@
         <v>3</v>
       </c>
       <c r="AT65">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AU65">
         <v>2.08</v>
@@ -13440,7 +13476,7 @@
         <v>0</v>
       </c>
       <c r="AS66">
-        <v>1.67</v>
+        <v>1</v>
       </c>
       <c r="AT66">
         <v>0</v>
@@ -13634,7 +13670,7 @@
         <v>3</v>
       </c>
       <c r="AT67">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AU67">
         <v>1.95</v>
@@ -13735,7 +13771,7 @@
         <v>129</v>
       </c>
       <c r="P68" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="Q68">
         <v>2</v>
@@ -13822,10 +13858,10 @@
         <v>1.4</v>
       </c>
       <c r="AS68">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="AT68">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AU68">
         <v>1.53</v>
@@ -13926,7 +13962,7 @@
         <v>130</v>
       </c>
       <c r="P69" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="Q69">
         <v>1</v>
@@ -14013,7 +14049,7 @@
         <v>1.25</v>
       </c>
       <c r="AS69">
-        <v>1.71</v>
+        <v>1.88</v>
       </c>
       <c r="AT69">
         <v>1.11</v>
@@ -14117,7 +14153,7 @@
         <v>80</v>
       </c>
       <c r="P70" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="Q70">
         <v>2</v>
@@ -14204,10 +14240,10 @@
         <v>0.2</v>
       </c>
       <c r="AS70">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AT70">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AU70">
         <v>1.12</v>
@@ -14398,7 +14434,7 @@
         <v>1.83</v>
       </c>
       <c r="AT71">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AU71">
         <v>1.02</v>
@@ -14499,7 +14535,7 @@
         <v>80</v>
       </c>
       <c r="P72" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="Q72">
         <v>4</v>
@@ -14586,10 +14622,10 @@
         <v>0</v>
       </c>
       <c r="AS72">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AT72">
-        <v>0.6</v>
+        <v>0.67</v>
       </c>
       <c r="AU72">
         <v>1.5</v>
@@ -14690,7 +14726,7 @@
         <v>132</v>
       </c>
       <c r="P73" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="Q73">
         <v>2</v>
@@ -14780,7 +14816,7 @@
         <v>1.43</v>
       </c>
       <c r="AT73">
-        <v>2.67</v>
+        <v>2.43</v>
       </c>
       <c r="AU73">
         <v>1.49</v>
@@ -15023,6 +15059,2107 @@
       </c>
       <c r="BK74">
         <v>5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:63">
+      <c r="A75" s="1">
+        <v>74</v>
+      </c>
+      <c r="B75">
+        <v>2655334</v>
+      </c>
+      <c r="C75" t="s">
+        <v>63</v>
+      </c>
+      <c r="D75" t="s">
+        <v>64</v>
+      </c>
+      <c r="E75" s="2">
+        <v>44870.39583333334</v>
+      </c>
+      <c r="F75">
+        <v>14</v>
+      </c>
+      <c r="G75" t="s">
+        <v>68</v>
+      </c>
+      <c r="H75" t="s">
+        <v>65</v>
+      </c>
+      <c r="I75">
+        <v>2</v>
+      </c>
+      <c r="J75">
+        <v>0</v>
+      </c>
+      <c r="K75">
+        <v>2</v>
+      </c>
+      <c r="L75">
+        <v>2</v>
+      </c>
+      <c r="M75">
+        <v>1</v>
+      </c>
+      <c r="N75">
+        <v>3</v>
+      </c>
+      <c r="O75" t="s">
+        <v>134</v>
+      </c>
+      <c r="P75" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q75">
+        <v>12</v>
+      </c>
+      <c r="R75">
+        <v>2</v>
+      </c>
+      <c r="S75">
+        <v>14</v>
+      </c>
+      <c r="T75">
+        <v>1.97</v>
+      </c>
+      <c r="U75">
+        <v>2.55</v>
+      </c>
+      <c r="V75">
+        <v>5.25</v>
+      </c>
+      <c r="W75">
+        <v>1.28</v>
+      </c>
+      <c r="X75">
+        <v>3.3</v>
+      </c>
+      <c r="Y75">
+        <v>2.3</v>
+      </c>
+      <c r="Z75">
+        <v>1.55</v>
+      </c>
+      <c r="AA75">
+        <v>5</v>
+      </c>
+      <c r="AB75">
+        <v>1.13</v>
+      </c>
+      <c r="AC75">
+        <v>1.45</v>
+      </c>
+      <c r="AD75">
+        <v>4.2</v>
+      </c>
+      <c r="AE75">
+        <v>5.4</v>
+      </c>
+      <c r="AF75">
+        <v>1.03</v>
+      </c>
+      <c r="AG75">
+        <v>11</v>
+      </c>
+      <c r="AH75">
+        <v>1.2</v>
+      </c>
+      <c r="AI75">
+        <v>4</v>
+      </c>
+      <c r="AJ75">
+        <v>1.6</v>
+      </c>
+      <c r="AK75">
+        <v>2.2</v>
+      </c>
+      <c r="AL75">
+        <v>1.73</v>
+      </c>
+      <c r="AM75">
+        <v>2.05</v>
+      </c>
+      <c r="AN75">
+        <v>1.1</v>
+      </c>
+      <c r="AO75">
+        <v>1.18</v>
+      </c>
+      <c r="AP75">
+        <v>2.47</v>
+      </c>
+      <c r="AQ75">
+        <v>0.67</v>
+      </c>
+      <c r="AR75">
+        <v>0</v>
+      </c>
+      <c r="AS75">
+        <v>1</v>
+      </c>
+      <c r="AT75">
+        <v>0</v>
+      </c>
+      <c r="AU75">
+        <v>1.03</v>
+      </c>
+      <c r="AV75">
+        <v>0.91</v>
+      </c>
+      <c r="AW75">
+        <v>1.94</v>
+      </c>
+      <c r="AX75">
+        <v>0</v>
+      </c>
+      <c r="AY75">
+        <v>0</v>
+      </c>
+      <c r="AZ75">
+        <v>0</v>
+      </c>
+      <c r="BA75">
+        <v>0</v>
+      </c>
+      <c r="BB75">
+        <v>0</v>
+      </c>
+      <c r="BC75">
+        <v>0</v>
+      </c>
+      <c r="BD75">
+        <v>0</v>
+      </c>
+      <c r="BE75">
+        <v>0</v>
+      </c>
+      <c r="BF75">
+        <v>4</v>
+      </c>
+      <c r="BG75">
+        <v>2</v>
+      </c>
+      <c r="BH75">
+        <v>8</v>
+      </c>
+      <c r="BI75">
+        <v>3</v>
+      </c>
+      <c r="BJ75">
+        <v>12</v>
+      </c>
+      <c r="BK75">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:63">
+      <c r="A76" s="1">
+        <v>75</v>
+      </c>
+      <c r="B76">
+        <v>2655333</v>
+      </c>
+      <c r="C76" t="s">
+        <v>63</v>
+      </c>
+      <c r="D76" t="s">
+        <v>64</v>
+      </c>
+      <c r="E76" s="2">
+        <v>44870.47916666666</v>
+      </c>
+      <c r="F76">
+        <v>14</v>
+      </c>
+      <c r="G76" t="s">
+        <v>76</v>
+      </c>
+      <c r="H76" t="s">
+        <v>67</v>
+      </c>
+      <c r="I76">
+        <v>0</v>
+      </c>
+      <c r="J76">
+        <v>0</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>1</v>
+      </c>
+      <c r="N76">
+        <v>1</v>
+      </c>
+      <c r="O76" t="s">
+        <v>80</v>
+      </c>
+      <c r="P76" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q76">
+        <v>5</v>
+      </c>
+      <c r="R76">
+        <v>2</v>
+      </c>
+      <c r="S76">
+        <v>7</v>
+      </c>
+      <c r="T76">
+        <v>2.72</v>
+      </c>
+      <c r="U76">
+        <v>2.34</v>
+      </c>
+      <c r="V76">
+        <v>3.24</v>
+      </c>
+      <c r="W76">
+        <v>1.31</v>
+      </c>
+      <c r="X76">
+        <v>3.1</v>
+      </c>
+      <c r="Y76">
+        <v>2.5</v>
+      </c>
+      <c r="Z76">
+        <v>1.48</v>
+      </c>
+      <c r="AA76">
+        <v>5.5</v>
+      </c>
+      <c r="AB76">
+        <v>1.11</v>
+      </c>
+      <c r="AC76">
+        <v>2.27</v>
+      </c>
+      <c r="AD76">
+        <v>3.3</v>
+      </c>
+      <c r="AE76">
+        <v>2.7</v>
+      </c>
+      <c r="AF76">
+        <v>1.01</v>
+      </c>
+      <c r="AG76">
+        <v>11.5</v>
+      </c>
+      <c r="AH76">
+        <v>1.22</v>
+      </c>
+      <c r="AI76">
+        <v>3.9</v>
+      </c>
+      <c r="AJ76">
+        <v>1.7</v>
+      </c>
+      <c r="AK76">
+        <v>2</v>
+      </c>
+      <c r="AL76">
+        <v>1.61</v>
+      </c>
+      <c r="AM76">
+        <v>2.25</v>
+      </c>
+      <c r="AN76">
+        <v>1.38</v>
+      </c>
+      <c r="AO76">
+        <v>1.27</v>
+      </c>
+      <c r="AP76">
+        <v>1.53</v>
+      </c>
+      <c r="AQ76">
+        <v>1.67</v>
+      </c>
+      <c r="AR76">
+        <v>0.2</v>
+      </c>
+      <c r="AS76">
+        <v>1</v>
+      </c>
+      <c r="AT76">
+        <v>1</v>
+      </c>
+      <c r="AU76">
+        <v>1.17</v>
+      </c>
+      <c r="AV76">
+        <v>1.19</v>
+      </c>
+      <c r="AW76">
+        <v>2.36</v>
+      </c>
+      <c r="AX76">
+        <v>0</v>
+      </c>
+      <c r="AY76">
+        <v>0</v>
+      </c>
+      <c r="AZ76">
+        <v>0</v>
+      </c>
+      <c r="BA76">
+        <v>0</v>
+      </c>
+      <c r="BB76">
+        <v>0</v>
+      </c>
+      <c r="BC76">
+        <v>1.88</v>
+      </c>
+      <c r="BD76">
+        <v>0</v>
+      </c>
+      <c r="BE76">
+        <v>0</v>
+      </c>
+      <c r="BF76">
+        <v>0</v>
+      </c>
+      <c r="BG76">
+        <v>6</v>
+      </c>
+      <c r="BH76">
+        <v>5</v>
+      </c>
+      <c r="BI76">
+        <v>5</v>
+      </c>
+      <c r="BJ76">
+        <v>5</v>
+      </c>
+      <c r="BK76">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="77" spans="1:63">
+      <c r="A77" s="1">
+        <v>76</v>
+      </c>
+      <c r="B77">
+        <v>2655332</v>
+      </c>
+      <c r="C77" t="s">
+        <v>63</v>
+      </c>
+      <c r="D77" t="s">
+        <v>64</v>
+      </c>
+      <c r="E77" s="2">
+        <v>44870.47916666666</v>
+      </c>
+      <c r="F77">
+        <v>14</v>
+      </c>
+      <c r="G77" t="s">
+        <v>73</v>
+      </c>
+      <c r="H77" t="s">
+        <v>70</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>1</v>
+      </c>
+      <c r="K77">
+        <v>1</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>2</v>
+      </c>
+      <c r="N77">
+        <v>2</v>
+      </c>
+      <c r="O77" t="s">
+        <v>80</v>
+      </c>
+      <c r="P77" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q77">
+        <v>4</v>
+      </c>
+      <c r="R77">
+        <v>4</v>
+      </c>
+      <c r="S77">
+        <v>8</v>
+      </c>
+      <c r="T77">
+        <v>2.77</v>
+      </c>
+      <c r="U77">
+        <v>2.37</v>
+      </c>
+      <c r="V77">
+        <v>3.26</v>
+      </c>
+      <c r="W77">
+        <v>1.29</v>
+      </c>
+      <c r="X77">
+        <v>3.3</v>
+      </c>
+      <c r="Y77">
+        <v>2.38</v>
+      </c>
+      <c r="Z77">
+        <v>1.53</v>
+      </c>
+      <c r="AA77">
+        <v>5.3</v>
+      </c>
+      <c r="AB77">
+        <v>1.12</v>
+      </c>
+      <c r="AC77">
+        <v>2.26</v>
+      </c>
+      <c r="AD77">
+        <v>3.35</v>
+      </c>
+      <c r="AE77">
+        <v>2.7</v>
+      </c>
+      <c r="AF77">
+        <v>1.04</v>
+      </c>
+      <c r="AG77">
+        <v>10</v>
+      </c>
+      <c r="AH77">
+        <v>1.19</v>
+      </c>
+      <c r="AI77">
+        <v>4.1</v>
+      </c>
+      <c r="AJ77">
+        <v>1.65</v>
+      </c>
+      <c r="AK77">
+        <v>2.1</v>
+      </c>
+      <c r="AL77">
+        <v>1.56</v>
+      </c>
+      <c r="AM77">
+        <v>2.36</v>
+      </c>
+      <c r="AN77">
+        <v>1.38</v>
+      </c>
+      <c r="AO77">
+        <v>1.26</v>
+      </c>
+      <c r="AP77">
+        <v>1.55</v>
+      </c>
+      <c r="AQ77">
+        <v>2.57</v>
+      </c>
+      <c r="AR77">
+        <v>1.33</v>
+      </c>
+      <c r="AS77">
+        <v>2.25</v>
+      </c>
+      <c r="AT77">
+        <v>1.57</v>
+      </c>
+      <c r="AU77">
+        <v>1.52</v>
+      </c>
+      <c r="AV77">
+        <v>1.26</v>
+      </c>
+      <c r="AW77">
+        <v>2.78</v>
+      </c>
+      <c r="AX77">
+        <v>0</v>
+      </c>
+      <c r="AY77">
+        <v>0</v>
+      </c>
+      <c r="AZ77">
+        <v>0</v>
+      </c>
+      <c r="BA77">
+        <v>0</v>
+      </c>
+      <c r="BB77">
+        <v>0</v>
+      </c>
+      <c r="BC77">
+        <v>0</v>
+      </c>
+      <c r="BD77">
+        <v>0</v>
+      </c>
+      <c r="BE77">
+        <v>0</v>
+      </c>
+      <c r="BF77">
+        <v>7</v>
+      </c>
+      <c r="BG77">
+        <v>9</v>
+      </c>
+      <c r="BH77">
+        <v>4</v>
+      </c>
+      <c r="BI77">
+        <v>6</v>
+      </c>
+      <c r="BJ77">
+        <v>11</v>
+      </c>
+      <c r="BK77">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="78" spans="1:63">
+      <c r="A78" s="1">
+        <v>77</v>
+      </c>
+      <c r="B78">
+        <v>2655335</v>
+      </c>
+      <c r="C78" t="s">
+        <v>63</v>
+      </c>
+      <c r="D78" t="s">
+        <v>64</v>
+      </c>
+      <c r="E78" s="2">
+        <v>44870.59375</v>
+      </c>
+      <c r="F78">
+        <v>14</v>
+      </c>
+      <c r="G78" t="s">
+        <v>74</v>
+      </c>
+      <c r="H78" t="s">
+        <v>66</v>
+      </c>
+      <c r="I78">
+        <v>2</v>
+      </c>
+      <c r="J78">
+        <v>0</v>
+      </c>
+      <c r="K78">
+        <v>2</v>
+      </c>
+      <c r="L78">
+        <v>4</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>4</v>
+      </c>
+      <c r="O78" t="s">
+        <v>135</v>
+      </c>
+      <c r="P78" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q78">
+        <v>7</v>
+      </c>
+      <c r="R78">
+        <v>0</v>
+      </c>
+      <c r="S78">
+        <v>7</v>
+      </c>
+      <c r="T78">
+        <v>1.35</v>
+      </c>
+      <c r="U78">
+        <v>3.8</v>
+      </c>
+      <c r="V78">
+        <v>11</v>
+      </c>
+      <c r="W78">
+        <v>1.13</v>
+      </c>
+      <c r="X78">
+        <v>5.1</v>
+      </c>
+      <c r="Y78">
+        <v>1.72</v>
+      </c>
+      <c r="Z78">
+        <v>2</v>
+      </c>
+      <c r="AA78">
+        <v>3.1</v>
+      </c>
+      <c r="AB78">
+        <v>1.31</v>
+      </c>
+      <c r="AC78">
+        <v>1.09</v>
+      </c>
+      <c r="AD78">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AE78">
+        <v>19</v>
+      </c>
+      <c r="AF78">
+        <v>1.01</v>
+      </c>
+      <c r="AG78">
+        <v>17</v>
+      </c>
+      <c r="AH78">
+        <v>1.07</v>
+      </c>
+      <c r="AI78">
+        <v>7.5</v>
+      </c>
+      <c r="AJ78">
+        <v>1.2</v>
+      </c>
+      <c r="AK78">
+        <v>3.65</v>
+      </c>
+      <c r="AL78">
+        <v>2</v>
+      </c>
+      <c r="AM78">
+        <v>1.77</v>
+      </c>
+      <c r="AN78">
+        <v>1.01</v>
+      </c>
+      <c r="AO78">
+        <v>1.04</v>
+      </c>
+      <c r="AP78">
+        <v>5.8</v>
+      </c>
+      <c r="AQ78">
+        <v>3</v>
+      </c>
+      <c r="AR78">
+        <v>1</v>
+      </c>
+      <c r="AS78">
+        <v>3</v>
+      </c>
+      <c r="AT78">
+        <v>0.86</v>
+      </c>
+      <c r="AU78">
+        <v>2.19</v>
+      </c>
+      <c r="AV78">
+        <v>1.07</v>
+      </c>
+      <c r="AW78">
+        <v>3.26</v>
+      </c>
+      <c r="AX78">
+        <v>0</v>
+      </c>
+      <c r="AY78">
+        <v>0</v>
+      </c>
+      <c r="AZ78">
+        <v>0</v>
+      </c>
+      <c r="BA78">
+        <v>0</v>
+      </c>
+      <c r="BB78">
+        <v>0</v>
+      </c>
+      <c r="BC78">
+        <v>0</v>
+      </c>
+      <c r="BD78">
+        <v>1.93</v>
+      </c>
+      <c r="BE78">
+        <v>0</v>
+      </c>
+      <c r="BF78">
+        <v>10</v>
+      </c>
+      <c r="BG78">
+        <v>0</v>
+      </c>
+      <c r="BH78">
+        <v>9</v>
+      </c>
+      <c r="BI78">
+        <v>2</v>
+      </c>
+      <c r="BJ78">
+        <v>19</v>
+      </c>
+      <c r="BK78">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:63">
+      <c r="A79" s="1">
+        <v>78</v>
+      </c>
+      <c r="B79">
+        <v>2655336</v>
+      </c>
+      <c r="C79" t="s">
+        <v>63</v>
+      </c>
+      <c r="D79" t="s">
+        <v>64</v>
+      </c>
+      <c r="E79" s="2">
+        <v>44871.45833333334</v>
+      </c>
+      <c r="F79">
+        <v>14</v>
+      </c>
+      <c r="G79" t="s">
+        <v>69</v>
+      </c>
+      <c r="H79" t="s">
+        <v>71</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>4</v>
+      </c>
+      <c r="K79">
+        <v>4</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="M79">
+        <v>5</v>
+      </c>
+      <c r="N79">
+        <v>5</v>
+      </c>
+      <c r="O79" t="s">
+        <v>80</v>
+      </c>
+      <c r="P79" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q79">
+        <v>2</v>
+      </c>
+      <c r="R79">
+        <v>6</v>
+      </c>
+      <c r="S79">
+        <v>8</v>
+      </c>
+      <c r="T79">
+        <v>3.75</v>
+      </c>
+      <c r="U79">
+        <v>2.15</v>
+      </c>
+      <c r="V79">
+        <v>2.6</v>
+      </c>
+      <c r="W79">
+        <v>1.36</v>
+      </c>
+      <c r="X79">
+        <v>2.84</v>
+      </c>
+      <c r="Y79">
+        <v>2.72</v>
+      </c>
+      <c r="Z79">
+        <v>1.39</v>
+      </c>
+      <c r="AA79">
+        <v>6.2</v>
+      </c>
+      <c r="AB79">
+        <v>1.09</v>
+      </c>
+      <c r="AC79">
+        <v>3.8</v>
+      </c>
+      <c r="AD79">
+        <v>3.5</v>
+      </c>
+      <c r="AE79">
+        <v>1.8</v>
+      </c>
+      <c r="AF79">
+        <v>1.01</v>
+      </c>
+      <c r="AG79">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AH79">
+        <v>1.28</v>
+      </c>
+      <c r="AI79">
+        <v>3.5</v>
+      </c>
+      <c r="AJ79">
+        <v>1.84</v>
+      </c>
+      <c r="AK79">
+        <v>1.89</v>
+      </c>
+      <c r="AL79">
+        <v>1.72</v>
+      </c>
+      <c r="AM79">
+        <v>2.05</v>
+      </c>
+      <c r="AN79">
+        <v>1.65</v>
+      </c>
+      <c r="AO79">
+        <v>1.22</v>
+      </c>
+      <c r="AP79">
+        <v>1.25</v>
+      </c>
+      <c r="AQ79">
+        <v>1.5</v>
+      </c>
+      <c r="AR79">
+        <v>1.2</v>
+      </c>
+      <c r="AS79">
+        <v>1.29</v>
+      </c>
+      <c r="AT79">
+        <v>1.5</v>
+      </c>
+      <c r="AU79">
+        <v>1.44</v>
+      </c>
+      <c r="AV79">
+        <v>1.31</v>
+      </c>
+      <c r="AW79">
+        <v>2.75</v>
+      </c>
+      <c r="AX79">
+        <v>0</v>
+      </c>
+      <c r="AY79">
+        <v>0</v>
+      </c>
+      <c r="AZ79">
+        <v>0</v>
+      </c>
+      <c r="BA79">
+        <v>0</v>
+      </c>
+      <c r="BB79">
+        <v>0</v>
+      </c>
+      <c r="BC79">
+        <v>0</v>
+      </c>
+      <c r="BD79">
+        <v>0</v>
+      </c>
+      <c r="BE79">
+        <v>0</v>
+      </c>
+      <c r="BF79">
+        <v>5</v>
+      </c>
+      <c r="BG79">
+        <v>7</v>
+      </c>
+      <c r="BH79">
+        <v>4</v>
+      </c>
+      <c r="BI79">
+        <v>5</v>
+      </c>
+      <c r="BJ79">
+        <v>9</v>
+      </c>
+      <c r="BK79">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="80" spans="1:63">
+      <c r="A80" s="1">
+        <v>79</v>
+      </c>
+      <c r="B80">
+        <v>2655337</v>
+      </c>
+      <c r="C80" t="s">
+        <v>63</v>
+      </c>
+      <c r="D80" t="s">
+        <v>64</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44883.69791666666</v>
+      </c>
+      <c r="F80">
+        <v>15</v>
+      </c>
+      <c r="G80" t="s">
+        <v>71</v>
+      </c>
+      <c r="H80" t="s">
+        <v>73</v>
+      </c>
+      <c r="I80">
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <v>1</v>
+      </c>
+      <c r="K80">
+        <v>1</v>
+      </c>
+      <c r="L80">
+        <v>3</v>
+      </c>
+      <c r="M80">
+        <v>3</v>
+      </c>
+      <c r="N80">
+        <v>6</v>
+      </c>
+      <c r="O80" t="s">
+        <v>136</v>
+      </c>
+      <c r="P80" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q80">
+        <v>8</v>
+      </c>
+      <c r="R80">
+        <v>5</v>
+      </c>
+      <c r="S80">
+        <v>13</v>
+      </c>
+      <c r="T80">
+        <v>1.95</v>
+      </c>
+      <c r="U80">
+        <v>2.4</v>
+      </c>
+      <c r="V80">
+        <v>5</v>
+      </c>
+      <c r="W80">
+        <v>1.33</v>
+      </c>
+      <c r="X80">
+        <v>3.25</v>
+      </c>
+      <c r="Y80">
+        <v>2.38</v>
+      </c>
+      <c r="Z80">
+        <v>1.53</v>
+      </c>
+      <c r="AA80">
+        <v>5.5</v>
+      </c>
+      <c r="AB80">
+        <v>1.12</v>
+      </c>
+      <c r="AC80">
+        <v>1.5</v>
+      </c>
+      <c r="AD80">
+        <v>4.1</v>
+      </c>
+      <c r="AE80">
+        <v>5.1</v>
+      </c>
+      <c r="AF80">
+        <v>1.03</v>
+      </c>
+      <c r="AG80">
+        <v>11</v>
+      </c>
+      <c r="AH80">
+        <v>1.22</v>
+      </c>
+      <c r="AI80">
+        <v>4</v>
+      </c>
+      <c r="AJ80">
+        <v>1.59</v>
+      </c>
+      <c r="AK80">
+        <v>2.1</v>
+      </c>
+      <c r="AL80">
+        <v>1.73</v>
+      </c>
+      <c r="AM80">
+        <v>2</v>
+      </c>
+      <c r="AN80">
+        <v>1.12</v>
+      </c>
+      <c r="AO80">
+        <v>1.2</v>
+      </c>
+      <c r="AP80">
+        <v>2.45</v>
+      </c>
+      <c r="AQ80">
+        <v>3</v>
+      </c>
+      <c r="AR80">
+        <v>0.6</v>
+      </c>
+      <c r="AS80">
+        <v>2.75</v>
+      </c>
+      <c r="AT80">
+        <v>0.67</v>
+      </c>
+      <c r="AU80">
+        <v>1.58</v>
+      </c>
+      <c r="AV80">
+        <v>1.11</v>
+      </c>
+      <c r="AW80">
+        <v>2.69</v>
+      </c>
+      <c r="AX80">
+        <v>1.34</v>
+      </c>
+      <c r="AY80">
+        <v>9.5</v>
+      </c>
+      <c r="AZ80">
+        <v>4.02</v>
+      </c>
+      <c r="BA80">
+        <v>1.28</v>
+      </c>
+      <c r="BB80">
+        <v>1.52</v>
+      </c>
+      <c r="BC80">
+        <v>2</v>
+      </c>
+      <c r="BD80">
+        <v>2.55</v>
+      </c>
+      <c r="BE80">
+        <v>3.5</v>
+      </c>
+      <c r="BF80">
+        <v>4</v>
+      </c>
+      <c r="BG80">
+        <v>4</v>
+      </c>
+      <c r="BH80">
+        <v>11</v>
+      </c>
+      <c r="BI80">
+        <v>4</v>
+      </c>
+      <c r="BJ80">
+        <v>15</v>
+      </c>
+      <c r="BK80">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81" spans="1:63">
+      <c r="A81" s="1">
+        <v>80</v>
+      </c>
+      <c r="B81">
+        <v>2655338</v>
+      </c>
+      <c r="C81" t="s">
+        <v>63</v>
+      </c>
+      <c r="D81" t="s">
+        <v>64</v>
+      </c>
+      <c r="E81" s="2">
+        <v>44883.70833333334</v>
+      </c>
+      <c r="F81">
+        <v>15</v>
+      </c>
+      <c r="G81" t="s">
+        <v>75</v>
+      </c>
+      <c r="H81" t="s">
+        <v>69</v>
+      </c>
+      <c r="I81">
+        <v>2</v>
+      </c>
+      <c r="J81">
+        <v>1</v>
+      </c>
+      <c r="K81">
+        <v>3</v>
+      </c>
+      <c r="L81">
+        <v>2</v>
+      </c>
+      <c r="M81">
+        <v>1</v>
+      </c>
+      <c r="N81">
+        <v>3</v>
+      </c>
+      <c r="O81" t="s">
+        <v>137</v>
+      </c>
+      <c r="P81" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q81">
+        <v>5</v>
+      </c>
+      <c r="R81">
+        <v>5</v>
+      </c>
+      <c r="S81">
+        <v>10</v>
+      </c>
+      <c r="T81">
+        <v>2.6</v>
+      </c>
+      <c r="U81">
+        <v>2.25</v>
+      </c>
+      <c r="V81">
+        <v>3.4</v>
+      </c>
+      <c r="W81">
+        <v>1.33</v>
+      </c>
+      <c r="X81">
+        <v>3.25</v>
+      </c>
+      <c r="Y81">
+        <v>2.5</v>
+      </c>
+      <c r="Z81">
+        <v>1.5</v>
+      </c>
+      <c r="AA81">
+        <v>5.5</v>
+      </c>
+      <c r="AB81">
+        <v>1.12</v>
+      </c>
+      <c r="AC81">
+        <v>2.02</v>
+      </c>
+      <c r="AD81">
+        <v>3.45</v>
+      </c>
+      <c r="AE81">
+        <v>3.1</v>
+      </c>
+      <c r="AF81">
+        <v>1.04</v>
+      </c>
+      <c r="AG81">
+        <v>10</v>
+      </c>
+      <c r="AH81">
+        <v>1.22</v>
+      </c>
+      <c r="AI81">
+        <v>4</v>
+      </c>
+      <c r="AJ81">
+        <v>1.64</v>
+      </c>
+      <c r="AK81">
+        <v>2.02</v>
+      </c>
+      <c r="AL81">
+        <v>1.62</v>
+      </c>
+      <c r="AM81">
+        <v>2.2</v>
+      </c>
+      <c r="AN81">
+        <v>1.33</v>
+      </c>
+      <c r="AO81">
+        <v>1.25</v>
+      </c>
+      <c r="AP81">
+        <v>1.7</v>
+      </c>
+      <c r="AQ81">
+        <v>1.71</v>
+      </c>
+      <c r="AR81">
+        <v>0.67</v>
+      </c>
+      <c r="AS81">
+        <v>1.88</v>
+      </c>
+      <c r="AT81">
+        <v>0.57</v>
+      </c>
+      <c r="AU81">
+        <v>1</v>
+      </c>
+      <c r="AV81">
+        <v>1</v>
+      </c>
+      <c r="AW81">
+        <v>2</v>
+      </c>
+      <c r="AX81">
+        <v>2.18</v>
+      </c>
+      <c r="AY81">
+        <v>7.2</v>
+      </c>
+      <c r="AZ81">
+        <v>1.95</v>
+      </c>
+      <c r="BA81">
+        <v>1.4</v>
+      </c>
+      <c r="BB81">
+        <v>1.73</v>
+      </c>
+      <c r="BC81">
+        <v>2</v>
+      </c>
+      <c r="BD81">
+        <v>3.1</v>
+      </c>
+      <c r="BE81">
+        <v>0</v>
+      </c>
+      <c r="BF81">
+        <v>3</v>
+      </c>
+      <c r="BG81">
+        <v>4</v>
+      </c>
+      <c r="BH81">
+        <v>6</v>
+      </c>
+      <c r="BI81">
+        <v>4</v>
+      </c>
+      <c r="BJ81">
+        <v>9</v>
+      </c>
+      <c r="BK81">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82" spans="1:63">
+      <c r="A82" s="1">
+        <v>81</v>
+      </c>
+      <c r="B82">
+        <v>2655339</v>
+      </c>
+      <c r="C82" t="s">
+        <v>63</v>
+      </c>
+      <c r="D82" t="s">
+        <v>64</v>
+      </c>
+      <c r="E82" s="2">
+        <v>44884.47916666666</v>
+      </c>
+      <c r="F82">
+        <v>15</v>
+      </c>
+      <c r="G82" t="s">
+        <v>65</v>
+      </c>
+      <c r="H82" t="s">
+        <v>67</v>
+      </c>
+      <c r="I82">
+        <v>1</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+      <c r="K82">
+        <v>1</v>
+      </c>
+      <c r="L82">
+        <v>1</v>
+      </c>
+      <c r="M82">
+        <v>2</v>
+      </c>
+      <c r="N82">
+        <v>3</v>
+      </c>
+      <c r="O82" t="s">
+        <v>138</v>
+      </c>
+      <c r="P82" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q82">
+        <v>7</v>
+      </c>
+      <c r="R82">
+        <v>6</v>
+      </c>
+      <c r="S82">
+        <v>13</v>
+      </c>
+      <c r="T82">
+        <v>3.8</v>
+      </c>
+      <c r="U82">
+        <v>2.38</v>
+      </c>
+      <c r="V82">
+        <v>2.25</v>
+      </c>
+      <c r="W82">
+        <v>1.3</v>
+      </c>
+      <c r="X82">
+        <v>3.4</v>
+      </c>
+      <c r="Y82">
+        <v>2.3</v>
+      </c>
+      <c r="Z82">
+        <v>1.57</v>
+      </c>
+      <c r="AA82">
+        <v>5</v>
+      </c>
+      <c r="AB82">
+        <v>1.14</v>
+      </c>
+      <c r="AC82">
+        <v>4.95</v>
+      </c>
+      <c r="AD82">
+        <v>4.2</v>
+      </c>
+      <c r="AE82">
+        <v>1.47</v>
+      </c>
+      <c r="AF82">
+        <v>1.03</v>
+      </c>
+      <c r="AG82">
+        <v>11</v>
+      </c>
+      <c r="AH82">
+        <v>1.2</v>
+      </c>
+      <c r="AI82">
+        <v>4.33</v>
+      </c>
+      <c r="AJ82">
+        <v>1.54</v>
+      </c>
+      <c r="AK82">
+        <v>2.35</v>
+      </c>
+      <c r="AL82">
+        <v>1.6</v>
+      </c>
+      <c r="AM82">
+        <v>2.25</v>
+      </c>
+      <c r="AN82">
+        <v>2.1</v>
+      </c>
+      <c r="AO82">
+        <v>1.25</v>
+      </c>
+      <c r="AP82">
+        <v>1.18</v>
+      </c>
+      <c r="AQ82">
+        <v>0.17</v>
+      </c>
+      <c r="AR82">
+        <v>0.67</v>
+      </c>
+      <c r="AS82">
+        <v>0.14</v>
+      </c>
+      <c r="AT82">
+        <v>1</v>
+      </c>
+      <c r="AU82">
+        <v>1.07</v>
+      </c>
+      <c r="AV82">
+        <v>1.29</v>
+      </c>
+      <c r="AW82">
+        <v>2.36</v>
+      </c>
+      <c r="AX82">
+        <v>2.88</v>
+      </c>
+      <c r="AY82">
+        <v>7.6</v>
+      </c>
+      <c r="AZ82">
+        <v>1.58</v>
+      </c>
+      <c r="BA82">
+        <v>1.3</v>
+      </c>
+      <c r="BB82">
+        <v>1.58</v>
+      </c>
+      <c r="BC82">
+        <v>2</v>
+      </c>
+      <c r="BD82">
+        <v>2.7</v>
+      </c>
+      <c r="BE82">
+        <v>3.75</v>
+      </c>
+      <c r="BF82">
+        <v>4</v>
+      </c>
+      <c r="BG82">
+        <v>4</v>
+      </c>
+      <c r="BH82">
+        <v>6</v>
+      </c>
+      <c r="BI82">
+        <v>6</v>
+      </c>
+      <c r="BJ82">
+        <v>10</v>
+      </c>
+      <c r="BK82">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83" spans="1:63">
+      <c r="A83" s="1">
+        <v>82</v>
+      </c>
+      <c r="B83">
+        <v>2655340</v>
+      </c>
+      <c r="C83" t="s">
+        <v>63</v>
+      </c>
+      <c r="D83" t="s">
+        <v>64</v>
+      </c>
+      <c r="E83" s="2">
+        <v>44884.47916666666</v>
+      </c>
+      <c r="F83">
+        <v>15</v>
+      </c>
+      <c r="G83" t="s">
+        <v>66</v>
+      </c>
+      <c r="H83" t="s">
+        <v>72</v>
+      </c>
+      <c r="I83">
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <v>0</v>
+      </c>
+      <c r="K83">
+        <v>0</v>
+      </c>
+      <c r="L83">
+        <v>1</v>
+      </c>
+      <c r="M83">
+        <v>0</v>
+      </c>
+      <c r="N83">
+        <v>1</v>
+      </c>
+      <c r="O83" t="s">
+        <v>139</v>
+      </c>
+      <c r="P83" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q83">
+        <v>2</v>
+      </c>
+      <c r="R83">
+        <v>2</v>
+      </c>
+      <c r="S83">
+        <v>4</v>
+      </c>
+      <c r="T83">
+        <v>3.75</v>
+      </c>
+      <c r="U83">
+        <v>2.15</v>
+      </c>
+      <c r="V83">
+        <v>2.7</v>
+      </c>
+      <c r="W83">
+        <v>1.36</v>
+      </c>
+      <c r="X83">
+        <v>2.9</v>
+      </c>
+      <c r="Y83">
+        <v>2.62</v>
+      </c>
+      <c r="Z83">
+        <v>1.42</v>
+      </c>
+      <c r="AA83">
+        <v>6</v>
+      </c>
+      <c r="AB83">
+        <v>1.09</v>
+      </c>
+      <c r="AC83">
+        <v>3.25</v>
+      </c>
+      <c r="AD83">
+        <v>3.45</v>
+      </c>
+      <c r="AE83">
+        <v>1.92</v>
+      </c>
+      <c r="AF83">
+        <v>1.03</v>
+      </c>
+      <c r="AG83">
+        <v>12</v>
+      </c>
+      <c r="AH83">
+        <v>1.25</v>
+      </c>
+      <c r="AI83">
+        <v>3.6</v>
+      </c>
+      <c r="AJ83">
+        <v>1.82</v>
+      </c>
+      <c r="AK83">
+        <v>1.97</v>
+      </c>
+      <c r="AL83">
+        <v>1.65</v>
+      </c>
+      <c r="AM83">
+        <v>2.1</v>
+      </c>
+      <c r="AN83">
+        <v>1.65</v>
+      </c>
+      <c r="AO83">
+        <v>1.3</v>
+      </c>
+      <c r="AP83">
+        <v>1.38</v>
+      </c>
+      <c r="AQ83">
+        <v>2</v>
+      </c>
+      <c r="AR83">
+        <v>1.86</v>
+      </c>
+      <c r="AS83">
+        <v>2.14</v>
+      </c>
+      <c r="AT83">
+        <v>1.63</v>
+      </c>
+      <c r="AU83">
+        <v>1.46</v>
+      </c>
+      <c r="AV83">
+        <v>1.88</v>
+      </c>
+      <c r="AW83">
+        <v>3.34</v>
+      </c>
+      <c r="AX83">
+        <v>2.56</v>
+      </c>
+      <c r="AY83">
+        <v>6.55</v>
+      </c>
+      <c r="AZ83">
+        <v>1.76</v>
+      </c>
+      <c r="BA83">
+        <v>1.47</v>
+      </c>
+      <c r="BB83">
+        <v>1.93</v>
+      </c>
+      <c r="BC83">
+        <v>2.48</v>
+      </c>
+      <c r="BD83">
+        <v>3.45</v>
+      </c>
+      <c r="BE83">
+        <v>0</v>
+      </c>
+      <c r="BF83">
+        <v>4</v>
+      </c>
+      <c r="BG83">
+        <v>4</v>
+      </c>
+      <c r="BH83">
+        <v>6</v>
+      </c>
+      <c r="BI83">
+        <v>6</v>
+      </c>
+      <c r="BJ83">
+        <v>10</v>
+      </c>
+      <c r="BK83">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84" spans="1:63">
+      <c r="A84" s="1">
+        <v>83</v>
+      </c>
+      <c r="B84">
+        <v>2655341</v>
+      </c>
+      <c r="C84" t="s">
+        <v>63</v>
+      </c>
+      <c r="D84" t="s">
+        <v>64</v>
+      </c>
+      <c r="E84" s="2">
+        <v>44884.47916666666</v>
+      </c>
+      <c r="F84">
+        <v>15</v>
+      </c>
+      <c r="G84" t="s">
+        <v>76</v>
+      </c>
+      <c r="H84" t="s">
+        <v>68</v>
+      </c>
+      <c r="I84">
+        <v>1</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+      <c r="K84">
+        <v>1</v>
+      </c>
+      <c r="L84">
+        <v>1</v>
+      </c>
+      <c r="M84">
+        <v>4</v>
+      </c>
+      <c r="N84">
+        <v>5</v>
+      </c>
+      <c r="O84" t="s">
+        <v>113</v>
+      </c>
+      <c r="P84" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q84">
+        <v>9</v>
+      </c>
+      <c r="R84">
+        <v>7</v>
+      </c>
+      <c r="S84">
+        <v>16</v>
+      </c>
+      <c r="T84">
+        <v>3.3</v>
+      </c>
+      <c r="U84">
+        <v>2.2</v>
+      </c>
+      <c r="V84">
+        <v>2.9</v>
+      </c>
+      <c r="W84">
+        <v>1.36</v>
+      </c>
+      <c r="X84">
+        <v>2.9</v>
+      </c>
+      <c r="Y84">
+        <v>2.6</v>
+      </c>
+      <c r="Z84">
+        <v>1.44</v>
+      </c>
+      <c r="AA84">
+        <v>5.75</v>
+      </c>
+      <c r="AB84">
+        <v>1.1</v>
+      </c>
+      <c r="AC84">
+        <v>2.63</v>
+      </c>
+      <c r="AD84">
+        <v>3.45</v>
+      </c>
+      <c r="AE84">
+        <v>2.22</v>
+      </c>
+      <c r="AF84">
+        <v>1.03</v>
+      </c>
+      <c r="AG84">
+        <v>12</v>
+      </c>
+      <c r="AH84">
+        <v>1.25</v>
+      </c>
+      <c r="AI84">
+        <v>3.6</v>
+      </c>
+      <c r="AJ84">
+        <v>1.78</v>
+      </c>
+      <c r="AK84">
+        <v>2.02</v>
+      </c>
+      <c r="AL84">
+        <v>1.62</v>
+      </c>
+      <c r="AM84">
+        <v>2.2</v>
+      </c>
+      <c r="AN84">
+        <v>1.57</v>
+      </c>
+      <c r="AO84">
+        <v>1.3</v>
+      </c>
+      <c r="AP84">
+        <v>1.44</v>
+      </c>
+      <c r="AQ84">
+        <v>1.25</v>
+      </c>
+      <c r="AR84">
+        <v>1.17</v>
+      </c>
+      <c r="AS84">
+        <v>1</v>
+      </c>
+      <c r="AT84">
+        <v>1.43</v>
+      </c>
+      <c r="AU84">
+        <v>1.13</v>
+      </c>
+      <c r="AV84">
+        <v>1.26</v>
+      </c>
+      <c r="AW84">
+        <v>2.39</v>
+      </c>
+      <c r="AX84">
+        <v>2.2</v>
+      </c>
+      <c r="AY84">
+        <v>6.8</v>
+      </c>
+      <c r="AZ84">
+        <v>1.96</v>
+      </c>
+      <c r="BA84">
+        <v>0</v>
+      </c>
+      <c r="BB84">
+        <v>1.42</v>
+      </c>
+      <c r="BC84">
+        <v>1.75</v>
+      </c>
+      <c r="BD84">
+        <v>2.21</v>
+      </c>
+      <c r="BE84">
+        <v>0</v>
+      </c>
+      <c r="BF84">
+        <v>5</v>
+      </c>
+      <c r="BG84">
+        <v>9</v>
+      </c>
+      <c r="BH84">
+        <v>8</v>
+      </c>
+      <c r="BI84">
+        <v>5</v>
+      </c>
+      <c r="BJ84">
+        <v>13</v>
+      </c>
+      <c r="BK84">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="85" spans="1:63">
+      <c r="A85" s="1">
+        <v>84</v>
+      </c>
+      <c r="B85">
+        <v>2655342</v>
+      </c>
+      <c r="C85" t="s">
+        <v>63</v>
+      </c>
+      <c r="D85" t="s">
+        <v>64</v>
+      </c>
+      <c r="E85" s="2">
+        <v>44884.59375</v>
+      </c>
+      <c r="F85">
+        <v>15</v>
+      </c>
+      <c r="G85" t="s">
+        <v>70</v>
+      </c>
+      <c r="H85" t="s">
+        <v>74</v>
+      </c>
+      <c r="I85">
+        <v>0</v>
+      </c>
+      <c r="J85">
+        <v>0</v>
+      </c>
+      <c r="K85">
+        <v>0</v>
+      </c>
+      <c r="L85">
+        <v>0</v>
+      </c>
+      <c r="M85">
+        <v>0</v>
+      </c>
+      <c r="N85">
+        <v>0</v>
+      </c>
+      <c r="O85" t="s">
+        <v>80</v>
+      </c>
+      <c r="P85" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q85">
+        <v>4</v>
+      </c>
+      <c r="R85">
+        <v>3</v>
+      </c>
+      <c r="S85">
+        <v>7</v>
+      </c>
+      <c r="T85">
+        <v>7</v>
+      </c>
+      <c r="U85">
+        <v>2.63</v>
+      </c>
+      <c r="V85">
+        <v>1.75</v>
+      </c>
+      <c r="W85">
+        <v>1.29</v>
+      </c>
+      <c r="X85">
+        <v>3.4</v>
+      </c>
+      <c r="Y85">
+        <v>2.25</v>
+      </c>
+      <c r="Z85">
+        <v>1.57</v>
+      </c>
+      <c r="AA85">
+        <v>4.75</v>
+      </c>
+      <c r="AB85">
+        <v>1.15</v>
+      </c>
+      <c r="AC85">
+        <v>7.23</v>
+      </c>
+      <c r="AD85">
+        <v>4.71</v>
+      </c>
+      <c r="AE85">
+        <v>1.27</v>
+      </c>
+      <c r="AF85">
+        <v>1.02</v>
+      </c>
+      <c r="AG85">
+        <v>20</v>
+      </c>
+      <c r="AH85">
+        <v>1.15</v>
+      </c>
+      <c r="AI85">
+        <v>4.75</v>
+      </c>
+      <c r="AJ85">
+        <v>1.46</v>
+      </c>
+      <c r="AK85">
+        <v>2.39</v>
+      </c>
+      <c r="AL85">
+        <v>1.85</v>
+      </c>
+      <c r="AM85">
+        <v>1.85</v>
+      </c>
+      <c r="AN85">
+        <v>3.3</v>
+      </c>
+      <c r="AO85">
+        <v>1.17</v>
+      </c>
+      <c r="AP85">
+        <v>1.07</v>
+      </c>
+      <c r="AQ85">
+        <v>2.17</v>
+      </c>
+      <c r="AR85">
+        <v>2.67</v>
+      </c>
+      <c r="AS85">
+        <v>2</v>
+      </c>
+      <c r="AT85">
+        <v>2.43</v>
+      </c>
+      <c r="AU85">
+        <v>1.75</v>
+      </c>
+      <c r="AV85">
+        <v>1.77</v>
+      </c>
+      <c r="AW85">
+        <v>3.52</v>
+      </c>
+      <c r="AX85">
+        <v>3.5</v>
+      </c>
+      <c r="AY85">
+        <v>8.6</v>
+      </c>
+      <c r="AZ85">
+        <v>1.41</v>
+      </c>
+      <c r="BA85">
+        <v>1.2</v>
+      </c>
+      <c r="BB85">
+        <v>1.37</v>
+      </c>
+      <c r="BC85">
+        <v>1.66</v>
+      </c>
+      <c r="BD85">
+        <v>2.1</v>
+      </c>
+      <c r="BE85">
+        <v>2.85</v>
+      </c>
+      <c r="BF85">
+        <v>2</v>
+      </c>
+      <c r="BG85">
+        <v>5</v>
+      </c>
+      <c r="BH85">
+        <v>4</v>
+      </c>
+      <c r="BI85">
+        <v>5</v>
+      </c>
+      <c r="BJ85">
+        <v>6</v>
+      </c>
+      <c r="BK85">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Wales Welsh Premier League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Wales Welsh Premier League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK85"/>
+  <dimension ref="A1:BK91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,10 +900,10 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1106,7 +1106,7 @@
         <v>2.14</v>
       </c>
       <c r="AT3" t="n">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AT4" t="n">
         <v>0.67</v>
@@ -1712,10 +1712,10 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AT6" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -2324,7 +2324,7 @@
         <v>1</v>
       </c>
       <c r="AT9" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AU9" t="n">
         <v>0.51</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AT10" t="n">
         <v>1</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AT11" t="n">
         <v>0.57</v>
@@ -2933,7 +2933,7 @@
         <v>3</v>
       </c>
       <c r="AT12" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3136,7 +3136,7 @@
         <v>1.88</v>
       </c>
       <c r="AT13" t="n">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -3336,10 +3336,10 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AT14" t="n">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AU14" t="n">
         <v>0.86</v>
@@ -3542,7 +3542,7 @@
         <v>3</v>
       </c>
       <c r="AT15" t="n">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AU15" t="n">
         <v>2.27</v>
@@ -3742,10 +3742,10 @@
         <v>3</v>
       </c>
       <c r="AS16" t="n">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AT16" t="n">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AU16" t="n">
         <v>1.01</v>
@@ -3948,7 +3948,7 @@
         <v>2</v>
       </c>
       <c r="AT17" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AU17" t="n">
         <v>1.75</v>
@@ -4148,7 +4148,7 @@
         <v>0</v>
       </c>
       <c r="AS18" t="n">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AT18" t="n">
         <v>0</v>
@@ -4351,10 +4351,10 @@
         <v>3</v>
       </c>
       <c r="AS19" t="n">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AT19" t="n">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AU19" t="n">
         <v>1.64</v>
@@ -4554,10 +4554,10 @@
         <v>2</v>
       </c>
       <c r="AS20" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AT20" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AU20" t="n">
         <v>1.58</v>
@@ -5772,7 +5772,7 @@
         <v>0</v>
       </c>
       <c r="AS26" t="n">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AT26" t="n">
         <v>0</v>
@@ -6181,7 +6181,7 @@
         <v>2.14</v>
       </c>
       <c r="AT28" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AU28" t="n">
         <v>1.94</v>
@@ -6384,7 +6384,7 @@
         <v>2.75</v>
       </c>
       <c r="AT29" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AU29" t="n">
         <v>1.49</v>
@@ -6584,10 +6584,10 @@
         <v>0</v>
       </c>
       <c r="AS30" t="n">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AT30" t="n">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AU30" t="n">
         <v>2.4</v>
@@ -6787,7 +6787,7 @@
         <v>2</v>
       </c>
       <c r="AS31" t="n">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AT31" t="n">
         <v>2.43</v>
@@ -6993,7 +6993,7 @@
         <v>1.88</v>
       </c>
       <c r="AT32" t="n">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AU32" t="n">
         <v>0.67</v>
@@ -7193,7 +7193,7 @@
         <v>0.5</v>
       </c>
       <c r="AS33" t="n">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AT33" t="n">
         <v>1</v>
@@ -7802,7 +7802,7 @@
         <v>0</v>
       </c>
       <c r="AS36" t="n">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AT36" t="n">
         <v>0</v>
@@ -8008,7 +8008,7 @@
         <v>1</v>
       </c>
       <c r="AT37" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AU37" t="n">
         <v>1.19</v>
@@ -8208,10 +8208,10 @@
         <v>1.5</v>
       </c>
       <c r="AS38" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AT38" t="n">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AU38" t="n">
         <v>1.47</v>
@@ -8414,7 +8414,7 @@
         <v>2</v>
       </c>
       <c r="AT39" t="n">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AU39" t="n">
         <v>1.87</v>
@@ -8614,10 +8614,10 @@
         <v>1.8</v>
       </c>
       <c r="AS40" t="n">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AT40" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AU40" t="n">
         <v>1.93</v>
@@ -9020,10 +9020,10 @@
         <v>1.5</v>
       </c>
       <c r="AS42" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AT42" t="n">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AU42" t="n">
         <v>1.16</v>
@@ -9226,7 +9226,7 @@
         <v>3</v>
       </c>
       <c r="AT43" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AU43" t="n">
         <v>2.26</v>
@@ -9426,10 +9426,10 @@
         <v>0</v>
       </c>
       <c r="AS44" t="n">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AT44" t="n">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AU44" t="n">
         <v>1.48</v>
@@ -9629,10 +9629,10 @@
         <v>1</v>
       </c>
       <c r="AS45" t="n">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AT45" t="n">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AU45" t="n">
         <v>1.79</v>
@@ -10441,7 +10441,7 @@
         <v>1.4</v>
       </c>
       <c r="AS49" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AT49" t="n">
         <v>1.63</v>
@@ -10647,7 +10647,7 @@
         <v>3</v>
       </c>
       <c r="AT50" t="n">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AU50" t="n">
         <v>2.26</v>
@@ -10850,7 +10850,7 @@
         <v>1</v>
       </c>
       <c r="AT51" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AU51" t="n">
         <v>1.04</v>
@@ -11053,7 +11053,7 @@
         <v>2.14</v>
       </c>
       <c r="AT52" t="n">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AU52" t="n">
         <v>1.55</v>
@@ -11456,7 +11456,7 @@
         <v>0</v>
       </c>
       <c r="AS54" t="n">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AT54" t="n">
         <v>0.67</v>
@@ -11659,10 +11659,10 @@
         <v>1.43</v>
       </c>
       <c r="AS55" t="n">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AT55" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AU55" t="n">
         <v>1.46</v>
@@ -11862,10 +11862,10 @@
         <v>1</v>
       </c>
       <c r="AS56" t="n">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AT56" t="n">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AU56" t="n">
         <v>1.45</v>
@@ -12268,7 +12268,7 @@
         <v>2.5</v>
       </c>
       <c r="AS58" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AT58" t="n">
         <v>2.43</v>
@@ -12474,7 +12474,7 @@
         <v>2.75</v>
       </c>
       <c r="AT59" t="n">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AU59" t="n">
         <v>1.59</v>
@@ -12674,10 +12674,10 @@
         <v>1</v>
       </c>
       <c r="AS60" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AT60" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AU60" t="n">
         <v>1.28</v>
@@ -12877,10 +12877,10 @@
         <v>0.75</v>
       </c>
       <c r="AS61" t="n">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AT61" t="n">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AU61" t="n">
         <v>1.51</v>
@@ -13080,7 +13080,7 @@
         <v>1.67</v>
       </c>
       <c r="AS62" t="n">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AT62" t="n">
         <v>1.63</v>
@@ -13286,7 +13286,7 @@
         <v>1</v>
       </c>
       <c r="AT63" t="n">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AU63" t="n">
         <v>1.17</v>
@@ -13489,7 +13489,7 @@
         <v>2</v>
       </c>
       <c r="AT64" t="n">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AU64" t="n">
         <v>1.87</v>
@@ -14301,7 +14301,7 @@
         <v>2.75</v>
       </c>
       <c r="AT68" t="n">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AU68" t="n">
         <v>1.53</v>
@@ -14504,7 +14504,7 @@
         <v>1.88</v>
       </c>
       <c r="AT69" t="n">
-        <v>1.11</v>
+        <v>1</v>
       </c>
       <c r="AU69" t="n">
         <v>0.91</v>
@@ -14704,7 +14704,7 @@
         <v>0.2</v>
       </c>
       <c r="AS70" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AT70" t="n">
         <v>0.57</v>
@@ -14907,10 +14907,10 @@
         <v>1.4</v>
       </c>
       <c r="AS71" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AT71" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AU71" t="n">
         <v>1.02</v>
@@ -15313,7 +15313,7 @@
         <v>2.6</v>
       </c>
       <c r="AS73" t="n">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AT73" t="n">
         <v>2.43</v>
@@ -15516,10 +15516,10 @@
         <v>0.6</v>
       </c>
       <c r="AS74" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AT74" t="n">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AU74" t="n">
         <v>1.06</v>
@@ -16125,10 +16125,10 @@
         <v>1.33</v>
       </c>
       <c r="AS77" t="n">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AT77" t="n">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AU77" t="n">
         <v>1.52</v>
@@ -16331,7 +16331,7 @@
         <v>3</v>
       </c>
       <c r="AT78" t="n">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AU78" t="n">
         <v>2.19</v>
@@ -16531,10 +16531,10 @@
         <v>1.2</v>
       </c>
       <c r="AS79" t="n">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AT79" t="n">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AU79" t="n">
         <v>1.44</v>
@@ -17140,7 +17140,7 @@
         <v>0.67</v>
       </c>
       <c r="AS82" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AT82" t="n">
         <v>1</v>
@@ -17549,7 +17549,7 @@
         <v>1</v>
       </c>
       <c r="AT84" t="n">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AU84" t="n">
         <v>1.13</v>
@@ -17804,6 +17804,1224 @@
       </c>
       <c r="BK85" t="n">
         <v>10</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B86" t="n">
+        <v>2655343</v>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Wales Welsh Premier League</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E86" s="2" t="n">
+        <v>44897.69791666666</v>
+      </c>
+      <c r="F86" t="n">
+        <v>16</v>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>Airbus UK</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>Connah's Quay</t>
+        </is>
+      </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>1</v>
+      </c>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="n">
+        <v>2</v>
+      </c>
+      <c r="N86" t="n">
+        <v>3</v>
+      </c>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>['90']</t>
+        </is>
+      </c>
+      <c r="P86" t="inlineStr">
+        <is>
+          <t>['8', '62']</t>
+        </is>
+      </c>
+      <c r="Q86" t="n">
+        <v>7</v>
+      </c>
+      <c r="R86" t="n">
+        <v>14</v>
+      </c>
+      <c r="S86" t="n">
+        <v>21</v>
+      </c>
+      <c r="T86" t="n">
+        <v>8</v>
+      </c>
+      <c r="U86" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="V86" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="W86" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="X86" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="Y86" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z86" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AA86" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AB86" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AC86" t="n">
+        <v>17.25</v>
+      </c>
+      <c r="AD86" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AE86" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AF86" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG86" t="n">
+        <v>26</v>
+      </c>
+      <c r="AH86" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AI86" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="AJ86" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AK86" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="AL86" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM86" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AN86" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AO86" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AP86" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AQ86" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="AR86" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS86" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="AT86" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AU86" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AV86" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AW86" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="AX86" t="n">
+        <v>28</v>
+      </c>
+      <c r="AY86" t="n">
+        <v>18</v>
+      </c>
+      <c r="AZ86" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="BA86" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BB86" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="BC86" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BD86" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BE86" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BF86" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG86" t="n">
+        <v>9</v>
+      </c>
+      <c r="BH86" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI86" t="n">
+        <v>13</v>
+      </c>
+      <c r="BJ86" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK86" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B87" t="n">
+        <v>2655344</v>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Wales Welsh Premier League</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E87" s="2" t="n">
+        <v>44897.69791666666</v>
+      </c>
+      <c r="F87" t="n">
+        <v>16</v>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>Bala Town</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>Flint Town United</t>
+        </is>
+      </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
+      <c r="K87" t="n">
+        <v>0</v>
+      </c>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="n">
+        <v>0</v>
+      </c>
+      <c r="N87" t="n">
+        <v>1</v>
+      </c>
+      <c r="O87" t="inlineStr">
+        <is>
+          <t>['82']</t>
+        </is>
+      </c>
+      <c r="P87" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q87" t="n">
+        <v>10</v>
+      </c>
+      <c r="R87" t="n">
+        <v>4</v>
+      </c>
+      <c r="S87" t="n">
+        <v>14</v>
+      </c>
+      <c r="T87" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="U87" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V87" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="W87" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="X87" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="Y87" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="Z87" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AA87" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="AB87" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AC87" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AD87" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="AE87" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AF87" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG87" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="AH87" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AI87" t="n">
+        <v>4.53</v>
+      </c>
+      <c r="AJ87" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AK87" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AL87" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AM87" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AN87" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AO87" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP87" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AQ87" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AR87" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AS87" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT87" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU87" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AV87" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AW87" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="AX87" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AY87" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ87" t="n">
+        <v>4.76</v>
+      </c>
+      <c r="BA87" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BB87" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BC87" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BD87" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BE87" t="n">
+        <v>4</v>
+      </c>
+      <c r="BF87" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG87" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH87" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI87" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ87" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK87" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B88" t="n">
+        <v>2655345</v>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Wales Welsh Premier League</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E88" s="2" t="n">
+        <v>44897.69791666666</v>
+      </c>
+      <c r="F88" t="n">
+        <v>16</v>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>Caernarfon Town</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>Newtown</t>
+        </is>
+      </c>
+      <c r="I88" t="n">
+        <v>1</v>
+      </c>
+      <c r="J88" t="n">
+        <v>2</v>
+      </c>
+      <c r="K88" t="n">
+        <v>3</v>
+      </c>
+      <c r="L88" t="n">
+        <v>2</v>
+      </c>
+      <c r="M88" t="n">
+        <v>3</v>
+      </c>
+      <c r="N88" t="n">
+        <v>5</v>
+      </c>
+      <c r="O88" t="inlineStr">
+        <is>
+          <t>['30', '61']</t>
+        </is>
+      </c>
+      <c r="P88" t="inlineStr">
+        <is>
+          <t>['9', '28', '54']</t>
+        </is>
+      </c>
+      <c r="Q88" t="n">
+        <v>4</v>
+      </c>
+      <c r="R88" t="n">
+        <v>1</v>
+      </c>
+      <c r="S88" t="n">
+        <v>5</v>
+      </c>
+      <c r="T88" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U88" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V88" t="n">
+        <v>4</v>
+      </c>
+      <c r="W88" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="X88" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="Y88" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="Z88" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AA88" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB88" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AC88" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="AD88" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="AE88" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AF88" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG88" t="n">
+        <v>21</v>
+      </c>
+      <c r="AH88" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AI88" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="AJ88" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AK88" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="AL88" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AM88" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AN88" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AO88" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP88" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AQ88" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AR88" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AS88" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT88" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AU88" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AV88" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AW88" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="AX88" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="AY88" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AZ88" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="BA88" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB88" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BC88" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="BD88" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BE88" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BF88" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG88" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH88" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI88" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ88" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK88" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B89" t="n">
+        <v>2655346</v>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Wales Welsh Premier League</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E89" s="2" t="n">
+        <v>44897.69791666666</v>
+      </c>
+      <c r="F89" t="n">
+        <v>16</v>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>Haverfordwest County</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>Penybont</t>
+        </is>
+      </c>
+      <c r="I89" t="n">
+        <v>2</v>
+      </c>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
+      <c r="K89" t="n">
+        <v>2</v>
+      </c>
+      <c r="L89" t="n">
+        <v>2</v>
+      </c>
+      <c r="M89" t="n">
+        <v>1</v>
+      </c>
+      <c r="N89" t="n">
+        <v>3</v>
+      </c>
+      <c r="O89" t="inlineStr">
+        <is>
+          <t>['9', '33']</t>
+        </is>
+      </c>
+      <c r="P89" t="inlineStr">
+        <is>
+          <t>['90+4']</t>
+        </is>
+      </c>
+      <c r="Q89" t="n">
+        <v>3</v>
+      </c>
+      <c r="R89" t="n">
+        <v>1</v>
+      </c>
+      <c r="S89" t="n">
+        <v>4</v>
+      </c>
+      <c r="T89" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U89" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V89" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W89" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X89" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="Y89" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Z89" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AA89" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="AB89" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC89" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="AD89" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE89" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="AF89" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG89" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH89" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AI89" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AJ89" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AK89" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AL89" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AM89" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AN89" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AO89" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP89" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AQ89" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AR89" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AS89" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AT89" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AU89" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AV89" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AW89" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="AX89" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="AY89" t="n">
+        <v>7.3</v>
+      </c>
+      <c r="AZ89" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BA89" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BB89" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BC89" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BD89" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BE89" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BF89" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG89" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH89" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI89" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ89" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK89" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B90" t="n">
+        <v>2655347</v>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Wales Welsh Premier League</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E90" s="2" t="n">
+        <v>44897.69791666666</v>
+      </c>
+      <c r="F90" t="n">
+        <v>16</v>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>Pontypridd Town AFC</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>Cardiff MU</t>
+        </is>
+      </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
+      <c r="K90" t="n">
+        <v>0</v>
+      </c>
+      <c r="L90" t="n">
+        <v>0</v>
+      </c>
+      <c r="M90" t="n">
+        <v>1</v>
+      </c>
+      <c r="N90" t="n">
+        <v>1</v>
+      </c>
+      <c r="O90" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P90" t="inlineStr">
+        <is>
+          <t>['47']</t>
+        </is>
+      </c>
+      <c r="Q90" t="n">
+        <v>1</v>
+      </c>
+      <c r="R90" t="n">
+        <v>3</v>
+      </c>
+      <c r="S90" t="n">
+        <v>4</v>
+      </c>
+      <c r="T90" t="n">
+        <v>3</v>
+      </c>
+      <c r="U90" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V90" t="n">
+        <v>3</v>
+      </c>
+      <c r="W90" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="X90" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="Y90" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Z90" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AA90" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="AB90" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC90" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="AD90" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="AE90" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AF90" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG90" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH90" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI90" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AJ90" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AK90" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AL90" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AM90" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AN90" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AO90" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AP90" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AQ90" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AR90" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AS90" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AT90" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AU90" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AV90" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="AW90" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="AX90" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AY90" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AZ90" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BA90" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BB90" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BC90" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="BD90" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="BE90" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="BF90" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG90" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH90" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI90" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ90" t="n">
+        <v>5</v>
+      </c>
+      <c r="BK90" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B91" t="n">
+        <v>2655348</v>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Wales Welsh Premier League</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E91" s="2" t="n">
+        <v>44897.69791666666</v>
+      </c>
+      <c r="F91" t="n">
+        <v>16</v>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>The New Saints</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>Aberystwyth Town</t>
+        </is>
+      </c>
+      <c r="I91" t="n">
+        <v>4</v>
+      </c>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
+      <c r="K91" t="n">
+        <v>4</v>
+      </c>
+      <c r="L91" t="n">
+        <v>10</v>
+      </c>
+      <c r="M91" t="n">
+        <v>0</v>
+      </c>
+      <c r="N91" t="n">
+        <v>10</v>
+      </c>
+      <c r="O91" t="inlineStr">
+        <is>
+          <t>['13', '37', '40', '45', '50', '60', '65', '66', '80', '88']</t>
+        </is>
+      </c>
+      <c r="P91" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q91" t="n">
+        <v>6</v>
+      </c>
+      <c r="R91" t="n">
+        <v>2</v>
+      </c>
+      <c r="S91" t="n">
+        <v>8</v>
+      </c>
+      <c r="T91" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U91" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="V91" t="n">
+        <v>10</v>
+      </c>
+      <c r="W91" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="X91" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y91" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="Z91" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AA91" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AB91" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AC91" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AD91" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE91" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF91" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG91" t="n">
+        <v>36</v>
+      </c>
+      <c r="AH91" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AI91" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AJ91" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AK91" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AL91" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM91" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AN91" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AO91" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AP91" t="n">
+        <v>5</v>
+      </c>
+      <c r="AQ91" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR91" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AS91" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT91" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="AU91" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="AV91" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AW91" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="AX91" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY91" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ91" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA91" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB91" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC91" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BD91" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BE91" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="BF91" t="n">
+        <v>19</v>
+      </c>
+      <c r="BG91" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH91" t="n">
+        <v>16</v>
+      </c>
+      <c r="BI91" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ91" t="n">
+        <v>35</v>
+      </c>
+      <c r="BK91" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Wales Welsh Premier League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Wales Welsh Premier League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK91"/>
+  <dimension ref="A1:BK92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3136,7 +3136,7 @@
         <v>1.88</v>
       </c>
       <c r="AT13" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -3745,7 +3745,7 @@
         <v>2</v>
       </c>
       <c r="AT16" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AU16" t="n">
         <v>1.64</v>
@@ -8820,7 +8820,7 @@
         <v>2</v>
       </c>
       <c r="AT41" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AU41" t="n">
         <v>1.16</v>
@@ -9429,7 +9429,7 @@
         <v>1.63</v>
       </c>
       <c r="AT44" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AU44" t="n">
         <v>1.79</v>
@@ -12677,7 +12677,7 @@
         <v>2.75</v>
       </c>
       <c r="AT60" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AU60" t="n">
         <v>1.59</v>
@@ -13489,7 +13489,7 @@
         <v>1</v>
       </c>
       <c r="AT64" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AU64" t="n">
         <v>1.17</v>
@@ -16331,7 +16331,7 @@
         <v>3</v>
       </c>
       <c r="AT78" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AU78" t="n">
         <v>2.19</v>
@@ -17955,7 +17955,7 @@
         <v>1.13</v>
       </c>
       <c r="AT86" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="AU86" t="n">
         <v>1.41</v>
@@ -19022,6 +19022,209 @@
       </c>
       <c r="BK91" t="n">
         <v>4</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B92" t="n">
+        <v>2655351</v>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Wales Welsh Premier League</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E92" s="2" t="n">
+        <v>44905.41666666666</v>
+      </c>
+      <c r="F92" t="n">
+        <v>17</v>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>Flint Town United</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>Cardiff MU</t>
+        </is>
+      </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>1</v>
+      </c>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="n">
+        <v>1</v>
+      </c>
+      <c r="N92" t="n">
+        <v>2</v>
+      </c>
+      <c r="O92" t="inlineStr">
+        <is>
+          <t>['86']</t>
+        </is>
+      </c>
+      <c r="P92" t="inlineStr">
+        <is>
+          <t>['23']</t>
+        </is>
+      </c>
+      <c r="Q92" t="n">
+        <v>4</v>
+      </c>
+      <c r="R92" t="n">
+        <v>4</v>
+      </c>
+      <c r="S92" t="n">
+        <v>8</v>
+      </c>
+      <c r="T92" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U92" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V92" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W92" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X92" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y92" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z92" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA92" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB92" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC92" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="AD92" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="AE92" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AF92" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG92" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="AH92" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI92" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AJ92" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AK92" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AL92" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AM92" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN92" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AO92" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP92" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AQ92" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR92" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AS92" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT92" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AU92" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AV92" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AW92" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AX92" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY92" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ92" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA92" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BB92" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BC92" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BD92" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BE92" t="n">
+        <v>4</v>
+      </c>
+      <c r="BF92" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG92" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH92" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI92" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ92" t="n">
+        <v>3</v>
+      </c>
+      <c r="BK92" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Wales Welsh Premier League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Wales Welsh Premier League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK92"/>
+  <dimension ref="A1:BK93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AT5" t="n">
         <v>2.43</v>
@@ -2321,7 +2321,7 @@
         <v>3</v>
       </c>
       <c r="AS9" t="n">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AT9" t="n">
         <v>1</v>
@@ -2527,7 +2527,7 @@
         <v>2</v>
       </c>
       <c r="AT10" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -5163,7 +5163,7 @@
         <v>0</v>
       </c>
       <c r="AS23" t="n">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AT23" t="n">
         <v>0.67</v>
@@ -5369,7 +5369,7 @@
         <v>2</v>
       </c>
       <c r="AT24" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU24" t="n">
         <v>1.86</v>
@@ -7805,7 +7805,7 @@
         <v>2</v>
       </c>
       <c r="AT36" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU36" t="n">
         <v>1.54</v>
@@ -8005,7 +8005,7 @@
         <v>0</v>
       </c>
       <c r="AS37" t="n">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AT37" t="n">
         <v>1.38</v>
@@ -9832,7 +9832,7 @@
         <v>1</v>
       </c>
       <c r="AS46" t="n">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AT46" t="n">
         <v>1.63</v>
@@ -11459,7 +11459,7 @@
         <v>2.75</v>
       </c>
       <c r="AT54" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU54" t="n">
         <v>1.64</v>
@@ -12068,7 +12068,7 @@
         <v>1.88</v>
       </c>
       <c r="AT57" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU57" t="n">
         <v>0.85</v>
@@ -13486,7 +13486,7 @@
         <v>0.6</v>
       </c>
       <c r="AS64" t="n">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AT64" t="n">
         <v>1.11</v>
@@ -15719,7 +15719,7 @@
         <v>0</v>
       </c>
       <c r="AS75" t="n">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AT75" t="n">
         <v>0</v>
@@ -16128,7 +16128,7 @@
         <v>1</v>
       </c>
       <c r="AT77" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU77" t="n">
         <v>1.17</v>
@@ -17143,7 +17143,7 @@
         <v>0.13</v>
       </c>
       <c r="AT82" t="n">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AU82" t="n">
         <v>1.07</v>
@@ -19225,6 +19225,209 @@
       </c>
       <c r="BK92" t="n">
         <v>8</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B93" t="n">
+        <v>2655352</v>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Wales Welsh Premier League</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E93" s="2" t="n">
+        <v>44906.47916666666</v>
+      </c>
+      <c r="F93" t="n">
+        <v>17</v>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>Newtown</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>Haverfordwest County</t>
+        </is>
+      </c>
+      <c r="I93" t="n">
+        <v>1</v>
+      </c>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="n">
+        <v>2</v>
+      </c>
+      <c r="M93" t="n">
+        <v>0</v>
+      </c>
+      <c r="N93" t="n">
+        <v>2</v>
+      </c>
+      <c r="O93" t="inlineStr">
+        <is>
+          <t>['29', '84']</t>
+        </is>
+      </c>
+      <c r="P93" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q93" t="n">
+        <v>3</v>
+      </c>
+      <c r="R93" t="n">
+        <v>9</v>
+      </c>
+      <c r="S93" t="n">
+        <v>12</v>
+      </c>
+      <c r="T93" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="U93" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V93" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="W93" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X93" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Y93" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Z93" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AA93" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="AB93" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AC93" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AD93" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AE93" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF93" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG93" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH93" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AI93" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AJ93" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AK93" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AL93" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AM93" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="AN93" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AO93" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AP93" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AQ93" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR93" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS93" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AT93" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AU93" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AV93" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AW93" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AX93" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY93" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ93" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA93" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB93" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC93" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BD93" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE93" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF93" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG93" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH93" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI93" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ93" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK93" t="n">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Wales Welsh Premier League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Wales Welsh Premier League_20222023.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK93"/>
+  <dimension ref="A1:BK96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,7 +903,7 @@
         <v>0.13</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AT3" t="n">
         <v>1.71</v>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AT5" t="n">
         <v>2.43</v>
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AT8" t="n">
         <v>0</v>
@@ -2321,7 +2321,7 @@
         <v>3</v>
       </c>
       <c r="AS9" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AT9" t="n">
         <v>1</v>
@@ -2527,7 +2527,7 @@
         <v>2</v>
       </c>
       <c r="AT10" t="n">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>2</v>
       </c>
       <c r="AT11" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -4354,7 +4354,7 @@
         <v>1.13</v>
       </c>
       <c r="AT19" t="n">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AU19" t="n">
         <v>1.01</v>
@@ -4757,10 +4757,10 @@
         <v>0</v>
       </c>
       <c r="AS21" t="n">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AT21" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AU21" t="n">
         <v>1.94</v>
@@ -4960,7 +4960,7 @@
         <v>0</v>
       </c>
       <c r="AS22" t="n">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AT22" t="n">
         <v>1.63</v>
@@ -5163,7 +5163,7 @@
         <v>0</v>
       </c>
       <c r="AS23" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AT23" t="n">
         <v>0.67</v>
@@ -5369,7 +5369,7 @@
         <v>2</v>
       </c>
       <c r="AT24" t="n">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU24" t="n">
         <v>1.86</v>
@@ -6584,7 +6584,7 @@
         <v>2.25</v>
       </c>
       <c r="AS30" t="n">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AT30" t="n">
         <v>1</v>
@@ -6787,7 +6787,7 @@
         <v>0</v>
       </c>
       <c r="AS31" t="n">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AT31" t="n">
         <v>1.38</v>
@@ -7193,7 +7193,7 @@
         <v>2.33</v>
       </c>
       <c r="AS33" t="n">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AT33" t="n">
         <v>2.43</v>
@@ -7805,7 +7805,7 @@
         <v>2</v>
       </c>
       <c r="AT36" t="n">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU36" t="n">
         <v>1.54</v>
@@ -8005,7 +8005,7 @@
         <v>0</v>
       </c>
       <c r="AS37" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AT37" t="n">
         <v>1.38</v>
@@ -8211,7 +8211,7 @@
         <v>2</v>
       </c>
       <c r="AT38" t="n">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AU38" t="n">
         <v>1.87</v>
@@ -9020,10 +9020,10 @@
         <v>0</v>
       </c>
       <c r="AS42" t="n">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AT42" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AU42" t="n">
         <v>1.62</v>
@@ -9226,7 +9226,7 @@
         <v>2</v>
       </c>
       <c r="AT43" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AU43" t="n">
         <v>1.89</v>
@@ -9832,7 +9832,7 @@
         <v>1</v>
       </c>
       <c r="AS46" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AT46" t="n">
         <v>1.63</v>
@@ -10847,10 +10847,10 @@
         <v>1</v>
       </c>
       <c r="AS51" t="n">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AT51" t="n">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AU51" t="n">
         <v>1.55</v>
@@ -11456,10 +11456,10 @@
         <v>0.33</v>
       </c>
       <c r="AS54" t="n">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AT54" t="n">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU54" t="n">
         <v>1.64</v>
@@ -12068,7 +12068,7 @@
         <v>1.88</v>
       </c>
       <c r="AT57" t="n">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU57" t="n">
         <v>0.85</v>
@@ -12674,7 +12674,7 @@
         <v>0.75</v>
       </c>
       <c r="AS60" t="n">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AT60" t="n">
         <v>1.11</v>
@@ -12880,7 +12880,7 @@
         <v>2</v>
       </c>
       <c r="AT61" t="n">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AU61" t="n">
         <v>1.51</v>
@@ -13083,7 +13083,7 @@
         <v>3</v>
       </c>
       <c r="AT62" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AU62" t="n">
         <v>2.08</v>
@@ -13486,7 +13486,7 @@
         <v>0.6</v>
       </c>
       <c r="AS64" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AT64" t="n">
         <v>1.11</v>
@@ -14298,7 +14298,7 @@
         <v>1.4</v>
       </c>
       <c r="AS68" t="n">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AT68" t="n">
         <v>1.63</v>
@@ -14707,7 +14707,7 @@
         <v>0.13</v>
       </c>
       <c r="AT70" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AU70" t="n">
         <v>1.12</v>
@@ -15110,7 +15110,7 @@
         <v>0</v>
       </c>
       <c r="AS72" t="n">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AT72" t="n">
         <v>0.67</v>
@@ -15519,7 +15519,7 @@
         <v>2</v>
       </c>
       <c r="AT74" t="n">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AU74" t="n">
         <v>1.06</v>
@@ -15719,7 +15719,7 @@
         <v>0</v>
       </c>
       <c r="AS75" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AT75" t="n">
         <v>0</v>
@@ -16128,7 +16128,7 @@
         <v>1</v>
       </c>
       <c r="AT77" t="n">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU77" t="n">
         <v>1.17</v>
@@ -16734,7 +16734,7 @@
         <v>0.6</v>
       </c>
       <c r="AS80" t="n">
-        <v>2.75</v>
+        <v>2.78</v>
       </c>
       <c r="AT80" t="n">
         <v>0.67</v>
@@ -16940,7 +16940,7 @@
         <v>1.88</v>
       </c>
       <c r="AT81" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AU81" t="n">
         <v>1</v>
@@ -17143,7 +17143,7 @@
         <v>0.13</v>
       </c>
       <c r="AT82" t="n">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU82" t="n">
         <v>1.07</v>
@@ -17546,7 +17546,7 @@
         <v>1.86</v>
       </c>
       <c r="AS84" t="n">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AT84" t="n">
         <v>1.63</v>
@@ -18970,7 +18970,7 @@
         <v>3</v>
       </c>
       <c r="AT91" t="n">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AU91" t="n">
         <v>2.27</v>
@@ -19373,10 +19373,10 @@
         <v>1</v>
       </c>
       <c r="AS93" t="n">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AT93" t="n">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AU93" t="n">
         <v>1.11</v>
@@ -19428,6 +19428,615 @@
       </c>
       <c r="BK93" t="n">
         <v>13</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B94" t="n">
+        <v>2655358</v>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Wales Welsh Premier League</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E94" s="2" t="n">
+        <v>44911.69791666666</v>
+      </c>
+      <c r="F94" t="n">
+        <v>18</v>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>Newtown</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>Pontypridd Town AFC</t>
+        </is>
+      </c>
+      <c r="I94" t="n">
+        <v>3</v>
+      </c>
+      <c r="J94" t="n">
+        <v>1</v>
+      </c>
+      <c r="K94" t="n">
+        <v>4</v>
+      </c>
+      <c r="L94" t="n">
+        <v>4</v>
+      </c>
+      <c r="M94" t="n">
+        <v>2</v>
+      </c>
+      <c r="N94" t="n">
+        <v>6</v>
+      </c>
+      <c r="O94" t="inlineStr">
+        <is>
+          <t>['4', '15', '40', '88']</t>
+        </is>
+      </c>
+      <c r="P94" t="inlineStr">
+        <is>
+          <t>['13', '90+1']</t>
+        </is>
+      </c>
+      <c r="Q94" t="n">
+        <v>0</v>
+      </c>
+      <c r="R94" t="n">
+        <v>4</v>
+      </c>
+      <c r="S94" t="n">
+        <v>4</v>
+      </c>
+      <c r="T94" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="U94" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V94" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="W94" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X94" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Y94" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Z94" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AA94" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB94" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC94" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AD94" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="AE94" t="n">
+        <v>4.35</v>
+      </c>
+      <c r="AF94" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG94" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH94" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI94" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ94" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AK94" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AL94" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AM94" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN94" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AO94" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP94" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AQ94" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AR94" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="AS94" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AT94" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AU94" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AV94" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AW94" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AX94" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY94" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ94" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA94" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BB94" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BC94" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BD94" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BE94" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BF94" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG94" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH94" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI94" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ94" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK94" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B95" t="n">
+        <v>2655357</v>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Wales Welsh Premier League</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E95" s="2" t="n">
+        <v>44911.69791666666</v>
+      </c>
+      <c r="F95" t="n">
+        <v>18</v>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>Cardiff MU</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>Haverfordwest County</t>
+        </is>
+      </c>
+      <c r="I95" t="n">
+        <v>1</v>
+      </c>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="n">
+        <v>2</v>
+      </c>
+      <c r="M95" t="n">
+        <v>0</v>
+      </c>
+      <c r="N95" t="n">
+        <v>2</v>
+      </c>
+      <c r="O95" t="inlineStr">
+        <is>
+          <t>['10', '90+2']</t>
+        </is>
+      </c>
+      <c r="P95" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q95" t="n">
+        <v>2</v>
+      </c>
+      <c r="R95" t="n">
+        <v>2</v>
+      </c>
+      <c r="S95" t="n">
+        <v>4</v>
+      </c>
+      <c r="T95" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U95" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V95" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W95" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X95" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y95" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z95" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA95" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB95" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC95" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AD95" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AE95" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AF95" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG95" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="AH95" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AI95" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="AJ95" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AK95" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AL95" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM95" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN95" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AO95" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP95" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AQ95" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AR95" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AS95" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AT95" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="AU95" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AV95" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AW95" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="AX95" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY95" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ95" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA95" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BB95" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BC95" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BD95" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BE95" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF95" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG95" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH95" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI95" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ95" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK95" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B96" t="n">
+        <v>2655350</v>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Wales Welsh Premier League</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E96" s="2" t="n">
+        <v>44915.69791666666</v>
+      </c>
+      <c r="F96" t="n">
+        <v>17</v>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>Connah's Quay</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>Aberystwyth Town</t>
+        </is>
+      </c>
+      <c r="I96" t="n">
+        <v>1</v>
+      </c>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="n">
+        <v>3</v>
+      </c>
+      <c r="M96" t="n">
+        <v>0</v>
+      </c>
+      <c r="N96" t="n">
+        <v>3</v>
+      </c>
+      <c r="O96" t="inlineStr">
+        <is>
+          <t>['7', '90', '90+4']</t>
+        </is>
+      </c>
+      <c r="P96" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q96" t="n">
+        <v>8</v>
+      </c>
+      <c r="R96" t="n">
+        <v>1</v>
+      </c>
+      <c r="S96" t="n">
+        <v>9</v>
+      </c>
+      <c r="T96" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="U96" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="V96" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="W96" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X96" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Y96" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Z96" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AA96" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="AB96" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC96" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AD96" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AE96" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF96" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG96" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH96" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI96" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ96" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AK96" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AL96" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM96" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN96" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AO96" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AP96" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AQ96" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AR96" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="AS96" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="AT96" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="AU96" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AV96" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AW96" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="AX96" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY96" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ96" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA96" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BB96" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BC96" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD96" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BE96" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BF96" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG96" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH96" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI96" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ96" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK96" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Wales Welsh Premier League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Wales Welsh Premier League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK96"/>
+  <dimension ref="A1:BK102"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,7 +903,7 @@
         <v>0.13</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AT3" t="n">
         <v>1.71</v>
@@ -1306,10 +1306,10 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AT4" t="n">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1512,7 +1512,7 @@
         <v>1.44</v>
       </c>
       <c r="AT5" t="n">
-        <v>2.43</v>
+        <v>2.25</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AT6" t="n">
         <v>1</v>
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>2.78</v>
+        <v>2.6</v>
       </c>
       <c r="AT8" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AT10" t="n">
         <v>0.78</v>
@@ -2933,7 +2933,7 @@
         <v>3</v>
       </c>
       <c r="AT12" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3539,10 +3539,10 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AT15" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AU15" t="n">
         <v>0.86</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AT17" t="n">
         <v>0</v>
@@ -4351,10 +4351,10 @@
         <v>3</v>
       </c>
       <c r="AS19" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AT19" t="n">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AU19" t="n">
         <v>1.01</v>
@@ -4757,7 +4757,7 @@
         <v>0</v>
       </c>
       <c r="AS21" t="n">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AT21" t="n">
         <v>0.5</v>
@@ -4960,7 +4960,7 @@
         <v>0</v>
       </c>
       <c r="AS22" t="n">
-        <v>2.78</v>
+        <v>2.6</v>
       </c>
       <c r="AT22" t="n">
         <v>1.63</v>
@@ -5166,7 +5166,7 @@
         <v>1.44</v>
       </c>
       <c r="AT23" t="n">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AU23" t="n">
         <v>1.14</v>
@@ -5572,7 +5572,7 @@
         <v>1.88</v>
       </c>
       <c r="AT25" t="n">
-        <v>2.43</v>
+        <v>2.25</v>
       </c>
       <c r="AU25" t="n">
         <v>0.36</v>
@@ -6178,10 +6178,10 @@
         <v>2</v>
       </c>
       <c r="AS28" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AT28" t="n">
-        <v>2.43</v>
+        <v>2.25</v>
       </c>
       <c r="AU28" t="n">
         <v>1.33</v>
@@ -6381,10 +6381,10 @@
         <v>0</v>
       </c>
       <c r="AS29" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AT29" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AU29" t="n">
         <v>2.4</v>
@@ -6584,7 +6584,7 @@
         <v>2.25</v>
       </c>
       <c r="AS30" t="n">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AT30" t="n">
         <v>1</v>
@@ -6787,10 +6787,10 @@
         <v>0</v>
       </c>
       <c r="AS31" t="n">
-        <v>2.78</v>
+        <v>2.6</v>
       </c>
       <c r="AT31" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AU31" t="n">
         <v>1.49</v>
@@ -7193,10 +7193,10 @@
         <v>2.33</v>
       </c>
       <c r="AS33" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AT33" t="n">
         <v>2.25</v>
-      </c>
-      <c r="AT33" t="n">
-        <v>2.43</v>
       </c>
       <c r="AU33" t="n">
         <v>1.89</v>
@@ -7396,7 +7396,7 @@
         <v>0</v>
       </c>
       <c r="AS34" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AT34" t="n">
         <v>0</v>
@@ -7599,7 +7599,7 @@
         <v>1</v>
       </c>
       <c r="AS35" t="n">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AT35" t="n">
         <v>1.63</v>
@@ -8008,7 +8008,7 @@
         <v>1.44</v>
       </c>
       <c r="AT37" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AU37" t="n">
         <v>1.19</v>
@@ -8211,7 +8211,7 @@
         <v>2</v>
       </c>
       <c r="AT38" t="n">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AU38" t="n">
         <v>1.87</v>
@@ -8414,7 +8414,7 @@
         <v>0.13</v>
       </c>
       <c r="AT39" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AU39" t="n">
         <v>1.47</v>
@@ -8614,7 +8614,7 @@
         <v>1.8</v>
       </c>
       <c r="AS40" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AT40" t="n">
         <v>1</v>
@@ -8817,7 +8817,7 @@
         <v>1.5</v>
       </c>
       <c r="AS41" t="n">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AT41" t="n">
         <v>1.11</v>
@@ -9020,7 +9020,7 @@
         <v>0</v>
       </c>
       <c r="AS42" t="n">
-        <v>2.78</v>
+        <v>2.6</v>
       </c>
       <c r="AT42" t="n">
         <v>0.5</v>
@@ -9426,7 +9426,7 @@
         <v>1</v>
       </c>
       <c r="AS44" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AT44" t="n">
         <v>1.11</v>
@@ -10647,7 +10647,7 @@
         <v>3</v>
       </c>
       <c r="AT50" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AU50" t="n">
         <v>2.26</v>
@@ -10847,10 +10847,10 @@
         <v>1</v>
       </c>
       <c r="AS51" t="n">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AT51" t="n">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AU51" t="n">
         <v>1.55</v>
@@ -11050,10 +11050,10 @@
         <v>0</v>
       </c>
       <c r="AS52" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AT52" t="n">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AU52" t="n">
         <v>1.44</v>
@@ -11253,10 +11253,10 @@
         <v>1</v>
       </c>
       <c r="AS53" t="n">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AT53" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AU53" t="n">
         <v>1.04</v>
@@ -11456,7 +11456,7 @@
         <v>0.33</v>
       </c>
       <c r="AS54" t="n">
-        <v>2.78</v>
+        <v>2.6</v>
       </c>
       <c r="AT54" t="n">
         <v>0.78</v>
@@ -11862,10 +11862,10 @@
         <v>1</v>
       </c>
       <c r="AS56" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AT56" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AU56" t="n">
         <v>1.45</v>
@@ -12271,7 +12271,7 @@
         <v>0.13</v>
       </c>
       <c r="AT58" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AU58" t="n">
         <v>1.28</v>
@@ -12471,10 +12471,10 @@
         <v>2.5</v>
       </c>
       <c r="AS59" t="n">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AT59" t="n">
-        <v>2.43</v>
+        <v>2.25</v>
       </c>
       <c r="AU59" t="n">
         <v>1.18</v>
@@ -12674,7 +12674,7 @@
         <v>0.75</v>
       </c>
       <c r="AS60" t="n">
-        <v>2.78</v>
+        <v>2.6</v>
       </c>
       <c r="AT60" t="n">
         <v>1.11</v>
@@ -12880,7 +12880,7 @@
         <v>2</v>
       </c>
       <c r="AT61" t="n">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AU61" t="n">
         <v>1.51</v>
@@ -13689,7 +13689,7 @@
         <v>1.67</v>
       </c>
       <c r="AS65" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AT65" t="n">
         <v>1.63</v>
@@ -13892,7 +13892,7 @@
         <v>0</v>
       </c>
       <c r="AS66" t="n">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AT66" t="n">
         <v>0</v>
@@ -14098,7 +14098,7 @@
         <v>3</v>
       </c>
       <c r="AT67" t="n">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AU67" t="n">
         <v>1.95</v>
@@ -14298,10 +14298,10 @@
         <v>1.4</v>
       </c>
       <c r="AS68" t="n">
-        <v>2.78</v>
+        <v>2.6</v>
       </c>
       <c r="AT68" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AU68" t="n">
         <v>1.53</v>
@@ -14907,10 +14907,10 @@
         <v>1.4</v>
       </c>
       <c r="AS71" t="n">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AT71" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AU71" t="n">
         <v>1.02</v>
@@ -15110,10 +15110,10 @@
         <v>0</v>
       </c>
       <c r="AS72" t="n">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AT72" t="n">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AU72" t="n">
         <v>1.5</v>
@@ -15313,10 +15313,10 @@
         <v>2.6</v>
       </c>
       <c r="AS73" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AT73" t="n">
-        <v>2.43</v>
+        <v>2.25</v>
       </c>
       <c r="AU73" t="n">
         <v>1.49</v>
@@ -15516,10 +15516,10 @@
         <v>0.6</v>
       </c>
       <c r="AS74" t="n">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AT74" t="n">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AU74" t="n">
         <v>1.06</v>
@@ -15925,7 +15925,7 @@
         <v>2</v>
       </c>
       <c r="AT76" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AU76" t="n">
         <v>1.52</v>
@@ -16125,7 +16125,7 @@
         <v>0.2</v>
       </c>
       <c r="AS77" t="n">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AT77" t="n">
         <v>0.78</v>
@@ -16531,7 +16531,7 @@
         <v>1.2</v>
       </c>
       <c r="AS79" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AT79" t="n">
         <v>1.71</v>
@@ -16734,10 +16734,10 @@
         <v>0.6</v>
       </c>
       <c r="AS80" t="n">
-        <v>2.78</v>
+        <v>2.6</v>
       </c>
       <c r="AT80" t="n">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="AU80" t="n">
         <v>1.58</v>
@@ -17343,10 +17343,10 @@
         <v>1.17</v>
       </c>
       <c r="AS83" t="n">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AT83" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AU83" t="n">
         <v>1.13</v>
@@ -17546,7 +17546,7 @@
         <v>1.86</v>
       </c>
       <c r="AS84" t="n">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AT84" t="n">
         <v>1.63</v>
@@ -17752,7 +17752,7 @@
         <v>2</v>
       </c>
       <c r="AT85" t="n">
-        <v>2.43</v>
+        <v>2.25</v>
       </c>
       <c r="AU85" t="n">
         <v>1.75</v>
@@ -17952,7 +17952,7 @@
         <v>0.86</v>
       </c>
       <c r="AS86" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AT86" t="n">
         <v>1.11</v>
@@ -18155,10 +18155,10 @@
         <v>1.57</v>
       </c>
       <c r="AS87" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AT87" t="n">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AU87" t="n">
         <v>1.45</v>
@@ -18361,7 +18361,7 @@
         <v>2</v>
       </c>
       <c r="AT88" t="n">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AU88" t="n">
         <v>1.52</v>
@@ -18561,7 +18561,7 @@
         <v>1.11</v>
       </c>
       <c r="AS89" t="n">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AT89" t="n">
         <v>1</v>
@@ -18970,7 +18970,7 @@
         <v>3</v>
       </c>
       <c r="AT91" t="n">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AU91" t="n">
         <v>2.27</v>
@@ -19170,7 +19170,7 @@
         <v>1.13</v>
       </c>
       <c r="AS92" t="n">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AT92" t="n">
         <v>1.11</v>
@@ -19779,7 +19779,7 @@
         <v>0.88</v>
       </c>
       <c r="AS95" t="n">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AT95" t="n">
         <v>0.78</v>
@@ -19982,10 +19982,10 @@
         <v>0.43</v>
       </c>
       <c r="AS96" t="n">
-        <v>2.78</v>
+        <v>2.6</v>
       </c>
       <c r="AT96" t="n">
-        <v>0.38</v>
+        <v>0.33</v>
       </c>
       <c r="AU96" t="n">
         <v>1.63</v>
@@ -20036,6 +20036,1224 @@
         <v>16</v>
       </c>
       <c r="BK96" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B97" t="n">
+        <v>2655361</v>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Wales Welsh Premier League</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E97" s="2" t="n">
+        <v>44917.69791666666</v>
+      </c>
+      <c r="F97" t="n">
+        <v>19</v>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>Cardiff MU</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>Newtown</t>
+        </is>
+      </c>
+      <c r="I97" t="n">
+        <v>1</v>
+      </c>
+      <c r="J97" t="n">
+        <v>1</v>
+      </c>
+      <c r="K97" t="n">
+        <v>2</v>
+      </c>
+      <c r="L97" t="n">
+        <v>2</v>
+      </c>
+      <c r="M97" t="n">
+        <v>1</v>
+      </c>
+      <c r="N97" t="n">
+        <v>3</v>
+      </c>
+      <c r="O97" t="inlineStr">
+        <is>
+          <t>['2', '72']</t>
+        </is>
+      </c>
+      <c r="P97" t="inlineStr">
+        <is>
+          <t>['20']</t>
+        </is>
+      </c>
+      <c r="Q97" t="n">
+        <v>5</v>
+      </c>
+      <c r="R97" t="n">
+        <v>4</v>
+      </c>
+      <c r="S97" t="n">
+        <v>9</v>
+      </c>
+      <c r="T97" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="U97" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V97" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="W97" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="X97" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Y97" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z97" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA97" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB97" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC97" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AD97" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE97" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AF97" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG97" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH97" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AI97" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AJ97" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AK97" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AL97" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AM97" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN97" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AO97" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP97" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AQ97" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AR97" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AS97" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AT97" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AU97" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AV97" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AW97" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="AX97" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY97" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ97" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA97" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BB97" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BC97" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD97" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BE97" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="BF97" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG97" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH97" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI97" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ97" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK97" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B98" t="n">
+        <v>2655363</v>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Wales Welsh Premier League</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E98" s="2" t="n">
+        <v>44918.69791666666</v>
+      </c>
+      <c r="F98" t="n">
+        <v>19</v>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>Connah's Quay</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>The New Saints</t>
+        </is>
+      </c>
+      <c r="I98" t="n">
+        <v>0</v>
+      </c>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
+      <c r="K98" t="n">
+        <v>0</v>
+      </c>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="n">
+        <v>1</v>
+      </c>
+      <c r="N98" t="n">
+        <v>2</v>
+      </c>
+      <c r="O98" t="inlineStr">
+        <is>
+          <t>['50']</t>
+        </is>
+      </c>
+      <c r="P98" t="inlineStr">
+        <is>
+          <t>['90+5']</t>
+        </is>
+      </c>
+      <c r="Q98" t="n">
+        <v>4</v>
+      </c>
+      <c r="R98" t="n">
+        <v>6</v>
+      </c>
+      <c r="S98" t="n">
+        <v>10</v>
+      </c>
+      <c r="T98" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U98" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="V98" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="W98" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X98" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Y98" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="Z98" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AA98" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AB98" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AC98" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="AD98" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE98" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AF98" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG98" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH98" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AI98" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AJ98" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AK98" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AL98" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AM98" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AN98" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AO98" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP98" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AQ98" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="AR98" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AS98" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AT98" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AU98" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AV98" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AW98" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="AX98" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY98" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ98" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA98" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BB98" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BC98" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD98" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BE98" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BF98" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG98" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH98" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI98" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ98" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK98" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B99" t="n">
+        <v>2655366</v>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Wales Welsh Premier League</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E99" s="2" t="n">
+        <v>44918.69791666666</v>
+      </c>
+      <c r="F99" t="n">
+        <v>19</v>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>Pontypridd Town AFC</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>Penybont</t>
+        </is>
+      </c>
+      <c r="I99" t="n">
+        <v>0</v>
+      </c>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
+      <c r="K99" t="n">
+        <v>0</v>
+      </c>
+      <c r="L99" t="n">
+        <v>0</v>
+      </c>
+      <c r="M99" t="n">
+        <v>1</v>
+      </c>
+      <c r="N99" t="n">
+        <v>1</v>
+      </c>
+      <c r="O99" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P99" t="inlineStr">
+        <is>
+          <t>['54']</t>
+        </is>
+      </c>
+      <c r="Q99" t="n">
+        <v>8</v>
+      </c>
+      <c r="R99" t="n">
+        <v>0</v>
+      </c>
+      <c r="S99" t="n">
+        <v>8</v>
+      </c>
+      <c r="T99" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="U99" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="V99" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="W99" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X99" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="Y99" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z99" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AA99" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="AB99" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AC99" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AD99" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE99" t="n">
+        <v>2</v>
+      </c>
+      <c r="AF99" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG99" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH99" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI99" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ99" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AK99" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AL99" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AM99" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AN99" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AO99" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP99" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AQ99" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AR99" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AS99" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT99" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AU99" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AV99" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AW99" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="AX99" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY99" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ99" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA99" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BB99" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BC99" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BD99" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BE99" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BF99" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG99" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH99" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI99" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ99" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK99" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B100" t="n">
+        <v>2655365</v>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Wales Welsh Premier League</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E100" s="2" t="n">
+        <v>44918.69791666666</v>
+      </c>
+      <c r="F100" t="n">
+        <v>19</v>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>Haverfordwest County</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>Aberystwyth Town</t>
+        </is>
+      </c>
+      <c r="I100" t="n">
+        <v>2</v>
+      </c>
+      <c r="J100" t="n">
+        <v>1</v>
+      </c>
+      <c r="K100" t="n">
+        <v>3</v>
+      </c>
+      <c r="L100" t="n">
+        <v>3</v>
+      </c>
+      <c r="M100" t="n">
+        <v>1</v>
+      </c>
+      <c r="N100" t="n">
+        <v>4</v>
+      </c>
+      <c r="O100" t="inlineStr">
+        <is>
+          <t>['10', '24', '85']</t>
+        </is>
+      </c>
+      <c r="P100" t="inlineStr">
+        <is>
+          <t>['37']</t>
+        </is>
+      </c>
+      <c r="Q100" t="n">
+        <v>5</v>
+      </c>
+      <c r="R100" t="n">
+        <v>6</v>
+      </c>
+      <c r="S100" t="n">
+        <v>11</v>
+      </c>
+      <c r="T100" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="U100" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V100" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W100" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X100" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Y100" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z100" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AA100" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB100" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AC100" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AD100" t="n">
+        <v>4</v>
+      </c>
+      <c r="AE100" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AF100" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG100" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH100" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI100" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ100" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AK100" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AL100" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AM100" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AN100" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AO100" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP100" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ100" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AR100" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="AS100" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AT100" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AU100" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AV100" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AW100" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AX100" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY100" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ100" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA100" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB100" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC100" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD100" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE100" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF100" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG100" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH100" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI100" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ100" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK100" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B101" t="n">
+        <v>2655364</v>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Wales Welsh Premier League</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E101" s="2" t="n">
+        <v>44918.69791666666</v>
+      </c>
+      <c r="F101" t="n">
+        <v>19</v>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>Flint Town United</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>Caernarfon Town</t>
+        </is>
+      </c>
+      <c r="I101" t="n">
+        <v>1</v>
+      </c>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="n">
+        <v>2</v>
+      </c>
+      <c r="M101" t="n">
+        <v>1</v>
+      </c>
+      <c r="N101" t="n">
+        <v>3</v>
+      </c>
+      <c r="O101" t="inlineStr">
+        <is>
+          <t>['10', '90']</t>
+        </is>
+      </c>
+      <c r="P101" t="inlineStr">
+        <is>
+          <t>['53']</t>
+        </is>
+      </c>
+      <c r="Q101" t="n">
+        <v>4</v>
+      </c>
+      <c r="R101" t="n">
+        <v>3</v>
+      </c>
+      <c r="S101" t="n">
+        <v>7</v>
+      </c>
+      <c r="T101" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="U101" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V101" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W101" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X101" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Y101" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z101" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA101" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB101" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC101" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AD101" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE101" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AF101" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG101" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH101" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI101" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ101" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AK101" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AL101" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AM101" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN101" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AO101" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP101" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AQ101" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR101" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AS101" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AT101" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="AU101" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AV101" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AW101" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="AX101" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY101" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ101" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA101" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB101" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BC101" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="BD101" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BE101" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BF101" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG101" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH101" t="n">
+        <v>12</v>
+      </c>
+      <c r="BI101" t="n">
+        <v>18</v>
+      </c>
+      <c r="BJ101" t="n">
+        <v>18</v>
+      </c>
+      <c r="BK101" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B102" t="n">
+        <v>2655362</v>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Wales Welsh Premier League</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E102" s="2" t="n">
+        <v>44918.69791666666</v>
+      </c>
+      <c r="F102" t="n">
+        <v>19</v>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>Bala Town</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>Airbus UK</t>
+        </is>
+      </c>
+      <c r="I102" t="n">
+        <v>0</v>
+      </c>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
+      <c r="K102" t="n">
+        <v>0</v>
+      </c>
+      <c r="L102" t="n">
+        <v>2</v>
+      </c>
+      <c r="M102" t="n">
+        <v>1</v>
+      </c>
+      <c r="N102" t="n">
+        <v>3</v>
+      </c>
+      <c r="O102" t="inlineStr">
+        <is>
+          <t>['54', '64']</t>
+        </is>
+      </c>
+      <c r="P102" t="inlineStr">
+        <is>
+          <t>['47']</t>
+        </is>
+      </c>
+      <c r="Q102" t="n">
+        <v>12</v>
+      </c>
+      <c r="R102" t="n">
+        <v>5</v>
+      </c>
+      <c r="S102" t="n">
+        <v>17</v>
+      </c>
+      <c r="T102" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="U102" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="V102" t="n">
+        <v>13</v>
+      </c>
+      <c r="W102" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="X102" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y102" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="Z102" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AA102" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AB102" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AC102" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD102" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AE102" t="n">
+        <v>18</v>
+      </c>
+      <c r="AF102" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG102" t="n">
+        <v>23</v>
+      </c>
+      <c r="AH102" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AI102" t="n">
+        <v>7</v>
+      </c>
+      <c r="AJ102" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AK102" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="AL102" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AM102" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AN102" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AO102" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AP102" t="n">
+        <v>7</v>
+      </c>
+      <c r="AQ102" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR102" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS102" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AT102" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU102" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AV102" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AW102" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AX102" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY102" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ102" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA102" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BB102" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BC102" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BD102" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BE102" t="n">
+        <v>4</v>
+      </c>
+      <c r="BF102" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG102" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH102" t="n">
+        <v>17</v>
+      </c>
+      <c r="BI102" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ102" t="n">
+        <v>21</v>
+      </c>
+      <c r="BK102" t="n">
         <v>5</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2023)/Wales Welsh Premier League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Wales Welsh Premier League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK102"/>
+  <dimension ref="A1:BK108"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1712,10 +1712,10 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AT6" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -1915,10 +1915,10 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AT7" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="AT8" t="n">
         <v>0</v>
@@ -2324,7 +2324,7 @@
         <v>1.44</v>
       </c>
       <c r="AT9" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AU9" t="n">
         <v>0.51</v>
@@ -2527,7 +2527,7 @@
         <v>2.13</v>
       </c>
       <c r="AT10" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AT11" t="n">
         <v>0.5</v>
@@ -3133,10 +3133,10 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AT13" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -3542,7 +3542,7 @@
         <v>2.13</v>
       </c>
       <c r="AT15" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AU15" t="n">
         <v>0.86</v>
@@ -3742,10 +3742,10 @@
         <v>3</v>
       </c>
       <c r="AS16" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AT16" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AU16" t="n">
         <v>1.64</v>
@@ -4148,10 +4148,10 @@
         <v>3</v>
       </c>
       <c r="AS18" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AT18" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AU18" t="n">
         <v>1.75</v>
@@ -4351,7 +4351,7 @@
         <v>3</v>
       </c>
       <c r="AS19" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AT19" t="n">
         <v>0.33</v>
@@ -4557,7 +4557,7 @@
         <v>0.13</v>
       </c>
       <c r="AT20" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AU20" t="n">
         <v>1.58</v>
@@ -4960,10 +4960,10 @@
         <v>0</v>
       </c>
       <c r="AS22" t="n">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="AT22" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AU22" t="n">
         <v>1.67</v>
@@ -5366,10 +5366,10 @@
         <v>1</v>
       </c>
       <c r="AS24" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AT24" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU24" t="n">
         <v>1.86</v>
@@ -5569,7 +5569,7 @@
         <v>1</v>
       </c>
       <c r="AS25" t="n">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AT25" t="n">
         <v>2.25</v>
@@ -5772,7 +5772,7 @@
         <v>0</v>
       </c>
       <c r="AS26" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AT26" t="n">
         <v>0</v>
@@ -5975,10 +5975,10 @@
         <v>0</v>
       </c>
       <c r="AS27" t="n">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AT27" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AU27" t="n">
         <v>0.36</v>
@@ -6178,7 +6178,7 @@
         <v>2</v>
       </c>
       <c r="AS28" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AT28" t="n">
         <v>2.25</v>
@@ -6384,7 +6384,7 @@
         <v>1.78</v>
       </c>
       <c r="AT29" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AU29" t="n">
         <v>2.4</v>
@@ -6587,7 +6587,7 @@
         <v>2.33</v>
       </c>
       <c r="AT30" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AU30" t="n">
         <v>1.94</v>
@@ -6787,7 +6787,7 @@
         <v>0</v>
       </c>
       <c r="AS31" t="n">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="AT31" t="n">
         <v>1.56</v>
@@ -6990,7 +6990,7 @@
         <v>0</v>
       </c>
       <c r="AS32" t="n">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AT32" t="n">
         <v>1.71</v>
@@ -7396,7 +7396,7 @@
         <v>0</v>
       </c>
       <c r="AS34" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AT34" t="n">
         <v>0</v>
@@ -7602,7 +7602,7 @@
         <v>1.29</v>
       </c>
       <c r="AT35" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AU35" t="n">
         <v>0</v>
@@ -7802,10 +7802,10 @@
         <v>0.5</v>
       </c>
       <c r="AS36" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AT36" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU36" t="n">
         <v>1.54</v>
@@ -8208,7 +8208,7 @@
         <v>1.5</v>
       </c>
       <c r="AS38" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AT38" t="n">
         <v>0.33</v>
@@ -8414,7 +8414,7 @@
         <v>0.13</v>
       </c>
       <c r="AT39" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AU39" t="n">
         <v>1.47</v>
@@ -8617,7 +8617,7 @@
         <v>1.78</v>
       </c>
       <c r="AT40" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AU40" t="n">
         <v>1.93</v>
@@ -8820,7 +8820,7 @@
         <v>2.13</v>
       </c>
       <c r="AT41" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AU41" t="n">
         <v>1.16</v>
@@ -9020,7 +9020,7 @@
         <v>0</v>
       </c>
       <c r="AS42" t="n">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="AT42" t="n">
         <v>0.5</v>
@@ -9223,7 +9223,7 @@
         <v>0</v>
       </c>
       <c r="AS43" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AT43" t="n">
         <v>0.5</v>
@@ -9429,7 +9429,7 @@
         <v>1.78</v>
       </c>
       <c r="AT44" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AU44" t="n">
         <v>1.79</v>
@@ -9632,7 +9632,7 @@
         <v>3</v>
       </c>
       <c r="AT45" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AU45" t="n">
         <v>2.26</v>
@@ -9835,7 +9835,7 @@
         <v>1.44</v>
       </c>
       <c r="AT46" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AU46" t="n">
         <v>1.26</v>
@@ -10035,7 +10035,7 @@
         <v>0</v>
       </c>
       <c r="AS47" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AT47" t="n">
         <v>1.71</v>
@@ -10238,7 +10238,7 @@
         <v>0</v>
       </c>
       <c r="AS48" t="n">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AT48" t="n">
         <v>0</v>
@@ -10444,7 +10444,7 @@
         <v>0.13</v>
       </c>
       <c r="AT49" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AU49" t="n">
         <v>1.52</v>
@@ -10647,7 +10647,7 @@
         <v>3</v>
       </c>
       <c r="AT50" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AU50" t="n">
         <v>2.26</v>
@@ -11050,7 +11050,7 @@
         <v>0</v>
       </c>
       <c r="AS52" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AT52" t="n">
         <v>0.57</v>
@@ -11456,10 +11456,10 @@
         <v>0.33</v>
       </c>
       <c r="AS54" t="n">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="AT54" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU54" t="n">
         <v>1.64</v>
@@ -11659,10 +11659,10 @@
         <v>1.43</v>
       </c>
       <c r="AS55" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AT55" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AU55" t="n">
         <v>1.46</v>
@@ -11862,10 +11862,10 @@
         <v>1</v>
       </c>
       <c r="AS56" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AT56" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AU56" t="n">
         <v>1.45</v>
@@ -12065,10 +12065,10 @@
         <v>0.25</v>
       </c>
       <c r="AS57" t="n">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AT57" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU57" t="n">
         <v>0.85</v>
@@ -12674,10 +12674,10 @@
         <v>0.75</v>
       </c>
       <c r="AS60" t="n">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="AT60" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AU60" t="n">
         <v>1.59</v>
@@ -12877,7 +12877,7 @@
         <v>0.75</v>
       </c>
       <c r="AS61" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AT61" t="n">
         <v>0.33</v>
@@ -13283,7 +13283,7 @@
         <v>0.75</v>
       </c>
       <c r="AS63" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AT63" t="n">
         <v>1.71</v>
@@ -13489,7 +13489,7 @@
         <v>1.44</v>
       </c>
       <c r="AT64" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AU64" t="n">
         <v>1.17</v>
@@ -13692,7 +13692,7 @@
         <v>1.78</v>
       </c>
       <c r="AT65" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AU65" t="n">
         <v>1.58</v>
@@ -14298,10 +14298,10 @@
         <v>1.4</v>
       </c>
       <c r="AS68" t="n">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="AT68" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AU68" t="n">
         <v>1.53</v>
@@ -14501,10 +14501,10 @@
         <v>1.25</v>
       </c>
       <c r="AS69" t="n">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AT69" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AU69" t="n">
         <v>0.91</v>
@@ -15922,7 +15922,7 @@
         <v>1.33</v>
       </c>
       <c r="AS76" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AT76" t="n">
         <v>1.56</v>
@@ -16128,7 +16128,7 @@
         <v>1.29</v>
       </c>
       <c r="AT77" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU77" t="n">
         <v>1.17</v>
@@ -16331,7 +16331,7 @@
         <v>3</v>
       </c>
       <c r="AT78" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AU78" t="n">
         <v>2.19</v>
@@ -16531,7 +16531,7 @@
         <v>1.2</v>
       </c>
       <c r="AS79" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AT79" t="n">
         <v>1.71</v>
@@ -16734,7 +16734,7 @@
         <v>0.6</v>
       </c>
       <c r="AS80" t="n">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="AT80" t="n">
         <v>0.57</v>
@@ -16937,7 +16937,7 @@
         <v>0.67</v>
       </c>
       <c r="AS81" t="n">
-        <v>1.88</v>
+        <v>1.67</v>
       </c>
       <c r="AT81" t="n">
         <v>0.5</v>
@@ -17143,7 +17143,7 @@
         <v>0.13</v>
       </c>
       <c r="AT82" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU82" t="n">
         <v>1.07</v>
@@ -17346,7 +17346,7 @@
         <v>1.29</v>
       </c>
       <c r="AT83" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AU83" t="n">
         <v>1.13</v>
@@ -17549,7 +17549,7 @@
         <v>2.33</v>
       </c>
       <c r="AT84" t="n">
-        <v>1.63</v>
+        <v>1.78</v>
       </c>
       <c r="AU84" t="n">
         <v>1.46</v>
@@ -17749,7 +17749,7 @@
         <v>2.67</v>
       </c>
       <c r="AS85" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AT85" t="n">
         <v>2.25</v>
@@ -17952,10 +17952,10 @@
         <v>0.86</v>
       </c>
       <c r="AS86" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AT86" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AU86" t="n">
         <v>1.41</v>
@@ -18358,10 +18358,10 @@
         <v>1.43</v>
       </c>
       <c r="AS88" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AT88" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AU88" t="n">
         <v>1.52</v>
@@ -18564,7 +18564,7 @@
         <v>2.13</v>
       </c>
       <c r="AT89" t="n">
-        <v>1</v>
+        <v>0.91</v>
       </c>
       <c r="AU89" t="n">
         <v>1.15</v>
@@ -19173,7 +19173,7 @@
         <v>1.29</v>
       </c>
       <c r="AT92" t="n">
-        <v>1.11</v>
+        <v>1.3</v>
       </c>
       <c r="AU92" t="n">
         <v>1.2</v>
@@ -19376,7 +19376,7 @@
         <v>1.44</v>
       </c>
       <c r="AT93" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU93" t="n">
         <v>1.11</v>
@@ -19782,7 +19782,7 @@
         <v>2.33</v>
       </c>
       <c r="AT95" t="n">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AU95" t="n">
         <v>1.4</v>
@@ -19982,7 +19982,7 @@
         <v>0.43</v>
       </c>
       <c r="AS96" t="n">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="AT96" t="n">
         <v>0.33</v>
@@ -20188,7 +20188,7 @@
         <v>2.33</v>
       </c>
       <c r="AT97" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AU97" t="n">
         <v>1.37</v>
@@ -20388,7 +20388,7 @@
         <v>2.43</v>
       </c>
       <c r="AS98" t="n">
-        <v>2.6</v>
+        <v>2.64</v>
       </c>
       <c r="AT98" t="n">
         <v>2.25</v>
@@ -20591,7 +20591,7 @@
         <v>1.38</v>
       </c>
       <c r="AS99" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AT99" t="n">
         <v>1.56</v>
@@ -21255,6 +21255,1224 @@
       </c>
       <c r="BK102" t="n">
         <v>5</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B103" t="n">
+        <v>2655368</v>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>Wales Welsh Premier League</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E103" s="2" t="n">
+        <v>44921.47916666666</v>
+      </c>
+      <c r="F103" t="n">
+        <v>20</v>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>Caernarfon Town</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>Bala Town</t>
+        </is>
+      </c>
+      <c r="I103" t="n">
+        <v>1</v>
+      </c>
+      <c r="J103" t="n">
+        <v>2</v>
+      </c>
+      <c r="K103" t="n">
+        <v>3</v>
+      </c>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="n">
+        <v>5</v>
+      </c>
+      <c r="N103" t="n">
+        <v>6</v>
+      </c>
+      <c r="O103" t="inlineStr">
+        <is>
+          <t>['5']</t>
+        </is>
+      </c>
+      <c r="P103" t="inlineStr">
+        <is>
+          <t>['10', '34', '51', '65', '90+2']</t>
+        </is>
+      </c>
+      <c r="Q103" t="n">
+        <v>8</v>
+      </c>
+      <c r="R103" t="n">
+        <v>8</v>
+      </c>
+      <c r="S103" t="n">
+        <v>16</v>
+      </c>
+      <c r="T103" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="U103" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="V103" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="W103" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="X103" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="Y103" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="Z103" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AA103" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AB103" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AC103" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AD103" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AE103" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AF103" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG103" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH103" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AI103" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AJ103" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AK103" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AL103" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AM103" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN103" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AO103" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AP103" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AQ103" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR103" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AS103" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AT103" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AU103" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AV103" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AW103" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AX103" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY103" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ103" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA103" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB103" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC103" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD103" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE103" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF103" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG103" t="n">
+        <v>15</v>
+      </c>
+      <c r="BH103" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI103" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ103" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK103" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B104" t="n">
+        <v>2655367</v>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Wales Welsh Premier League</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E104" s="2" t="n">
+        <v>44921.47916666666</v>
+      </c>
+      <c r="F104" t="n">
+        <v>20</v>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>Aberystwyth Town</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>Newtown</t>
+        </is>
+      </c>
+      <c r="I104" t="n">
+        <v>1</v>
+      </c>
+      <c r="J104" t="n">
+        <v>2</v>
+      </c>
+      <c r="K104" t="n">
+        <v>3</v>
+      </c>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="n">
+        <v>2</v>
+      </c>
+      <c r="N104" t="n">
+        <v>3</v>
+      </c>
+      <c r="O104" t="inlineStr">
+        <is>
+          <t>['28']</t>
+        </is>
+      </c>
+      <c r="P104" t="inlineStr">
+        <is>
+          <t>['30', '43']</t>
+        </is>
+      </c>
+      <c r="Q104" t="n">
+        <v>3</v>
+      </c>
+      <c r="R104" t="n">
+        <v>10</v>
+      </c>
+      <c r="S104" t="n">
+        <v>13</v>
+      </c>
+      <c r="T104" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="U104" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V104" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="W104" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X104" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="Y104" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="Z104" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AA104" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="AB104" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AC104" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AD104" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE104" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AF104" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG104" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH104" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AI104" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ104" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AK104" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AL104" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AM104" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AN104" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AO104" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AP104" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AQ104" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AR104" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AS104" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AT104" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AU104" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AV104" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AW104" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AX104" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY104" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ104" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA104" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB104" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC104" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD104" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE104" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF104" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG104" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH104" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI104" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ104" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK104" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B105" t="n">
+        <v>2655371</v>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Wales Welsh Premier League</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E105" s="2" t="n">
+        <v>44921.47916666666</v>
+      </c>
+      <c r="F105" t="n">
+        <v>20</v>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>Pontypridd Town AFC</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>Haverfordwest County</t>
+        </is>
+      </c>
+      <c r="I105" t="n">
+        <v>2</v>
+      </c>
+      <c r="J105" t="n">
+        <v>1</v>
+      </c>
+      <c r="K105" t="n">
+        <v>3</v>
+      </c>
+      <c r="L105" t="n">
+        <v>3</v>
+      </c>
+      <c r="M105" t="n">
+        <v>2</v>
+      </c>
+      <c r="N105" t="n">
+        <v>5</v>
+      </c>
+      <c r="O105" t="inlineStr">
+        <is>
+          <t>['37', '45+3', '90+6']</t>
+        </is>
+      </c>
+      <c r="P105" t="inlineStr">
+        <is>
+          <t>['11', '73']</t>
+        </is>
+      </c>
+      <c r="Q105" t="n">
+        <v>1</v>
+      </c>
+      <c r="R105" t="n">
+        <v>6</v>
+      </c>
+      <c r="S105" t="n">
+        <v>7</v>
+      </c>
+      <c r="T105" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="U105" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="V105" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="W105" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X105" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="Y105" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="Z105" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AA105" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="AB105" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AC105" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="AD105" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AE105" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AF105" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG105" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH105" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AI105" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="AJ105" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AK105" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AL105" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AM105" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AN105" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AO105" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AP105" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AQ105" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR105" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="AS105" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AT105" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AU105" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AV105" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AW105" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="AX105" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY105" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ105" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA105" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB105" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC105" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD105" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE105" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF105" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG105" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH105" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI105" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ105" t="n">
+        <v>4</v>
+      </c>
+      <c r="BK105" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B106" t="n">
+        <v>2655372</v>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Wales Welsh Premier League</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E106" s="2" t="n">
+        <v>44921.47916666666</v>
+      </c>
+      <c r="F106" t="n">
+        <v>20</v>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>The New Saints</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>Airbus UK</t>
+        </is>
+      </c>
+      <c r="I106" t="n">
+        <v>3</v>
+      </c>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
+      <c r="K106" t="n">
+        <v>3</v>
+      </c>
+      <c r="L106" t="n">
+        <v>7</v>
+      </c>
+      <c r="M106" t="n">
+        <v>0</v>
+      </c>
+      <c r="N106" t="n">
+        <v>7</v>
+      </c>
+      <c r="O106" t="inlineStr">
+        <is>
+          <t>['4', '7', '26', '64', '72', '80', '83']</t>
+        </is>
+      </c>
+      <c r="P106" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q106" t="n">
+        <v>8</v>
+      </c>
+      <c r="R106" t="n">
+        <v>3</v>
+      </c>
+      <c r="S106" t="n">
+        <v>11</v>
+      </c>
+      <c r="T106" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="U106" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="V106" t="n">
+        <v>21</v>
+      </c>
+      <c r="W106" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="X106" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y106" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="Z106" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AA106" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AB106" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AC106" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD106" t="n">
+        <v>17</v>
+      </c>
+      <c r="AE106" t="n">
+        <v>26</v>
+      </c>
+      <c r="AF106" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG106" t="n">
+        <v>81</v>
+      </c>
+      <c r="AH106" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AI106" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ106" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AK106" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AL106" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AM106" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AN106" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AO106" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AP106" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AQ106" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR106" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS106" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT106" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU106" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AV106" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AW106" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="AX106" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY106" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ106" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA106" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB106" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC106" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD106" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE106" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF106" t="n">
+        <v>12</v>
+      </c>
+      <c r="BG106" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH106" t="n">
+        <v>9</v>
+      </c>
+      <c r="BI106" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ106" t="n">
+        <v>21</v>
+      </c>
+      <c r="BK106" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B107" t="n">
+        <v>2655370</v>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>Wales Welsh Premier League</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E107" s="2" t="n">
+        <v>44921.47916666666</v>
+      </c>
+      <c r="F107" t="n">
+        <v>20</v>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>Penybont</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>Cardiff MU</t>
+        </is>
+      </c>
+      <c r="I107" t="n">
+        <v>0</v>
+      </c>
+      <c r="J107" t="n">
+        <v>1</v>
+      </c>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="n">
+        <v>3</v>
+      </c>
+      <c r="N107" t="n">
+        <v>4</v>
+      </c>
+      <c r="O107" t="inlineStr">
+        <is>
+          <t>['60']</t>
+        </is>
+      </c>
+      <c r="P107" t="inlineStr">
+        <is>
+          <t>['10', '62', '77']</t>
+        </is>
+      </c>
+      <c r="Q107" t="n">
+        <v>5</v>
+      </c>
+      <c r="R107" t="n">
+        <v>4</v>
+      </c>
+      <c r="S107" t="n">
+        <v>9</v>
+      </c>
+      <c r="T107" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U107" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V107" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W107" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X107" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y107" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z107" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA107" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB107" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC107" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AD107" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE107" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF107" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG107" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH107" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AI107" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AJ107" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AK107" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AL107" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AM107" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN107" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO107" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP107" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AQ107" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR107" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AS107" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AT107" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AU107" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AV107" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AW107" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="AX107" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY107" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ107" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA107" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BB107" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="BC107" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BD107" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="BE107" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF107" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG107" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH107" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI107" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ107" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK107" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B108" t="n">
+        <v>2655369</v>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Wales Welsh Premier League</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E108" s="2" t="n">
+        <v>44921.47916666666</v>
+      </c>
+      <c r="F108" t="n">
+        <v>20</v>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>Connah's Quay</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>Flint Town United</t>
+        </is>
+      </c>
+      <c r="I108" t="n">
+        <v>0</v>
+      </c>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
+      <c r="K108" t="n">
+        <v>0</v>
+      </c>
+      <c r="L108" t="n">
+        <v>2</v>
+      </c>
+      <c r="M108" t="n">
+        <v>0</v>
+      </c>
+      <c r="N108" t="n">
+        <v>2</v>
+      </c>
+      <c r="O108" t="inlineStr">
+        <is>
+          <t>['61', '73']</t>
+        </is>
+      </c>
+      <c r="P108" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q108" t="n">
+        <v>4</v>
+      </c>
+      <c r="R108" t="n">
+        <v>2</v>
+      </c>
+      <c r="S108" t="n">
+        <v>6</v>
+      </c>
+      <c r="T108" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="U108" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="V108" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="W108" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="X108" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="Y108" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="Z108" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AA108" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AB108" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AC108" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AD108" t="n">
+        <v>5</v>
+      </c>
+      <c r="AE108" t="n">
+        <v>7</v>
+      </c>
+      <c r="AF108" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG108" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH108" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AI108" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="AJ108" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AK108" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="AL108" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AM108" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AN108" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AO108" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AP108" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AQ108" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AR108" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS108" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="AT108" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="AU108" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AV108" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AW108" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="AX108" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY108" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ108" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA108" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BB108" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BC108" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD108" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BE108" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="BF108" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG108" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH108" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI108" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ108" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK108" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Wales Welsh Premier League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Wales Welsh Premier League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK108"/>
+  <dimension ref="A1:BK111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,7 +903,7 @@
         <v>0.13</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>2.33</v>
+        <v>2.2</v>
       </c>
       <c r="AT3" t="n">
         <v>1.71</v>
@@ -1309,7 +1309,7 @@
         <v>1.78</v>
       </c>
       <c r="AT4" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT5" t="n">
         <v>2.25</v>
@@ -2321,7 +2321,7 @@
         <v>3</v>
       </c>
       <c r="AS9" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT9" t="n">
         <v>0.91</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AT10" t="n">
         <v>0.7</v>
@@ -2933,7 +2933,7 @@
         <v>3</v>
       </c>
       <c r="AT12" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3539,7 +3539,7 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AT15" t="n">
         <v>1.6</v>
@@ -4354,7 +4354,7 @@
         <v>1.2</v>
       </c>
       <c r="AT19" t="n">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AU19" t="n">
         <v>1.01</v>
@@ -4757,7 +4757,7 @@
         <v>0</v>
       </c>
       <c r="AS21" t="n">
-        <v>2.33</v>
+        <v>2.2</v>
       </c>
       <c r="AT21" t="n">
         <v>0.5</v>
@@ -5163,10 +5163,10 @@
         <v>0</v>
       </c>
       <c r="AS23" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT23" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AU23" t="n">
         <v>1.14</v>
@@ -6584,7 +6584,7 @@
         <v>2.25</v>
       </c>
       <c r="AS30" t="n">
-        <v>2.33</v>
+        <v>2.2</v>
       </c>
       <c r="AT30" t="n">
         <v>0.91</v>
@@ -6790,7 +6790,7 @@
         <v>2.64</v>
       </c>
       <c r="AT31" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AU31" t="n">
         <v>1.49</v>
@@ -7193,7 +7193,7 @@
         <v>2.33</v>
       </c>
       <c r="AS33" t="n">
-        <v>2.33</v>
+        <v>2.2</v>
       </c>
       <c r="AT33" t="n">
         <v>2.25</v>
@@ -8005,10 +8005,10 @@
         <v>0</v>
       </c>
       <c r="AS37" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT37" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AU37" t="n">
         <v>1.19</v>
@@ -8211,7 +8211,7 @@
         <v>1.75</v>
       </c>
       <c r="AT38" t="n">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AU38" t="n">
         <v>1.87</v>
@@ -8817,7 +8817,7 @@
         <v>1.5</v>
       </c>
       <c r="AS41" t="n">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AT41" t="n">
         <v>1.3</v>
@@ -9832,7 +9832,7 @@
         <v>1</v>
       </c>
       <c r="AS46" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT46" t="n">
         <v>1.78</v>
@@ -10847,10 +10847,10 @@
         <v>1</v>
       </c>
       <c r="AS51" t="n">
-        <v>2.33</v>
+        <v>2.2</v>
       </c>
       <c r="AT51" t="n">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AU51" t="n">
         <v>1.55</v>
@@ -11053,7 +11053,7 @@
         <v>1.2</v>
       </c>
       <c r="AT52" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AU52" t="n">
         <v>1.44</v>
@@ -11256,7 +11256,7 @@
         <v>1.29</v>
       </c>
       <c r="AT53" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AU53" t="n">
         <v>1.04</v>
@@ -12271,7 +12271,7 @@
         <v>0.13</v>
       </c>
       <c r="AT58" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AU58" t="n">
         <v>1.28</v>
@@ -12471,7 +12471,7 @@
         <v>2.5</v>
       </c>
       <c r="AS59" t="n">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AT59" t="n">
         <v>2.25</v>
@@ -12880,7 +12880,7 @@
         <v>1.8</v>
       </c>
       <c r="AT61" t="n">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AU61" t="n">
         <v>1.51</v>
@@ -13486,7 +13486,7 @@
         <v>0.6</v>
       </c>
       <c r="AS64" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT64" t="n">
         <v>1.3</v>
@@ -14098,7 +14098,7 @@
         <v>3</v>
       </c>
       <c r="AT67" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AU67" t="n">
         <v>1.95</v>
@@ -14907,10 +14907,10 @@
         <v>1.4</v>
       </c>
       <c r="AS71" t="n">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AT71" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AU71" t="n">
         <v>1.02</v>
@@ -15110,10 +15110,10 @@
         <v>0</v>
       </c>
       <c r="AS72" t="n">
-        <v>2.33</v>
+        <v>2.2</v>
       </c>
       <c r="AT72" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AU72" t="n">
         <v>1.5</v>
@@ -15516,10 +15516,10 @@
         <v>0.6</v>
       </c>
       <c r="AS74" t="n">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AT74" t="n">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AU74" t="n">
         <v>1.06</v>
@@ -15719,7 +15719,7 @@
         <v>0</v>
       </c>
       <c r="AS75" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT75" t="n">
         <v>0</v>
@@ -15925,7 +15925,7 @@
         <v>1.8</v>
       </c>
       <c r="AT76" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AU76" t="n">
         <v>1.52</v>
@@ -16737,7 +16737,7 @@
         <v>2.64</v>
       </c>
       <c r="AT80" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AU80" t="n">
         <v>1.58</v>
@@ -17546,7 +17546,7 @@
         <v>1.86</v>
       </c>
       <c r="AS84" t="n">
-        <v>2.33</v>
+        <v>2.2</v>
       </c>
       <c r="AT84" t="n">
         <v>1.78</v>
@@ -18158,7 +18158,7 @@
         <v>1.78</v>
       </c>
       <c r="AT87" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AU87" t="n">
         <v>1.45</v>
@@ -18561,7 +18561,7 @@
         <v>1.11</v>
       </c>
       <c r="AS89" t="n">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AT89" t="n">
         <v>0.91</v>
@@ -18970,7 +18970,7 @@
         <v>3</v>
       </c>
       <c r="AT91" t="n">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AU91" t="n">
         <v>2.27</v>
@@ -19373,7 +19373,7 @@
         <v>1</v>
       </c>
       <c r="AS93" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT93" t="n">
         <v>0.7</v>
@@ -19576,7 +19576,7 @@
         <v>0.57</v>
       </c>
       <c r="AS94" t="n">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AT94" t="n">
         <v>0.5</v>
@@ -19779,7 +19779,7 @@
         <v>0.88</v>
       </c>
       <c r="AS95" t="n">
-        <v>2.33</v>
+        <v>2.2</v>
       </c>
       <c r="AT95" t="n">
         <v>0.7</v>
@@ -19985,7 +19985,7 @@
         <v>2.64</v>
       </c>
       <c r="AT96" t="n">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AU96" t="n">
         <v>1.63</v>
@@ -20185,7 +20185,7 @@
         <v>1.63</v>
       </c>
       <c r="AS97" t="n">
-        <v>2.33</v>
+        <v>2.2</v>
       </c>
       <c r="AT97" t="n">
         <v>1.6</v>
@@ -20594,7 +20594,7 @@
         <v>1.2</v>
       </c>
       <c r="AT99" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AU99" t="n">
         <v>1.35</v>
@@ -20797,7 +20797,7 @@
         <v>1.78</v>
       </c>
       <c r="AT100" t="n">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
       <c r="AU100" t="n">
         <v>1.41</v>
@@ -21000,7 +21000,7 @@
         <v>1.29</v>
       </c>
       <c r="AT101" t="n">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AU101" t="n">
         <v>1.12</v>
@@ -21200,7 +21200,7 @@
         <v>0</v>
       </c>
       <c r="AS102" t="n">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AT102" t="n">
         <v>0</v>
@@ -22473,6 +22473,615 @@
       </c>
       <c r="BK108" t="n">
         <v>6</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B109" t="n">
+        <v>2655375</v>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>Wales Welsh Premier League</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E109" s="2" t="n">
+        <v>44925.61458333334</v>
+      </c>
+      <c r="F109" t="n">
+        <v>21</v>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>Newtown</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>Aberystwyth Town</t>
+        </is>
+      </c>
+      <c r="I109" t="n">
+        <v>1</v>
+      </c>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="n">
+        <v>6</v>
+      </c>
+      <c r="M109" t="n">
+        <v>1</v>
+      </c>
+      <c r="N109" t="n">
+        <v>7</v>
+      </c>
+      <c r="O109" t="inlineStr">
+        <is>
+          <t>['14', '51', '54', '56', '63', '73']</t>
+        </is>
+      </c>
+      <c r="P109" t="inlineStr">
+        <is>
+          <t>['80']</t>
+        </is>
+      </c>
+      <c r="Q109" t="n">
+        <v>2</v>
+      </c>
+      <c r="R109" t="n">
+        <v>4</v>
+      </c>
+      <c r="S109" t="n">
+        <v>6</v>
+      </c>
+      <c r="T109" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="U109" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="V109" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="W109" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X109" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Y109" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="Z109" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AA109" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AB109" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AC109" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AD109" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AE109" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AF109" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG109" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH109" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AI109" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AJ109" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AK109" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AL109" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AM109" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AN109" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AO109" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AP109" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AQ109" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AR109" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AS109" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AT109" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AU109" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AV109" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AW109" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="AX109" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY109" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ109" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA109" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BB109" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BC109" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BD109" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BE109" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="BF109" t="n">
+        <v>10</v>
+      </c>
+      <c r="BG109" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH109" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI109" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ109" t="n">
+        <v>17</v>
+      </c>
+      <c r="BK109" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B110" t="n">
+        <v>2655374</v>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>Wales Welsh Premier League</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E110" s="2" t="n">
+        <v>44925.69791666666</v>
+      </c>
+      <c r="F110" t="n">
+        <v>21</v>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>Cardiff MU</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>Penybont</t>
+        </is>
+      </c>
+      <c r="I110" t="n">
+        <v>0</v>
+      </c>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
+      <c r="K110" t="n">
+        <v>0</v>
+      </c>
+      <c r="L110" t="n">
+        <v>0</v>
+      </c>
+      <c r="M110" t="n">
+        <v>0</v>
+      </c>
+      <c r="N110" t="n">
+        <v>0</v>
+      </c>
+      <c r="O110" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P110" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q110" t="n">
+        <v>2</v>
+      </c>
+      <c r="R110" t="n">
+        <v>7</v>
+      </c>
+      <c r="S110" t="n">
+        <v>9</v>
+      </c>
+      <c r="T110" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="U110" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V110" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="W110" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X110" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y110" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z110" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA110" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB110" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AC110" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AD110" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="AE110" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="AF110" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG110" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH110" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI110" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AJ110" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK110" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AL110" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AM110" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN110" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AO110" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP110" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AQ110" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AR110" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AS110" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AT110" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AU110" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AV110" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AW110" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="AX110" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY110" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ110" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA110" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BB110" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BC110" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="BD110" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="BE110" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF110" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG110" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH110" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI110" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ110" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK110" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B111" t="n">
+        <v>2655373</v>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>Wales Welsh Premier League</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E111" s="2" t="n">
+        <v>44925.69791666666</v>
+      </c>
+      <c r="F111" t="n">
+        <v>21</v>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>Bala Town</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>Caernarfon Town</t>
+        </is>
+      </c>
+      <c r="I111" t="n">
+        <v>2</v>
+      </c>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
+      <c r="K111" t="n">
+        <v>2</v>
+      </c>
+      <c r="L111" t="n">
+        <v>3</v>
+      </c>
+      <c r="M111" t="n">
+        <v>0</v>
+      </c>
+      <c r="N111" t="n">
+        <v>3</v>
+      </c>
+      <c r="O111" t="inlineStr">
+        <is>
+          <t>['16', '40', '89']</t>
+        </is>
+      </c>
+      <c r="P111" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q111" t="n">
+        <v>3</v>
+      </c>
+      <c r="R111" t="n">
+        <v>12</v>
+      </c>
+      <c r="S111" t="n">
+        <v>15</v>
+      </c>
+      <c r="T111" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="U111" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="V111" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="W111" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X111" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Y111" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="Z111" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AA111" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AB111" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AC111" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AD111" t="n">
+        <v>4.72</v>
+      </c>
+      <c r="AE111" t="n">
+        <v>7.45</v>
+      </c>
+      <c r="AF111" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG111" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH111" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AI111" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AJ111" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AK111" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="AL111" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM111" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN111" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AO111" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AP111" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="AQ111" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AR111" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="AS111" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AT111" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AU111" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AV111" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AW111" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="AX111" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY111" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ111" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA111" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BB111" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BC111" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BD111" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BE111" t="n">
+        <v>4</v>
+      </c>
+      <c r="BF111" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG111" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH111" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI111" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ111" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK111" t="n">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Wales Welsh Premier League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Wales Welsh Premier League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK111"/>
+  <dimension ref="A1:BK114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="AT2" t="n">
         <v>0.3</v>
@@ -1106,7 +1106,7 @@
         <v>2.2</v>
       </c>
       <c r="AT3" t="n">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AT4" t="n">
         <v>0.5</v>
@@ -1512,7 +1512,7 @@
         <v>1.6</v>
       </c>
       <c r="AT5" t="n">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>1.8</v>
       </c>
       <c r="AT11" t="n">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -3339,7 +3339,7 @@
         <v>3</v>
       </c>
       <c r="AT14" t="n">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AU14" t="n">
         <v>2.27</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AT17" t="n">
         <v>0</v>
@@ -4554,7 +4554,7 @@
         <v>2</v>
       </c>
       <c r="AS20" t="n">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="AT20" t="n">
         <v>0.91</v>
@@ -4760,7 +4760,7 @@
         <v>2.2</v>
       </c>
       <c r="AT21" t="n">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU21" t="n">
         <v>1.94</v>
@@ -5572,7 +5572,7 @@
         <v>1.67</v>
       </c>
       <c r="AT25" t="n">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AU25" t="n">
         <v>0.36</v>
@@ -6181,7 +6181,7 @@
         <v>1.2</v>
       </c>
       <c r="AT28" t="n">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AU28" t="n">
         <v>1.33</v>
@@ -6381,7 +6381,7 @@
         <v>0</v>
       </c>
       <c r="AS29" t="n">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AT29" t="n">
         <v>1.6</v>
@@ -6993,7 +6993,7 @@
         <v>1.67</v>
       </c>
       <c r="AT32" t="n">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AU32" t="n">
         <v>0.67</v>
@@ -7196,7 +7196,7 @@
         <v>2.2</v>
       </c>
       <c r="AT33" t="n">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AU33" t="n">
         <v>1.89</v>
@@ -7599,7 +7599,7 @@
         <v>1</v>
       </c>
       <c r="AS35" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AT35" t="n">
         <v>1.78</v>
@@ -8411,7 +8411,7 @@
         <v>1.5</v>
       </c>
       <c r="AS39" t="n">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="AT39" t="n">
         <v>1.6</v>
@@ -8614,7 +8614,7 @@
         <v>1.8</v>
       </c>
       <c r="AS40" t="n">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AT40" t="n">
         <v>0.91</v>
@@ -9023,7 +9023,7 @@
         <v>2.64</v>
       </c>
       <c r="AT42" t="n">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU42" t="n">
         <v>1.62</v>
@@ -9226,7 +9226,7 @@
         <v>1.75</v>
       </c>
       <c r="AT43" t="n">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU43" t="n">
         <v>1.89</v>
@@ -9426,7 +9426,7 @@
         <v>1</v>
       </c>
       <c r="AS44" t="n">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AT44" t="n">
         <v>1.3</v>
@@ -10038,7 +10038,7 @@
         <v>1.8</v>
       </c>
       <c r="AT47" t="n">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AU47" t="n">
         <v>1.48</v>
@@ -10441,7 +10441,7 @@
         <v>1.4</v>
       </c>
       <c r="AS49" t="n">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="AT49" t="n">
         <v>1.78</v>
@@ -11253,7 +11253,7 @@
         <v>1</v>
       </c>
       <c r="AS53" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AT53" t="n">
         <v>1.5</v>
@@ -12268,7 +12268,7 @@
         <v>1</v>
       </c>
       <c r="AS58" t="n">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="AT58" t="n">
         <v>1.5</v>
@@ -12474,7 +12474,7 @@
         <v>2.22</v>
       </c>
       <c r="AT59" t="n">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AU59" t="n">
         <v>1.18</v>
@@ -13083,7 +13083,7 @@
         <v>3</v>
       </c>
       <c r="AT62" t="n">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU62" t="n">
         <v>2.08</v>
@@ -13286,7 +13286,7 @@
         <v>1.75</v>
       </c>
       <c r="AT63" t="n">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AU63" t="n">
         <v>1.87</v>
@@ -13689,7 +13689,7 @@
         <v>1.67</v>
       </c>
       <c r="AS65" t="n">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AT65" t="n">
         <v>1.78</v>
@@ -13892,7 +13892,7 @@
         <v>0</v>
       </c>
       <c r="AS66" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AT66" t="n">
         <v>0</v>
@@ -14704,10 +14704,10 @@
         <v>0.2</v>
       </c>
       <c r="AS70" t="n">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="AT70" t="n">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU70" t="n">
         <v>1.12</v>
@@ -15313,10 +15313,10 @@
         <v>2.6</v>
       </c>
       <c r="AS73" t="n">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AT73" t="n">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AU73" t="n">
         <v>1.49</v>
@@ -16125,7 +16125,7 @@
         <v>0.2</v>
       </c>
       <c r="AS77" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AT77" t="n">
         <v>0.7</v>
@@ -16534,7 +16534,7 @@
         <v>1.2</v>
       </c>
       <c r="AT79" t="n">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AU79" t="n">
         <v>1.44</v>
@@ -16940,7 +16940,7 @@
         <v>1.67</v>
       </c>
       <c r="AT81" t="n">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU81" t="n">
         <v>1</v>
@@ -17140,7 +17140,7 @@
         <v>0.67</v>
       </c>
       <c r="AS82" t="n">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="AT82" t="n">
         <v>0.7</v>
@@ -17343,7 +17343,7 @@
         <v>1.17</v>
       </c>
       <c r="AS83" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AT83" t="n">
         <v>1.6</v>
@@ -17752,7 +17752,7 @@
         <v>1.75</v>
       </c>
       <c r="AT85" t="n">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AU85" t="n">
         <v>1.75</v>
@@ -18155,7 +18155,7 @@
         <v>1.57</v>
       </c>
       <c r="AS87" t="n">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AT87" t="n">
         <v>1.5</v>
@@ -18764,10 +18764,10 @@
         <v>1.5</v>
       </c>
       <c r="AS90" t="n">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="AT90" t="n">
-        <v>1.71</v>
+        <v>1.63</v>
       </c>
       <c r="AU90" t="n">
         <v>1.09</v>
@@ -19170,7 +19170,7 @@
         <v>1.13</v>
       </c>
       <c r="AS92" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AT92" t="n">
         <v>1.3</v>
@@ -19579,7 +19579,7 @@
         <v>1.6</v>
       </c>
       <c r="AT94" t="n">
-        <v>0.5</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AU94" t="n">
         <v>1.12</v>
@@ -20391,7 +20391,7 @@
         <v>2.64</v>
       </c>
       <c r="AT98" t="n">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AU98" t="n">
         <v>1.71</v>
@@ -20794,7 +20794,7 @@
         <v>0.38</v>
       </c>
       <c r="AS100" t="n">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="AT100" t="n">
         <v>0.3</v>
@@ -20997,7 +20997,7 @@
         <v>0.67</v>
       </c>
       <c r="AS101" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AT101" t="n">
         <v>0.5</v>
@@ -23082,6 +23082,615 @@
       </c>
       <c r="BK111" t="n">
         <v>11</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B112" t="n">
+        <v>2655376</v>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>Wales Welsh Premier League</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E112" s="2" t="n">
+        <v>44926.47916666666</v>
+      </c>
+      <c r="F112" t="n">
+        <v>21</v>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>Airbus UK</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>The New Saints</t>
+        </is>
+      </c>
+      <c r="I112" t="n">
+        <v>0</v>
+      </c>
+      <c r="J112" t="n">
+        <v>6</v>
+      </c>
+      <c r="K112" t="n">
+        <v>6</v>
+      </c>
+      <c r="L112" t="n">
+        <v>0</v>
+      </c>
+      <c r="M112" t="n">
+        <v>8</v>
+      </c>
+      <c r="N112" t="n">
+        <v>8</v>
+      </c>
+      <c r="O112" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P112" t="inlineStr">
+        <is>
+          <t>['3', '15', '18', '34', '40', '44', '51', '66']</t>
+        </is>
+      </c>
+      <c r="Q112" t="n">
+        <v>2</v>
+      </c>
+      <c r="R112" t="n">
+        <v>7</v>
+      </c>
+      <c r="S112" t="n">
+        <v>9</v>
+      </c>
+      <c r="T112" t="n">
+        <v>21</v>
+      </c>
+      <c r="U112" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="V112" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="W112" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="X112" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="Y112" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="Z112" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AA112" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="AB112" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AC112" t="n">
+        <v>25.95</v>
+      </c>
+      <c r="AD112" t="n">
+        <v>11.04</v>
+      </c>
+      <c r="AE112" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AF112" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG112" t="n">
+        <v>35</v>
+      </c>
+      <c r="AH112" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AI112" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AJ112" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AK112" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="AL112" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AM112" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AN112" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AO112" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AP112" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AQ112" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="AR112" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AS112" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="AT112" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AU112" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AV112" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AW112" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="AX112" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY112" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ112" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA112" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB112" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC112" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD112" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE112" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF112" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG112" t="n">
+        <v>10</v>
+      </c>
+      <c r="BH112" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI112" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ112" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK112" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B113" t="n">
+        <v>2655377</v>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>Wales Welsh Premier League</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E113" s="2" t="n">
+        <v>44926.47916666666</v>
+      </c>
+      <c r="F113" t="n">
+        <v>21</v>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>Flint Town United</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>Connah's Quay</t>
+        </is>
+      </c>
+      <c r="I113" t="n">
+        <v>0</v>
+      </c>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
+      <c r="K113" t="n">
+        <v>0</v>
+      </c>
+      <c r="L113" t="n">
+        <v>0</v>
+      </c>
+      <c r="M113" t="n">
+        <v>0</v>
+      </c>
+      <c r="N113" t="n">
+        <v>0</v>
+      </c>
+      <c r="O113" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P113" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q113" t="n">
+        <v>1</v>
+      </c>
+      <c r="R113" t="n">
+        <v>10</v>
+      </c>
+      <c r="S113" t="n">
+        <v>11</v>
+      </c>
+      <c r="T113" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="U113" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="V113" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="W113" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X113" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y113" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z113" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA113" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB113" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC113" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AD113" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AE113" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AF113" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG113" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH113" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI113" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ113" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AK113" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AL113" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AM113" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AN113" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AO113" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP113" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AQ113" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AR113" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AS113" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AT113" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AU113" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AV113" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AW113" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="AX113" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY113" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ113" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA113" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BB113" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BC113" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BD113" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BE113" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="BF113" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG113" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH113" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI113" t="n">
+        <v>14</v>
+      </c>
+      <c r="BJ113" t="n">
+        <v>5</v>
+      </c>
+      <c r="BK113" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B114" t="n">
+        <v>2655378</v>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>Wales Welsh Premier League</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E114" s="2" t="n">
+        <v>44926.47916666666</v>
+      </c>
+      <c r="F114" t="n">
+        <v>21</v>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>Haverfordwest County</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>Pontypridd Town AFC</t>
+        </is>
+      </c>
+      <c r="I114" t="n">
+        <v>0</v>
+      </c>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
+      <c r="K114" t="n">
+        <v>0</v>
+      </c>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="n">
+        <v>1</v>
+      </c>
+      <c r="N114" t="n">
+        <v>2</v>
+      </c>
+      <c r="O114" t="inlineStr">
+        <is>
+          <t>['90']</t>
+        </is>
+      </c>
+      <c r="P114" t="inlineStr">
+        <is>
+          <t>['48']</t>
+        </is>
+      </c>
+      <c r="Q114" t="n">
+        <v>3</v>
+      </c>
+      <c r="R114" t="n">
+        <v>4</v>
+      </c>
+      <c r="S114" t="n">
+        <v>7</v>
+      </c>
+      <c r="T114" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="U114" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="V114" t="n">
+        <v>4.62</v>
+      </c>
+      <c r="W114" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X114" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Y114" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Z114" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AA114" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AB114" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AC114" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AD114" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AE114" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AF114" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG114" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH114" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AI114" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AJ114" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AK114" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AL114" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AM114" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AN114" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AO114" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP114" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AQ114" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AR114" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AS114" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AT114" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AU114" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AV114" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AW114" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="AX114" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY114" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ114" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA114" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB114" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC114" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD114" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE114" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF114" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG114" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH114" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI114" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ114" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK114" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Wales Welsh Premier League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Wales Welsh Premier League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK114"/>
+  <dimension ref="A1:BK117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1512,7 +1512,7 @@
         <v>1.6</v>
       </c>
       <c r="AT5" t="n">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT6" t="n">
         <v>0.91</v>
@@ -1915,10 +1915,10 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT7" t="n">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AT11" t="n">
         <v>0.5600000000000001</v>
@@ -3742,7 +3742,7 @@
         <v>3</v>
       </c>
       <c r="AS16" t="n">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AT16" t="n">
         <v>1.3</v>
@@ -4148,7 +4148,7 @@
         <v>3</v>
       </c>
       <c r="AS18" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT18" t="n">
         <v>0.91</v>
@@ -4351,7 +4351,7 @@
         <v>3</v>
       </c>
       <c r="AS19" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT19" t="n">
         <v>0.3</v>
@@ -4963,7 +4963,7 @@
         <v>2.64</v>
       </c>
       <c r="AT22" t="n">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AU22" t="n">
         <v>1.67</v>
@@ -5366,7 +5366,7 @@
         <v>1</v>
       </c>
       <c r="AS24" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT24" t="n">
         <v>0.7</v>
@@ -5572,7 +5572,7 @@
         <v>1.67</v>
       </c>
       <c r="AT25" t="n">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AU25" t="n">
         <v>0.36</v>
@@ -5772,7 +5772,7 @@
         <v>0</v>
       </c>
       <c r="AS26" t="n">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AT26" t="n">
         <v>0</v>
@@ -5978,7 +5978,7 @@
         <v>1.67</v>
       </c>
       <c r="AT27" t="n">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AU27" t="n">
         <v>0.36</v>
@@ -6178,10 +6178,10 @@
         <v>2</v>
       </c>
       <c r="AS28" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT28" t="n">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AU28" t="n">
         <v>1.33</v>
@@ -7196,7 +7196,7 @@
         <v>2.2</v>
       </c>
       <c r="AT33" t="n">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AU33" t="n">
         <v>1.89</v>
@@ -7396,7 +7396,7 @@
         <v>0</v>
       </c>
       <c r="AS34" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT34" t="n">
         <v>0</v>
@@ -7602,7 +7602,7 @@
         <v>1.25</v>
       </c>
       <c r="AT35" t="n">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AU35" t="n">
         <v>0</v>
@@ -7802,7 +7802,7 @@
         <v>0.5</v>
       </c>
       <c r="AS36" t="n">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AT36" t="n">
         <v>0.7</v>
@@ -8208,7 +8208,7 @@
         <v>1.5</v>
       </c>
       <c r="AS38" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT38" t="n">
         <v>0.3</v>
@@ -9223,7 +9223,7 @@
         <v>0</v>
       </c>
       <c r="AS43" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT43" t="n">
         <v>0.5600000000000001</v>
@@ -9835,7 +9835,7 @@
         <v>1.6</v>
       </c>
       <c r="AT46" t="n">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AU46" t="n">
         <v>1.26</v>
@@ -10035,7 +10035,7 @@
         <v>0</v>
       </c>
       <c r="AS47" t="n">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AT47" t="n">
         <v>1.63</v>
@@ -10444,7 +10444,7 @@
         <v>0.11</v>
       </c>
       <c r="AT49" t="n">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AU49" t="n">
         <v>1.52</v>
@@ -11050,7 +11050,7 @@
         <v>0</v>
       </c>
       <c r="AS52" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT52" t="n">
         <v>0.5</v>
@@ -11659,7 +11659,7 @@
         <v>1.43</v>
       </c>
       <c r="AS55" t="n">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AT55" t="n">
         <v>0.91</v>
@@ -11862,7 +11862,7 @@
         <v>1</v>
       </c>
       <c r="AS56" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT56" t="n">
         <v>1.6</v>
@@ -12474,7 +12474,7 @@
         <v>2.22</v>
       </c>
       <c r="AT59" t="n">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AU59" t="n">
         <v>1.18</v>
@@ -12877,7 +12877,7 @@
         <v>0.75</v>
       </c>
       <c r="AS61" t="n">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AT61" t="n">
         <v>0.3</v>
@@ -13283,7 +13283,7 @@
         <v>0.75</v>
       </c>
       <c r="AS63" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT63" t="n">
         <v>1.63</v>
@@ -13692,7 +13692,7 @@
         <v>1.7</v>
       </c>
       <c r="AT65" t="n">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AU65" t="n">
         <v>1.58</v>
@@ -15316,7 +15316,7 @@
         <v>1.7</v>
       </c>
       <c r="AT73" t="n">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AU73" t="n">
         <v>1.49</v>
@@ -15922,7 +15922,7 @@
         <v>1.33</v>
       </c>
       <c r="AS76" t="n">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AT76" t="n">
         <v>1.5</v>
@@ -16531,7 +16531,7 @@
         <v>1.2</v>
       </c>
       <c r="AS79" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT79" t="n">
         <v>1.63</v>
@@ -17549,7 +17549,7 @@
         <v>2.2</v>
       </c>
       <c r="AT84" t="n">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AU84" t="n">
         <v>1.46</v>
@@ -17749,10 +17749,10 @@
         <v>2.67</v>
       </c>
       <c r="AS85" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT85" t="n">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AU85" t="n">
         <v>1.75</v>
@@ -17952,7 +17952,7 @@
         <v>0.86</v>
       </c>
       <c r="AS86" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT86" t="n">
         <v>1.3</v>
@@ -18358,7 +18358,7 @@
         <v>1.43</v>
       </c>
       <c r="AS88" t="n">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AT88" t="n">
         <v>1.6</v>
@@ -20391,7 +20391,7 @@
         <v>2.64</v>
       </c>
       <c r="AT98" t="n">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AU98" t="n">
         <v>1.71</v>
@@ -20591,7 +20591,7 @@
         <v>1.38</v>
       </c>
       <c r="AS99" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT99" t="n">
         <v>1.5</v>
@@ -21403,10 +21403,10 @@
         <v>1.63</v>
       </c>
       <c r="AS103" t="n">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AT103" t="n">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AU103" t="n">
         <v>1.46</v>
@@ -21809,7 +21809,7 @@
         <v>0.78</v>
       </c>
       <c r="AS105" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AT105" t="n">
         <v>0.7</v>
@@ -22215,7 +22215,7 @@
         <v>1.11</v>
       </c>
       <c r="AS107" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AT107" t="n">
         <v>1.3</v>
@@ -23233,7 +23233,7 @@
         <v>0.11</v>
       </c>
       <c r="AT112" t="n">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="AU112" t="n">
         <v>1.11</v>
@@ -23691,6 +23691,615 @@
       </c>
       <c r="BK114" t="n">
         <v>8</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B115" t="n">
+        <v>2655354</v>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>Wales Welsh Premier League</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E115" s="2" t="n">
+        <v>44929.69791666666</v>
+      </c>
+      <c r="F115" t="n">
+        <v>17</v>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>Pontypridd Town AFC</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>Bala Town</t>
+        </is>
+      </c>
+      <c r="I115" t="n">
+        <v>2</v>
+      </c>
+      <c r="J115" t="n">
+        <v>1</v>
+      </c>
+      <c r="K115" t="n">
+        <v>3</v>
+      </c>
+      <c r="L115" t="n">
+        <v>2</v>
+      </c>
+      <c r="M115" t="n">
+        <v>1</v>
+      </c>
+      <c r="N115" t="n">
+        <v>3</v>
+      </c>
+      <c r="O115" t="inlineStr">
+        <is>
+          <t>['13', '35']</t>
+        </is>
+      </c>
+      <c r="P115" t="inlineStr">
+        <is>
+          <t>['26']</t>
+        </is>
+      </c>
+      <c r="Q115" t="n">
+        <v>4</v>
+      </c>
+      <c r="R115" t="n">
+        <v>3</v>
+      </c>
+      <c r="S115" t="n">
+        <v>7</v>
+      </c>
+      <c r="T115" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="U115" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="V115" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="W115" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X115" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="Y115" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Z115" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA115" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="AB115" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC115" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="AD115" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AE115" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AF115" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG115" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH115" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AI115" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AJ115" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AK115" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AL115" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AM115" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AN115" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AO115" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AP115" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AQ115" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AR115" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AS115" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AT115" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AU115" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AV115" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AW115" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="AX115" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="AY115" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ115" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BA115" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BB115" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BC115" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="BD115" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="BE115" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF115" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG115" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH115" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI115" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ115" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK115" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B116" t="n">
+        <v>2655353</v>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>Wales Welsh Premier League</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E116" s="2" t="n">
+        <v>44929.69791666666</v>
+      </c>
+      <c r="F116" t="n">
+        <v>17</v>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>Penybont</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>Airbus UK</t>
+        </is>
+      </c>
+      <c r="I116" t="n">
+        <v>0</v>
+      </c>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
+      <c r="K116" t="n">
+        <v>0</v>
+      </c>
+      <c r="L116" t="n">
+        <v>2</v>
+      </c>
+      <c r="M116" t="n">
+        <v>0</v>
+      </c>
+      <c r="N116" t="n">
+        <v>2</v>
+      </c>
+      <c r="O116" t="inlineStr">
+        <is>
+          <t>['49', '73']</t>
+        </is>
+      </c>
+      <c r="P116" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q116" t="n">
+        <v>7</v>
+      </c>
+      <c r="R116" t="n">
+        <v>1</v>
+      </c>
+      <c r="S116" t="n">
+        <v>8</v>
+      </c>
+      <c r="T116" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="U116" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="V116" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="W116" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="X116" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="Y116" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="Z116" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AA116" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB116" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC116" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD116" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AE116" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF116" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG116" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH116" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AI116" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AJ116" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AK116" t="n">
+        <v>3.73</v>
+      </c>
+      <c r="AL116" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="AM116" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AN116" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AO116" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AP116" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AQ116" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AR116" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS116" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AT116" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU116" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AV116" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="AW116" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="AX116" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AY116" t="n">
+        <v>19</v>
+      </c>
+      <c r="AZ116" t="n">
+        <v>33</v>
+      </c>
+      <c r="BA116" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BB116" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BC116" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD116" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BE116" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF116" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG116" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH116" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI116" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ116" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK116" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B117" t="n">
+        <v>2655349</v>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>Wales Welsh Premier League</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E117" s="2" t="n">
+        <v>44929.69791666666</v>
+      </c>
+      <c r="F117" t="n">
+        <v>17</v>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>Caernarfon Town</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>The New Saints</t>
+        </is>
+      </c>
+      <c r="I117" t="n">
+        <v>0</v>
+      </c>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
+      <c r="K117" t="n">
+        <v>0</v>
+      </c>
+      <c r="L117" t="n">
+        <v>0</v>
+      </c>
+      <c r="M117" t="n">
+        <v>1</v>
+      </c>
+      <c r="N117" t="n">
+        <v>1</v>
+      </c>
+      <c r="O117" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P117" t="inlineStr">
+        <is>
+          <t>['72']</t>
+        </is>
+      </c>
+      <c r="Q117" t="n">
+        <v>0</v>
+      </c>
+      <c r="R117" t="n">
+        <v>14</v>
+      </c>
+      <c r="S117" t="n">
+        <v>14</v>
+      </c>
+      <c r="T117" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="U117" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="V117" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="W117" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="X117" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y117" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="Z117" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AA117" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB117" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AC117" t="n">
+        <v>11.25</v>
+      </c>
+      <c r="AD117" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AE117" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AF117" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG117" t="n">
+        <v>19</v>
+      </c>
+      <c r="AH117" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AI117" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AJ117" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AK117" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AL117" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AM117" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AN117" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="AO117" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AP117" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AQ117" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AR117" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AS117" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AT117" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AU117" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AV117" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AW117" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="AX117" t="n">
+        <v>14</v>
+      </c>
+      <c r="AY117" t="n">
+        <v>24</v>
+      </c>
+      <c r="AZ117" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="BA117" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB117" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BC117" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BD117" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BE117" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BF117" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG117" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH117" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI117" t="n">
+        <v>12</v>
+      </c>
+      <c r="BJ117" t="n">
+        <v>2</v>
+      </c>
+      <c r="BK117" t="n">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Wales Welsh Premier League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Wales Welsh Premier League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK117"/>
+  <dimension ref="A1:BK119"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,7 +903,7 @@
         <v>0.11</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.3</v>
+        <v>0.36</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>1.7</v>
       </c>
       <c r="AT4" t="n">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT7" t="n">
         <v>1.6</v>
@@ -4148,7 +4148,7 @@
         <v>3</v>
       </c>
       <c r="AS18" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT18" t="n">
         <v>0.91</v>
@@ -4354,7 +4354,7 @@
         <v>1.36</v>
       </c>
       <c r="AT19" t="n">
-        <v>0.3</v>
+        <v>0.36</v>
       </c>
       <c r="AU19" t="n">
         <v>1.01</v>
@@ -5166,7 +5166,7 @@
         <v>1.6</v>
       </c>
       <c r="AT23" t="n">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AU23" t="n">
         <v>1.14</v>
@@ -5366,7 +5366,7 @@
         <v>1</v>
       </c>
       <c r="AS24" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT24" t="n">
         <v>0.7</v>
@@ -7599,7 +7599,7 @@
         <v>1</v>
       </c>
       <c r="AS35" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AT35" t="n">
         <v>1.6</v>
@@ -8208,10 +8208,10 @@
         <v>1.5</v>
       </c>
       <c r="AS38" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT38" t="n">
-        <v>0.3</v>
+        <v>0.36</v>
       </c>
       <c r="AU38" t="n">
         <v>1.87</v>
@@ -9223,7 +9223,7 @@
         <v>0</v>
       </c>
       <c r="AS43" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT43" t="n">
         <v>0.5600000000000001</v>
@@ -10850,7 +10850,7 @@
         <v>2.2</v>
       </c>
       <c r="AT51" t="n">
-        <v>0.3</v>
+        <v>0.36</v>
       </c>
       <c r="AU51" t="n">
         <v>1.55</v>
@@ -11053,7 +11053,7 @@
         <v>1.36</v>
       </c>
       <c r="AT52" t="n">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AU52" t="n">
         <v>1.44</v>
@@ -11253,7 +11253,7 @@
         <v>1</v>
       </c>
       <c r="AS53" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AT53" t="n">
         <v>1.5</v>
@@ -12880,7 +12880,7 @@
         <v>1.64</v>
       </c>
       <c r="AT61" t="n">
-        <v>0.3</v>
+        <v>0.36</v>
       </c>
       <c r="AU61" t="n">
         <v>1.51</v>
@@ -13283,7 +13283,7 @@
         <v>0.75</v>
       </c>
       <c r="AS63" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT63" t="n">
         <v>1.63</v>
@@ -13892,7 +13892,7 @@
         <v>0</v>
       </c>
       <c r="AS66" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AT66" t="n">
         <v>0</v>
@@ -14098,7 +14098,7 @@
         <v>3</v>
       </c>
       <c r="AT67" t="n">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AU67" t="n">
         <v>1.95</v>
@@ -15113,7 +15113,7 @@
         <v>2.2</v>
       </c>
       <c r="AT72" t="n">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AU72" t="n">
         <v>1.5</v>
@@ -15519,7 +15519,7 @@
         <v>2.22</v>
       </c>
       <c r="AT74" t="n">
-        <v>0.3</v>
+        <v>0.36</v>
       </c>
       <c r="AU74" t="n">
         <v>1.06</v>
@@ -16125,7 +16125,7 @@
         <v>0.2</v>
       </c>
       <c r="AS77" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AT77" t="n">
         <v>0.7</v>
@@ -16737,7 +16737,7 @@
         <v>2.64</v>
       </c>
       <c r="AT80" t="n">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AU80" t="n">
         <v>1.58</v>
@@ -17343,7 +17343,7 @@
         <v>1.17</v>
       </c>
       <c r="AS83" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AT83" t="n">
         <v>1.6</v>
@@ -17749,7 +17749,7 @@
         <v>2.67</v>
       </c>
       <c r="AS85" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT85" t="n">
         <v>2.4</v>
@@ -18970,7 +18970,7 @@
         <v>3</v>
       </c>
       <c r="AT91" t="n">
-        <v>0.3</v>
+        <v>0.36</v>
       </c>
       <c r="AU91" t="n">
         <v>2.27</v>
@@ -19170,7 +19170,7 @@
         <v>1.13</v>
       </c>
       <c r="AS92" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AT92" t="n">
         <v>1.3</v>
@@ -19985,7 +19985,7 @@
         <v>2.64</v>
       </c>
       <c r="AT96" t="n">
-        <v>0.3</v>
+        <v>0.36</v>
       </c>
       <c r="AU96" t="n">
         <v>1.63</v>
@@ -20797,7 +20797,7 @@
         <v>1.7</v>
       </c>
       <c r="AT100" t="n">
-        <v>0.3</v>
+        <v>0.36</v>
       </c>
       <c r="AU100" t="n">
         <v>1.41</v>
@@ -20997,10 +20997,10 @@
         <v>0.67</v>
       </c>
       <c r="AS101" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AT101" t="n">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AU101" t="n">
         <v>1.12</v>
@@ -22215,7 +22215,7 @@
         <v>1.11</v>
       </c>
       <c r="AS107" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT107" t="n">
         <v>1.3</v>
@@ -22624,7 +22624,7 @@
         <v>1.6</v>
       </c>
       <c r="AT109" t="n">
-        <v>0.3</v>
+        <v>0.36</v>
       </c>
       <c r="AU109" t="n">
         <v>1.18</v>
@@ -23030,7 +23030,7 @@
         <v>2.22</v>
       </c>
       <c r="AT111" t="n">
-        <v>0.5</v>
+        <v>0.44</v>
       </c>
       <c r="AU111" t="n">
         <v>1.3</v>
@@ -23433,7 +23433,7 @@
         <v>1.71</v>
       </c>
       <c r="AS113" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AT113" t="n">
         <v>1.63</v>
@@ -24042,7 +24042,7 @@
         <v>0</v>
       </c>
       <c r="AS116" t="n">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AT116" t="n">
         <v>0</v>
@@ -24300,6 +24300,412 @@
       </c>
       <c r="BK117" t="n">
         <v>18</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B118" t="n">
+        <v>2655283</v>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>Wales Welsh Premier League</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E118" s="2" t="n">
+        <v>44932.69791666666</v>
+      </c>
+      <c r="F118" t="n">
+        <v>6</v>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>Flint Town United</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>Aberystwyth Town</t>
+        </is>
+      </c>
+      <c r="I118" t="n">
+        <v>0</v>
+      </c>
+      <c r="J118" t="n">
+        <v>1</v>
+      </c>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="n">
+        <v>1</v>
+      </c>
+      <c r="N118" t="n">
+        <v>2</v>
+      </c>
+      <c r="O118" t="inlineStr">
+        <is>
+          <t>['72']</t>
+        </is>
+      </c>
+      <c r="P118" t="inlineStr">
+        <is>
+          <t>['37']</t>
+        </is>
+      </c>
+      <c r="Q118" t="n">
+        <v>6</v>
+      </c>
+      <c r="R118" t="n">
+        <v>1</v>
+      </c>
+      <c r="S118" t="n">
+        <v>7</v>
+      </c>
+      <c r="T118" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U118" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V118" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W118" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="X118" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="Y118" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Z118" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AA118" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AB118" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AC118" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AD118" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AE118" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AF118" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG118" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AH118" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AI118" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AJ118" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AK118" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AL118" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AM118" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AN118" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AO118" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AP118" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AQ118" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AR118" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AS118" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AT118" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="AU118" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AV118" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AW118" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="AX118" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AY118" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ118" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="BA118" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BB118" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BC118" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BD118" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BE118" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BF118" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG118" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH118" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI118" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ118" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK118" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B119" t="n">
+        <v>2655288</v>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>Wales Welsh Premier League</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E119" s="2" t="n">
+        <v>44933.40625</v>
+      </c>
+      <c r="F119" t="n">
+        <v>6</v>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>Penybont</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>Caernarfon Town</t>
+        </is>
+      </c>
+      <c r="I119" t="n">
+        <v>3</v>
+      </c>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
+      <c r="K119" t="n">
+        <v>3</v>
+      </c>
+      <c r="L119" t="n">
+        <v>5</v>
+      </c>
+      <c r="M119" t="n">
+        <v>1</v>
+      </c>
+      <c r="N119" t="n">
+        <v>6</v>
+      </c>
+      <c r="O119" t="inlineStr">
+        <is>
+          <t>['9', '17', '32', '72', '82']</t>
+        </is>
+      </c>
+      <c r="P119" t="inlineStr">
+        <is>
+          <t>['78']</t>
+        </is>
+      </c>
+      <c r="Q119" t="n">
+        <v>4</v>
+      </c>
+      <c r="R119" t="n">
+        <v>5</v>
+      </c>
+      <c r="S119" t="n">
+        <v>9</v>
+      </c>
+      <c r="T119" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U119" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V119" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W119" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X119" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Y119" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Z119" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AA119" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="AB119" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AC119" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AD119" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE119" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AF119" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG119" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH119" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AI119" t="n">
+        <v>4.32</v>
+      </c>
+      <c r="AJ119" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AK119" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AL119" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AM119" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AN119" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AO119" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AP119" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AQ119" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AR119" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AS119" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT119" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="AU119" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AV119" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AW119" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AX119" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY119" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ119" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA119" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB119" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC119" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD119" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE119" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF119" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG119" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH119" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI119" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ119" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK119" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Wales Welsh Premier League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Wales Welsh Premier League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK119"/>
+  <dimension ref="A1:BK123"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="AT2" t="n">
         <v>0.36</v>
@@ -1106,7 +1106,7 @@
         <v>2.2</v>
       </c>
       <c r="AT3" t="n">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AT5" t="n">
         <v>2.4</v>
@@ -2321,7 +2321,7 @@
         <v>3</v>
       </c>
       <c r="AS9" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AT9" t="n">
         <v>0.91</v>
@@ -2524,10 +2524,10 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AT10" t="n">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>1.64</v>
       </c>
       <c r="AT11" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -3136,7 +3136,7 @@
         <v>1.67</v>
       </c>
       <c r="AT13" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -3339,7 +3339,7 @@
         <v>3</v>
       </c>
       <c r="AT14" t="n">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AU14" t="n">
         <v>2.27</v>
@@ -3539,7 +3539,7 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AT15" t="n">
         <v>1.6</v>
@@ -3745,7 +3745,7 @@
         <v>1.64</v>
       </c>
       <c r="AT16" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AU16" t="n">
         <v>1.64</v>
@@ -4554,7 +4554,7 @@
         <v>2</v>
       </c>
       <c r="AS20" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="AT20" t="n">
         <v>0.91</v>
@@ -4760,7 +4760,7 @@
         <v>2.2</v>
       </c>
       <c r="AT21" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU21" t="n">
         <v>1.94</v>
@@ -5163,7 +5163,7 @@
         <v>0</v>
       </c>
       <c r="AS23" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AT23" t="n">
         <v>0.44</v>
@@ -5369,7 +5369,7 @@
         <v>2</v>
       </c>
       <c r="AT24" t="n">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU24" t="n">
         <v>1.86</v>
@@ -6993,7 +6993,7 @@
         <v>1.67</v>
       </c>
       <c r="AT32" t="n">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AU32" t="n">
         <v>0.67</v>
@@ -7805,7 +7805,7 @@
         <v>1.64</v>
       </c>
       <c r="AT36" t="n">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU36" t="n">
         <v>1.54</v>
@@ -8005,7 +8005,7 @@
         <v>0</v>
       </c>
       <c r="AS37" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AT37" t="n">
         <v>1.5</v>
@@ -8411,7 +8411,7 @@
         <v>1.5</v>
       </c>
       <c r="AS39" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="AT39" t="n">
         <v>1.6</v>
@@ -8817,10 +8817,10 @@
         <v>1.5</v>
       </c>
       <c r="AS41" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AT41" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AU41" t="n">
         <v>1.16</v>
@@ -9023,7 +9023,7 @@
         <v>2.64</v>
       </c>
       <c r="AT42" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU42" t="n">
         <v>1.62</v>
@@ -9226,7 +9226,7 @@
         <v>2</v>
       </c>
       <c r="AT43" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU43" t="n">
         <v>1.89</v>
@@ -9429,7 +9429,7 @@
         <v>1.7</v>
       </c>
       <c r="AT44" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AU44" t="n">
         <v>1.79</v>
@@ -9832,7 +9832,7 @@
         <v>1</v>
       </c>
       <c r="AS46" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AT46" t="n">
         <v>1.6</v>
@@ -10038,7 +10038,7 @@
         <v>1.64</v>
       </c>
       <c r="AT47" t="n">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AU47" t="n">
         <v>1.48</v>
@@ -10441,7 +10441,7 @@
         <v>1.4</v>
       </c>
       <c r="AS49" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="AT49" t="n">
         <v>1.6</v>
@@ -11459,7 +11459,7 @@
         <v>2.64</v>
       </c>
       <c r="AT54" t="n">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU54" t="n">
         <v>1.64</v>
@@ -12068,7 +12068,7 @@
         <v>1.67</v>
       </c>
       <c r="AT57" t="n">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU57" t="n">
         <v>0.85</v>
@@ -12268,7 +12268,7 @@
         <v>1</v>
       </c>
       <c r="AS58" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="AT58" t="n">
         <v>1.5</v>
@@ -12471,7 +12471,7 @@
         <v>2.5</v>
       </c>
       <c r="AS59" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AT59" t="n">
         <v>2.4</v>
@@ -12677,7 +12677,7 @@
         <v>2.64</v>
       </c>
       <c r="AT60" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AU60" t="n">
         <v>1.59</v>
@@ -13083,7 +13083,7 @@
         <v>3</v>
       </c>
       <c r="AT62" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU62" t="n">
         <v>2.08</v>
@@ -13286,7 +13286,7 @@
         <v>2</v>
       </c>
       <c r="AT63" t="n">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AU63" t="n">
         <v>1.87</v>
@@ -13486,10 +13486,10 @@
         <v>0.6</v>
       </c>
       <c r="AS64" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AT64" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AU64" t="n">
         <v>1.17</v>
@@ -14704,10 +14704,10 @@
         <v>0.2</v>
       </c>
       <c r="AS70" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="AT70" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU70" t="n">
         <v>1.12</v>
@@ -14907,7 +14907,7 @@
         <v>1.4</v>
       </c>
       <c r="AS71" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AT71" t="n">
         <v>1.5</v>
@@ -15516,7 +15516,7 @@
         <v>0.6</v>
       </c>
       <c r="AS74" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AT74" t="n">
         <v>0.36</v>
@@ -15719,7 +15719,7 @@
         <v>0</v>
       </c>
       <c r="AS75" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AT75" t="n">
         <v>0</v>
@@ -16128,7 +16128,7 @@
         <v>1.22</v>
       </c>
       <c r="AT77" t="n">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU77" t="n">
         <v>1.17</v>
@@ -16331,7 +16331,7 @@
         <v>3</v>
       </c>
       <c r="AT78" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AU78" t="n">
         <v>2.19</v>
@@ -16534,7 +16534,7 @@
         <v>1.36</v>
       </c>
       <c r="AT79" t="n">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AU79" t="n">
         <v>1.44</v>
@@ -16940,7 +16940,7 @@
         <v>1.67</v>
       </c>
       <c r="AT81" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU81" t="n">
         <v>1</v>
@@ -17140,10 +17140,10 @@
         <v>0.67</v>
       </c>
       <c r="AS82" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="AT82" t="n">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU82" t="n">
         <v>1.07</v>
@@ -17955,7 +17955,7 @@
         <v>1.36</v>
       </c>
       <c r="AT86" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AU86" t="n">
         <v>1.41</v>
@@ -18561,7 +18561,7 @@
         <v>1.11</v>
       </c>
       <c r="AS89" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AT89" t="n">
         <v>0.91</v>
@@ -18764,10 +18764,10 @@
         <v>1.5</v>
       </c>
       <c r="AS90" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="AT90" t="n">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AU90" t="n">
         <v>1.09</v>
@@ -19173,7 +19173,7 @@
         <v>1.22</v>
       </c>
       <c r="AT92" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AU92" t="n">
         <v>1.2</v>
@@ -19373,10 +19373,10 @@
         <v>1</v>
       </c>
       <c r="AS93" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AT93" t="n">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU93" t="n">
         <v>1.11</v>
@@ -19576,10 +19576,10 @@
         <v>0.57</v>
       </c>
       <c r="AS94" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AT94" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU94" t="n">
         <v>1.12</v>
@@ -19782,7 +19782,7 @@
         <v>2.2</v>
       </c>
       <c r="AT95" t="n">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU95" t="n">
         <v>1.4</v>
@@ -21200,7 +21200,7 @@
         <v>0</v>
       </c>
       <c r="AS102" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AT102" t="n">
         <v>0</v>
@@ -21812,7 +21812,7 @@
         <v>1.36</v>
       </c>
       <c r="AT105" t="n">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU105" t="n">
         <v>1.32</v>
@@ -22218,7 +22218,7 @@
         <v>2</v>
       </c>
       <c r="AT107" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AU107" t="n">
         <v>1.6</v>
@@ -22621,7 +22621,7 @@
         <v>0.33</v>
       </c>
       <c r="AS109" t="n">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AT109" t="n">
         <v>0.36</v>
@@ -23027,7 +23027,7 @@
         <v>0.57</v>
       </c>
       <c r="AS111" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AT111" t="n">
         <v>0.44</v>
@@ -23230,7 +23230,7 @@
         <v>2.25</v>
       </c>
       <c r="AS112" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="AT112" t="n">
         <v>2.4</v>
@@ -23436,7 +23436,7 @@
         <v>1.22</v>
       </c>
       <c r="AT113" t="n">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AU113" t="n">
         <v>1.25</v>
@@ -23639,7 +23639,7 @@
         <v>1.7</v>
       </c>
       <c r="AT114" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AU114" t="n">
         <v>1.46</v>
@@ -24706,6 +24706,818 @@
       </c>
       <c r="BK119" t="n">
         <v>8</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B120" t="n">
+        <v>2655284</v>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>Wales Welsh Premier League</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E120" s="2" t="n">
+        <v>44933.47916666666</v>
+      </c>
+      <c r="F120" t="n">
+        <v>6</v>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>Airbus UK</t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>Cardiff MU</t>
+        </is>
+      </c>
+      <c r="I120" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
+      <c r="K120" t="n">
+        <v>0</v>
+      </c>
+      <c r="L120" t="n">
+        <v>0</v>
+      </c>
+      <c r="M120" t="n">
+        <v>2</v>
+      </c>
+      <c r="N120" t="n">
+        <v>2</v>
+      </c>
+      <c r="O120" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P120" t="inlineStr">
+        <is>
+          <t>['60', '90+5']</t>
+        </is>
+      </c>
+      <c r="Q120" t="n">
+        <v>1</v>
+      </c>
+      <c r="R120" t="n">
+        <v>6</v>
+      </c>
+      <c r="S120" t="n">
+        <v>7</v>
+      </c>
+      <c r="T120" t="n">
+        <v>4</v>
+      </c>
+      <c r="U120" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V120" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="W120" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X120" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="Y120" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Z120" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA120" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="AB120" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC120" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AD120" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AE120" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AF120" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG120" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH120" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AI120" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="AJ120" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AK120" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="AL120" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AM120" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AN120" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AO120" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AP120" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AQ120" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="AR120" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AS120" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AT120" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AU120" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AV120" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AW120" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AX120" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY120" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ120" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA120" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BB120" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BC120" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="BD120" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="BE120" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF120" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG120" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH120" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI120" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ120" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK120" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B121" t="n">
+        <v>2655287</v>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>Wales Welsh Premier League</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E121" s="2" t="n">
+        <v>44933.47916666666</v>
+      </c>
+      <c r="F121" t="n">
+        <v>6</v>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>The New Saints</t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>Haverfordwest County</t>
+        </is>
+      </c>
+      <c r="I121" t="n">
+        <v>2</v>
+      </c>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
+      <c r="K121" t="n">
+        <v>2</v>
+      </c>
+      <c r="L121" t="n">
+        <v>3</v>
+      </c>
+      <c r="M121" t="n">
+        <v>1</v>
+      </c>
+      <c r="N121" t="n">
+        <v>4</v>
+      </c>
+      <c r="O121" t="inlineStr">
+        <is>
+          <t>['15', '19', '89']</t>
+        </is>
+      </c>
+      <c r="P121" t="inlineStr">
+        <is>
+          <t>['62']</t>
+        </is>
+      </c>
+      <c r="Q121" t="n">
+        <v>5</v>
+      </c>
+      <c r="R121" t="n">
+        <v>1</v>
+      </c>
+      <c r="S121" t="n">
+        <v>6</v>
+      </c>
+      <c r="T121" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="U121" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="V121" t="n">
+        <v>9</v>
+      </c>
+      <c r="W121" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="X121" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="Y121" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="Z121" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AA121" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AB121" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AC121" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AD121" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE121" t="n">
+        <v>9</v>
+      </c>
+      <c r="AF121" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG121" t="n">
+        <v>18</v>
+      </c>
+      <c r="AH121" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AI121" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="AJ121" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AK121" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AL121" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AM121" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AN121" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO121" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AP121" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="AQ121" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR121" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AS121" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT121" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="AU121" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AV121" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AW121" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="AX121" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY121" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ121" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA121" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB121" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC121" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD121" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE121" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF121" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG121" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH121" t="n">
+        <v>12</v>
+      </c>
+      <c r="BI121" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ121" t="n">
+        <v>21</v>
+      </c>
+      <c r="BK121" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B122" t="n">
+        <v>2655286</v>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>Wales Welsh Premier League</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E122" s="2" t="n">
+        <v>44933.47916666666</v>
+      </c>
+      <c r="F122" t="n">
+        <v>6</v>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>Newtown</t>
+        </is>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>Connah's Quay</t>
+        </is>
+      </c>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
+      <c r="K122" t="n">
+        <v>0</v>
+      </c>
+      <c r="L122" t="n">
+        <v>0</v>
+      </c>
+      <c r="M122" t="n">
+        <v>0</v>
+      </c>
+      <c r="N122" t="n">
+        <v>0</v>
+      </c>
+      <c r="O122" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P122" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q122" t="n">
+        <v>2</v>
+      </c>
+      <c r="R122" t="n">
+        <v>9</v>
+      </c>
+      <c r="S122" t="n">
+        <v>11</v>
+      </c>
+      <c r="T122" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="U122" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V122" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W122" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="X122" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="Y122" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="Z122" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AA122" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="AB122" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AC122" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AD122" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE122" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AF122" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG122" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH122" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AI122" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AJ122" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AK122" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AL122" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AM122" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AN122" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AO122" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AP122" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AQ122" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AR122" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AS122" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AT122" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AU122" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AV122" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AW122" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="AX122" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY122" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ122" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA122" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB122" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC122" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD122" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE122" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF122" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG122" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH122" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI122" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ122" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK122" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B123" t="n">
+        <v>2655285</v>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>Wales Welsh Premier League</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E123" s="2" t="n">
+        <v>44933.47916666666</v>
+      </c>
+      <c r="F123" t="n">
+        <v>6</v>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>Bala Town</t>
+        </is>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>Pontypridd Town AFC</t>
+        </is>
+      </c>
+      <c r="I123" t="n">
+        <v>1</v>
+      </c>
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="n">
+        <v>3</v>
+      </c>
+      <c r="M123" t="n">
+        <v>0</v>
+      </c>
+      <c r="N123" t="n">
+        <v>3</v>
+      </c>
+      <c r="O123" t="inlineStr">
+        <is>
+          <t>['17', '49', '72']</t>
+        </is>
+      </c>
+      <c r="P123" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q123" t="n">
+        <v>7</v>
+      </c>
+      <c r="R123" t="n">
+        <v>1</v>
+      </c>
+      <c r="S123" t="n">
+        <v>8</v>
+      </c>
+      <c r="T123" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="U123" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V123" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="W123" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="X123" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="Y123" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="Z123" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AA123" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AB123" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AC123" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AD123" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="AE123" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="AF123" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG123" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH123" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AI123" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="AJ123" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AK123" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="AL123" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AM123" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AN123" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AO123" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AP123" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="AQ123" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AR123" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AS123" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AT123" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AU123" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AV123" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AW123" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="AX123" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY123" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ123" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA123" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB123" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC123" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD123" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE123" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF123" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG123" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH123" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI123" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ123" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK123" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Wales Welsh Premier League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Wales Welsh Premier League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK123"/>
+  <dimension ref="A1:BK127"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,7 +900,7 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="AT2" t="n">
         <v>0.36</v>
@@ -1106,7 +1106,7 @@
         <v>2.2</v>
       </c>
       <c r="AT3" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1309,7 +1309,7 @@
         <v>1.7</v>
       </c>
       <c r="AT4" t="n">
-        <v>0.44</v>
+        <v>0.7</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1512,7 +1512,7 @@
         <v>1.55</v>
       </c>
       <c r="AT5" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>2.3</v>
+        <v>2.18</v>
       </c>
       <c r="AT10" t="n">
         <v>0.64</v>
@@ -2933,7 +2933,7 @@
         <v>3</v>
       </c>
       <c r="AT12" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3133,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT13" t="n">
         <v>1.45</v>
@@ -3339,7 +3339,7 @@
         <v>3</v>
       </c>
       <c r="AT14" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AU14" t="n">
         <v>2.27</v>
@@ -3539,7 +3539,7 @@
         <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>2.3</v>
+        <v>2.18</v>
       </c>
       <c r="AT15" t="n">
         <v>1.6</v>
@@ -4554,7 +4554,7 @@
         <v>2</v>
       </c>
       <c r="AS20" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="AT20" t="n">
         <v>0.91</v>
@@ -5166,7 +5166,7 @@
         <v>1.55</v>
       </c>
       <c r="AT23" t="n">
-        <v>0.44</v>
+        <v>0.7</v>
       </c>
       <c r="AU23" t="n">
         <v>1.14</v>
@@ -5569,10 +5569,10 @@
         <v>1</v>
       </c>
       <c r="AS25" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT25" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AU25" t="n">
         <v>0.36</v>
@@ -5975,7 +5975,7 @@
         <v>0</v>
       </c>
       <c r="AS27" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT27" t="n">
         <v>1.6</v>
@@ -6181,7 +6181,7 @@
         <v>1.36</v>
       </c>
       <c r="AT28" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AU28" t="n">
         <v>1.33</v>
@@ -6790,7 +6790,7 @@
         <v>2.64</v>
       </c>
       <c r="AT31" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AU31" t="n">
         <v>1.49</v>
@@ -6990,10 +6990,10 @@
         <v>0</v>
       </c>
       <c r="AS32" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT32" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AU32" t="n">
         <v>0.67</v>
@@ -7196,7 +7196,7 @@
         <v>2.2</v>
       </c>
       <c r="AT33" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AU33" t="n">
         <v>1.89</v>
@@ -7599,7 +7599,7 @@
         <v>1</v>
       </c>
       <c r="AS35" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AT35" t="n">
         <v>1.6</v>
@@ -8008,7 +8008,7 @@
         <v>1.55</v>
       </c>
       <c r="AT37" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AU37" t="n">
         <v>1.19</v>
@@ -8411,7 +8411,7 @@
         <v>1.5</v>
       </c>
       <c r="AS39" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="AT39" t="n">
         <v>1.6</v>
@@ -8817,7 +8817,7 @@
         <v>1.5</v>
       </c>
       <c r="AS41" t="n">
-        <v>2.3</v>
+        <v>2.18</v>
       </c>
       <c r="AT41" t="n">
         <v>1.45</v>
@@ -10038,7 +10038,7 @@
         <v>1.64</v>
       </c>
       <c r="AT47" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AU47" t="n">
         <v>1.48</v>
@@ -10238,7 +10238,7 @@
         <v>0</v>
       </c>
       <c r="AS48" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT48" t="n">
         <v>0</v>
@@ -10441,7 +10441,7 @@
         <v>1.4</v>
       </c>
       <c r="AS49" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="AT49" t="n">
         <v>1.6</v>
@@ -11053,7 +11053,7 @@
         <v>1.36</v>
       </c>
       <c r="AT52" t="n">
-        <v>0.44</v>
+        <v>0.7</v>
       </c>
       <c r="AU52" t="n">
         <v>1.44</v>
@@ -11253,10 +11253,10 @@
         <v>1</v>
       </c>
       <c r="AS53" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AT53" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AU53" t="n">
         <v>1.04</v>
@@ -12065,7 +12065,7 @@
         <v>0.25</v>
       </c>
       <c r="AS57" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT57" t="n">
         <v>0.64</v>
@@ -12268,10 +12268,10 @@
         <v>1</v>
       </c>
       <c r="AS58" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="AT58" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AU58" t="n">
         <v>1.28</v>
@@ -12471,10 +12471,10 @@
         <v>2.5</v>
       </c>
       <c r="AS59" t="n">
-        <v>2.3</v>
+        <v>2.18</v>
       </c>
       <c r="AT59" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AU59" t="n">
         <v>1.18</v>
@@ -13286,7 +13286,7 @@
         <v>2</v>
       </c>
       <c r="AT63" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AU63" t="n">
         <v>1.87</v>
@@ -13892,7 +13892,7 @@
         <v>0</v>
       </c>
       <c r="AS66" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AT66" t="n">
         <v>0</v>
@@ -14098,7 +14098,7 @@
         <v>3</v>
       </c>
       <c r="AT67" t="n">
-        <v>0.44</v>
+        <v>0.7</v>
       </c>
       <c r="AU67" t="n">
         <v>1.95</v>
@@ -14501,7 +14501,7 @@
         <v>1.25</v>
       </c>
       <c r="AS69" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT69" t="n">
         <v>0.91</v>
@@ -14704,7 +14704,7 @@
         <v>0.2</v>
       </c>
       <c r="AS70" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="AT70" t="n">
         <v>0.5</v>
@@ -14907,10 +14907,10 @@
         <v>1.4</v>
       </c>
       <c r="AS71" t="n">
-        <v>2.3</v>
+        <v>2.18</v>
       </c>
       <c r="AT71" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AU71" t="n">
         <v>1.02</v>
@@ -15113,7 +15113,7 @@
         <v>2.2</v>
       </c>
       <c r="AT72" t="n">
-        <v>0.44</v>
+        <v>0.7</v>
       </c>
       <c r="AU72" t="n">
         <v>1.5</v>
@@ -15316,7 +15316,7 @@
         <v>1.7</v>
       </c>
       <c r="AT73" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AU73" t="n">
         <v>1.49</v>
@@ -15516,7 +15516,7 @@
         <v>0.6</v>
       </c>
       <c r="AS74" t="n">
-        <v>2.3</v>
+        <v>2.18</v>
       </c>
       <c r="AT74" t="n">
         <v>0.36</v>
@@ -15925,7 +15925,7 @@
         <v>1.64</v>
       </c>
       <c r="AT76" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AU76" t="n">
         <v>1.52</v>
@@ -16125,7 +16125,7 @@
         <v>0.2</v>
       </c>
       <c r="AS77" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AT77" t="n">
         <v>0.64</v>
@@ -16534,7 +16534,7 @@
         <v>1.36</v>
       </c>
       <c r="AT79" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AU79" t="n">
         <v>1.44</v>
@@ -16737,7 +16737,7 @@
         <v>2.64</v>
       </c>
       <c r="AT80" t="n">
-        <v>0.44</v>
+        <v>0.7</v>
       </c>
       <c r="AU80" t="n">
         <v>1.58</v>
@@ -16937,7 +16937,7 @@
         <v>0.67</v>
       </c>
       <c r="AS81" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT81" t="n">
         <v>0.5</v>
@@ -17140,7 +17140,7 @@
         <v>0.67</v>
       </c>
       <c r="AS82" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="AT82" t="n">
         <v>0.64</v>
@@ -17343,7 +17343,7 @@
         <v>1.17</v>
       </c>
       <c r="AS83" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AT83" t="n">
         <v>1.6</v>
@@ -17752,7 +17752,7 @@
         <v>2</v>
       </c>
       <c r="AT85" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AU85" t="n">
         <v>1.75</v>
@@ -18158,7 +18158,7 @@
         <v>1.7</v>
       </c>
       <c r="AT87" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AU87" t="n">
         <v>1.45</v>
@@ -18561,7 +18561,7 @@
         <v>1.11</v>
       </c>
       <c r="AS89" t="n">
-        <v>2.3</v>
+        <v>2.18</v>
       </c>
       <c r="AT89" t="n">
         <v>0.91</v>
@@ -18764,10 +18764,10 @@
         <v>1.5</v>
       </c>
       <c r="AS90" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="AT90" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AU90" t="n">
         <v>1.09</v>
@@ -19170,7 +19170,7 @@
         <v>1.13</v>
       </c>
       <c r="AS92" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AT92" t="n">
         <v>1.45</v>
@@ -20391,7 +20391,7 @@
         <v>2.64</v>
       </c>
       <c r="AT98" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AU98" t="n">
         <v>1.71</v>
@@ -20594,7 +20594,7 @@
         <v>1.36</v>
       </c>
       <c r="AT99" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AU99" t="n">
         <v>1.35</v>
@@ -20997,10 +20997,10 @@
         <v>0.67</v>
       </c>
       <c r="AS101" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AT101" t="n">
-        <v>0.44</v>
+        <v>0.7</v>
       </c>
       <c r="AU101" t="n">
         <v>1.12</v>
@@ -21200,7 +21200,7 @@
         <v>0</v>
       </c>
       <c r="AS102" t="n">
-        <v>2.3</v>
+        <v>2.18</v>
       </c>
       <c r="AT102" t="n">
         <v>0</v>
@@ -21606,7 +21606,7 @@
         <v>1.44</v>
       </c>
       <c r="AS104" t="n">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AT104" t="n">
         <v>1.6</v>
@@ -22827,7 +22827,7 @@
         <v>2.2</v>
       </c>
       <c r="AT110" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AU110" t="n">
         <v>1.38</v>
@@ -23027,10 +23027,10 @@
         <v>0.57</v>
       </c>
       <c r="AS111" t="n">
-        <v>2.3</v>
+        <v>2.18</v>
       </c>
       <c r="AT111" t="n">
-        <v>0.44</v>
+        <v>0.7</v>
       </c>
       <c r="AU111" t="n">
         <v>1.3</v>
@@ -23230,10 +23230,10 @@
         <v>2.25</v>
       </c>
       <c r="AS112" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="AT112" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AU112" t="n">
         <v>1.11</v>
@@ -23433,10 +23433,10 @@
         <v>1.71</v>
       </c>
       <c r="AS113" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AT113" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AU113" t="n">
         <v>1.25</v>
@@ -24248,7 +24248,7 @@
         <v>1.64</v>
       </c>
       <c r="AT117" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="AU117" t="n">
         <v>1.4</v>
@@ -24448,7 +24448,7 @@
         <v>0.3</v>
       </c>
       <c r="AS118" t="n">
-        <v>1.22</v>
+        <v>1.1</v>
       </c>
       <c r="AT118" t="n">
         <v>0.36</v>
@@ -24654,7 +24654,7 @@
         <v>2</v>
       </c>
       <c r="AT119" t="n">
-        <v>0.44</v>
+        <v>0.7</v>
       </c>
       <c r="AU119" t="n">
         <v>1.61</v>
@@ -24854,7 +24854,7 @@
         <v>1.3</v>
       </c>
       <c r="AS120" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="AT120" t="n">
         <v>1.45</v>
@@ -25263,7 +25263,7 @@
         <v>1.55</v>
       </c>
       <c r="AT122" t="n">
-        <v>1.56</v>
+        <v>1.5</v>
       </c>
       <c r="AU122" t="n">
         <v>1.29</v>
@@ -25463,7 +25463,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS123" t="n">
-        <v>2.3</v>
+        <v>2.18</v>
       </c>
       <c r="AT123" t="n">
         <v>0.5</v>
@@ -25518,6 +25518,818 @@
       </c>
       <c r="BK123" t="n">
         <v>4</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B124" t="n">
+        <v>2655356</v>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>Wales Welsh Premier League</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E124" s="2" t="n">
+        <v>44936.69791666666</v>
+      </c>
+      <c r="F124" t="n">
+        <v>18</v>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>Bala Town</t>
+        </is>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>Connah's Quay</t>
+        </is>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
+      <c r="K124" t="n">
+        <v>0</v>
+      </c>
+      <c r="L124" t="n">
+        <v>0</v>
+      </c>
+      <c r="M124" t="n">
+        <v>0</v>
+      </c>
+      <c r="N124" t="n">
+        <v>0</v>
+      </c>
+      <c r="O124" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P124" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q124" t="n">
+        <v>3</v>
+      </c>
+      <c r="R124" t="n">
+        <v>6</v>
+      </c>
+      <c r="S124" t="n">
+        <v>9</v>
+      </c>
+      <c r="T124" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U124" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V124" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W124" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X124" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y124" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z124" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA124" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB124" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC124" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AD124" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE124" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AF124" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG124" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AH124" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI124" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AJ124" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AK124" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AL124" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AM124" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN124" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AO124" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP124" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AQ124" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AR124" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AS124" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AT124" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AU124" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AV124" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AW124" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="AX124" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AY124" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AZ124" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BA124" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BB124" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BC124" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="BD124" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="BE124" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="BF124" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG124" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH124" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI124" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ124" t="n">
+        <v>4</v>
+      </c>
+      <c r="BK124" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B125" t="n">
+        <v>2655355</v>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>Wales Welsh Premier League</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E125" s="2" t="n">
+        <v>44936.69791666666</v>
+      </c>
+      <c r="F125" t="n">
+        <v>18</v>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>Airbus UK</t>
+        </is>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>Caernarfon Town</t>
+        </is>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="n">
+        <v>2</v>
+      </c>
+      <c r="K125" t="n">
+        <v>2</v>
+      </c>
+      <c r="L125" t="n">
+        <v>0</v>
+      </c>
+      <c r="M125" t="n">
+        <v>3</v>
+      </c>
+      <c r="N125" t="n">
+        <v>3</v>
+      </c>
+      <c r="O125" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P125" t="inlineStr">
+        <is>
+          <t>['4', '19', '47']</t>
+        </is>
+      </c>
+      <c r="Q125" t="n">
+        <v>6</v>
+      </c>
+      <c r="R125" t="n">
+        <v>7</v>
+      </c>
+      <c r="S125" t="n">
+        <v>13</v>
+      </c>
+      <c r="T125" t="n">
+        <v>4</v>
+      </c>
+      <c r="U125" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="V125" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="W125" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X125" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Y125" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Z125" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AA125" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB125" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AC125" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AD125" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AE125" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AF125" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG125" t="n">
+        <v>19</v>
+      </c>
+      <c r="AH125" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AI125" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AJ125" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AK125" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AL125" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AM125" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AN125" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AO125" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP125" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AQ125" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AR125" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="AS125" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="AT125" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AU125" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AV125" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AW125" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="AX125" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AY125" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AZ125" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="BA125" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BB125" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BC125" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BD125" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BE125" t="n">
+        <v>3</v>
+      </c>
+      <c r="BF125" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG125" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH125" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI125" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ125" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK125" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B126" t="n">
+        <v>2655302</v>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>Wales Welsh Premier League</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E126" s="2" t="n">
+        <v>44936.69791666666</v>
+      </c>
+      <c r="F126" t="n">
+        <v>18</v>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>Flint Town United</t>
+        </is>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>The New Saints</t>
+        </is>
+      </c>
+      <c r="I126" t="n">
+        <v>1</v>
+      </c>
+      <c r="J126" t="n">
+        <v>4</v>
+      </c>
+      <c r="K126" t="n">
+        <v>5</v>
+      </c>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="n">
+        <v>8</v>
+      </c>
+      <c r="N126" t="n">
+        <v>9</v>
+      </c>
+      <c r="O126" t="inlineStr">
+        <is>
+          <t>['28']</t>
+        </is>
+      </c>
+      <c r="P126" t="inlineStr">
+        <is>
+          <t>['18', '23', '25', '42', '55', '60', '62', '73']</t>
+        </is>
+      </c>
+      <c r="Q126" t="n">
+        <v>0</v>
+      </c>
+      <c r="R126" t="n">
+        <v>8</v>
+      </c>
+      <c r="S126" t="n">
+        <v>8</v>
+      </c>
+      <c r="T126" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="U126" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="V126" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="W126" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="X126" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="Y126" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="Z126" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AA126" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="AB126" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AC126" t="n">
+        <v>6.37</v>
+      </c>
+      <c r="AD126" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="AE126" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AF126" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG126" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH126" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AI126" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="AJ126" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AK126" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="AL126" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AM126" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN126" t="n">
+        <v>3</v>
+      </c>
+      <c r="AO126" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AP126" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AQ126" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AR126" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AS126" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AT126" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AU126" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AV126" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AW126" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="AX126" t="n">
+        <v>14</v>
+      </c>
+      <c r="AY126" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ126" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="BA126" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="BB126" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BC126" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BD126" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE126" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BF126" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG126" t="n">
+        <v>15</v>
+      </c>
+      <c r="BH126" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI126" t="n">
+        <v>11</v>
+      </c>
+      <c r="BJ126" t="n">
+        <v>3</v>
+      </c>
+      <c r="BK126" t="n">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B127" t="n">
+        <v>2655360</v>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>Wales Welsh Premier League</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E127" s="2" t="n">
+        <v>44936.70833333334</v>
+      </c>
+      <c r="F127" t="n">
+        <v>18</v>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>Aberystwyth Town</t>
+        </is>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>Penybont</t>
+        </is>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="n">
+        <v>2</v>
+      </c>
+      <c r="K127" t="n">
+        <v>2</v>
+      </c>
+      <c r="L127" t="n">
+        <v>0</v>
+      </c>
+      <c r="M127" t="n">
+        <v>3</v>
+      </c>
+      <c r="N127" t="n">
+        <v>3</v>
+      </c>
+      <c r="O127" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P127" t="inlineStr">
+        <is>
+          <t>['24', '38', '64']</t>
+        </is>
+      </c>
+      <c r="Q127" t="n">
+        <v>1</v>
+      </c>
+      <c r="R127" t="n">
+        <v>2</v>
+      </c>
+      <c r="S127" t="n">
+        <v>3</v>
+      </c>
+      <c r="T127" t="n">
+        <v>4</v>
+      </c>
+      <c r="U127" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V127" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="W127" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X127" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Y127" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z127" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA127" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB127" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC127" t="n">
+        <v>5</v>
+      </c>
+      <c r="AD127" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AE127" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AF127" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG127" t="n">
+        <v>16</v>
+      </c>
+      <c r="AH127" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AI127" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AJ127" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AK127" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AL127" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AM127" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN127" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AO127" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP127" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AQ127" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AR127" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS127" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT127" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AU127" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AV127" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AW127" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="AX127" t="n">
+        <v>5.85</v>
+      </c>
+      <c r="AY127" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ127" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BA127" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BB127" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BC127" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BD127" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BE127" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="BF127" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG127" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH127" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI127" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ127" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK127" t="n">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Wales Welsh Premier League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Wales Welsh Premier League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK127"/>
+  <dimension ref="A1:BK130"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AT3" t="n">
         <v>1.5</v>
@@ -1309,7 +1309,7 @@
         <v>1.7</v>
       </c>
       <c r="AT4" t="n">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>1.64</v>
       </c>
       <c r="AT11" t="n">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -3133,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT13" t="n">
         <v>1.45</v>
@@ -4760,7 +4760,7 @@
         <v>1.55</v>
       </c>
       <c r="AT21" t="n">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU21" t="n">
         <v>1.14</v>
@@ -5163,10 +5163,10 @@
         <v>0</v>
       </c>
       <c r="AS23" t="n">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AT23" t="n">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU23" t="n">
         <v>1.94</v>
@@ -5569,7 +5569,7 @@
         <v>1</v>
       </c>
       <c r="AS25" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT25" t="n">
         <v>2.45</v>
@@ -5975,7 +5975,7 @@
         <v>0</v>
       </c>
       <c r="AS27" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT27" t="n">
         <v>1.6</v>
@@ -6178,7 +6178,7 @@
         <v>2.25</v>
       </c>
       <c r="AS28" t="n">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AT28" t="n">
         <v>0.91</v>
@@ -6990,7 +6990,7 @@
         <v>0</v>
       </c>
       <c r="AS32" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT32" t="n">
         <v>1.5</v>
@@ -7599,7 +7599,7 @@
         <v>1</v>
       </c>
       <c r="AS35" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AT35" t="n">
         <v>1.6</v>
@@ -7802,7 +7802,7 @@
         <v>2.33</v>
       </c>
       <c r="AS36" t="n">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AT36" t="n">
         <v>2.45</v>
@@ -9023,7 +9023,7 @@
         <v>2.64</v>
       </c>
       <c r="AT42" t="n">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU42" t="n">
         <v>1.62</v>
@@ -9429,7 +9429,7 @@
         <v>2</v>
       </c>
       <c r="AT44" t="n">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU44" t="n">
         <v>1.89</v>
@@ -10238,7 +10238,7 @@
         <v>0</v>
       </c>
       <c r="AS48" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT48" t="n">
         <v>0</v>
@@ -10850,7 +10850,7 @@
         <v>1.36</v>
       </c>
       <c r="AT51" t="n">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU51" t="n">
         <v>1.44</v>
@@ -11050,7 +11050,7 @@
         <v>1</v>
       </c>
       <c r="AS52" t="n">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AT52" t="n">
         <v>0.36</v>
@@ -11253,7 +11253,7 @@
         <v>1</v>
       </c>
       <c r="AS53" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AT53" t="n">
         <v>1.64</v>
@@ -12065,7 +12065,7 @@
         <v>0.25</v>
       </c>
       <c r="AS57" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT57" t="n">
         <v>0.64</v>
@@ -13692,7 +13692,7 @@
         <v>3</v>
       </c>
       <c r="AT65" t="n">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU65" t="n">
         <v>2.08</v>
@@ -13892,7 +13892,7 @@
         <v>0</v>
       </c>
       <c r="AS66" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AT66" t="n">
         <v>0</v>
@@ -14098,7 +14098,7 @@
         <v>3</v>
       </c>
       <c r="AT67" t="n">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU67" t="n">
         <v>1.95</v>
@@ -14501,7 +14501,7 @@
         <v>1.25</v>
       </c>
       <c r="AS69" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT69" t="n">
         <v>0.91</v>
@@ -14907,10 +14907,10 @@
         <v>0</v>
       </c>
       <c r="AS71" t="n">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AT71" t="n">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU71" t="n">
         <v>1.5</v>
@@ -15316,7 +15316,7 @@
         <v>0.09</v>
       </c>
       <c r="AT73" t="n">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU73" t="n">
         <v>1.12</v>
@@ -16125,7 +16125,7 @@
         <v>0.2</v>
       </c>
       <c r="AS77" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AT77" t="n">
         <v>0.64</v>
@@ -16737,7 +16737,7 @@
         <v>2.64</v>
       </c>
       <c r="AT80" t="n">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU80" t="n">
         <v>1.58</v>
@@ -16937,10 +16937,10 @@
         <v>0.67</v>
       </c>
       <c r="AS81" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT81" t="n">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU81" t="n">
         <v>1</v>
@@ -17343,7 +17343,7 @@
         <v>1.17</v>
       </c>
       <c r="AS83" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AT83" t="n">
         <v>1.6</v>
@@ -17546,7 +17546,7 @@
         <v>1.86</v>
       </c>
       <c r="AS84" t="n">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AT84" t="n">
         <v>1.6</v>
@@ -19170,7 +19170,7 @@
         <v>1.13</v>
       </c>
       <c r="AS92" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AT92" t="n">
         <v>1.45</v>
@@ -19579,7 +19579,7 @@
         <v>1.55</v>
       </c>
       <c r="AT94" t="n">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU94" t="n">
         <v>1.12</v>
@@ -19779,7 +19779,7 @@
         <v>0.88</v>
       </c>
       <c r="AS95" t="n">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AT95" t="n">
         <v>0.64</v>
@@ -20185,7 +20185,7 @@
         <v>1.63</v>
       </c>
       <c r="AS97" t="n">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AT97" t="n">
         <v>1.6</v>
@@ -20794,10 +20794,10 @@
         <v>0.67</v>
       </c>
       <c r="AS100" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AT100" t="n">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU100" t="n">
         <v>1.12</v>
@@ -21606,7 +21606,7 @@
         <v>1.44</v>
       </c>
       <c r="AS104" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT104" t="n">
         <v>1.6</v>
@@ -22827,7 +22827,7 @@
         <v>2.18</v>
       </c>
       <c r="AT110" t="n">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU110" t="n">
         <v>1.3</v>
@@ -23027,7 +23027,7 @@
         <v>1.56</v>
       </c>
       <c r="AS111" t="n">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="AT111" t="n">
         <v>1.64</v>
@@ -23433,7 +23433,7 @@
         <v>1.71</v>
       </c>
       <c r="AS113" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AT113" t="n">
         <v>1.5</v>
@@ -23639,7 +23639,7 @@
         <v>1.7</v>
       </c>
       <c r="AT114" t="n">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU114" t="n">
         <v>1.46</v>
@@ -24448,7 +24448,7 @@
         <v>0.3</v>
       </c>
       <c r="AS118" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AT118" t="n">
         <v>0.36</v>
@@ -24654,7 +24654,7 @@
         <v>2</v>
       </c>
       <c r="AT119" t="n">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU119" t="n">
         <v>1.61</v>
@@ -25060,7 +25060,7 @@
         <v>2.18</v>
       </c>
       <c r="AT121" t="n">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="AU121" t="n">
         <v>1.32</v>
@@ -25872,7 +25872,7 @@
         <v>0.09</v>
       </c>
       <c r="AT125" t="n">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AU125" t="n">
         <v>1.04</v>
@@ -26072,7 +26072,7 @@
         <v>2.4</v>
       </c>
       <c r="AS126" t="n">
-        <v>1.1</v>
+        <v>1.27</v>
       </c>
       <c r="AT126" t="n">
         <v>2.45</v>
@@ -26275,7 +26275,7 @@
         <v>1.5</v>
       </c>
       <c r="AS127" t="n">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AT127" t="n">
         <v>1.64</v>
@@ -26329,6 +26329,615 @@
         <v>8</v>
       </c>
       <c r="BK127" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B128" t="n">
+        <v>2655379</v>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>Wales Welsh Premier League</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E128" s="2" t="n">
+        <v>44947.59375</v>
+      </c>
+      <c r="F128" t="n">
+        <v>22</v>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>Aberystwyth Town</t>
+        </is>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>Caernarfon Town</t>
+        </is>
+      </c>
+      <c r="I128" t="n">
+        <v>1</v>
+      </c>
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="n">
+        <v>2</v>
+      </c>
+      <c r="M128" t="n">
+        <v>1</v>
+      </c>
+      <c r="N128" t="n">
+        <v>3</v>
+      </c>
+      <c r="O128" t="inlineStr">
+        <is>
+          <t>['8', '77']</t>
+        </is>
+      </c>
+      <c r="P128" t="inlineStr">
+        <is>
+          <t>['89']</t>
+        </is>
+      </c>
+      <c r="Q128" t="n">
+        <v>9</v>
+      </c>
+      <c r="R128" t="n">
+        <v>6</v>
+      </c>
+      <c r="S128" t="n">
+        <v>15</v>
+      </c>
+      <c r="T128" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="U128" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V128" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="W128" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X128" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Y128" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Z128" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA128" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="AB128" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC128" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="AD128" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="AE128" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AF128" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG128" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH128" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI128" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AJ128" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AK128" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AL128" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AM128" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="AN128" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AO128" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP128" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AQ128" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR128" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="AS128" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AT128" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="AU128" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AV128" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AW128" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="AX128" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY128" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ128" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA128" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB128" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC128" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD128" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE128" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF128" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG128" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH128" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI128" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ128" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK128" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B129" t="n">
+        <v>2655380</v>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>Wales Welsh Premier League</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E129" s="2" t="n">
+        <v>44947.59375</v>
+      </c>
+      <c r="F129" t="n">
+        <v>22</v>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>Cardiff MU</t>
+        </is>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>Airbus UK</t>
+        </is>
+      </c>
+      <c r="I129" t="n">
+        <v>1</v>
+      </c>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="n">
+        <v>3</v>
+      </c>
+      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+      <c r="N129" t="n">
+        <v>4</v>
+      </c>
+      <c r="O129" t="inlineStr">
+        <is>
+          <t>['12', '49', '72']</t>
+        </is>
+      </c>
+      <c r="P129" t="inlineStr">
+        <is>
+          <t>['58']</t>
+        </is>
+      </c>
+      <c r="Q129" t="n">
+        <v>6</v>
+      </c>
+      <c r="R129" t="n">
+        <v>1</v>
+      </c>
+      <c r="S129" t="n">
+        <v>7</v>
+      </c>
+      <c r="T129" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U129" t="n">
+        <v>3</v>
+      </c>
+      <c r="V129" t="n">
+        <v>10</v>
+      </c>
+      <c r="W129" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="X129" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="Y129" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="Z129" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AA129" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AB129" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AC129" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AD129" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AE129" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF129" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG129" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH129" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AI129" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AJ129" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AK129" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="AL129" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM129" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AN129" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AO129" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AP129" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AQ129" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AR129" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS129" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="AT129" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU129" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AV129" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="AW129" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AX129" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY129" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ129" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA129" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB129" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC129" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD129" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE129" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF129" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG129" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH129" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI129" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ129" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK129" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B130" t="n">
+        <v>2655381</v>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>Wales Welsh Premier League</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E130" s="2" t="n">
+        <v>44947.59375</v>
+      </c>
+      <c r="F130" t="n">
+        <v>22</v>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>Flint Town United</t>
+        </is>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>Pontypridd Town AFC</t>
+        </is>
+      </c>
+      <c r="I130" t="n">
+        <v>2</v>
+      </c>
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
+      <c r="K130" t="n">
+        <v>2</v>
+      </c>
+      <c r="L130" t="n">
+        <v>4</v>
+      </c>
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+      <c r="N130" t="n">
+        <v>5</v>
+      </c>
+      <c r="O130" t="inlineStr">
+        <is>
+          <t>['29', '32', '58', '63']</t>
+        </is>
+      </c>
+      <c r="P130" t="inlineStr">
+        <is>
+          <t>['82']</t>
+        </is>
+      </c>
+      <c r="Q130" t="n">
+        <v>3</v>
+      </c>
+      <c r="R130" t="n">
+        <v>3</v>
+      </c>
+      <c r="S130" t="n">
+        <v>6</v>
+      </c>
+      <c r="T130" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="U130" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V130" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W130" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X130" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="Y130" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="Z130" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AA130" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="AB130" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AC130" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AD130" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AE130" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="AF130" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG130" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH130" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI130" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ130" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AK130" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AL130" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AM130" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN130" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AO130" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AP130" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AQ130" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AR130" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AS130" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AT130" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="AU130" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AV130" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AW130" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AX130" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY130" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ130" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA130" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BB130" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BC130" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD130" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BE130" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BF130" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG130" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH130" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI130" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ130" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK130" t="n">
         <v>12</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2023)/Wales Welsh Premier League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Wales Welsh Premier League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK130"/>
+  <dimension ref="A1:BK131"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AT7" t="n">
         <v>1.6</v>
@@ -3339,7 +3339,7 @@
         <v>2.18</v>
       </c>
       <c r="AT14" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AU14" t="n">
         <v>0.86</v>
@@ -4148,7 +4148,7 @@
         <v>3</v>
       </c>
       <c r="AS18" t="n">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AT18" t="n">
         <v>0.91</v>
@@ -4554,7 +4554,7 @@
         <v>1</v>
       </c>
       <c r="AS20" t="n">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AT20" t="n">
         <v>0.64</v>
@@ -6587,7 +6587,7 @@
         <v>1.7</v>
       </c>
       <c r="AT30" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AU30" t="n">
         <v>2.4</v>
@@ -8211,7 +8211,7 @@
         <v>0.09</v>
       </c>
       <c r="AT38" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AU38" t="n">
         <v>1.47</v>
@@ -8411,7 +8411,7 @@
         <v>1.5</v>
       </c>
       <c r="AS39" t="n">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AT39" t="n">
         <v>0.36</v>
@@ -9426,7 +9426,7 @@
         <v>0</v>
       </c>
       <c r="AS44" t="n">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AT44" t="n">
         <v>0.45</v>
@@ -10444,7 +10444,7 @@
         <v>3</v>
       </c>
       <c r="AT49" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AU49" t="n">
         <v>2.26</v>
@@ -11865,7 +11865,7 @@
         <v>1.36</v>
       </c>
       <c r="AT56" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AU56" t="n">
         <v>1.45</v>
@@ -13486,7 +13486,7 @@
         <v>0.75</v>
       </c>
       <c r="AS64" t="n">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AT64" t="n">
         <v>1.5</v>
@@ -14301,7 +14301,7 @@
         <v>2.64</v>
       </c>
       <c r="AT68" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AU68" t="n">
         <v>1.53</v>
@@ -17346,7 +17346,7 @@
         <v>1.27</v>
       </c>
       <c r="AT83" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AU83" t="n">
         <v>1.13</v>
@@ -17749,7 +17749,7 @@
         <v>2.67</v>
       </c>
       <c r="AS85" t="n">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AT85" t="n">
         <v>2.45</v>
@@ -18361,7 +18361,7 @@
         <v>1.64</v>
       </c>
       <c r="AT88" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AU88" t="n">
         <v>1.52</v>
@@ -20188,7 +20188,7 @@
         <v>2.27</v>
       </c>
       <c r="AT97" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AU97" t="n">
         <v>1.37</v>
@@ -21609,7 +21609,7 @@
         <v>1.64</v>
       </c>
       <c r="AT104" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AU104" t="n">
         <v>1.02</v>
@@ -22215,7 +22215,7 @@
         <v>1.11</v>
       </c>
       <c r="AS107" t="n">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AT107" t="n">
         <v>1.45</v>
@@ -24042,7 +24042,7 @@
         <v>0</v>
       </c>
       <c r="AS116" t="n">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AT116" t="n">
         <v>0</v>
@@ -24651,7 +24651,7 @@
         <v>0.5</v>
       </c>
       <c r="AS119" t="n">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AT119" t="n">
         <v>0.64</v>
@@ -26939,6 +26939,209 @@
       </c>
       <c r="BK130" t="n">
         <v>12</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B131" t="n">
+        <v>2655383</v>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>Wales Welsh Premier League</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E131" s="2" t="n">
+        <v>44954.5</v>
+      </c>
+      <c r="F131" t="n">
+        <v>22</v>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>Penybont</t>
+        </is>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>Newtown</t>
+        </is>
+      </c>
+      <c r="I131" t="n">
+        <v>3</v>
+      </c>
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
+      <c r="K131" t="n">
+        <v>3</v>
+      </c>
+      <c r="L131" t="n">
+        <v>3</v>
+      </c>
+      <c r="M131" t="n">
+        <v>0</v>
+      </c>
+      <c r="N131" t="n">
+        <v>3</v>
+      </c>
+      <c r="O131" t="inlineStr">
+        <is>
+          <t>['17', '41', '44']</t>
+        </is>
+      </c>
+      <c r="P131" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q131" t="n">
+        <v>4</v>
+      </c>
+      <c r="R131" t="n">
+        <v>7</v>
+      </c>
+      <c r="S131" t="n">
+        <v>11</v>
+      </c>
+      <c r="T131" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="U131" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V131" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="W131" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X131" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="Y131" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="Z131" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AA131" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="AB131" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AC131" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AD131" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AE131" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="AF131" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG131" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH131" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI131" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ131" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AK131" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AL131" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AM131" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN131" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AO131" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AP131" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AQ131" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR131" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AS131" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AT131" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AU131" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AV131" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AW131" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="AX131" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY131" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ131" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA131" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BB131" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BC131" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BD131" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BE131" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="BF131" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG131" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH131" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI131" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ131" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK131" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Wales Welsh Premier League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Wales Welsh Premier League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK131"/>
+  <dimension ref="A1:BK133"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1106,7 +1106,7 @@
         <v>2.27</v>
       </c>
       <c r="AT3" t="n">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT4" t="n">
         <v>0.64</v>
@@ -1918,7 +1918,7 @@
         <v>2.09</v>
       </c>
       <c r="AT7" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -3542,7 +3542,7 @@
         <v>3</v>
       </c>
       <c r="AT15" t="n">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AU15" t="n">
         <v>2.27</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT17" t="n">
         <v>0</v>
@@ -5369,7 +5369,7 @@
         <v>2.64</v>
       </c>
       <c r="AT24" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AU24" t="n">
         <v>1.67</v>
@@ -5978,7 +5978,7 @@
         <v>1.64</v>
       </c>
       <c r="AT27" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AU27" t="n">
         <v>0.36</v>
@@ -6584,7 +6584,7 @@
         <v>0</v>
       </c>
       <c r="AS30" t="n">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT30" t="n">
         <v>1.45</v>
@@ -6993,7 +6993,7 @@
         <v>1.64</v>
       </c>
       <c r="AT32" t="n">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AU32" t="n">
         <v>0.67</v>
@@ -7602,7 +7602,7 @@
         <v>1.27</v>
       </c>
       <c r="AT35" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AU35" t="n">
         <v>0</v>
@@ -8614,7 +8614,7 @@
         <v>1.8</v>
       </c>
       <c r="AS40" t="n">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT40" t="n">
         <v>0.91</v>
@@ -9632,7 +9632,7 @@
         <v>1.55</v>
       </c>
       <c r="AT45" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AU45" t="n">
         <v>1.26</v>
@@ -9832,7 +9832,7 @@
         <v>1</v>
       </c>
       <c r="AS46" t="n">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT46" t="n">
         <v>1.45</v>
@@ -10038,7 +10038,7 @@
         <v>1.64</v>
       </c>
       <c r="AT47" t="n">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AU47" t="n">
         <v>1.48</v>
@@ -10647,7 +10647,7 @@
         <v>0.09</v>
       </c>
       <c r="AT50" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AU50" t="n">
         <v>1.52</v>
@@ -13283,10 +13283,10 @@
         <v>1.67</v>
       </c>
       <c r="AS63" t="n">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT63" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AU63" t="n">
         <v>1.58</v>
@@ -13489,7 +13489,7 @@
         <v>2.09</v>
       </c>
       <c r="AT64" t="n">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AU64" t="n">
         <v>1.87</v>
@@ -14704,7 +14704,7 @@
         <v>2.6</v>
       </c>
       <c r="AS70" t="n">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT70" t="n">
         <v>2.45</v>
@@ -16534,7 +16534,7 @@
         <v>1.36</v>
       </c>
       <c r="AT79" t="n">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AU79" t="n">
         <v>1.44</v>
@@ -17549,7 +17549,7 @@
         <v>2.27</v>
       </c>
       <c r="AT84" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AU84" t="n">
         <v>1.46</v>
@@ -18155,7 +18155,7 @@
         <v>1.57</v>
       </c>
       <c r="AS87" t="n">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT87" t="n">
         <v>1.64</v>
@@ -18564,7 +18564,7 @@
         <v>0.09</v>
       </c>
       <c r="AT89" t="n">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AU89" t="n">
         <v>1.09</v>
@@ -20591,7 +20591,7 @@
         <v>0.38</v>
       </c>
       <c r="AS99" t="n">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT99" t="n">
         <v>0.36</v>
@@ -21406,7 +21406,7 @@
         <v>1.64</v>
       </c>
       <c r="AT103" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AU103" t="n">
         <v>1.46</v>
@@ -23436,7 +23436,7 @@
         <v>1.27</v>
       </c>
       <c r="AT113" t="n">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AU113" t="n">
         <v>1.25</v>
@@ -23636,7 +23636,7 @@
         <v>0.5</v>
       </c>
       <c r="AS114" t="n">
-        <v>1.7</v>
+        <v>1.82</v>
       </c>
       <c r="AT114" t="n">
         <v>0.45</v>
@@ -23842,7 +23842,7 @@
         <v>1.36</v>
       </c>
       <c r="AT115" t="n">
-        <v>1.6</v>
+        <v>1.45</v>
       </c>
       <c r="AU115" t="n">
         <v>1.32</v>
@@ -25263,7 +25263,7 @@
         <v>1.55</v>
       </c>
       <c r="AT122" t="n">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AU122" t="n">
         <v>1.29</v>
@@ -25669,7 +25669,7 @@
         <v>2.18</v>
       </c>
       <c r="AT124" t="n">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AU124" t="n">
         <v>1.34</v>
@@ -27142,6 +27142,412 @@
       </c>
       <c r="BK131" t="n">
         <v>6</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B132" t="n">
+        <v>2655384</v>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>Wales Welsh Premier League</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E132" s="2" t="n">
+        <v>44957.69791666666</v>
+      </c>
+      <c r="F132" t="n">
+        <v>22</v>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>The New Saints</t>
+        </is>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>Bala Town</t>
+        </is>
+      </c>
+      <c r="I132" t="n">
+        <v>1</v>
+      </c>
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="n">
+        <v>3</v>
+      </c>
+      <c r="M132" t="n">
+        <v>0</v>
+      </c>
+      <c r="N132" t="n">
+        <v>3</v>
+      </c>
+      <c r="O132" t="inlineStr">
+        <is>
+          <t>['6', '68', '78']</t>
+        </is>
+      </c>
+      <c r="P132" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q132" t="n">
+        <v>5</v>
+      </c>
+      <c r="R132" t="n">
+        <v>4</v>
+      </c>
+      <c r="S132" t="n">
+        <v>9</v>
+      </c>
+      <c r="T132" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="U132" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="V132" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="W132" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="X132" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="Y132" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="Z132" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AA132" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AB132" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AC132" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AD132" t="n">
+        <v>4.61</v>
+      </c>
+      <c r="AE132" t="n">
+        <v>7.19</v>
+      </c>
+      <c r="AF132" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG132" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH132" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AI132" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AJ132" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AK132" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="AL132" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AM132" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN132" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AO132" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AP132" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AQ132" t="n">
+        <v>3</v>
+      </c>
+      <c r="AR132" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AS132" t="n">
+        <v>3</v>
+      </c>
+      <c r="AT132" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AU132" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="AV132" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AW132" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AX132" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY132" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ132" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA132" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BB132" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BC132" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BD132" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BE132" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="BF132" t="n">
+        <v>12</v>
+      </c>
+      <c r="BG132" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH132" t="n">
+        <v>12</v>
+      </c>
+      <c r="BI132" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ132" t="n">
+        <v>24</v>
+      </c>
+      <c r="BK132" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B133" t="n">
+        <v>2655382</v>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>Wales Welsh Premier League</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E133" s="2" t="n">
+        <v>44957.71875</v>
+      </c>
+      <c r="F133" t="n">
+        <v>22</v>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>Haverfordwest County</t>
+        </is>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>Connah's Quay</t>
+        </is>
+      </c>
+      <c r="I133" t="n">
+        <v>2</v>
+      </c>
+      <c r="J133" t="n">
+        <v>1</v>
+      </c>
+      <c r="K133" t="n">
+        <v>3</v>
+      </c>
+      <c r="L133" t="n">
+        <v>2</v>
+      </c>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+      <c r="N133" t="n">
+        <v>3</v>
+      </c>
+      <c r="O133" t="inlineStr">
+        <is>
+          <t>['4', '28']</t>
+        </is>
+      </c>
+      <c r="P133" t="inlineStr">
+        <is>
+          <t>['9']</t>
+        </is>
+      </c>
+      <c r="Q133" t="n">
+        <v>7</v>
+      </c>
+      <c r="R133" t="n">
+        <v>4</v>
+      </c>
+      <c r="S133" t="n">
+        <v>11</v>
+      </c>
+      <c r="T133" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="U133" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="V133" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="W133" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X133" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="Y133" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="Z133" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA133" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB133" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC133" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AD133" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE133" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AF133" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG133" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH133" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AI133" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AJ133" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AK133" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AL133" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM133" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN133" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO133" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP133" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AQ133" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AR133" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS133" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AT133" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AU133" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AV133" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AW133" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="AX133" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY133" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ133" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA133" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB133" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC133" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD133" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE133" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF133" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG133" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH133" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI133" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ133" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK133" t="n">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Wales Welsh Premier League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Wales Welsh Premier League_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="855" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="891" uniqueCount="243">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -532,6 +532,21 @@
     <t>['4', '28']</t>
   </si>
   <si>
+    <t>['36', '62', '68']</t>
+  </si>
+  <si>
+    <t>['6']</t>
+  </si>
+  <si>
+    <t>['63', '72']</t>
+  </si>
+  <si>
+    <t>['5', '22', '47', '72', '87']</t>
+  </si>
+  <si>
+    <t>['8', '45+1', '58', '90+3']</t>
+  </si>
+  <si>
     <t>['40', '75']</t>
   </si>
   <si>
@@ -725,6 +740,9 @@
   </si>
   <si>
     <t>['9']</t>
+  </si>
+  <si>
+    <t>['7', '12']</t>
   </si>
 </sst>
 </file>
@@ -1086,7 +1104,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK133"/>
+  <dimension ref="A1:BK139"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1330,7 +1348,7 @@
         <v>77</v>
       </c>
       <c r="P2" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="Q2">
         <v>5</v>
@@ -1420,7 +1438,7 @@
         <v>0.09</v>
       </c>
       <c r="AT2">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1608,10 +1626,10 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AT3">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -1990,10 +2008,10 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AT5">
-        <v>2.45</v>
+        <v>2.25</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -2094,7 +2112,7 @@
         <v>80</v>
       </c>
       <c r="P6" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="Q6">
         <v>6</v>
@@ -2181,7 +2199,7 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AT6">
         <v>0.91</v>
@@ -2667,7 +2685,7 @@
         <v>80</v>
       </c>
       <c r="P9" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="Q9">
         <v>11</v>
@@ -2754,7 +2772,7 @@
         <v>3</v>
       </c>
       <c r="AS9">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AT9">
         <v>0.91</v>
@@ -2948,7 +2966,7 @@
         <v>3</v>
       </c>
       <c r="AT10">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -3136,7 +3154,7 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT11">
         <v>0.45</v>
@@ -3327,10 +3345,10 @@
         <v>0</v>
       </c>
       <c r="AS12">
-        <v>2.18</v>
+        <v>2.08</v>
       </c>
       <c r="AT12">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -3431,7 +3449,7 @@
         <v>80</v>
       </c>
       <c r="P13" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="Q13">
         <v>2</v>
@@ -3709,7 +3727,7 @@
         <v>0</v>
       </c>
       <c r="AS14">
-        <v>2.18</v>
+        <v>2.08</v>
       </c>
       <c r="AT14">
         <v>1.45</v>
@@ -3813,7 +3831,7 @@
         <v>87</v>
       </c>
       <c r="P15" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="Q15">
         <v>6</v>
@@ -3903,7 +3921,7 @@
         <v>3</v>
       </c>
       <c r="AT15">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU15">
         <v>2.27</v>
@@ -4004,7 +4022,7 @@
         <v>88</v>
       </c>
       <c r="P16" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="Q16">
         <v>3</v>
@@ -4091,7 +4109,7 @@
         <v>3</v>
       </c>
       <c r="AS16">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT16">
         <v>1.45</v>
@@ -4386,7 +4404,7 @@
         <v>90</v>
       </c>
       <c r="P18" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="Q18">
         <v>5</v>
@@ -4664,10 +4682,10 @@
         <v>3</v>
       </c>
       <c r="AS19">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AT19">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AU19">
         <v>1.01</v>
@@ -4768,7 +4786,7 @@
         <v>92</v>
       </c>
       <c r="P20" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="Q20">
         <v>7</v>
@@ -4858,7 +4876,7 @@
         <v>2.09</v>
       </c>
       <c r="AT20">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU20">
         <v>1.86</v>
@@ -5046,7 +5064,7 @@
         <v>0</v>
       </c>
       <c r="AS21">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AT21">
         <v>0.64</v>
@@ -5150,7 +5168,7 @@
         <v>94</v>
       </c>
       <c r="P22" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="Q22">
         <v>3</v>
@@ -5428,7 +5446,7 @@
         <v>0</v>
       </c>
       <c r="AS23">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AT23">
         <v>0.45</v>
@@ -5723,7 +5741,7 @@
         <v>80</v>
       </c>
       <c r="P25" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="Q25">
         <v>1</v>
@@ -5813,7 +5831,7 @@
         <v>1.64</v>
       </c>
       <c r="AT25">
-        <v>2.45</v>
+        <v>2.25</v>
       </c>
       <c r="AU25">
         <v>0.36</v>
@@ -5914,7 +5932,7 @@
         <v>97</v>
       </c>
       <c r="P26" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="Q26">
         <v>7</v>
@@ -6001,7 +6019,7 @@
         <v>0</v>
       </c>
       <c r="AS26">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT26">
         <v>0</v>
@@ -6105,7 +6123,7 @@
         <v>98</v>
       </c>
       <c r="P27" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="Q27">
         <v>2</v>
@@ -6383,7 +6401,7 @@
         <v>2.25</v>
       </c>
       <c r="AS28">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AT28">
         <v>0.91</v>
@@ -6577,7 +6595,7 @@
         <v>2.64</v>
       </c>
       <c r="AT29">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AU29">
         <v>1.49</v>
@@ -6678,7 +6696,7 @@
         <v>101</v>
       </c>
       <c r="P30" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="Q30">
         <v>7</v>
@@ -6869,7 +6887,7 @@
         <v>80</v>
       </c>
       <c r="P31" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="Q31">
         <v>1</v>
@@ -6956,10 +6974,10 @@
         <v>2</v>
       </c>
       <c r="AS31">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AT31">
-        <v>2.45</v>
+        <v>2.25</v>
       </c>
       <c r="AU31">
         <v>1.33</v>
@@ -7060,7 +7078,7 @@
         <v>102</v>
       </c>
       <c r="P32" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="Q32">
         <v>1</v>
@@ -7150,7 +7168,7 @@
         <v>1.64</v>
       </c>
       <c r="AT32">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU32">
         <v>0.67</v>
@@ -7251,7 +7269,7 @@
         <v>103</v>
       </c>
       <c r="P33" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="Q33">
         <v>7</v>
@@ -7338,10 +7356,10 @@
         <v>0.5</v>
       </c>
       <c r="AS33">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT33">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU33">
         <v>1.54</v>
@@ -7529,7 +7547,7 @@
         <v>0</v>
       </c>
       <c r="AS34">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AT34">
         <v>0</v>
@@ -7633,7 +7651,7 @@
         <v>105</v>
       </c>
       <c r="P35" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="Q35">
         <v>3</v>
@@ -7720,7 +7738,7 @@
         <v>1</v>
       </c>
       <c r="AS35">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT35">
         <v>1.45</v>
@@ -7824,7 +7842,7 @@
         <v>80</v>
       </c>
       <c r="P36" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="Q36">
         <v>1</v>
@@ -7911,10 +7929,10 @@
         <v>2.33</v>
       </c>
       <c r="AS36">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AT36">
-        <v>2.45</v>
+        <v>2.25</v>
       </c>
       <c r="AU36">
         <v>1.89</v>
@@ -8015,7 +8033,7 @@
         <v>106</v>
       </c>
       <c r="P37" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="Q37">
         <v>6</v>
@@ -8102,10 +8120,10 @@
         <v>0</v>
       </c>
       <c r="AS37">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AT37">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AU37">
         <v>1.19</v>
@@ -8206,7 +8224,7 @@
         <v>107</v>
       </c>
       <c r="P38" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="Q38">
         <v>6</v>
@@ -8487,7 +8505,7 @@
         <v>2.09</v>
       </c>
       <c r="AT39">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AU39">
         <v>1.87</v>
@@ -8588,7 +8606,7 @@
         <v>96</v>
       </c>
       <c r="P40" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="Q40">
         <v>7</v>
@@ -8866,7 +8884,7 @@
         <v>1.5</v>
       </c>
       <c r="AS41">
-        <v>2.18</v>
+        <v>2.08</v>
       </c>
       <c r="AT41">
         <v>1.45</v>
@@ -9161,7 +9179,7 @@
         <v>111</v>
       </c>
       <c r="P43" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="Q43">
         <v>8</v>
@@ -9352,7 +9370,7 @@
         <v>112</v>
       </c>
       <c r="P44" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="Q44">
         <v>6</v>
@@ -9543,7 +9561,7 @@
         <v>80</v>
       </c>
       <c r="P45" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="Q45">
         <v>4</v>
@@ -9630,7 +9648,7 @@
         <v>1</v>
       </c>
       <c r="AS45">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AT45">
         <v>1.45</v>
@@ -9925,7 +9943,7 @@
         <v>80</v>
       </c>
       <c r="P47" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="Q47">
         <v>6</v>
@@ -10012,10 +10030,10 @@
         <v>0</v>
       </c>
       <c r="AS47">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT47">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU47">
         <v>1.48</v>
@@ -10116,7 +10134,7 @@
         <v>114</v>
       </c>
       <c r="P48" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="Q48">
         <v>4</v>
@@ -10307,7 +10325,7 @@
         <v>115</v>
       </c>
       <c r="P49" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="Q49">
         <v>6</v>
@@ -10498,7 +10516,7 @@
         <v>80</v>
       </c>
       <c r="P50" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="Q50">
         <v>0</v>
@@ -10776,7 +10794,7 @@
         <v>0</v>
       </c>
       <c r="AS51">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AT51">
         <v>0.64</v>
@@ -10967,10 +10985,10 @@
         <v>1</v>
       </c>
       <c r="AS52">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AT52">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AU52">
         <v>1.55</v>
@@ -11071,7 +11089,7 @@
         <v>118</v>
       </c>
       <c r="P53" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="Q53">
         <v>4</v>
@@ -11158,10 +11176,10 @@
         <v>1</v>
       </c>
       <c r="AS53">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT53">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AU53">
         <v>1.04</v>
@@ -11352,7 +11370,7 @@
         <v>2.64</v>
       </c>
       <c r="AT54">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU54">
         <v>1.64</v>
@@ -11540,7 +11558,7 @@
         <v>1.43</v>
       </c>
       <c r="AS55">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT55">
         <v>0.91</v>
@@ -11644,7 +11662,7 @@
         <v>121</v>
       </c>
       <c r="P56" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="Q56">
         <v>4</v>
@@ -11731,7 +11749,7 @@
         <v>1</v>
       </c>
       <c r="AS56">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AT56">
         <v>1.45</v>
@@ -11925,7 +11943,7 @@
         <v>1.64</v>
       </c>
       <c r="AT57">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU57">
         <v>0.85</v>
@@ -12026,7 +12044,7 @@
         <v>80</v>
       </c>
       <c r="P58" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="Q58">
         <v>4</v>
@@ -12113,10 +12131,10 @@
         <v>2.5</v>
       </c>
       <c r="AS58">
-        <v>2.18</v>
+        <v>2.08</v>
       </c>
       <c r="AT58">
-        <v>2.45</v>
+        <v>2.25</v>
       </c>
       <c r="AU58">
         <v>1.18</v>
@@ -12408,7 +12426,7 @@
         <v>80</v>
       </c>
       <c r="P60" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="Q60">
         <v>2</v>
@@ -12498,7 +12516,7 @@
         <v>0.09</v>
       </c>
       <c r="AT60">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AU60">
         <v>1.28</v>
@@ -12599,7 +12617,7 @@
         <v>124</v>
       </c>
       <c r="P61" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="Q61">
         <v>3</v>
@@ -12686,10 +12704,10 @@
         <v>0.75</v>
       </c>
       <c r="AS61">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT61">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AU61">
         <v>1.51</v>
@@ -12790,7 +12808,7 @@
         <v>80</v>
       </c>
       <c r="P62" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="Q62">
         <v>5</v>
@@ -12877,7 +12895,7 @@
         <v>0.6</v>
       </c>
       <c r="AS62">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AT62">
         <v>1.45</v>
@@ -12981,7 +12999,7 @@
         <v>125</v>
       </c>
       <c r="P63" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="Q63">
         <v>9</v>
@@ -13172,7 +13190,7 @@
         <v>80</v>
       </c>
       <c r="P64" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="Q64">
         <v>5</v>
@@ -13262,7 +13280,7 @@
         <v>2.09</v>
       </c>
       <c r="AT64">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU64">
         <v>1.87</v>
@@ -13641,7 +13659,7 @@
         <v>0</v>
       </c>
       <c r="AS66">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT66">
         <v>0</v>
@@ -13936,7 +13954,7 @@
         <v>129</v>
       </c>
       <c r="P68" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="Q68">
         <v>2</v>
@@ -14127,7 +14145,7 @@
         <v>130</v>
       </c>
       <c r="P69" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="Q69">
         <v>1</v>
@@ -14318,7 +14336,7 @@
         <v>131</v>
       </c>
       <c r="P70" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="Q70">
         <v>2</v>
@@ -14408,7 +14426,7 @@
         <v>1.82</v>
       </c>
       <c r="AT70">
-        <v>2.45</v>
+        <v>2.25</v>
       </c>
       <c r="AU70">
         <v>1.49</v>
@@ -14509,7 +14527,7 @@
         <v>80</v>
       </c>
       <c r="P71" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="Q71">
         <v>4</v>
@@ -14596,7 +14614,7 @@
         <v>0</v>
       </c>
       <c r="AS71">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AT71">
         <v>0.64</v>
@@ -14787,10 +14805,10 @@
         <v>1.4</v>
       </c>
       <c r="AS72">
-        <v>2.18</v>
+        <v>2.08</v>
       </c>
       <c r="AT72">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AU72">
         <v>1.02</v>
@@ -14891,7 +14909,7 @@
         <v>80</v>
       </c>
       <c r="P73" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="Q73">
         <v>2</v>
@@ -15169,10 +15187,10 @@
         <v>0.6</v>
       </c>
       <c r="AS74">
-        <v>2.18</v>
+        <v>2.08</v>
       </c>
       <c r="AT74">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AU74">
         <v>1.06</v>
@@ -15360,7 +15378,7 @@
         <v>0</v>
       </c>
       <c r="AS75">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AT75">
         <v>0</v>
@@ -15464,7 +15482,7 @@
         <v>80</v>
       </c>
       <c r="P76" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="Q76">
         <v>4</v>
@@ -15551,10 +15569,10 @@
         <v>1.33</v>
       </c>
       <c r="AS76">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT76">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AU76">
         <v>1.52</v>
@@ -15655,7 +15673,7 @@
         <v>80</v>
       </c>
       <c r="P77" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="Q77">
         <v>5</v>
@@ -15742,10 +15760,10 @@
         <v>0.2</v>
       </c>
       <c r="AS77">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT77">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU77">
         <v>1.17</v>
@@ -16037,7 +16055,7 @@
         <v>80</v>
       </c>
       <c r="P79" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="Q79">
         <v>2</v>
@@ -16124,10 +16142,10 @@
         <v>1.2</v>
       </c>
       <c r="AS79">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AT79">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU79">
         <v>1.44</v>
@@ -16228,7 +16246,7 @@
         <v>136</v>
       </c>
       <c r="P80" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="Q80">
         <v>8</v>
@@ -16419,7 +16437,7 @@
         <v>137</v>
       </c>
       <c r="P81" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="Q81">
         <v>5</v>
@@ -16610,7 +16628,7 @@
         <v>138</v>
       </c>
       <c r="P82" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="Q82">
         <v>7</v>
@@ -16700,7 +16718,7 @@
         <v>0.09</v>
       </c>
       <c r="AT82">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU82">
         <v>1.07</v>
@@ -16801,7 +16819,7 @@
         <v>112</v>
       </c>
       <c r="P83" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="Q83">
         <v>9</v>
@@ -16888,7 +16906,7 @@
         <v>1.17</v>
       </c>
       <c r="AS83">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT83">
         <v>1.45</v>
@@ -17079,7 +17097,7 @@
         <v>1.86</v>
       </c>
       <c r="AS84">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AT84">
         <v>1.45</v>
@@ -17273,7 +17291,7 @@
         <v>2.09</v>
       </c>
       <c r="AT85">
-        <v>2.45</v>
+        <v>2.25</v>
       </c>
       <c r="AU85">
         <v>1.75</v>
@@ -17461,7 +17479,7 @@
         <v>0.86</v>
       </c>
       <c r="AS86">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AT86">
         <v>1.45</v>
@@ -17565,7 +17583,7 @@
         <v>140</v>
       </c>
       <c r="P87" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="Q87">
         <v>3</v>
@@ -17655,7 +17673,7 @@
         <v>1.82</v>
       </c>
       <c r="AT87">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AU87">
         <v>1.45</v>
@@ -17756,7 +17774,7 @@
         <v>141</v>
       </c>
       <c r="P88" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="Q88">
         <v>4</v>
@@ -17843,7 +17861,7 @@
         <v>1.43</v>
       </c>
       <c r="AS88">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT88">
         <v>1.45</v>
@@ -17947,7 +17965,7 @@
         <v>105</v>
       </c>
       <c r="P89" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="Q89">
         <v>7</v>
@@ -18037,7 +18055,7 @@
         <v>0.09</v>
       </c>
       <c r="AT89">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU89">
         <v>1.09</v>
@@ -18225,7 +18243,7 @@
         <v>1.11</v>
       </c>
       <c r="AS90">
-        <v>2.18</v>
+        <v>2.08</v>
       </c>
       <c r="AT90">
         <v>0.91</v>
@@ -18419,7 +18437,7 @@
         <v>3</v>
       </c>
       <c r="AT91">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AU91">
         <v>2.27</v>
@@ -18607,7 +18625,7 @@
         <v>1.13</v>
       </c>
       <c r="AS92">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT92">
         <v>1.45</v>
@@ -18798,10 +18816,10 @@
         <v>1</v>
       </c>
       <c r="AS93">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AT93">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU93">
         <v>1.11</v>
@@ -18902,7 +18920,7 @@
         <v>146</v>
       </c>
       <c r="P94" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="Q94">
         <v>0</v>
@@ -18989,7 +19007,7 @@
         <v>0.57</v>
       </c>
       <c r="AS94">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AT94">
         <v>0.45</v>
@@ -19180,10 +19198,10 @@
         <v>0.88</v>
       </c>
       <c r="AS95">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AT95">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU95">
         <v>1.4</v>
@@ -19374,7 +19392,7 @@
         <v>2.64</v>
       </c>
       <c r="AT96">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AU96">
         <v>1.63</v>
@@ -19475,7 +19493,7 @@
         <v>149</v>
       </c>
       <c r="P97" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="Q97">
         <v>5</v>
@@ -19562,7 +19580,7 @@
         <v>1.63</v>
       </c>
       <c r="AS97">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AT97">
         <v>1.45</v>
@@ -19666,7 +19684,7 @@
         <v>80</v>
       </c>
       <c r="P98" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="Q98">
         <v>8</v>
@@ -19753,10 +19771,10 @@
         <v>1.38</v>
       </c>
       <c r="AS98">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AT98">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AU98">
         <v>1.35</v>
@@ -19857,7 +19875,7 @@
         <v>150</v>
       </c>
       <c r="P99" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="Q99">
         <v>5</v>
@@ -19947,7 +19965,7 @@
         <v>1.82</v>
       </c>
       <c r="AT99">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AU99">
         <v>1.41</v>
@@ -20048,7 +20066,7 @@
         <v>151</v>
       </c>
       <c r="P100" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="Q100">
         <v>4</v>
@@ -20135,7 +20153,7 @@
         <v>0.67</v>
       </c>
       <c r="AS100">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT100">
         <v>0.64</v>
@@ -20239,7 +20257,7 @@
         <v>152</v>
       </c>
       <c r="P101" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="Q101">
         <v>4</v>
@@ -20329,7 +20347,7 @@
         <v>2.64</v>
       </c>
       <c r="AT101">
-        <v>2.45</v>
+        <v>2.25</v>
       </c>
       <c r="AU101">
         <v>1.71</v>
@@ -20517,7 +20535,7 @@
         <v>0</v>
       </c>
       <c r="AS102">
-        <v>2.18</v>
+        <v>2.08</v>
       </c>
       <c r="AT102">
         <v>0</v>
@@ -20621,7 +20639,7 @@
         <v>125</v>
       </c>
       <c r="P103" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="Q103">
         <v>8</v>
@@ -20708,7 +20726,7 @@
         <v>1.63</v>
       </c>
       <c r="AS103">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT103">
         <v>1.45</v>
@@ -20812,7 +20830,7 @@
         <v>154</v>
       </c>
       <c r="P104" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="Q104">
         <v>3</v>
@@ -21003,7 +21021,7 @@
         <v>155</v>
       </c>
       <c r="P105" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="Q105">
         <v>1</v>
@@ -21090,10 +21108,10 @@
         <v>0.78</v>
       </c>
       <c r="AS105">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AT105">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU105">
         <v>1.32</v>
@@ -21385,7 +21403,7 @@
         <v>132</v>
       </c>
       <c r="P107" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="Q107">
         <v>5</v>
@@ -21854,10 +21872,10 @@
         <v>0.33</v>
       </c>
       <c r="AS109">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AT109">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AU109">
         <v>1.18</v>
@@ -22045,7 +22063,7 @@
         <v>0.57</v>
       </c>
       <c r="AS110">
-        <v>2.18</v>
+        <v>2.08</v>
       </c>
       <c r="AT110">
         <v>0.64</v>
@@ -22236,10 +22254,10 @@
         <v>1.56</v>
       </c>
       <c r="AS111">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AT111">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AU111">
         <v>1.38</v>
@@ -22340,7 +22358,7 @@
         <v>80</v>
       </c>
       <c r="P112" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="Q112">
         <v>2</v>
@@ -22430,7 +22448,7 @@
         <v>0.09</v>
       </c>
       <c r="AT112">
-        <v>2.45</v>
+        <v>2.25</v>
       </c>
       <c r="AU112">
         <v>1.11</v>
@@ -22618,10 +22636,10 @@
         <v>1.71</v>
       </c>
       <c r="AS113">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT113">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU113">
         <v>1.25</v>
@@ -22722,7 +22740,7 @@
         <v>105</v>
       </c>
       <c r="P114" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="Q114">
         <v>3</v>
@@ -22913,7 +22931,7 @@
         <v>160</v>
       </c>
       <c r="P115" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="Q115">
         <v>4</v>
@@ -23000,7 +23018,7 @@
         <v>1.78</v>
       </c>
       <c r="AS115">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AT115">
         <v>1.45</v>
@@ -23382,10 +23400,10 @@
         <v>2.33</v>
       </c>
       <c r="AS117">
-        <v>1.64</v>
+        <v>1.75</v>
       </c>
       <c r="AT117">
-        <v>2.45</v>
+        <v>2.25</v>
       </c>
       <c r="AU117">
         <v>1.4</v>
@@ -23486,7 +23504,7 @@
         <v>162</v>
       </c>
       <c r="P118" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="Q118">
         <v>6</v>
@@ -23573,10 +23591,10 @@
         <v>0.3</v>
       </c>
       <c r="AS118">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT118">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AU118">
         <v>1.22</v>
@@ -23677,7 +23695,7 @@
         <v>163</v>
       </c>
       <c r="P119" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="Q119">
         <v>4</v>
@@ -23868,7 +23886,7 @@
         <v>80</v>
       </c>
       <c r="P120" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="Q120">
         <v>1</v>
@@ -24146,7 +24164,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS121">
-        <v>2.18</v>
+        <v>2.08</v>
       </c>
       <c r="AT121">
         <v>0.45</v>
@@ -24337,10 +24355,10 @@
         <v>1.63</v>
       </c>
       <c r="AS122">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AT122">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU122">
         <v>1.29</v>
@@ -24441,7 +24459,7 @@
         <v>165</v>
       </c>
       <c r="P123" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="Q123">
         <v>5</v>
@@ -24531,7 +24549,7 @@
         <v>3</v>
       </c>
       <c r="AT123">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU123">
         <v>2.62</v>
@@ -24719,10 +24737,10 @@
         <v>1.56</v>
       </c>
       <c r="AS124">
-        <v>2.18</v>
+        <v>2.08</v>
       </c>
       <c r="AT124">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU124">
         <v>1.34</v>
@@ -24823,7 +24841,7 @@
         <v>80</v>
       </c>
       <c r="P125" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="Q125">
         <v>6</v>
@@ -25014,7 +25032,7 @@
         <v>154</v>
       </c>
       <c r="P126" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="Q126">
         <v>0</v>
@@ -25101,10 +25119,10 @@
         <v>2.4</v>
       </c>
       <c r="AS126">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT126">
-        <v>2.45</v>
+        <v>2.25</v>
       </c>
       <c r="AU126">
         <v>1.25</v>
@@ -25205,7 +25223,7 @@
         <v>80</v>
       </c>
       <c r="P127" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="Q127">
         <v>1</v>
@@ -25295,7 +25313,7 @@
         <v>1.64</v>
       </c>
       <c r="AT127">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AU127">
         <v>1.02</v>
@@ -25396,7 +25414,7 @@
         <v>166</v>
       </c>
       <c r="P128" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="Q128">
         <v>9</v>
@@ -25674,7 +25692,7 @@
         <v>0</v>
       </c>
       <c r="AS129">
-        <v>2.27</v>
+        <v>2.33</v>
       </c>
       <c r="AT129">
         <v>0</v>
@@ -25865,7 +25883,7 @@
         <v>0.5</v>
       </c>
       <c r="AS130">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="AT130">
         <v>0.45</v>
@@ -26351,7 +26369,7 @@
         <v>171</v>
       </c>
       <c r="P133" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="Q133">
         <v>7</v>
@@ -26441,7 +26459,7 @@
         <v>1.82</v>
       </c>
       <c r="AT133">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AU133">
         <v>1.38</v>
@@ -26493,6 +26511,1152 @@
       </c>
       <c r="BK133">
         <v>11</v>
+      </c>
+    </row>
+    <row r="134" spans="1:63">
+      <c r="A134" s="1">
+        <v>133</v>
+      </c>
+      <c r="B134">
+        <v>5170225</v>
+      </c>
+      <c r="C134" t="s">
+        <v>63</v>
+      </c>
+      <c r="D134" t="s">
+        <v>64</v>
+      </c>
+      <c r="E134" s="2">
+        <v>44968.40625</v>
+      </c>
+      <c r="F134">
+        <v>1</v>
+      </c>
+      <c r="G134" t="s">
+        <v>66</v>
+      </c>
+      <c r="H134" t="s">
+        <v>72</v>
+      </c>
+      <c r="I134">
+        <v>1</v>
+      </c>
+      <c r="J134">
+        <v>2</v>
+      </c>
+      <c r="K134">
+        <v>3</v>
+      </c>
+      <c r="L134">
+        <v>3</v>
+      </c>
+      <c r="M134">
+        <v>2</v>
+      </c>
+      <c r="N134">
+        <v>5</v>
+      </c>
+      <c r="O134" t="s">
+        <v>172</v>
+      </c>
+      <c r="P134" t="s">
+        <v>242</v>
+      </c>
+      <c r="Q134">
+        <v>2</v>
+      </c>
+      <c r="R134">
+        <v>4</v>
+      </c>
+      <c r="S134">
+        <v>6</v>
+      </c>
+      <c r="T134">
+        <v>5.5</v>
+      </c>
+      <c r="U134">
+        <v>2.5</v>
+      </c>
+      <c r="V134">
+        <v>1.91</v>
+      </c>
+      <c r="W134">
+        <v>1.29</v>
+      </c>
+      <c r="X134">
+        <v>3.5</v>
+      </c>
+      <c r="Y134">
+        <v>2.25</v>
+      </c>
+      <c r="Z134">
+        <v>1.57</v>
+      </c>
+      <c r="AA134">
+        <v>5.5</v>
+      </c>
+      <c r="AB134">
+        <v>1.14</v>
+      </c>
+      <c r="AC134">
+        <v>5.5</v>
+      </c>
+      <c r="AD134">
+        <v>4.5</v>
+      </c>
+      <c r="AE134">
+        <v>1.4</v>
+      </c>
+      <c r="AF134">
+        <v>0</v>
+      </c>
+      <c r="AG134">
+        <v>0</v>
+      </c>
+      <c r="AH134">
+        <v>1.16</v>
+      </c>
+      <c r="AI134">
+        <v>4.75</v>
+      </c>
+      <c r="AJ134">
+        <v>1.57</v>
+      </c>
+      <c r="AK134">
+        <v>2.35</v>
+      </c>
+      <c r="AL134">
+        <v>1.8</v>
+      </c>
+      <c r="AM134">
+        <v>1.91</v>
+      </c>
+      <c r="AN134">
+        <v>3.6</v>
+      </c>
+      <c r="AO134">
+        <v>1.13</v>
+      </c>
+      <c r="AP134">
+        <v>1.06</v>
+      </c>
+      <c r="AQ134">
+        <v>2.27</v>
+      </c>
+      <c r="AR134">
+        <v>2.45</v>
+      </c>
+      <c r="AS134">
+        <v>2.33</v>
+      </c>
+      <c r="AT134">
+        <v>2.25</v>
+      </c>
+      <c r="AU134">
+        <v>1.34</v>
+      </c>
+      <c r="AV134">
+        <v>1.98</v>
+      </c>
+      <c r="AW134">
+        <v>3.32</v>
+      </c>
+      <c r="AX134">
+        <v>0</v>
+      </c>
+      <c r="AY134">
+        <v>0</v>
+      </c>
+      <c r="AZ134">
+        <v>0</v>
+      </c>
+      <c r="BA134">
+        <v>0</v>
+      </c>
+      <c r="BB134">
+        <v>0</v>
+      </c>
+      <c r="BC134">
+        <v>0</v>
+      </c>
+      <c r="BD134">
+        <v>0</v>
+      </c>
+      <c r="BE134">
+        <v>0</v>
+      </c>
+      <c r="BF134">
+        <v>5</v>
+      </c>
+      <c r="BG134">
+        <v>3</v>
+      </c>
+      <c r="BH134">
+        <v>2</v>
+      </c>
+      <c r="BI134">
+        <v>5</v>
+      </c>
+      <c r="BJ134">
+        <v>7</v>
+      </c>
+      <c r="BK134">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="135" spans="1:63">
+      <c r="A135" s="1">
+        <v>134</v>
+      </c>
+      <c r="B135">
+        <v>5170226</v>
+      </c>
+      <c r="C135" t="s">
+        <v>63</v>
+      </c>
+      <c r="D135" t="s">
+        <v>64</v>
+      </c>
+      <c r="E135" s="2">
+        <v>44968.47916666666</v>
+      </c>
+      <c r="F135">
+        <v>1</v>
+      </c>
+      <c r="G135" t="s">
+        <v>74</v>
+      </c>
+      <c r="H135" t="s">
+        <v>70</v>
+      </c>
+      <c r="I135">
+        <v>0</v>
+      </c>
+      <c r="J135">
+        <v>0</v>
+      </c>
+      <c r="K135">
+        <v>0</v>
+      </c>
+      <c r="L135">
+        <v>0</v>
+      </c>
+      <c r="M135">
+        <v>0</v>
+      </c>
+      <c r="N135">
+        <v>0</v>
+      </c>
+      <c r="O135" t="s">
+        <v>80</v>
+      </c>
+      <c r="P135" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q135">
+        <v>6</v>
+      </c>
+      <c r="R135">
+        <v>5</v>
+      </c>
+      <c r="S135">
+        <v>11</v>
+      </c>
+      <c r="T135">
+        <v>2.6</v>
+      </c>
+      <c r="U135">
+        <v>2.25</v>
+      </c>
+      <c r="V135">
+        <v>3.5</v>
+      </c>
+      <c r="W135">
+        <v>1.3</v>
+      </c>
+      <c r="X135">
+        <v>3.4</v>
+      </c>
+      <c r="Y135">
+        <v>2.5</v>
+      </c>
+      <c r="Z135">
+        <v>1.5</v>
+      </c>
+      <c r="AA135">
+        <v>6</v>
+      </c>
+      <c r="AB135">
+        <v>1.13</v>
+      </c>
+      <c r="AC135">
+        <v>2</v>
+      </c>
+      <c r="AD135">
+        <v>3.6</v>
+      </c>
+      <c r="AE135">
+        <v>3</v>
+      </c>
+      <c r="AF135">
+        <v>1.04</v>
+      </c>
+      <c r="AG135">
+        <v>10</v>
+      </c>
+      <c r="AH135">
+        <v>1.17</v>
+      </c>
+      <c r="AI135">
+        <v>4.2</v>
+      </c>
+      <c r="AJ135">
+        <v>1.67</v>
+      </c>
+      <c r="AK135">
+        <v>2.15</v>
+      </c>
+      <c r="AL135">
+        <v>1.62</v>
+      </c>
+      <c r="AM135">
+        <v>2.2</v>
+      </c>
+      <c r="AN135">
+        <v>1.3</v>
+      </c>
+      <c r="AO135">
+        <v>1.25</v>
+      </c>
+      <c r="AP135">
+        <v>1.74</v>
+      </c>
+      <c r="AQ135">
+        <v>2.18</v>
+      </c>
+      <c r="AR135">
+        <v>1.64</v>
+      </c>
+      <c r="AS135">
+        <v>2.08</v>
+      </c>
+      <c r="AT135">
+        <v>1.58</v>
+      </c>
+      <c r="AU135">
+        <v>1.27</v>
+      </c>
+      <c r="AV135">
+        <v>1.41</v>
+      </c>
+      <c r="AW135">
+        <v>2.68</v>
+      </c>
+      <c r="AX135">
+        <v>0</v>
+      </c>
+      <c r="AY135">
+        <v>0</v>
+      </c>
+      <c r="AZ135">
+        <v>0</v>
+      </c>
+      <c r="BA135">
+        <v>0</v>
+      </c>
+      <c r="BB135">
+        <v>0</v>
+      </c>
+      <c r="BC135">
+        <v>0</v>
+      </c>
+      <c r="BD135">
+        <v>0</v>
+      </c>
+      <c r="BE135">
+        <v>0</v>
+      </c>
+      <c r="BF135">
+        <v>3</v>
+      </c>
+      <c r="BG135">
+        <v>3</v>
+      </c>
+      <c r="BH135">
+        <v>10</v>
+      </c>
+      <c r="BI135">
+        <v>11</v>
+      </c>
+      <c r="BJ135">
+        <v>13</v>
+      </c>
+      <c r="BK135">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="136" spans="1:63">
+      <c r="A136" s="1">
+        <v>135</v>
+      </c>
+      <c r="B136">
+        <v>5170227</v>
+      </c>
+      <c r="C136" t="s">
+        <v>63</v>
+      </c>
+      <c r="D136" t="s">
+        <v>64</v>
+      </c>
+      <c r="E136" s="2">
+        <v>44968.47916666666</v>
+      </c>
+      <c r="F136">
+        <v>1</v>
+      </c>
+      <c r="G136" t="s">
+        <v>68</v>
+      </c>
+      <c r="H136" t="s">
+        <v>71</v>
+      </c>
+      <c r="I136">
+        <v>1</v>
+      </c>
+      <c r="J136">
+        <v>0</v>
+      </c>
+      <c r="K136">
+        <v>1</v>
+      </c>
+      <c r="L136">
+        <v>1</v>
+      </c>
+      <c r="M136">
+        <v>1</v>
+      </c>
+      <c r="N136">
+        <v>2</v>
+      </c>
+      <c r="O136" t="s">
+        <v>173</v>
+      </c>
+      <c r="P136" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q136">
+        <v>5</v>
+      </c>
+      <c r="R136">
+        <v>3</v>
+      </c>
+      <c r="S136">
+        <v>8</v>
+      </c>
+      <c r="T136">
+        <v>3</v>
+      </c>
+      <c r="U136">
+        <v>2.2</v>
+      </c>
+      <c r="V136">
+        <v>3</v>
+      </c>
+      <c r="W136">
+        <v>1.36</v>
+      </c>
+      <c r="X136">
+        <v>3</v>
+      </c>
+      <c r="Y136">
+        <v>2.63</v>
+      </c>
+      <c r="Z136">
+        <v>1.44</v>
+      </c>
+      <c r="AA136">
+        <v>6.5</v>
+      </c>
+      <c r="AB136">
+        <v>1.11</v>
+      </c>
+      <c r="AC136">
+        <v>2.4</v>
+      </c>
+      <c r="AD136">
+        <v>3.6</v>
+      </c>
+      <c r="AE136">
+        <v>2.4</v>
+      </c>
+      <c r="AF136">
+        <v>1.05</v>
+      </c>
+      <c r="AG136">
+        <v>9</v>
+      </c>
+      <c r="AH136">
+        <v>1.2</v>
+      </c>
+      <c r="AI136">
+        <v>3.9</v>
+      </c>
+      <c r="AJ136">
+        <v>1.75</v>
+      </c>
+      <c r="AK136">
+        <v>2.05</v>
+      </c>
+      <c r="AL136">
+        <v>1.67</v>
+      </c>
+      <c r="AM136">
+        <v>2.1</v>
+      </c>
+      <c r="AN136">
+        <v>1.32</v>
+      </c>
+      <c r="AO136">
+        <v>1.3</v>
+      </c>
+      <c r="AP136">
+        <v>1.47</v>
+      </c>
+      <c r="AQ136">
+        <v>1.55</v>
+      </c>
+      <c r="AR136">
+        <v>1.36</v>
+      </c>
+      <c r="AS136">
+        <v>1.5</v>
+      </c>
+      <c r="AT136">
+        <v>1.33</v>
+      </c>
+      <c r="AU136">
+        <v>1.3</v>
+      </c>
+      <c r="AV136">
+        <v>1.58</v>
+      </c>
+      <c r="AW136">
+        <v>2.88</v>
+      </c>
+      <c r="AX136">
+        <v>0</v>
+      </c>
+      <c r="AY136">
+        <v>0</v>
+      </c>
+      <c r="AZ136">
+        <v>0</v>
+      </c>
+      <c r="BA136">
+        <v>0</v>
+      </c>
+      <c r="BB136">
+        <v>0</v>
+      </c>
+      <c r="BC136">
+        <v>0</v>
+      </c>
+      <c r="BD136">
+        <v>0</v>
+      </c>
+      <c r="BE136">
+        <v>0</v>
+      </c>
+      <c r="BF136">
+        <v>3</v>
+      </c>
+      <c r="BG136">
+        <v>4</v>
+      </c>
+      <c r="BH136">
+        <v>2</v>
+      </c>
+      <c r="BI136">
+        <v>4</v>
+      </c>
+      <c r="BJ136">
+        <v>5</v>
+      </c>
+      <c r="BK136">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="137" spans="1:63">
+      <c r="A137" s="1">
+        <v>136</v>
+      </c>
+      <c r="B137">
+        <v>5170228</v>
+      </c>
+      <c r="C137" t="s">
+        <v>63</v>
+      </c>
+      <c r="D137" t="s">
+        <v>64</v>
+      </c>
+      <c r="E137" s="2">
+        <v>44968.47916666666</v>
+      </c>
+      <c r="F137">
+        <v>1</v>
+      </c>
+      <c r="G137" t="s">
+        <v>73</v>
+      </c>
+      <c r="H137" t="s">
+        <v>67</v>
+      </c>
+      <c r="I137">
+        <v>0</v>
+      </c>
+      <c r="J137">
+        <v>0</v>
+      </c>
+      <c r="K137">
+        <v>0</v>
+      </c>
+      <c r="L137">
+        <v>2</v>
+      </c>
+      <c r="M137">
+        <v>0</v>
+      </c>
+      <c r="N137">
+        <v>2</v>
+      </c>
+      <c r="O137" t="s">
+        <v>174</v>
+      </c>
+      <c r="P137" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q137">
+        <v>-1</v>
+      </c>
+      <c r="R137">
+        <v>-1</v>
+      </c>
+      <c r="S137">
+        <v>-1</v>
+      </c>
+      <c r="T137">
+        <v>0</v>
+      </c>
+      <c r="U137">
+        <v>0</v>
+      </c>
+      <c r="V137">
+        <v>0</v>
+      </c>
+      <c r="W137">
+        <v>0</v>
+      </c>
+      <c r="X137">
+        <v>0</v>
+      </c>
+      <c r="Y137">
+        <v>0</v>
+      </c>
+      <c r="Z137">
+        <v>0</v>
+      </c>
+      <c r="AA137">
+        <v>0</v>
+      </c>
+      <c r="AB137">
+        <v>0</v>
+      </c>
+      <c r="AC137">
+        <v>2.25</v>
+      </c>
+      <c r="AD137">
+        <v>3.25</v>
+      </c>
+      <c r="AE137">
+        <v>2.75</v>
+      </c>
+      <c r="AF137">
+        <v>0</v>
+      </c>
+      <c r="AG137">
+        <v>0</v>
+      </c>
+      <c r="AH137">
+        <v>0</v>
+      </c>
+      <c r="AI137">
+        <v>0</v>
+      </c>
+      <c r="AJ137">
+        <v>0</v>
+      </c>
+      <c r="AK137">
+        <v>0</v>
+      </c>
+      <c r="AL137">
+        <v>0</v>
+      </c>
+      <c r="AM137">
+        <v>0</v>
+      </c>
+      <c r="AN137">
+        <v>0</v>
+      </c>
+      <c r="AO137">
+        <v>0</v>
+      </c>
+      <c r="AP137">
+        <v>0</v>
+      </c>
+      <c r="AQ137">
+        <v>1.64</v>
+      </c>
+      <c r="AR137">
+        <v>0.64</v>
+      </c>
+      <c r="AS137">
+        <v>1.75</v>
+      </c>
+      <c r="AT137">
+        <v>0.58</v>
+      </c>
+      <c r="AU137">
+        <v>1.29</v>
+      </c>
+      <c r="AV137">
+        <v>1.19</v>
+      </c>
+      <c r="AW137">
+        <v>2.48</v>
+      </c>
+      <c r="AX137">
+        <v>0</v>
+      </c>
+      <c r="AY137">
+        <v>0</v>
+      </c>
+      <c r="AZ137">
+        <v>0</v>
+      </c>
+      <c r="BA137">
+        <v>0</v>
+      </c>
+      <c r="BB137">
+        <v>0</v>
+      </c>
+      <c r="BC137">
+        <v>0</v>
+      </c>
+      <c r="BD137">
+        <v>0</v>
+      </c>
+      <c r="BE137">
+        <v>0</v>
+      </c>
+      <c r="BF137">
+        <v>-1</v>
+      </c>
+      <c r="BG137">
+        <v>-1</v>
+      </c>
+      <c r="BH137">
+        <v>-1</v>
+      </c>
+      <c r="BI137">
+        <v>-1</v>
+      </c>
+      <c r="BJ137">
+        <v>-1</v>
+      </c>
+      <c r="BK137">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:63">
+      <c r="A138" s="1">
+        <v>137</v>
+      </c>
+      <c r="B138">
+        <v>5170229</v>
+      </c>
+      <c r="C138" t="s">
+        <v>63</v>
+      </c>
+      <c r="D138" t="s">
+        <v>64</v>
+      </c>
+      <c r="E138" s="2">
+        <v>44968.47916666666</v>
+      </c>
+      <c r="F138">
+        <v>1</v>
+      </c>
+      <c r="G138" t="s">
+        <v>76</v>
+      </c>
+      <c r="H138" t="s">
+        <v>75</v>
+      </c>
+      <c r="I138">
+        <v>2</v>
+      </c>
+      <c r="J138">
+        <v>0</v>
+      </c>
+      <c r="K138">
+        <v>2</v>
+      </c>
+      <c r="L138">
+        <v>5</v>
+      </c>
+      <c r="M138">
+        <v>0</v>
+      </c>
+      <c r="N138">
+        <v>5</v>
+      </c>
+      <c r="O138" t="s">
+        <v>175</v>
+      </c>
+      <c r="P138" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q138">
+        <v>-1</v>
+      </c>
+      <c r="R138">
+        <v>-1</v>
+      </c>
+      <c r="S138">
+        <v>-1</v>
+      </c>
+      <c r="T138">
+        <v>0</v>
+      </c>
+      <c r="U138">
+        <v>0</v>
+      </c>
+      <c r="V138">
+        <v>0</v>
+      </c>
+      <c r="W138">
+        <v>0</v>
+      </c>
+      <c r="X138">
+        <v>0</v>
+      </c>
+      <c r="Y138">
+        <v>0</v>
+      </c>
+      <c r="Z138">
+        <v>0</v>
+      </c>
+      <c r="AA138">
+        <v>0</v>
+      </c>
+      <c r="AB138">
+        <v>0</v>
+      </c>
+      <c r="AC138">
+        <v>0</v>
+      </c>
+      <c r="AD138">
+        <v>0</v>
+      </c>
+      <c r="AE138">
+        <v>0</v>
+      </c>
+      <c r="AF138">
+        <v>0</v>
+      </c>
+      <c r="AG138">
+        <v>0</v>
+      </c>
+      <c r="AH138">
+        <v>0</v>
+      </c>
+      <c r="AI138">
+        <v>0</v>
+      </c>
+      <c r="AJ138">
+        <v>0</v>
+      </c>
+      <c r="AK138">
+        <v>0</v>
+      </c>
+      <c r="AL138">
+        <v>0</v>
+      </c>
+      <c r="AM138">
+        <v>0</v>
+      </c>
+      <c r="AN138">
+        <v>0</v>
+      </c>
+      <c r="AO138">
+        <v>0</v>
+      </c>
+      <c r="AP138">
+        <v>0</v>
+      </c>
+      <c r="AQ138">
+        <v>1.27</v>
+      </c>
+      <c r="AR138">
+        <v>0.36</v>
+      </c>
+      <c r="AS138">
+        <v>1.42</v>
+      </c>
+      <c r="AT138">
+        <v>0.33</v>
+      </c>
+      <c r="AU138">
+        <v>1.23</v>
+      </c>
+      <c r="AV138">
+        <v>1.21</v>
+      </c>
+      <c r="AW138">
+        <v>2.44</v>
+      </c>
+      <c r="AX138">
+        <v>0</v>
+      </c>
+      <c r="AY138">
+        <v>0</v>
+      </c>
+      <c r="AZ138">
+        <v>0</v>
+      </c>
+      <c r="BA138">
+        <v>0</v>
+      </c>
+      <c r="BB138">
+        <v>0</v>
+      </c>
+      <c r="BC138">
+        <v>0</v>
+      </c>
+      <c r="BD138">
+        <v>0</v>
+      </c>
+      <c r="BE138">
+        <v>0</v>
+      </c>
+      <c r="BF138">
+        <v>-1</v>
+      </c>
+      <c r="BG138">
+        <v>-1</v>
+      </c>
+      <c r="BH138">
+        <v>-1</v>
+      </c>
+      <c r="BI138">
+        <v>-1</v>
+      </c>
+      <c r="BJ138">
+        <v>-1</v>
+      </c>
+      <c r="BK138">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:63">
+      <c r="A139" s="1">
+        <v>138</v>
+      </c>
+      <c r="B139">
+        <v>5170230</v>
+      </c>
+      <c r="C139" t="s">
+        <v>63</v>
+      </c>
+      <c r="D139" t="s">
+        <v>64</v>
+      </c>
+      <c r="E139" s="2">
+        <v>44968.47916666666</v>
+      </c>
+      <c r="F139">
+        <v>1</v>
+      </c>
+      <c r="G139" t="s">
+        <v>69</v>
+      </c>
+      <c r="H139" t="s">
+        <v>65</v>
+      </c>
+      <c r="I139">
+        <v>2</v>
+      </c>
+      <c r="J139">
+        <v>0</v>
+      </c>
+      <c r="K139">
+        <v>2</v>
+      </c>
+      <c r="L139">
+        <v>4</v>
+      </c>
+      <c r="M139">
+        <v>0</v>
+      </c>
+      <c r="N139">
+        <v>4</v>
+      </c>
+      <c r="O139" t="s">
+        <v>176</v>
+      </c>
+      <c r="P139" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q139">
+        <v>-1</v>
+      </c>
+      <c r="R139">
+        <v>-1</v>
+      </c>
+      <c r="S139">
+        <v>-1</v>
+      </c>
+      <c r="T139">
+        <v>0</v>
+      </c>
+      <c r="U139">
+        <v>0</v>
+      </c>
+      <c r="V139">
+        <v>0</v>
+      </c>
+      <c r="W139">
+        <v>0</v>
+      </c>
+      <c r="X139">
+        <v>0</v>
+      </c>
+      <c r="Y139">
+        <v>0</v>
+      </c>
+      <c r="Z139">
+        <v>0</v>
+      </c>
+      <c r="AA139">
+        <v>0</v>
+      </c>
+      <c r="AB139">
+        <v>0</v>
+      </c>
+      <c r="AC139">
+        <v>1.4</v>
+      </c>
+      <c r="AD139">
+        <v>4.5</v>
+      </c>
+      <c r="AE139">
+        <v>5.5</v>
+      </c>
+      <c r="AF139">
+        <v>0</v>
+      </c>
+      <c r="AG139">
+        <v>0</v>
+      </c>
+      <c r="AH139">
+        <v>0</v>
+      </c>
+      <c r="AI139">
+        <v>0</v>
+      </c>
+      <c r="AJ139">
+        <v>0</v>
+      </c>
+      <c r="AK139">
+        <v>0</v>
+      </c>
+      <c r="AL139">
+        <v>0</v>
+      </c>
+      <c r="AM139">
+        <v>0</v>
+      </c>
+      <c r="AN139">
+        <v>0</v>
+      </c>
+      <c r="AO139">
+        <v>0</v>
+      </c>
+      <c r="AP139">
+        <v>0</v>
+      </c>
+      <c r="AQ139">
+        <v>1.36</v>
+      </c>
+      <c r="AR139">
+        <v>0</v>
+      </c>
+      <c r="AS139">
+        <v>1.5</v>
+      </c>
+      <c r="AT139">
+        <v>0</v>
+      </c>
+      <c r="AU139">
+        <v>1.34</v>
+      </c>
+      <c r="AV139">
+        <v>0.77</v>
+      </c>
+      <c r="AW139">
+        <v>2.11</v>
+      </c>
+      <c r="AX139">
+        <v>0</v>
+      </c>
+      <c r="AY139">
+        <v>0</v>
+      </c>
+      <c r="AZ139">
+        <v>0</v>
+      </c>
+      <c r="BA139">
+        <v>0</v>
+      </c>
+      <c r="BB139">
+        <v>0</v>
+      </c>
+      <c r="BC139">
+        <v>0</v>
+      </c>
+      <c r="BD139">
+        <v>0</v>
+      </c>
+      <c r="BE139">
+        <v>0</v>
+      </c>
+      <c r="BF139">
+        <v>-1</v>
+      </c>
+      <c r="BG139">
+        <v>-1</v>
+      </c>
+      <c r="BH139">
+        <v>-1</v>
+      </c>
+      <c r="BI139">
+        <v>-1</v>
+      </c>
+      <c r="BJ139">
+        <v>-1</v>
+      </c>
+      <c r="BK139">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Wales Welsh Premier League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Wales Welsh Premier League_20222023.xlsx
@@ -27136,13 +27136,13 @@
         <v>80</v>
       </c>
       <c r="Q137">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="R137">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="S137">
-        <v>-1</v>
+        <v>14</v>
       </c>
       <c r="T137">
         <v>0</v>
@@ -27259,22 +27259,22 @@
         <v>0</v>
       </c>
       <c r="BF137">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="BG137">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BH137">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BI137">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BJ137">
-        <v>-1</v>
+        <v>14</v>
       </c>
       <c r="BK137">
-        <v>-1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="138" spans="1:63">
@@ -27327,13 +27327,13 @@
         <v>80</v>
       </c>
       <c r="Q138">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="R138">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="S138">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="T138">
         <v>0</v>
@@ -27450,22 +27450,22 @@
         <v>0</v>
       </c>
       <c r="BF138">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BG138">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BH138">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BI138">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BJ138">
-        <v>-1</v>
+        <v>15</v>
       </c>
       <c r="BK138">
-        <v>-1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="139" spans="1:63">
@@ -27518,13 +27518,13 @@
         <v>80</v>
       </c>
       <c r="Q139">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="R139">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="S139">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="T139">
         <v>0</v>
@@ -27641,22 +27641,22 @@
         <v>0</v>
       </c>
       <c r="BF139">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="BG139">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BH139">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BI139">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="BJ139">
-        <v>-1</v>
+        <v>18</v>
       </c>
       <c r="BK139">
-        <v>-1</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Wales Welsh Premier League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Wales Welsh Premier League_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="891" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="245">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -547,6 +547,9 @@
     <t>['8', '45+1', '58', '90+3']</t>
   </si>
   <si>
+    <t>['42', '89']</t>
+  </si>
+  <si>
     <t>['40', '75']</t>
   </si>
   <si>
@@ -743,6 +746,9 @@
   </si>
   <si>
     <t>['7', '12']</t>
+  </si>
+  <si>
+    <t>['90+6']</t>
   </si>
 </sst>
 </file>
@@ -1104,7 +1110,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK139"/>
+  <dimension ref="A1:BK140"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1348,7 +1354,7 @@
         <v>77</v>
       </c>
       <c r="P2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q2">
         <v>5</v>
@@ -2112,7 +2118,7 @@
         <v>80</v>
       </c>
       <c r="P6" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q6">
         <v>6</v>
@@ -2390,7 +2396,7 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AT7">
         <v>1.45</v>
@@ -2685,7 +2691,7 @@
         <v>80</v>
       </c>
       <c r="P9" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q9">
         <v>11</v>
@@ -3449,7 +3455,7 @@
         <v>80</v>
       </c>
       <c r="P13" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q13">
         <v>2</v>
@@ -3539,7 +3545,7 @@
         <v>1.64</v>
       </c>
       <c r="AT13">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU13">
         <v>0</v>
@@ -3831,7 +3837,7 @@
         <v>87</v>
       </c>
       <c r="P15" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q15">
         <v>6</v>
@@ -4022,7 +4028,7 @@
         <v>88</v>
       </c>
       <c r="P16" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q16">
         <v>3</v>
@@ -4112,7 +4118,7 @@
         <v>1.75</v>
       </c>
       <c r="AT16">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU16">
         <v>1.64</v>
@@ -4404,7 +4410,7 @@
         <v>90</v>
       </c>
       <c r="P18" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q18">
         <v>5</v>
@@ -4491,7 +4497,7 @@
         <v>3</v>
       </c>
       <c r="AS18">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AT18">
         <v>0.91</v>
@@ -4786,7 +4792,7 @@
         <v>92</v>
       </c>
       <c r="P20" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q20">
         <v>7</v>
@@ -4873,7 +4879,7 @@
         <v>1</v>
       </c>
       <c r="AS20">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AT20">
         <v>0.58</v>
@@ -5168,7 +5174,7 @@
         <v>94</v>
       </c>
       <c r="P22" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q22">
         <v>3</v>
@@ -5741,7 +5747,7 @@
         <v>80</v>
       </c>
       <c r="P25" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q25">
         <v>1</v>
@@ -5932,7 +5938,7 @@
         <v>97</v>
       </c>
       <c r="P26" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q26">
         <v>7</v>
@@ -6123,7 +6129,7 @@
         <v>98</v>
       </c>
       <c r="P27" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q27">
         <v>2</v>
@@ -6696,7 +6702,7 @@
         <v>101</v>
       </c>
       <c r="P30" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q30">
         <v>7</v>
@@ -6887,7 +6893,7 @@
         <v>80</v>
       </c>
       <c r="P31" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q31">
         <v>1</v>
@@ -7078,7 +7084,7 @@
         <v>102</v>
       </c>
       <c r="P32" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q32">
         <v>1</v>
@@ -7269,7 +7275,7 @@
         <v>103</v>
       </c>
       <c r="P33" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q33">
         <v>7</v>
@@ -7651,7 +7657,7 @@
         <v>105</v>
       </c>
       <c r="P35" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q35">
         <v>3</v>
@@ -7842,7 +7848,7 @@
         <v>80</v>
       </c>
       <c r="P36" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q36">
         <v>1</v>
@@ -8033,7 +8039,7 @@
         <v>106</v>
       </c>
       <c r="P37" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q37">
         <v>6</v>
@@ -8224,7 +8230,7 @@
         <v>107</v>
       </c>
       <c r="P38" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q38">
         <v>6</v>
@@ -8502,7 +8508,7 @@
         <v>1.5</v>
       </c>
       <c r="AS39">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AT39">
         <v>0.33</v>
@@ -8606,7 +8612,7 @@
         <v>96</v>
       </c>
       <c r="P40" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q40">
         <v>7</v>
@@ -8887,7 +8893,7 @@
         <v>2.08</v>
       </c>
       <c r="AT41">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU41">
         <v>1.16</v>
@@ -9179,7 +9185,7 @@
         <v>111</v>
       </c>
       <c r="P43" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q43">
         <v>8</v>
@@ -9370,7 +9376,7 @@
         <v>112</v>
       </c>
       <c r="P44" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q44">
         <v>6</v>
@@ -9457,7 +9463,7 @@
         <v>0</v>
       </c>
       <c r="AS44">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AT44">
         <v>0.45</v>
@@ -9561,7 +9567,7 @@
         <v>80</v>
       </c>
       <c r="P45" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q45">
         <v>4</v>
@@ -9842,7 +9848,7 @@
         <v>1.82</v>
       </c>
       <c r="AT46">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU46">
         <v>1.79</v>
@@ -9943,7 +9949,7 @@
         <v>80</v>
       </c>
       <c r="P47" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q47">
         <v>6</v>
@@ -10134,7 +10140,7 @@
         <v>114</v>
       </c>
       <c r="P48" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q48">
         <v>4</v>
@@ -10325,7 +10331,7 @@
         <v>115</v>
       </c>
       <c r="P49" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q49">
         <v>6</v>
@@ -10516,7 +10522,7 @@
         <v>80</v>
       </c>
       <c r="P50" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q50">
         <v>0</v>
@@ -11089,7 +11095,7 @@
         <v>118</v>
       </c>
       <c r="P53" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q53">
         <v>4</v>
@@ -11662,7 +11668,7 @@
         <v>121</v>
       </c>
       <c r="P56" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q56">
         <v>4</v>
@@ -12044,7 +12050,7 @@
         <v>80</v>
       </c>
       <c r="P58" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q58">
         <v>4</v>
@@ -12325,7 +12331,7 @@
         <v>2.64</v>
       </c>
       <c r="AT59">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU59">
         <v>1.59</v>
@@ -12426,7 +12432,7 @@
         <v>80</v>
       </c>
       <c r="P60" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q60">
         <v>2</v>
@@ -12617,7 +12623,7 @@
         <v>124</v>
       </c>
       <c r="P61" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q61">
         <v>3</v>
@@ -12808,7 +12814,7 @@
         <v>80</v>
       </c>
       <c r="P62" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q62">
         <v>5</v>
@@ -12898,7 +12904,7 @@
         <v>1.5</v>
       </c>
       <c r="AT62">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU62">
         <v>1.17</v>
@@ -12999,7 +13005,7 @@
         <v>125</v>
       </c>
       <c r="P63" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q63">
         <v>9</v>
@@ -13190,7 +13196,7 @@
         <v>80</v>
       </c>
       <c r="P64" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q64">
         <v>5</v>
@@ -13277,7 +13283,7 @@
         <v>0.75</v>
       </c>
       <c r="AS64">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AT64">
         <v>1.33</v>
@@ -13954,7 +13960,7 @@
         <v>129</v>
       </c>
       <c r="P68" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q68">
         <v>2</v>
@@ -14145,7 +14151,7 @@
         <v>130</v>
       </c>
       <c r="P69" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q69">
         <v>1</v>
@@ -14336,7 +14342,7 @@
         <v>131</v>
       </c>
       <c r="P70" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q70">
         <v>2</v>
@@ -14527,7 +14533,7 @@
         <v>80</v>
       </c>
       <c r="P71" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q71">
         <v>4</v>
@@ -14909,7 +14915,7 @@
         <v>80</v>
       </c>
       <c r="P73" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q73">
         <v>2</v>
@@ -15482,7 +15488,7 @@
         <v>80</v>
       </c>
       <c r="P76" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q76">
         <v>4</v>
@@ -15673,7 +15679,7 @@
         <v>80</v>
       </c>
       <c r="P77" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q77">
         <v>5</v>
@@ -15954,7 +15960,7 @@
         <v>3</v>
       </c>
       <c r="AT78">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU78">
         <v>2.19</v>
@@ -16055,7 +16061,7 @@
         <v>80</v>
       </c>
       <c r="P79" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q79">
         <v>2</v>
@@ -16246,7 +16252,7 @@
         <v>136</v>
       </c>
       <c r="P80" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q80">
         <v>8</v>
@@ -16437,7 +16443,7 @@
         <v>137</v>
       </c>
       <c r="P81" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q81">
         <v>5</v>
@@ -16628,7 +16634,7 @@
         <v>138</v>
       </c>
       <c r="P82" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q82">
         <v>7</v>
@@ -16819,7 +16825,7 @@
         <v>112</v>
       </c>
       <c r="P83" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q83">
         <v>9</v>
@@ -17288,7 +17294,7 @@
         <v>2.67</v>
       </c>
       <c r="AS85">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AT85">
         <v>2.25</v>
@@ -17482,7 +17488,7 @@
         <v>1.5</v>
       </c>
       <c r="AT86">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU86">
         <v>1.41</v>
@@ -17583,7 +17589,7 @@
         <v>140</v>
       </c>
       <c r="P87" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q87">
         <v>3</v>
@@ -17774,7 +17780,7 @@
         <v>141</v>
       </c>
       <c r="P88" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q88">
         <v>4</v>
@@ -17965,7 +17971,7 @@
         <v>105</v>
       </c>
       <c r="P89" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q89">
         <v>7</v>
@@ -18628,7 +18634,7 @@
         <v>1.42</v>
       </c>
       <c r="AT92">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU92">
         <v>1.2</v>
@@ -18920,7 +18926,7 @@
         <v>146</v>
       </c>
       <c r="P94" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q94">
         <v>0</v>
@@ -19493,7 +19499,7 @@
         <v>149</v>
       </c>
       <c r="P97" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q97">
         <v>5</v>
@@ -19684,7 +19690,7 @@
         <v>80</v>
       </c>
       <c r="P98" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q98">
         <v>8</v>
@@ -19875,7 +19881,7 @@
         <v>150</v>
       </c>
       <c r="P99" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q99">
         <v>5</v>
@@ -20066,7 +20072,7 @@
         <v>151</v>
       </c>
       <c r="P100" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q100">
         <v>4</v>
@@ -20257,7 +20263,7 @@
         <v>152</v>
       </c>
       <c r="P101" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q101">
         <v>4</v>
@@ -20639,7 +20645,7 @@
         <v>125</v>
       </c>
       <c r="P103" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q103">
         <v>8</v>
@@ -20830,7 +20836,7 @@
         <v>154</v>
       </c>
       <c r="P104" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q104">
         <v>3</v>
@@ -21021,7 +21027,7 @@
         <v>155</v>
       </c>
       <c r="P105" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q105">
         <v>1</v>
@@ -21403,7 +21409,7 @@
         <v>132</v>
       </c>
       <c r="P107" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q107">
         <v>5</v>
@@ -21490,10 +21496,10 @@
         <v>1.11</v>
       </c>
       <c r="AS107">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AT107">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU107">
         <v>1.6</v>
@@ -22358,7 +22364,7 @@
         <v>80</v>
       </c>
       <c r="P112" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q112">
         <v>2</v>
@@ -22740,7 +22746,7 @@
         <v>105</v>
       </c>
       <c r="P114" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q114">
         <v>3</v>
@@ -22931,7 +22937,7 @@
         <v>160</v>
       </c>
       <c r="P115" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q115">
         <v>4</v>
@@ -23209,7 +23215,7 @@
         <v>0</v>
       </c>
       <c r="AS116">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AT116">
         <v>0</v>
@@ -23504,7 +23510,7 @@
         <v>162</v>
       </c>
       <c r="P118" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q118">
         <v>6</v>
@@ -23695,7 +23701,7 @@
         <v>163</v>
       </c>
       <c r="P119" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q119">
         <v>4</v>
@@ -23782,7 +23788,7 @@
         <v>0.5</v>
       </c>
       <c r="AS119">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AT119">
         <v>0.64</v>
@@ -23886,7 +23892,7 @@
         <v>80</v>
       </c>
       <c r="P120" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q120">
         <v>1</v>
@@ -23976,7 +23982,7 @@
         <v>0.09</v>
       </c>
       <c r="AT120">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU120">
         <v>1.03</v>
@@ -24459,7 +24465,7 @@
         <v>165</v>
       </c>
       <c r="P123" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q123">
         <v>5</v>
@@ -24841,7 +24847,7 @@
         <v>80</v>
       </c>
       <c r="P125" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q125">
         <v>6</v>
@@ -25032,7 +25038,7 @@
         <v>154</v>
       </c>
       <c r="P126" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q126">
         <v>0</v>
@@ -25223,7 +25229,7 @@
         <v>80</v>
       </c>
       <c r="P127" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q127">
         <v>1</v>
@@ -25414,7 +25420,7 @@
         <v>166</v>
       </c>
       <c r="P128" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q128">
         <v>9</v>
@@ -26074,7 +26080,7 @@
         <v>1.6</v>
       </c>
       <c r="AS131">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AT131">
         <v>1.45</v>
@@ -26369,7 +26375,7 @@
         <v>171</v>
       </c>
       <c r="P133" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q133">
         <v>7</v>
@@ -26560,7 +26566,7 @@
         <v>172</v>
       </c>
       <c r="P134" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q134">
         <v>2</v>
@@ -27657,6 +27663,197 @@
       </c>
       <c r="BK139">
         <v>4</v>
+      </c>
+    </row>
+    <row r="140" spans="1:63">
+      <c r="A140" s="1">
+        <v>139</v>
+      </c>
+      <c r="B140">
+        <v>5170231</v>
+      </c>
+      <c r="C140" t="s">
+        <v>63</v>
+      </c>
+      <c r="D140" t="s">
+        <v>64</v>
+      </c>
+      <c r="E140" s="2">
+        <v>44974.69791666666</v>
+      </c>
+      <c r="F140">
+        <v>2</v>
+      </c>
+      <c r="G140" t="s">
+        <v>70</v>
+      </c>
+      <c r="H140" t="s">
+        <v>66</v>
+      </c>
+      <c r="I140">
+        <v>1</v>
+      </c>
+      <c r="J140">
+        <v>0</v>
+      </c>
+      <c r="K140">
+        <v>1</v>
+      </c>
+      <c r="L140">
+        <v>2</v>
+      </c>
+      <c r="M140">
+        <v>1</v>
+      </c>
+      <c r="N140">
+        <v>3</v>
+      </c>
+      <c r="O140" t="s">
+        <v>177</v>
+      </c>
+      <c r="P140" t="s">
+        <v>244</v>
+      </c>
+      <c r="Q140">
+        <v>6</v>
+      </c>
+      <c r="R140">
+        <v>4</v>
+      </c>
+      <c r="S140">
+        <v>10</v>
+      </c>
+      <c r="T140">
+        <v>2.75</v>
+      </c>
+      <c r="U140">
+        <v>2.1</v>
+      </c>
+      <c r="V140">
+        <v>3.6</v>
+      </c>
+      <c r="W140">
+        <v>1.4</v>
+      </c>
+      <c r="X140">
+        <v>2.7</v>
+      </c>
+      <c r="Y140">
+        <v>2.75</v>
+      </c>
+      <c r="Z140">
+        <v>1.39</v>
+      </c>
+      <c r="AA140">
+        <v>7</v>
+      </c>
+      <c r="AB140">
+        <v>1.08</v>
+      </c>
+      <c r="AC140">
+        <v>2.2</v>
+      </c>
+      <c r="AD140">
+        <v>3.38</v>
+      </c>
+      <c r="AE140">
+        <v>3.14</v>
+      </c>
+      <c r="AF140">
+        <v>1.05</v>
+      </c>
+      <c r="AG140">
+        <v>8.75</v>
+      </c>
+      <c r="AH140">
+        <v>1.29</v>
+      </c>
+      <c r="AI140">
+        <v>3.25</v>
+      </c>
+      <c r="AJ140">
+        <v>1.87</v>
+      </c>
+      <c r="AK140">
+        <v>1.83</v>
+      </c>
+      <c r="AL140">
+        <v>1.73</v>
+      </c>
+      <c r="AM140">
+        <v>1.98</v>
+      </c>
+      <c r="AN140">
+        <v>1.32</v>
+      </c>
+      <c r="AO140">
+        <v>1.3</v>
+      </c>
+      <c r="AP140">
+        <v>1.62</v>
+      </c>
+      <c r="AQ140">
+        <v>2.09</v>
+      </c>
+      <c r="AR140">
+        <v>1.45</v>
+      </c>
+      <c r="AS140">
+        <v>2.17</v>
+      </c>
+      <c r="AT140">
+        <v>1.33</v>
+      </c>
+      <c r="AU140">
+        <v>1.61</v>
+      </c>
+      <c r="AV140">
+        <v>1.09</v>
+      </c>
+      <c r="AW140">
+        <v>2.7</v>
+      </c>
+      <c r="AX140">
+        <v>0</v>
+      </c>
+      <c r="AY140">
+        <v>0</v>
+      </c>
+      <c r="AZ140">
+        <v>0</v>
+      </c>
+      <c r="BA140">
+        <v>1.47</v>
+      </c>
+      <c r="BB140">
+        <v>1.88</v>
+      </c>
+      <c r="BC140">
+        <v>2.48</v>
+      </c>
+      <c r="BD140">
+        <v>3.45</v>
+      </c>
+      <c r="BE140">
+        <v>0</v>
+      </c>
+      <c r="BF140">
+        <v>4</v>
+      </c>
+      <c r="BG140">
+        <v>5</v>
+      </c>
+      <c r="BH140">
+        <v>5</v>
+      </c>
+      <c r="BI140">
+        <v>2</v>
+      </c>
+      <c r="BJ140">
+        <v>9</v>
+      </c>
+      <c r="BK140">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Wales Welsh Premier League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Wales Welsh Premier League_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="927" uniqueCount="252">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -550,6 +550,18 @@
     <t>['42', '89']</t>
   </si>
   <si>
+    <t>['43', '72', '86']</t>
+  </si>
+  <si>
+    <t>['5', '15', '90+6']</t>
+  </si>
+  <si>
+    <t>['45']</t>
+  </si>
+  <si>
+    <t>['14']</t>
+  </si>
+  <si>
     <t>['40', '75']</t>
   </si>
   <si>
@@ -749,6 +761,15 @@
   </si>
   <si>
     <t>['90+6']</t>
+  </si>
+  <si>
+    <t>['67', '74']</t>
+  </si>
+  <si>
+    <t>['81', '89', '90+4']</t>
+  </si>
+  <si>
+    <t>['41']</t>
   </si>
 </sst>
 </file>
@@ -1110,7 +1131,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK140"/>
+  <dimension ref="A1:BK145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1354,7 +1375,7 @@
         <v>77</v>
       </c>
       <c r="P2" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="Q2">
         <v>5</v>
@@ -1441,7 +1462,7 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AT2">
         <v>0.33</v>
@@ -1823,10 +1844,10 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AT4">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -2118,7 +2139,7 @@
         <v>80</v>
       </c>
       <c r="P6" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="Q6">
         <v>6</v>
@@ -2208,7 +2229,7 @@
         <v>1.5</v>
       </c>
       <c r="AT6">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -2399,7 +2420,7 @@
         <v>2.17</v>
       </c>
       <c r="AT7">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -2587,7 +2608,7 @@
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>2.64</v>
+        <v>2.5</v>
       </c>
       <c r="AT8">
         <v>0</v>
@@ -2691,7 +2712,7 @@
         <v>80</v>
       </c>
       <c r="P9" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="Q9">
         <v>11</v>
@@ -2781,7 +2802,7 @@
         <v>1.5</v>
       </c>
       <c r="AT9">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AU9">
         <v>0.51</v>
@@ -3163,7 +3184,7 @@
         <v>1.75</v>
       </c>
       <c r="AT11">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AU11">
         <v>0</v>
@@ -3455,7 +3476,7 @@
         <v>80</v>
       </c>
       <c r="P13" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="Q13">
         <v>2</v>
@@ -3542,7 +3563,7 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AT13">
         <v>1.33</v>
@@ -3736,7 +3757,7 @@
         <v>2.08</v>
       </c>
       <c r="AT14">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU14">
         <v>0.86</v>
@@ -3837,7 +3858,7 @@
         <v>87</v>
       </c>
       <c r="P15" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="Q15">
         <v>6</v>
@@ -4028,7 +4049,7 @@
         <v>88</v>
       </c>
       <c r="P16" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="Q16">
         <v>3</v>
@@ -4306,7 +4327,7 @@
         <v>0</v>
       </c>
       <c r="AS17">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AT17">
         <v>0</v>
@@ -4410,7 +4431,7 @@
         <v>90</v>
       </c>
       <c r="P18" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="Q18">
         <v>5</v>
@@ -4500,7 +4521,7 @@
         <v>2.17</v>
       </c>
       <c r="AT18">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AU18">
         <v>1.75</v>
@@ -4792,7 +4813,7 @@
         <v>92</v>
       </c>
       <c r="P20" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="Q20">
         <v>7</v>
@@ -5073,7 +5094,7 @@
         <v>1.5</v>
       </c>
       <c r="AT21">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="AU21">
         <v>1.14</v>
@@ -5174,7 +5195,7 @@
         <v>94</v>
       </c>
       <c r="P22" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="Q22">
         <v>3</v>
@@ -5261,10 +5282,10 @@
         <v>2</v>
       </c>
       <c r="AS22">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AT22">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AU22">
         <v>1.58</v>
@@ -5455,7 +5476,7 @@
         <v>2.33</v>
       </c>
       <c r="AT23">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AU23">
         <v>1.94</v>
@@ -5643,10 +5664,10 @@
         <v>0</v>
       </c>
       <c r="AS24">
-        <v>2.64</v>
+        <v>2.5</v>
       </c>
       <c r="AT24">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AU24">
         <v>1.67</v>
@@ -5747,7 +5768,7 @@
         <v>80</v>
       </c>
       <c r="P25" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="Q25">
         <v>1</v>
@@ -5834,7 +5855,7 @@
         <v>1</v>
       </c>
       <c r="AS25">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AT25">
         <v>2.25</v>
@@ -5938,7 +5959,7 @@
         <v>97</v>
       </c>
       <c r="P26" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="Q26">
         <v>7</v>
@@ -6129,7 +6150,7 @@
         <v>98</v>
       </c>
       <c r="P27" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="Q27">
         <v>2</v>
@@ -6216,10 +6237,10 @@
         <v>0</v>
       </c>
       <c r="AS27">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AT27">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AU27">
         <v>0.36</v>
@@ -6410,7 +6431,7 @@
         <v>2.33</v>
       </c>
       <c r="AT28">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AU28">
         <v>1.94</v>
@@ -6598,7 +6619,7 @@
         <v>0</v>
       </c>
       <c r="AS29">
-        <v>2.64</v>
+        <v>2.5</v>
       </c>
       <c r="AT29">
         <v>1.58</v>
@@ -6702,7 +6723,7 @@
         <v>101</v>
       </c>
       <c r="P30" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="Q30">
         <v>7</v>
@@ -6789,10 +6810,10 @@
         <v>0</v>
       </c>
       <c r="AS30">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AT30">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU30">
         <v>2.4</v>
@@ -6893,7 +6914,7 @@
         <v>80</v>
       </c>
       <c r="P31" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="Q31">
         <v>1</v>
@@ -7084,7 +7105,7 @@
         <v>102</v>
       </c>
       <c r="P32" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="Q32">
         <v>1</v>
@@ -7171,7 +7192,7 @@
         <v>0</v>
       </c>
       <c r="AS32">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AT32">
         <v>1.33</v>
@@ -7275,7 +7296,7 @@
         <v>103</v>
       </c>
       <c r="P33" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="Q33">
         <v>7</v>
@@ -7657,7 +7678,7 @@
         <v>105</v>
       </c>
       <c r="P35" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="Q35">
         <v>3</v>
@@ -7747,7 +7768,7 @@
         <v>1.42</v>
       </c>
       <c r="AT35">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AU35">
         <v>0</v>
@@ -7848,7 +7869,7 @@
         <v>80</v>
       </c>
       <c r="P36" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="Q36">
         <v>1</v>
@@ -8039,7 +8060,7 @@
         <v>106</v>
       </c>
       <c r="P37" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="Q37">
         <v>6</v>
@@ -8230,7 +8251,7 @@
         <v>107</v>
       </c>
       <c r="P38" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="Q38">
         <v>6</v>
@@ -8317,10 +8338,10 @@
         <v>1.5</v>
       </c>
       <c r="AS38">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AT38">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU38">
         <v>1.47</v>
@@ -8612,7 +8633,7 @@
         <v>96</v>
       </c>
       <c r="P40" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="Q40">
         <v>7</v>
@@ -8699,10 +8720,10 @@
         <v>1.8</v>
       </c>
       <c r="AS40">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AT40">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AU40">
         <v>1.93</v>
@@ -9081,10 +9102,10 @@
         <v>0</v>
       </c>
       <c r="AS42">
-        <v>2.64</v>
+        <v>2.5</v>
       </c>
       <c r="AT42">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AU42">
         <v>1.62</v>
@@ -9185,7 +9206,7 @@
         <v>111</v>
       </c>
       <c r="P43" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="Q43">
         <v>8</v>
@@ -9275,7 +9296,7 @@
         <v>3</v>
       </c>
       <c r="AT43">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AU43">
         <v>2.26</v>
@@ -9376,7 +9397,7 @@
         <v>112</v>
       </c>
       <c r="P44" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="Q44">
         <v>6</v>
@@ -9466,7 +9487,7 @@
         <v>2.17</v>
       </c>
       <c r="AT44">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AU44">
         <v>1.89</v>
@@ -9567,7 +9588,7 @@
         <v>80</v>
       </c>
       <c r="P45" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="Q45">
         <v>4</v>
@@ -9657,7 +9678,7 @@
         <v>1.5</v>
       </c>
       <c r="AT45">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AU45">
         <v>1.26</v>
@@ -9845,7 +9866,7 @@
         <v>1</v>
       </c>
       <c r="AS46">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AT46">
         <v>1.33</v>
@@ -9949,7 +9970,7 @@
         <v>80</v>
       </c>
       <c r="P47" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="Q47">
         <v>6</v>
@@ -10140,7 +10161,7 @@
         <v>114</v>
       </c>
       <c r="P48" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="Q48">
         <v>4</v>
@@ -10227,7 +10248,7 @@
         <v>0</v>
       </c>
       <c r="AS48">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AT48">
         <v>0</v>
@@ -10331,7 +10352,7 @@
         <v>115</v>
       </c>
       <c r="P49" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="Q49">
         <v>6</v>
@@ -10421,7 +10442,7 @@
         <v>3</v>
       </c>
       <c r="AT49">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU49">
         <v>2.26</v>
@@ -10522,7 +10543,7 @@
         <v>80</v>
       </c>
       <c r="P50" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="Q50">
         <v>0</v>
@@ -10609,10 +10630,10 @@
         <v>1.4</v>
       </c>
       <c r="AS50">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AT50">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AU50">
         <v>1.52</v>
@@ -10803,7 +10824,7 @@
         <v>1.5</v>
       </c>
       <c r="AT51">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="AU51">
         <v>1.44</v>
@@ -11095,7 +11116,7 @@
         <v>118</v>
       </c>
       <c r="P53" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="Q53">
         <v>4</v>
@@ -11373,7 +11394,7 @@
         <v>0.33</v>
       </c>
       <c r="AS54">
-        <v>2.64</v>
+        <v>2.5</v>
       </c>
       <c r="AT54">
         <v>0.58</v>
@@ -11567,7 +11588,7 @@
         <v>1.75</v>
       </c>
       <c r="AT55">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AU55">
         <v>1.46</v>
@@ -11668,7 +11689,7 @@
         <v>121</v>
       </c>
       <c r="P56" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="Q56">
         <v>4</v>
@@ -11758,7 +11779,7 @@
         <v>1.5</v>
       </c>
       <c r="AT56">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU56">
         <v>1.45</v>
@@ -11946,7 +11967,7 @@
         <v>0.25</v>
       </c>
       <c r="AS57">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AT57">
         <v>0.58</v>
@@ -12050,7 +12071,7 @@
         <v>80</v>
       </c>
       <c r="P58" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="Q58">
         <v>4</v>
@@ -12328,7 +12349,7 @@
         <v>0.75</v>
       </c>
       <c r="AS59">
-        <v>2.64</v>
+        <v>2.5</v>
       </c>
       <c r="AT59">
         <v>1.33</v>
@@ -12432,7 +12453,7 @@
         <v>80</v>
       </c>
       <c r="P60" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="Q60">
         <v>2</v>
@@ -12519,7 +12540,7 @@
         <v>1</v>
       </c>
       <c r="AS60">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AT60">
         <v>1.58</v>
@@ -12623,7 +12644,7 @@
         <v>124</v>
       </c>
       <c r="P61" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="Q61">
         <v>3</v>
@@ -12814,7 +12835,7 @@
         <v>80</v>
       </c>
       <c r="P62" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="Q62">
         <v>5</v>
@@ -13005,7 +13026,7 @@
         <v>125</v>
       </c>
       <c r="P63" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="Q63">
         <v>9</v>
@@ -13092,10 +13113,10 @@
         <v>1.67</v>
       </c>
       <c r="AS63">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AT63">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AU63">
         <v>1.58</v>
@@ -13196,7 +13217,7 @@
         <v>80</v>
       </c>
       <c r="P64" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="Q64">
         <v>5</v>
@@ -13477,7 +13498,7 @@
         <v>3</v>
       </c>
       <c r="AT65">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AU65">
         <v>2.08</v>
@@ -13859,7 +13880,7 @@
         <v>3</v>
       </c>
       <c r="AT67">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="AU67">
         <v>1.95</v>
@@ -13960,7 +13981,7 @@
         <v>129</v>
       </c>
       <c r="P68" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="Q68">
         <v>2</v>
@@ -14047,10 +14068,10 @@
         <v>1.4</v>
       </c>
       <c r="AS68">
-        <v>2.64</v>
+        <v>2.5</v>
       </c>
       <c r="AT68">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU68">
         <v>1.53</v>
@@ -14151,7 +14172,7 @@
         <v>130</v>
       </c>
       <c r="P69" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="Q69">
         <v>1</v>
@@ -14238,10 +14259,10 @@
         <v>1.25</v>
       </c>
       <c r="AS69">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AT69">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AU69">
         <v>0.91</v>
@@ -14342,7 +14363,7 @@
         <v>131</v>
       </c>
       <c r="P70" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="Q70">
         <v>2</v>
@@ -14429,7 +14450,7 @@
         <v>2.6</v>
       </c>
       <c r="AS70">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AT70">
         <v>2.25</v>
@@ -14533,7 +14554,7 @@
         <v>80</v>
       </c>
       <c r="P71" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="Q71">
         <v>4</v>
@@ -14623,7 +14644,7 @@
         <v>2.33</v>
       </c>
       <c r="AT71">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="AU71">
         <v>1.5</v>
@@ -14915,7 +14936,7 @@
         <v>80</v>
       </c>
       <c r="P73" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="Q73">
         <v>2</v>
@@ -15002,10 +15023,10 @@
         <v>0.2</v>
       </c>
       <c r="AS73">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AT73">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AU73">
         <v>1.12</v>
@@ -15488,7 +15509,7 @@
         <v>80</v>
       </c>
       <c r="P76" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="Q76">
         <v>4</v>
@@ -15679,7 +15700,7 @@
         <v>80</v>
       </c>
       <c r="P77" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="Q77">
         <v>5</v>
@@ -16061,7 +16082,7 @@
         <v>80</v>
       </c>
       <c r="P79" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="Q79">
         <v>2</v>
@@ -16252,7 +16273,7 @@
         <v>136</v>
       </c>
       <c r="P80" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="Q80">
         <v>8</v>
@@ -16339,10 +16360,10 @@
         <v>0.6</v>
       </c>
       <c r="AS80">
-        <v>2.64</v>
+        <v>2.5</v>
       </c>
       <c r="AT80">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="AU80">
         <v>1.58</v>
@@ -16443,7 +16464,7 @@
         <v>137</v>
       </c>
       <c r="P81" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="Q81">
         <v>5</v>
@@ -16530,10 +16551,10 @@
         <v>0.67</v>
       </c>
       <c r="AS81">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AT81">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AU81">
         <v>1</v>
@@ -16634,7 +16655,7 @@
         <v>138</v>
       </c>
       <c r="P82" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="Q82">
         <v>7</v>
@@ -16721,7 +16742,7 @@
         <v>0.67</v>
       </c>
       <c r="AS82">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AT82">
         <v>0.58</v>
@@ -16825,7 +16846,7 @@
         <v>112</v>
       </c>
       <c r="P83" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="Q83">
         <v>9</v>
@@ -16915,7 +16936,7 @@
         <v>1.42</v>
       </c>
       <c r="AT83">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU83">
         <v>1.13</v>
@@ -17106,7 +17127,7 @@
         <v>2.33</v>
       </c>
       <c r="AT84">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AU84">
         <v>1.46</v>
@@ -17589,7 +17610,7 @@
         <v>140</v>
       </c>
       <c r="P87" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="Q87">
         <v>3</v>
@@ -17676,7 +17697,7 @@
         <v>1.57</v>
       </c>
       <c r="AS87">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AT87">
         <v>1.58</v>
@@ -17780,7 +17801,7 @@
         <v>141</v>
       </c>
       <c r="P88" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="Q88">
         <v>4</v>
@@ -17870,7 +17891,7 @@
         <v>1.75</v>
       </c>
       <c r="AT88">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU88">
         <v>1.52</v>
@@ -17971,7 +17992,7 @@
         <v>105</v>
       </c>
       <c r="P89" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="Q89">
         <v>7</v>
@@ -18058,7 +18079,7 @@
         <v>1.5</v>
       </c>
       <c r="AS89">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AT89">
         <v>1.33</v>
@@ -18252,7 +18273,7 @@
         <v>2.08</v>
       </c>
       <c r="AT90">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AU90">
         <v>1.15</v>
@@ -18926,7 +18947,7 @@
         <v>146</v>
       </c>
       <c r="P94" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="Q94">
         <v>0</v>
@@ -19016,7 +19037,7 @@
         <v>1.5</v>
       </c>
       <c r="AT94">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AU94">
         <v>1.12</v>
@@ -19395,7 +19416,7 @@
         <v>0.43</v>
       </c>
       <c r="AS96">
-        <v>2.64</v>
+        <v>2.5</v>
       </c>
       <c r="AT96">
         <v>0.33</v>
@@ -19499,7 +19520,7 @@
         <v>149</v>
       </c>
       <c r="P97" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="Q97">
         <v>5</v>
@@ -19589,7 +19610,7 @@
         <v>2.33</v>
       </c>
       <c r="AT97">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU97">
         <v>1.37</v>
@@ -19690,7 +19711,7 @@
         <v>80</v>
       </c>
       <c r="P98" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="Q98">
         <v>8</v>
@@ -19881,7 +19902,7 @@
         <v>150</v>
       </c>
       <c r="P99" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="Q99">
         <v>5</v>
@@ -19968,7 +19989,7 @@
         <v>0.38</v>
       </c>
       <c r="AS99">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AT99">
         <v>0.33</v>
@@ -20072,7 +20093,7 @@
         <v>151</v>
       </c>
       <c r="P100" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="Q100">
         <v>4</v>
@@ -20162,7 +20183,7 @@
         <v>1.42</v>
       </c>
       <c r="AT100">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="AU100">
         <v>1.12</v>
@@ -20263,7 +20284,7 @@
         <v>152</v>
       </c>
       <c r="P101" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="Q101">
         <v>4</v>
@@ -20350,7 +20371,7 @@
         <v>2.43</v>
       </c>
       <c r="AS101">
-        <v>2.64</v>
+        <v>2.5</v>
       </c>
       <c r="AT101">
         <v>2.25</v>
@@ -20645,7 +20666,7 @@
         <v>125</v>
       </c>
       <c r="P103" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="Q103">
         <v>8</v>
@@ -20735,7 +20756,7 @@
         <v>1.75</v>
       </c>
       <c r="AT103">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AU103">
         <v>1.46</v>
@@ -20836,7 +20857,7 @@
         <v>154</v>
       </c>
       <c r="P104" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="Q104">
         <v>3</v>
@@ -20923,10 +20944,10 @@
         <v>1.44</v>
       </c>
       <c r="AS104">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AT104">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU104">
         <v>1.02</v>
@@ -21027,7 +21048,7 @@
         <v>155</v>
       </c>
       <c r="P105" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="Q105">
         <v>1</v>
@@ -21409,7 +21430,7 @@
         <v>132</v>
       </c>
       <c r="P107" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="Q107">
         <v>5</v>
@@ -21687,10 +21708,10 @@
         <v>1</v>
       </c>
       <c r="AS108">
-        <v>2.64</v>
+        <v>2.5</v>
       </c>
       <c r="AT108">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AU108">
         <v>1.64</v>
@@ -22072,7 +22093,7 @@
         <v>2.08</v>
       </c>
       <c r="AT110">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="AU110">
         <v>1.3</v>
@@ -22364,7 +22385,7 @@
         <v>80</v>
       </c>
       <c r="P112" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="Q112">
         <v>2</v>
@@ -22451,7 +22472,7 @@
         <v>2.25</v>
       </c>
       <c r="AS112">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AT112">
         <v>2.25</v>
@@ -22746,7 +22767,7 @@
         <v>105</v>
       </c>
       <c r="P114" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="Q114">
         <v>3</v>
@@ -22833,10 +22854,10 @@
         <v>0.5</v>
       </c>
       <c r="AS114">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AT114">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AU114">
         <v>1.46</v>
@@ -22937,7 +22958,7 @@
         <v>160</v>
       </c>
       <c r="P115" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="Q115">
         <v>4</v>
@@ -23027,7 +23048,7 @@
         <v>1.5</v>
       </c>
       <c r="AT115">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AU115">
         <v>1.32</v>
@@ -23510,7 +23531,7 @@
         <v>162</v>
       </c>
       <c r="P118" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="Q118">
         <v>6</v>
@@ -23701,7 +23722,7 @@
         <v>163</v>
       </c>
       <c r="P119" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="Q119">
         <v>4</v>
@@ -23791,7 +23812,7 @@
         <v>2.17</v>
       </c>
       <c r="AT119">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="AU119">
         <v>1.61</v>
@@ -23892,7 +23913,7 @@
         <v>80</v>
       </c>
       <c r="P120" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="Q120">
         <v>1</v>
@@ -23979,7 +24000,7 @@
         <v>1.3</v>
       </c>
       <c r="AS120">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AT120">
         <v>1.33</v>
@@ -24173,7 +24194,7 @@
         <v>2.08</v>
       </c>
       <c r="AT121">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AU121">
         <v>1.32</v>
@@ -24465,7 +24486,7 @@
         <v>165</v>
       </c>
       <c r="P123" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="Q123">
         <v>5</v>
@@ -24847,7 +24868,7 @@
         <v>80</v>
       </c>
       <c r="P125" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="Q125">
         <v>6</v>
@@ -24934,10 +24955,10 @@
         <v>0.44</v>
       </c>
       <c r="AS125">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AT125">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="AU125">
         <v>1.04</v>
@@ -25038,7 +25059,7 @@
         <v>154</v>
       </c>
       <c r="P126" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="Q126">
         <v>0</v>
@@ -25229,7 +25250,7 @@
         <v>80</v>
       </c>
       <c r="P127" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="Q127">
         <v>1</v>
@@ -25316,7 +25337,7 @@
         <v>1.5</v>
       </c>
       <c r="AS127">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AT127">
         <v>1.58</v>
@@ -25420,7 +25441,7 @@
         <v>166</v>
       </c>
       <c r="P128" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="Q128">
         <v>9</v>
@@ -25507,10 +25528,10 @@
         <v>0.7</v>
       </c>
       <c r="AS128">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AT128">
-        <v>0.64</v>
+        <v>0.83</v>
       </c>
       <c r="AU128">
         <v>1.01</v>
@@ -25892,7 +25913,7 @@
         <v>1.42</v>
       </c>
       <c r="AT130">
-        <v>0.45</v>
+        <v>0.5</v>
       </c>
       <c r="AU130">
         <v>1.18</v>
@@ -26083,7 +26104,7 @@
         <v>2.17</v>
       </c>
       <c r="AT131">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AU131">
         <v>1.61</v>
@@ -26274,7 +26295,7 @@
         <v>3</v>
       </c>
       <c r="AT132">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AU132">
         <v>2.61</v>
@@ -26375,7 +26396,7 @@
         <v>171</v>
       </c>
       <c r="P133" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="Q133">
         <v>7</v>
@@ -26462,7 +26483,7 @@
         <v>1.5</v>
       </c>
       <c r="AS133">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AT133">
         <v>1.33</v>
@@ -26566,7 +26587,7 @@
         <v>172</v>
       </c>
       <c r="P134" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="Q134">
         <v>2</v>
@@ -27712,7 +27733,7 @@
         <v>177</v>
       </c>
       <c r="P140" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="Q140">
         <v>6</v>
@@ -27854,6 +27875,961 @@
       </c>
       <c r="BK140">
         <v>7</v>
+      </c>
+    </row>
+    <row r="141" spans="1:63">
+      <c r="A141" s="1">
+        <v>140</v>
+      </c>
+      <c r="B141">
+        <v>5170235</v>
+      </c>
+      <c r="C141" t="s">
+        <v>63</v>
+      </c>
+      <c r="D141" t="s">
+        <v>64</v>
+      </c>
+      <c r="E141" s="2">
+        <v>44974.69791666666</v>
+      </c>
+      <c r="F141">
+        <v>2</v>
+      </c>
+      <c r="G141" t="s">
+        <v>65</v>
+      </c>
+      <c r="H141" t="s">
+        <v>73</v>
+      </c>
+      <c r="I141">
+        <v>0</v>
+      </c>
+      <c r="J141">
+        <v>0</v>
+      </c>
+      <c r="K141">
+        <v>0</v>
+      </c>
+      <c r="L141">
+        <v>0</v>
+      </c>
+      <c r="M141">
+        <v>2</v>
+      </c>
+      <c r="N141">
+        <v>2</v>
+      </c>
+      <c r="O141" t="s">
+        <v>80</v>
+      </c>
+      <c r="P141" t="s">
+        <v>249</v>
+      </c>
+      <c r="Q141">
+        <v>-1</v>
+      </c>
+      <c r="R141">
+        <v>-1</v>
+      </c>
+      <c r="S141">
+        <v>-1</v>
+      </c>
+      <c r="T141">
+        <v>0</v>
+      </c>
+      <c r="U141">
+        <v>0</v>
+      </c>
+      <c r="V141">
+        <v>0</v>
+      </c>
+      <c r="W141">
+        <v>0</v>
+      </c>
+      <c r="X141">
+        <v>0</v>
+      </c>
+      <c r="Y141">
+        <v>0</v>
+      </c>
+      <c r="Z141">
+        <v>0</v>
+      </c>
+      <c r="AA141">
+        <v>0</v>
+      </c>
+      <c r="AB141">
+        <v>0</v>
+      </c>
+      <c r="AC141">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AD141">
+        <v>5.65</v>
+      </c>
+      <c r="AE141">
+        <v>1.24</v>
+      </c>
+      <c r="AF141">
+        <v>0</v>
+      </c>
+      <c r="AG141">
+        <v>0</v>
+      </c>
+      <c r="AH141">
+        <v>0</v>
+      </c>
+      <c r="AI141">
+        <v>0</v>
+      </c>
+      <c r="AJ141">
+        <v>1.32</v>
+      </c>
+      <c r="AK141">
+        <v>2.92</v>
+      </c>
+      <c r="AL141">
+        <v>0</v>
+      </c>
+      <c r="AM141">
+        <v>0</v>
+      </c>
+      <c r="AN141">
+        <v>0</v>
+      </c>
+      <c r="AO141">
+        <v>0</v>
+      </c>
+      <c r="AP141">
+        <v>0</v>
+      </c>
+      <c r="AQ141">
+        <v>0.09</v>
+      </c>
+      <c r="AR141">
+        <v>0.64</v>
+      </c>
+      <c r="AS141">
+        <v>0.08</v>
+      </c>
+      <c r="AT141">
+        <v>0.83</v>
+      </c>
+      <c r="AU141">
+        <v>1.1</v>
+      </c>
+      <c r="AV141">
+        <v>1.31</v>
+      </c>
+      <c r="AW141">
+        <v>2.41</v>
+      </c>
+      <c r="AX141">
+        <v>0</v>
+      </c>
+      <c r="AY141">
+        <v>0</v>
+      </c>
+      <c r="AZ141">
+        <v>0</v>
+      </c>
+      <c r="BA141">
+        <v>0</v>
+      </c>
+      <c r="BB141">
+        <v>0</v>
+      </c>
+      <c r="BC141">
+        <v>0</v>
+      </c>
+      <c r="BD141">
+        <v>0</v>
+      </c>
+      <c r="BE141">
+        <v>0</v>
+      </c>
+      <c r="BF141">
+        <v>-1</v>
+      </c>
+      <c r="BG141">
+        <v>-1</v>
+      </c>
+      <c r="BH141">
+        <v>-1</v>
+      </c>
+      <c r="BI141">
+        <v>-1</v>
+      </c>
+      <c r="BJ141">
+        <v>-1</v>
+      </c>
+      <c r="BK141">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="142" spans="1:63">
+      <c r="A142" s="1">
+        <v>141</v>
+      </c>
+      <c r="B142">
+        <v>5170234</v>
+      </c>
+      <c r="C142" t="s">
+        <v>63</v>
+      </c>
+      <c r="D142" t="s">
+        <v>64</v>
+      </c>
+      <c r="E142" s="2">
+        <v>44975.40625</v>
+      </c>
+      <c r="F142">
+        <v>2</v>
+      </c>
+      <c r="G142" t="s">
+        <v>75</v>
+      </c>
+      <c r="H142" t="s">
+        <v>69</v>
+      </c>
+      <c r="I142">
+        <v>1</v>
+      </c>
+      <c r="J142">
+        <v>0</v>
+      </c>
+      <c r="K142">
+        <v>1</v>
+      </c>
+      <c r="L142">
+        <v>3</v>
+      </c>
+      <c r="M142">
+        <v>3</v>
+      </c>
+      <c r="N142">
+        <v>6</v>
+      </c>
+      <c r="O142" t="s">
+        <v>178</v>
+      </c>
+      <c r="P142" t="s">
+        <v>250</v>
+      </c>
+      <c r="Q142">
+        <v>4</v>
+      </c>
+      <c r="R142">
+        <v>3</v>
+      </c>
+      <c r="S142">
+        <v>7</v>
+      </c>
+      <c r="T142">
+        <v>0</v>
+      </c>
+      <c r="U142">
+        <v>0</v>
+      </c>
+      <c r="V142">
+        <v>0</v>
+      </c>
+      <c r="W142">
+        <v>0</v>
+      </c>
+      <c r="X142">
+        <v>0</v>
+      </c>
+      <c r="Y142">
+        <v>0</v>
+      </c>
+      <c r="Z142">
+        <v>0</v>
+      </c>
+      <c r="AA142">
+        <v>0</v>
+      </c>
+      <c r="AB142">
+        <v>0</v>
+      </c>
+      <c r="AC142">
+        <v>2.9</v>
+      </c>
+      <c r="AD142">
+        <v>3.5</v>
+      </c>
+      <c r="AE142">
+        <v>2.1</v>
+      </c>
+      <c r="AF142">
+        <v>0</v>
+      </c>
+      <c r="AG142">
+        <v>0</v>
+      </c>
+      <c r="AH142">
+        <v>0</v>
+      </c>
+      <c r="AI142">
+        <v>0</v>
+      </c>
+      <c r="AJ142">
+        <v>1.58</v>
+      </c>
+      <c r="AK142">
+        <v>2.28</v>
+      </c>
+      <c r="AL142">
+        <v>0</v>
+      </c>
+      <c r="AM142">
+        <v>0</v>
+      </c>
+      <c r="AN142">
+        <v>0</v>
+      </c>
+      <c r="AO142">
+        <v>0</v>
+      </c>
+      <c r="AP142">
+        <v>0</v>
+      </c>
+      <c r="AQ142">
+        <v>1.64</v>
+      </c>
+      <c r="AR142">
+        <v>0.45</v>
+      </c>
+      <c r="AS142">
+        <v>1.58</v>
+      </c>
+      <c r="AT142">
+        <v>0.5</v>
+      </c>
+      <c r="AU142">
+        <v>1.07</v>
+      </c>
+      <c r="AV142">
+        <v>1.09</v>
+      </c>
+      <c r="AW142">
+        <v>2.16</v>
+      </c>
+      <c r="AX142">
+        <v>0</v>
+      </c>
+      <c r="AY142">
+        <v>0</v>
+      </c>
+      <c r="AZ142">
+        <v>0</v>
+      </c>
+      <c r="BA142">
+        <v>0</v>
+      </c>
+      <c r="BB142">
+        <v>0</v>
+      </c>
+      <c r="BC142">
+        <v>0</v>
+      </c>
+      <c r="BD142">
+        <v>0</v>
+      </c>
+      <c r="BE142">
+        <v>0</v>
+      </c>
+      <c r="BF142">
+        <v>5</v>
+      </c>
+      <c r="BG142">
+        <v>5</v>
+      </c>
+      <c r="BH142">
+        <v>4</v>
+      </c>
+      <c r="BI142">
+        <v>0</v>
+      </c>
+      <c r="BJ142">
+        <v>9</v>
+      </c>
+      <c r="BK142">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="143" spans="1:63">
+      <c r="A143" s="1">
+        <v>142</v>
+      </c>
+      <c r="B143">
+        <v>5170236</v>
+      </c>
+      <c r="C143" t="s">
+        <v>63</v>
+      </c>
+      <c r="D143" t="s">
+        <v>64</v>
+      </c>
+      <c r="E143" s="2">
+        <v>44975.47916666666</v>
+      </c>
+      <c r="F143">
+        <v>2</v>
+      </c>
+      <c r="G143" t="s">
+        <v>67</v>
+      </c>
+      <c r="H143" t="s">
+        <v>76</v>
+      </c>
+      <c r="I143">
+        <v>2</v>
+      </c>
+      <c r="J143">
+        <v>1</v>
+      </c>
+      <c r="K143">
+        <v>3</v>
+      </c>
+      <c r="L143">
+        <v>3</v>
+      </c>
+      <c r="M143">
+        <v>1</v>
+      </c>
+      <c r="N143">
+        <v>4</v>
+      </c>
+      <c r="O143" t="s">
+        <v>179</v>
+      </c>
+      <c r="P143" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q143">
+        <v>9</v>
+      </c>
+      <c r="R143">
+        <v>1</v>
+      </c>
+      <c r="S143">
+        <v>10</v>
+      </c>
+      <c r="T143">
+        <v>0</v>
+      </c>
+      <c r="U143">
+        <v>0</v>
+      </c>
+      <c r="V143">
+        <v>0</v>
+      </c>
+      <c r="W143">
+        <v>0</v>
+      </c>
+      <c r="X143">
+        <v>0</v>
+      </c>
+      <c r="Y143">
+        <v>0</v>
+      </c>
+      <c r="Z143">
+        <v>0</v>
+      </c>
+      <c r="AA143">
+        <v>0</v>
+      </c>
+      <c r="AB143">
+        <v>0</v>
+      </c>
+      <c r="AC143">
+        <v>1.67</v>
+      </c>
+      <c r="AD143">
+        <v>3.6</v>
+      </c>
+      <c r="AE143">
+        <v>4.45</v>
+      </c>
+      <c r="AF143">
+        <v>0</v>
+      </c>
+      <c r="AG143">
+        <v>0</v>
+      </c>
+      <c r="AH143">
+        <v>0</v>
+      </c>
+      <c r="AI143">
+        <v>0</v>
+      </c>
+      <c r="AJ143">
+        <v>1.65</v>
+      </c>
+      <c r="AK143">
+        <v>2.03</v>
+      </c>
+      <c r="AL143">
+        <v>0</v>
+      </c>
+      <c r="AM143">
+        <v>0</v>
+      </c>
+      <c r="AN143">
+        <v>0</v>
+      </c>
+      <c r="AO143">
+        <v>0</v>
+      </c>
+      <c r="AP143">
+        <v>0</v>
+      </c>
+      <c r="AQ143">
+        <v>1.82</v>
+      </c>
+      <c r="AR143">
+        <v>0.91</v>
+      </c>
+      <c r="AS143">
+        <v>1.92</v>
+      </c>
+      <c r="AT143">
+        <v>0.83</v>
+      </c>
+      <c r="AU143">
+        <v>1.36</v>
+      </c>
+      <c r="AV143">
+        <v>1.18</v>
+      </c>
+      <c r="AW143">
+        <v>2.54</v>
+      </c>
+      <c r="AX143">
+        <v>0</v>
+      </c>
+      <c r="AY143">
+        <v>0</v>
+      </c>
+      <c r="AZ143">
+        <v>0</v>
+      </c>
+      <c r="BA143">
+        <v>0</v>
+      </c>
+      <c r="BB143">
+        <v>0</v>
+      </c>
+      <c r="BC143">
+        <v>0</v>
+      </c>
+      <c r="BD143">
+        <v>0</v>
+      </c>
+      <c r="BE143">
+        <v>0</v>
+      </c>
+      <c r="BF143">
+        <v>7</v>
+      </c>
+      <c r="BG143">
+        <v>6</v>
+      </c>
+      <c r="BH143">
+        <v>5</v>
+      </c>
+      <c r="BI143">
+        <v>7</v>
+      </c>
+      <c r="BJ143">
+        <v>12</v>
+      </c>
+      <c r="BK143">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="144" spans="1:63">
+      <c r="A144" s="1">
+        <v>143</v>
+      </c>
+      <c r="B144">
+        <v>5170233</v>
+      </c>
+      <c r="C144" t="s">
+        <v>63</v>
+      </c>
+      <c r="D144" t="s">
+        <v>64</v>
+      </c>
+      <c r="E144" s="2">
+        <v>44975.47916666666</v>
+      </c>
+      <c r="F144">
+        <v>2</v>
+      </c>
+      <c r="G144" t="s">
+        <v>72</v>
+      </c>
+      <c r="H144" t="s">
+        <v>68</v>
+      </c>
+      <c r="I144">
+        <v>1</v>
+      </c>
+      <c r="J144">
+        <v>0</v>
+      </c>
+      <c r="K144">
+        <v>1</v>
+      </c>
+      <c r="L144">
+        <v>1</v>
+      </c>
+      <c r="M144">
+        <v>0</v>
+      </c>
+      <c r="N144">
+        <v>1</v>
+      </c>
+      <c r="O144" t="s">
+        <v>180</v>
+      </c>
+      <c r="P144" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q144">
+        <v>13</v>
+      </c>
+      <c r="R144">
+        <v>3</v>
+      </c>
+      <c r="S144">
+        <v>16</v>
+      </c>
+      <c r="T144">
+        <v>1.49</v>
+      </c>
+      <c r="U144">
+        <v>3</v>
+      </c>
+      <c r="V144">
+        <v>9</v>
+      </c>
+      <c r="W144">
+        <v>1.18</v>
+      </c>
+      <c r="X144">
+        <v>4.33</v>
+      </c>
+      <c r="Y144">
+        <v>1.91</v>
+      </c>
+      <c r="Z144">
+        <v>1.85</v>
+      </c>
+      <c r="AA144">
+        <v>3.6</v>
+      </c>
+      <c r="AB144">
+        <v>1.25</v>
+      </c>
+      <c r="AC144">
+        <v>1.08</v>
+      </c>
+      <c r="AD144">
+        <v>6.53</v>
+      </c>
+      <c r="AE144">
+        <v>13.87</v>
+      </c>
+      <c r="AF144">
+        <v>1.02</v>
+      </c>
+      <c r="AG144">
+        <v>34.5</v>
+      </c>
+      <c r="AH144">
+        <v>1.09</v>
+      </c>
+      <c r="AI144">
+        <v>6.15</v>
+      </c>
+      <c r="AJ144">
+        <v>1.29</v>
+      </c>
+      <c r="AK144">
+        <v>3.1</v>
+      </c>
+      <c r="AL144">
+        <v>1.85</v>
+      </c>
+      <c r="AM144">
+        <v>1.85</v>
+      </c>
+      <c r="AN144">
+        <v>1.04</v>
+      </c>
+      <c r="AO144">
+        <v>1.09</v>
+      </c>
+      <c r="AP144">
+        <v>4.5</v>
+      </c>
+      <c r="AQ144">
+        <v>3</v>
+      </c>
+      <c r="AR144">
+        <v>1.45</v>
+      </c>
+      <c r="AS144">
+        <v>3</v>
+      </c>
+      <c r="AT144">
+        <v>1.33</v>
+      </c>
+      <c r="AU144">
+        <v>2.66</v>
+      </c>
+      <c r="AV144">
+        <v>1.37</v>
+      </c>
+      <c r="AW144">
+        <v>4.03</v>
+      </c>
+      <c r="AX144">
+        <v>0</v>
+      </c>
+      <c r="AY144">
+        <v>0</v>
+      </c>
+      <c r="AZ144">
+        <v>0</v>
+      </c>
+      <c r="BA144">
+        <v>0</v>
+      </c>
+      <c r="BB144">
+        <v>0</v>
+      </c>
+      <c r="BC144">
+        <v>0</v>
+      </c>
+      <c r="BD144">
+        <v>0</v>
+      </c>
+      <c r="BE144">
+        <v>0</v>
+      </c>
+      <c r="BF144">
+        <v>8</v>
+      </c>
+      <c r="BG144">
+        <v>2</v>
+      </c>
+      <c r="BH144">
+        <v>19</v>
+      </c>
+      <c r="BI144">
+        <v>2</v>
+      </c>
+      <c r="BJ144">
+        <v>27</v>
+      </c>
+      <c r="BK144">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="145" spans="1:63">
+      <c r="A145" s="1">
+        <v>144</v>
+      </c>
+      <c r="B145">
+        <v>5170232</v>
+      </c>
+      <c r="C145" t="s">
+        <v>63</v>
+      </c>
+      <c r="D145" t="s">
+        <v>64</v>
+      </c>
+      <c r="E145" s="2">
+        <v>44975.47916666666</v>
+      </c>
+      <c r="F145">
+        <v>2</v>
+      </c>
+      <c r="G145" t="s">
+        <v>71</v>
+      </c>
+      <c r="H145" t="s">
+        <v>74</v>
+      </c>
+      <c r="I145">
+        <v>1</v>
+      </c>
+      <c r="J145">
+        <v>0</v>
+      </c>
+      <c r="K145">
+        <v>1</v>
+      </c>
+      <c r="L145">
+        <v>1</v>
+      </c>
+      <c r="M145">
+        <v>1</v>
+      </c>
+      <c r="N145">
+        <v>2</v>
+      </c>
+      <c r="O145" t="s">
+        <v>181</v>
+      </c>
+      <c r="P145" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q145">
+        <v>2</v>
+      </c>
+      <c r="R145">
+        <v>5</v>
+      </c>
+      <c r="S145">
+        <v>7</v>
+      </c>
+      <c r="T145">
+        <v>2.8</v>
+      </c>
+      <c r="U145">
+        <v>2.05</v>
+      </c>
+      <c r="V145">
+        <v>4.15</v>
+      </c>
+      <c r="W145">
+        <v>1.38</v>
+      </c>
+      <c r="X145">
+        <v>2.8</v>
+      </c>
+      <c r="Y145">
+        <v>2.7</v>
+      </c>
+      <c r="Z145">
+        <v>1.4</v>
+      </c>
+      <c r="AA145">
+        <v>6.5</v>
+      </c>
+      <c r="AB145">
+        <v>1.08</v>
+      </c>
+      <c r="AC145">
+        <v>2.1</v>
+      </c>
+      <c r="AD145">
+        <v>3.35</v>
+      </c>
+      <c r="AE145">
+        <v>3.05</v>
+      </c>
+      <c r="AF145">
+        <v>1.03</v>
+      </c>
+      <c r="AG145">
+        <v>8.6</v>
+      </c>
+      <c r="AH145">
+        <v>1.3</v>
+      </c>
+      <c r="AI145">
+        <v>3.08</v>
+      </c>
+      <c r="AJ145">
+        <v>1.82</v>
+      </c>
+      <c r="AK145">
+        <v>1.82</v>
+      </c>
+      <c r="AL145">
+        <v>1.7</v>
+      </c>
+      <c r="AM145">
+        <v>2.1</v>
+      </c>
+      <c r="AN145">
+        <v>1.3</v>
+      </c>
+      <c r="AO145">
+        <v>1.3</v>
+      </c>
+      <c r="AP145">
+        <v>1.68</v>
+      </c>
+      <c r="AQ145">
+        <v>2.64</v>
+      </c>
+      <c r="AR145">
+        <v>1.45</v>
+      </c>
+      <c r="AS145">
+        <v>2.5</v>
+      </c>
+      <c r="AT145">
+        <v>1.42</v>
+      </c>
+      <c r="AU145">
+        <v>1.64</v>
+      </c>
+      <c r="AV145">
+        <v>1.77</v>
+      </c>
+      <c r="AW145">
+        <v>3.41</v>
+      </c>
+      <c r="AX145">
+        <v>0</v>
+      </c>
+      <c r="AY145">
+        <v>0</v>
+      </c>
+      <c r="AZ145">
+        <v>0</v>
+      </c>
+      <c r="BA145">
+        <v>0</v>
+      </c>
+      <c r="BB145">
+        <v>0</v>
+      </c>
+      <c r="BC145">
+        <v>0</v>
+      </c>
+      <c r="BD145">
+        <v>0</v>
+      </c>
+      <c r="BE145">
+        <v>0</v>
+      </c>
+      <c r="BF145">
+        <v>4</v>
+      </c>
+      <c r="BG145">
+        <v>5</v>
+      </c>
+      <c r="BH145">
+        <v>2</v>
+      </c>
+      <c r="BI145">
+        <v>7</v>
+      </c>
+      <c r="BJ145">
+        <v>6</v>
+      </c>
+      <c r="BK145">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Wales Welsh Premier League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Wales Welsh Premier League_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="927" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="939" uniqueCount="255">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -562,6 +562,12 @@
     <t>['14']</t>
   </si>
   <si>
+    <t>['48']</t>
+  </si>
+  <si>
+    <t>['12', '49']</t>
+  </si>
+  <si>
     <t>['40', '75']</t>
   </si>
   <si>
@@ -727,9 +733,6 @@
     <t>['3', '15', '18', '34', '40', '44', '51', '66']</t>
   </si>
   <si>
-    <t>['48']</t>
-  </si>
-  <si>
     <t>['26']</t>
   </si>
   <si>
@@ -770,6 +773,12 @@
   </si>
   <si>
     <t>['41']</t>
+  </si>
+  <si>
+    <t>['19', '27', '58', '64', '81', '84', '90+2']</t>
+  </si>
+  <si>
+    <t>['23', '81']</t>
   </si>
 </sst>
 </file>
@@ -1131,7 +1140,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK145"/>
+  <dimension ref="A1:BK147"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1375,7 +1384,7 @@
         <v>77</v>
       </c>
       <c r="P2" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q2">
         <v>5</v>
@@ -1465,7 +1474,7 @@
         <v>0.08</v>
       </c>
       <c r="AT2">
-        <v>0.33</v>
+        <v>0.54</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -2139,7 +2148,7 @@
         <v>80</v>
       </c>
       <c r="P6" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q6">
         <v>6</v>
@@ -2229,7 +2238,7 @@
         <v>1.5</v>
       </c>
       <c r="AT6">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -2712,7 +2721,7 @@
         <v>80</v>
       </c>
       <c r="P9" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q9">
         <v>11</v>
@@ -2802,7 +2811,7 @@
         <v>1.5</v>
       </c>
       <c r="AT9">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AU9">
         <v>0.51</v>
@@ -3181,7 +3190,7 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AT11">
         <v>0.5</v>
@@ -3476,7 +3485,7 @@
         <v>80</v>
       </c>
       <c r="P13" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q13">
         <v>2</v>
@@ -3858,7 +3867,7 @@
         <v>87</v>
       </c>
       <c r="P15" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q15">
         <v>6</v>
@@ -4049,7 +4058,7 @@
         <v>88</v>
       </c>
       <c r="P16" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q16">
         <v>3</v>
@@ -4136,7 +4145,7 @@
         <v>3</v>
       </c>
       <c r="AS16">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AT16">
         <v>1.33</v>
@@ -4431,7 +4440,7 @@
         <v>90</v>
       </c>
       <c r="P18" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q18">
         <v>5</v>
@@ -4521,7 +4530,7 @@
         <v>2.17</v>
       </c>
       <c r="AT18">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AU18">
         <v>1.75</v>
@@ -4712,7 +4721,7 @@
         <v>1.5</v>
       </c>
       <c r="AT19">
-        <v>0.33</v>
+        <v>0.54</v>
       </c>
       <c r="AU19">
         <v>1.01</v>
@@ -4813,7 +4822,7 @@
         <v>92</v>
       </c>
       <c r="P20" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q20">
         <v>7</v>
@@ -5195,7 +5204,7 @@
         <v>94</v>
       </c>
       <c r="P22" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q22">
         <v>3</v>
@@ -5285,7 +5294,7 @@
         <v>0.08</v>
       </c>
       <c r="AT22">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AU22">
         <v>1.58</v>
@@ -5768,7 +5777,7 @@
         <v>80</v>
       </c>
       <c r="P25" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q25">
         <v>1</v>
@@ -5959,7 +5968,7 @@
         <v>97</v>
       </c>
       <c r="P26" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q26">
         <v>7</v>
@@ -6046,7 +6055,7 @@
         <v>0</v>
       </c>
       <c r="AS26">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AT26">
         <v>0</v>
@@ -6150,7 +6159,7 @@
         <v>98</v>
       </c>
       <c r="P27" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q27">
         <v>2</v>
@@ -6431,7 +6440,7 @@
         <v>2.33</v>
       </c>
       <c r="AT28">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AU28">
         <v>1.94</v>
@@ -6723,7 +6732,7 @@
         <v>101</v>
       </c>
       <c r="P30" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q30">
         <v>7</v>
@@ -6914,7 +6923,7 @@
         <v>80</v>
       </c>
       <c r="P31" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q31">
         <v>1</v>
@@ -7105,7 +7114,7 @@
         <v>102</v>
       </c>
       <c r="P32" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q32">
         <v>1</v>
@@ -7296,7 +7305,7 @@
         <v>103</v>
       </c>
       <c r="P33" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q33">
         <v>7</v>
@@ -7383,7 +7392,7 @@
         <v>0.5</v>
       </c>
       <c r="AS33">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AT33">
         <v>0.58</v>
@@ -7678,7 +7687,7 @@
         <v>105</v>
       </c>
       <c r="P35" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q35">
         <v>3</v>
@@ -7869,7 +7878,7 @@
         <v>80</v>
       </c>
       <c r="P36" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q36">
         <v>1</v>
@@ -8060,7 +8069,7 @@
         <v>106</v>
       </c>
       <c r="P37" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q37">
         <v>6</v>
@@ -8251,7 +8260,7 @@
         <v>107</v>
       </c>
       <c r="P38" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q38">
         <v>6</v>
@@ -8532,7 +8541,7 @@
         <v>2.17</v>
       </c>
       <c r="AT39">
-        <v>0.33</v>
+        <v>0.54</v>
       </c>
       <c r="AU39">
         <v>1.87</v>
@@ -8633,7 +8642,7 @@
         <v>96</v>
       </c>
       <c r="P40" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q40">
         <v>7</v>
@@ -8723,7 +8732,7 @@
         <v>1.92</v>
       </c>
       <c r="AT40">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AU40">
         <v>1.93</v>
@@ -9206,7 +9215,7 @@
         <v>111</v>
       </c>
       <c r="P43" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q43">
         <v>8</v>
@@ -9296,7 +9305,7 @@
         <v>3</v>
       </c>
       <c r="AT43">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AU43">
         <v>2.26</v>
@@ -9397,7 +9406,7 @@
         <v>112</v>
       </c>
       <c r="P44" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q44">
         <v>6</v>
@@ -9588,7 +9597,7 @@
         <v>80</v>
       </c>
       <c r="P45" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q45">
         <v>4</v>
@@ -9970,7 +9979,7 @@
         <v>80</v>
       </c>
       <c r="P47" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q47">
         <v>6</v>
@@ -10057,7 +10066,7 @@
         <v>0</v>
       </c>
       <c r="AS47">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AT47">
         <v>1.33</v>
@@ -10161,7 +10170,7 @@
         <v>114</v>
       </c>
       <c r="P48" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q48">
         <v>4</v>
@@ -10352,7 +10361,7 @@
         <v>115</v>
       </c>
       <c r="P49" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q49">
         <v>6</v>
@@ -10543,7 +10552,7 @@
         <v>80</v>
       </c>
       <c r="P50" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q50">
         <v>0</v>
@@ -11015,7 +11024,7 @@
         <v>2.33</v>
       </c>
       <c r="AT52">
-        <v>0.33</v>
+        <v>0.54</v>
       </c>
       <c r="AU52">
         <v>1.55</v>
@@ -11116,7 +11125,7 @@
         <v>118</v>
       </c>
       <c r="P53" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q53">
         <v>4</v>
@@ -11585,10 +11594,10 @@
         <v>1.43</v>
       </c>
       <c r="AS55">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AT55">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AU55">
         <v>1.46</v>
@@ -11689,7 +11698,7 @@
         <v>121</v>
       </c>
       <c r="P56" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q56">
         <v>4</v>
@@ -12071,7 +12080,7 @@
         <v>80</v>
       </c>
       <c r="P58" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q58">
         <v>4</v>
@@ -12453,7 +12462,7 @@
         <v>80</v>
       </c>
       <c r="P60" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q60">
         <v>2</v>
@@ -12644,7 +12653,7 @@
         <v>124</v>
       </c>
       <c r="P61" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q61">
         <v>3</v>
@@ -12731,10 +12740,10 @@
         <v>0.75</v>
       </c>
       <c r="AS61">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AT61">
-        <v>0.33</v>
+        <v>0.54</v>
       </c>
       <c r="AU61">
         <v>1.51</v>
@@ -12835,7 +12844,7 @@
         <v>80</v>
       </c>
       <c r="P62" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q62">
         <v>5</v>
@@ -13026,7 +13035,7 @@
         <v>125</v>
       </c>
       <c r="P63" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q63">
         <v>9</v>
@@ -13217,7 +13226,7 @@
         <v>80</v>
       </c>
       <c r="P64" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q64">
         <v>5</v>
@@ -13981,7 +13990,7 @@
         <v>129</v>
       </c>
       <c r="P68" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q68">
         <v>2</v>
@@ -14172,7 +14181,7 @@
         <v>130</v>
       </c>
       <c r="P69" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q69">
         <v>1</v>
@@ -14262,7 +14271,7 @@
         <v>1.58</v>
       </c>
       <c r="AT69">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AU69">
         <v>0.91</v>
@@ -14363,7 +14372,7 @@
         <v>131</v>
       </c>
       <c r="P70" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q70">
         <v>2</v>
@@ -14554,7 +14563,7 @@
         <v>80</v>
       </c>
       <c r="P71" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q71">
         <v>4</v>
@@ -14936,7 +14945,7 @@
         <v>80</v>
       </c>
       <c r="P73" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q73">
         <v>2</v>
@@ -15217,7 +15226,7 @@
         <v>2.08</v>
       </c>
       <c r="AT74">
-        <v>0.33</v>
+        <v>0.54</v>
       </c>
       <c r="AU74">
         <v>1.06</v>
@@ -15509,7 +15518,7 @@
         <v>80</v>
       </c>
       <c r="P76" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q76">
         <v>4</v>
@@ -15596,7 +15605,7 @@
         <v>1.33</v>
       </c>
       <c r="AS76">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AT76">
         <v>1.58</v>
@@ -15700,7 +15709,7 @@
         <v>80</v>
       </c>
       <c r="P77" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q77">
         <v>5</v>
@@ -16082,7 +16091,7 @@
         <v>80</v>
       </c>
       <c r="P79" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q79">
         <v>2</v>
@@ -16273,7 +16282,7 @@
         <v>136</v>
       </c>
       <c r="P80" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q80">
         <v>8</v>
@@ -16464,7 +16473,7 @@
         <v>137</v>
       </c>
       <c r="P81" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q81">
         <v>5</v>
@@ -16655,7 +16664,7 @@
         <v>138</v>
       </c>
       <c r="P82" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q82">
         <v>7</v>
@@ -16846,7 +16855,7 @@
         <v>112</v>
       </c>
       <c r="P83" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q83">
         <v>9</v>
@@ -17610,7 +17619,7 @@
         <v>140</v>
       </c>
       <c r="P87" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q87">
         <v>3</v>
@@ -17801,7 +17810,7 @@
         <v>141</v>
       </c>
       <c r="P88" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q88">
         <v>4</v>
@@ -17888,7 +17897,7 @@
         <v>1.43</v>
       </c>
       <c r="AS88">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AT88">
         <v>1.33</v>
@@ -17992,7 +18001,7 @@
         <v>105</v>
       </c>
       <c r="P89" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q89">
         <v>7</v>
@@ -18273,7 +18282,7 @@
         <v>2.08</v>
       </c>
       <c r="AT90">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AU90">
         <v>1.15</v>
@@ -18464,7 +18473,7 @@
         <v>3</v>
       </c>
       <c r="AT91">
-        <v>0.33</v>
+        <v>0.54</v>
       </c>
       <c r="AU91">
         <v>2.27</v>
@@ -18947,7 +18956,7 @@
         <v>146</v>
       </c>
       <c r="P94" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q94">
         <v>0</v>
@@ -19419,7 +19428,7 @@
         <v>2.5</v>
       </c>
       <c r="AT96">
-        <v>0.33</v>
+        <v>0.54</v>
       </c>
       <c r="AU96">
         <v>1.63</v>
@@ -19520,7 +19529,7 @@
         <v>149</v>
       </c>
       <c r="P97" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q97">
         <v>5</v>
@@ -19711,7 +19720,7 @@
         <v>80</v>
       </c>
       <c r="P98" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q98">
         <v>8</v>
@@ -19902,7 +19911,7 @@
         <v>150</v>
       </c>
       <c r="P99" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q99">
         <v>5</v>
@@ -19992,7 +20001,7 @@
         <v>1.92</v>
       </c>
       <c r="AT99">
-        <v>0.33</v>
+        <v>0.54</v>
       </c>
       <c r="AU99">
         <v>1.41</v>
@@ -20093,7 +20102,7 @@
         <v>151</v>
       </c>
       <c r="P100" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q100">
         <v>4</v>
@@ -20284,7 +20293,7 @@
         <v>152</v>
       </c>
       <c r="P101" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q101">
         <v>4</v>
@@ -20666,7 +20675,7 @@
         <v>125</v>
       </c>
       <c r="P103" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q103">
         <v>8</v>
@@ -20753,7 +20762,7 @@
         <v>1.63</v>
       </c>
       <c r="AS103">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AT103">
         <v>1.42</v>
@@ -20857,7 +20866,7 @@
         <v>154</v>
       </c>
       <c r="P104" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q104">
         <v>3</v>
@@ -21048,7 +21057,7 @@
         <v>155</v>
       </c>
       <c r="P105" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q105">
         <v>1</v>
@@ -21430,7 +21439,7 @@
         <v>132</v>
       </c>
       <c r="P107" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q107">
         <v>5</v>
@@ -21711,7 +21720,7 @@
         <v>2.5</v>
       </c>
       <c r="AT108">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AU108">
         <v>1.64</v>
@@ -21902,7 +21911,7 @@
         <v>1.5</v>
       </c>
       <c r="AT109">
-        <v>0.33</v>
+        <v>0.54</v>
       </c>
       <c r="AU109">
         <v>1.18</v>
@@ -22385,7 +22394,7 @@
         <v>80</v>
       </c>
       <c r="P112" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q112">
         <v>2</v>
@@ -22767,7 +22776,7 @@
         <v>105</v>
       </c>
       <c r="P114" t="s">
-        <v>237</v>
+        <v>182</v>
       </c>
       <c r="Q114">
         <v>3</v>
@@ -22958,7 +22967,7 @@
         <v>160</v>
       </c>
       <c r="P115" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q115">
         <v>4</v>
@@ -23427,7 +23436,7 @@
         <v>2.33</v>
       </c>
       <c r="AS117">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AT117">
         <v>2.25</v>
@@ -23531,7 +23540,7 @@
         <v>162</v>
       </c>
       <c r="P118" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q118">
         <v>6</v>
@@ -23621,7 +23630,7 @@
         <v>1.42</v>
       </c>
       <c r="AT118">
-        <v>0.33</v>
+        <v>0.54</v>
       </c>
       <c r="AU118">
         <v>1.22</v>
@@ -23722,7 +23731,7 @@
         <v>163</v>
       </c>
       <c r="P119" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q119">
         <v>4</v>
@@ -23913,7 +23922,7 @@
         <v>80</v>
       </c>
       <c r="P120" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q120">
         <v>1</v>
@@ -24486,7 +24495,7 @@
         <v>165</v>
       </c>
       <c r="P123" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q123">
         <v>5</v>
@@ -24868,7 +24877,7 @@
         <v>80</v>
       </c>
       <c r="P125" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q125">
         <v>6</v>
@@ -25059,7 +25068,7 @@
         <v>154</v>
       </c>
       <c r="P126" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q126">
         <v>0</v>
@@ -25250,7 +25259,7 @@
         <v>80</v>
       </c>
       <c r="P127" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q127">
         <v>1</v>
@@ -25441,7 +25450,7 @@
         <v>166</v>
       </c>
       <c r="P128" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q128">
         <v>9</v>
@@ -26396,7 +26405,7 @@
         <v>171</v>
       </c>
       <c r="P133" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q133">
         <v>7</v>
@@ -26587,7 +26596,7 @@
         <v>172</v>
       </c>
       <c r="P134" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q134">
         <v>2</v>
@@ -27247,7 +27256,7 @@
         <v>0.64</v>
       </c>
       <c r="AS137">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="AT137">
         <v>0.58</v>
@@ -27441,7 +27450,7 @@
         <v>1.42</v>
       </c>
       <c r="AT138">
-        <v>0.33</v>
+        <v>0.54</v>
       </c>
       <c r="AU138">
         <v>1.23</v>
@@ -27733,7 +27742,7 @@
         <v>177</v>
       </c>
       <c r="P140" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q140">
         <v>6</v>
@@ -27924,7 +27933,7 @@
         <v>80</v>
       </c>
       <c r="P141" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q141">
         <v>-1</v>
@@ -28115,7 +28124,7 @@
         <v>178</v>
       </c>
       <c r="P142" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q142">
         <v>4</v>
@@ -28306,7 +28315,7 @@
         <v>179</v>
       </c>
       <c r="P143" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q143">
         <v>9</v>
@@ -28396,7 +28405,7 @@
         <v>1.92</v>
       </c>
       <c r="AT143">
-        <v>0.83</v>
+        <v>0.85</v>
       </c>
       <c r="AU143">
         <v>1.36</v>
@@ -28830,6 +28839,388 @@
       </c>
       <c r="BK145">
         <v>12</v>
+      </c>
+    </row>
+    <row r="146" spans="1:63">
+      <c r="A146" s="1">
+        <v>145</v>
+      </c>
+      <c r="B146">
+        <v>5170237</v>
+      </c>
+      <c r="C146" t="s">
+        <v>63</v>
+      </c>
+      <c r="D146" t="s">
+        <v>64</v>
+      </c>
+      <c r="E146" s="2">
+        <v>44981.69791666666</v>
+      </c>
+      <c r="F146">
+        <v>3</v>
+      </c>
+      <c r="G146" t="s">
+        <v>65</v>
+      </c>
+      <c r="H146" t="s">
+        <v>75</v>
+      </c>
+      <c r="I146">
+        <v>0</v>
+      </c>
+      <c r="J146">
+        <v>2</v>
+      </c>
+      <c r="K146">
+        <v>2</v>
+      </c>
+      <c r="L146">
+        <v>1</v>
+      </c>
+      <c r="M146">
+        <v>7</v>
+      </c>
+      <c r="N146">
+        <v>8</v>
+      </c>
+      <c r="O146" t="s">
+        <v>182</v>
+      </c>
+      <c r="P146" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q146">
+        <v>5</v>
+      </c>
+      <c r="R146">
+        <v>4</v>
+      </c>
+      <c r="S146">
+        <v>9</v>
+      </c>
+      <c r="T146">
+        <v>0</v>
+      </c>
+      <c r="U146">
+        <v>0</v>
+      </c>
+      <c r="V146">
+        <v>0</v>
+      </c>
+      <c r="W146">
+        <v>0</v>
+      </c>
+      <c r="X146">
+        <v>0</v>
+      </c>
+      <c r="Y146">
+        <v>0</v>
+      </c>
+      <c r="Z146">
+        <v>0</v>
+      </c>
+      <c r="AA146">
+        <v>0</v>
+      </c>
+      <c r="AB146">
+        <v>0</v>
+      </c>
+      <c r="AC146">
+        <v>2.59</v>
+      </c>
+      <c r="AD146">
+        <v>3.54</v>
+      </c>
+      <c r="AE146">
+        <v>2.21</v>
+      </c>
+      <c r="AF146">
+        <v>0</v>
+      </c>
+      <c r="AG146">
+        <v>0</v>
+      </c>
+      <c r="AH146">
+        <v>0</v>
+      </c>
+      <c r="AI146">
+        <v>0</v>
+      </c>
+      <c r="AJ146">
+        <v>1.61</v>
+      </c>
+      <c r="AK146">
+        <v>2.2</v>
+      </c>
+      <c r="AL146">
+        <v>0</v>
+      </c>
+      <c r="AM146">
+        <v>0</v>
+      </c>
+      <c r="AN146">
+        <v>0</v>
+      </c>
+      <c r="AO146">
+        <v>0</v>
+      </c>
+      <c r="AP146">
+        <v>0</v>
+      </c>
+      <c r="AQ146">
+        <v>0.08</v>
+      </c>
+      <c r="AR146">
+        <v>0.33</v>
+      </c>
+      <c r="AS146">
+        <v>0.08</v>
+      </c>
+      <c r="AT146">
+        <v>0.54</v>
+      </c>
+      <c r="AU146">
+        <v>1.1</v>
+      </c>
+      <c r="AV146">
+        <v>1.25</v>
+      </c>
+      <c r="AW146">
+        <v>2.35</v>
+      </c>
+      <c r="AX146">
+        <v>0</v>
+      </c>
+      <c r="AY146">
+        <v>0</v>
+      </c>
+      <c r="AZ146">
+        <v>0</v>
+      </c>
+      <c r="BA146">
+        <v>0</v>
+      </c>
+      <c r="BB146">
+        <v>0</v>
+      </c>
+      <c r="BC146">
+        <v>0</v>
+      </c>
+      <c r="BD146">
+        <v>0</v>
+      </c>
+      <c r="BE146">
+        <v>0</v>
+      </c>
+      <c r="BF146">
+        <v>2</v>
+      </c>
+      <c r="BG146">
+        <v>5</v>
+      </c>
+      <c r="BH146">
+        <v>7</v>
+      </c>
+      <c r="BI146">
+        <v>7</v>
+      </c>
+      <c r="BJ146">
+        <v>9</v>
+      </c>
+      <c r="BK146">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="147" spans="1:63">
+      <c r="A147" s="1">
+        <v>146</v>
+      </c>
+      <c r="B147">
+        <v>5170238</v>
+      </c>
+      <c r="C147" t="s">
+        <v>63</v>
+      </c>
+      <c r="D147" t="s">
+        <v>64</v>
+      </c>
+      <c r="E147" s="2">
+        <v>44981.69791666666</v>
+      </c>
+      <c r="F147">
+        <v>3</v>
+      </c>
+      <c r="G147" t="s">
+        <v>73</v>
+      </c>
+      <c r="H147" t="s">
+        <v>76</v>
+      </c>
+      <c r="I147">
+        <v>1</v>
+      </c>
+      <c r="J147">
+        <v>1</v>
+      </c>
+      <c r="K147">
+        <v>2</v>
+      </c>
+      <c r="L147">
+        <v>2</v>
+      </c>
+      <c r="M147">
+        <v>2</v>
+      </c>
+      <c r="N147">
+        <v>4</v>
+      </c>
+      <c r="O147" t="s">
+        <v>183</v>
+      </c>
+      <c r="P147" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q147">
+        <v>-1</v>
+      </c>
+      <c r="R147">
+        <v>-1</v>
+      </c>
+      <c r="S147">
+        <v>-1</v>
+      </c>
+      <c r="T147">
+        <v>0</v>
+      </c>
+      <c r="U147">
+        <v>0</v>
+      </c>
+      <c r="V147">
+        <v>0</v>
+      </c>
+      <c r="W147">
+        <v>0</v>
+      </c>
+      <c r="X147">
+        <v>0</v>
+      </c>
+      <c r="Y147">
+        <v>0</v>
+      </c>
+      <c r="Z147">
+        <v>0</v>
+      </c>
+      <c r="AA147">
+        <v>0</v>
+      </c>
+      <c r="AB147">
+        <v>0</v>
+      </c>
+      <c r="AC147">
+        <v>1.99</v>
+      </c>
+      <c r="AD147">
+        <v>3.5</v>
+      </c>
+      <c r="AE147">
+        <v>3</v>
+      </c>
+      <c r="AF147">
+        <v>0</v>
+      </c>
+      <c r="AG147">
+        <v>0</v>
+      </c>
+      <c r="AH147">
+        <v>0</v>
+      </c>
+      <c r="AI147">
+        <v>0</v>
+      </c>
+      <c r="AJ147">
+        <v>1.67</v>
+      </c>
+      <c r="AK147">
+        <v>2.05</v>
+      </c>
+      <c r="AL147">
+        <v>0</v>
+      </c>
+      <c r="AM147">
+        <v>0</v>
+      </c>
+      <c r="AN147">
+        <v>0</v>
+      </c>
+      <c r="AO147">
+        <v>0</v>
+      </c>
+      <c r="AP147">
+        <v>0</v>
+      </c>
+      <c r="AQ147">
+        <v>1.75</v>
+      </c>
+      <c r="AR147">
+        <v>0.83</v>
+      </c>
+      <c r="AS147">
+        <v>1.69</v>
+      </c>
+      <c r="AT147">
+        <v>0.85</v>
+      </c>
+      <c r="AU147">
+        <v>1.35</v>
+      </c>
+      <c r="AV147">
+        <v>1.2</v>
+      </c>
+      <c r="AW147">
+        <v>2.55</v>
+      </c>
+      <c r="AX147">
+        <v>0</v>
+      </c>
+      <c r="AY147">
+        <v>0</v>
+      </c>
+      <c r="AZ147">
+        <v>0</v>
+      </c>
+      <c r="BA147">
+        <v>0</v>
+      </c>
+      <c r="BB147">
+        <v>0</v>
+      </c>
+      <c r="BC147">
+        <v>0</v>
+      </c>
+      <c r="BD147">
+        <v>0</v>
+      </c>
+      <c r="BE147">
+        <v>0</v>
+      </c>
+      <c r="BF147">
+        <v>-1</v>
+      </c>
+      <c r="BG147">
+        <v>-1</v>
+      </c>
+      <c r="BH147">
+        <v>-1</v>
+      </c>
+      <c r="BI147">
+        <v>-1</v>
+      </c>
+      <c r="BJ147">
+        <v>-1</v>
+      </c>
+      <c r="BK147">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Wales Welsh Premier League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Wales Welsh Premier League_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="939" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="963" uniqueCount="262">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -568,6 +568,18 @@
     <t>['12', '49']</t>
   </si>
   <si>
+    <t>['18']</t>
+  </si>
+  <si>
+    <t>['35', '90+1']</t>
+  </si>
+  <si>
+    <t>['62', '88', '90+1']</t>
+  </si>
+  <si>
+    <t>['33', '50']</t>
+  </si>
+  <si>
     <t>['40', '75']</t>
   </si>
   <si>
@@ -779,6 +791,15 @@
   </si>
   <si>
     <t>['23', '81']</t>
+  </si>
+  <si>
+    <t>['88']</t>
+  </si>
+  <si>
+    <t>['10', '63']</t>
+  </si>
+  <si>
+    <t>['24']</t>
   </si>
 </sst>
 </file>
@@ -1140,7 +1161,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK147"/>
+  <dimension ref="A1:BK151"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1384,7 +1405,7 @@
         <v>77</v>
       </c>
       <c r="P2" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="Q2">
         <v>5</v>
@@ -2044,7 +2065,7 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AT5">
         <v>2.25</v>
@@ -2148,7 +2169,7 @@
         <v>80</v>
       </c>
       <c r="P6" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="Q6">
         <v>6</v>
@@ -2235,7 +2256,7 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AT6">
         <v>0.85</v>
@@ -2429,7 +2450,7 @@
         <v>2.17</v>
       </c>
       <c r="AT7">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -2617,7 +2638,7 @@
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="AT8">
         <v>0</v>
@@ -2721,7 +2742,7 @@
         <v>80</v>
       </c>
       <c r="P9" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="Q9">
         <v>11</v>
@@ -2808,7 +2829,7 @@
         <v>3</v>
       </c>
       <c r="AS9">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AT9">
         <v>0.85</v>
@@ -2999,10 +3020,10 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>3</v>
+        <v>2.85</v>
       </c>
       <c r="AT10">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -3384,7 +3405,7 @@
         <v>2.08</v>
       </c>
       <c r="AT12">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -3485,7 +3506,7 @@
         <v>80</v>
       </c>
       <c r="P13" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="Q13">
         <v>2</v>
@@ -3575,7 +3596,7 @@
         <v>1.58</v>
       </c>
       <c r="AT13">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AU13">
         <v>0</v>
@@ -3867,7 +3888,7 @@
         <v>87</v>
       </c>
       <c r="P15" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="Q15">
         <v>6</v>
@@ -3954,7 +3975,7 @@
         <v>0</v>
       </c>
       <c r="AS15">
-        <v>3</v>
+        <v>2.85</v>
       </c>
       <c r="AT15">
         <v>1.33</v>
@@ -4058,7 +4079,7 @@
         <v>88</v>
       </c>
       <c r="P16" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="Q16">
         <v>3</v>
@@ -4148,7 +4169,7 @@
         <v>1.69</v>
       </c>
       <c r="AT16">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AU16">
         <v>1.64</v>
@@ -4440,7 +4461,7 @@
         <v>90</v>
       </c>
       <c r="P18" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="Q18">
         <v>5</v>
@@ -4718,7 +4739,7 @@
         <v>3</v>
       </c>
       <c r="AS19">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AT19">
         <v>0.54</v>
@@ -4822,7 +4843,7 @@
         <v>92</v>
       </c>
       <c r="P20" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="Q20">
         <v>7</v>
@@ -4912,7 +4933,7 @@
         <v>2.17</v>
       </c>
       <c r="AT20">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AU20">
         <v>1.86</v>
@@ -5100,7 +5121,7 @@
         <v>0</v>
       </c>
       <c r="AS21">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AT21">
         <v>0.83</v>
@@ -5204,7 +5225,7 @@
         <v>94</v>
       </c>
       <c r="P22" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="Q22">
         <v>3</v>
@@ -5673,10 +5694,10 @@
         <v>0</v>
       </c>
       <c r="AS24">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="AT24">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AU24">
         <v>1.67</v>
@@ -5777,7 +5798,7 @@
         <v>80</v>
       </c>
       <c r="P25" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="Q25">
         <v>1</v>
@@ -5968,7 +5989,7 @@
         <v>97</v>
       </c>
       <c r="P26" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="Q26">
         <v>7</v>
@@ -6159,7 +6180,7 @@
         <v>98</v>
       </c>
       <c r="P27" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="Q27">
         <v>2</v>
@@ -6249,7 +6270,7 @@
         <v>1.58</v>
       </c>
       <c r="AT27">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AU27">
         <v>0.36</v>
@@ -6628,10 +6649,10 @@
         <v>0</v>
       </c>
       <c r="AS29">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="AT29">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AU29">
         <v>1.49</v>
@@ -6732,7 +6753,7 @@
         <v>101</v>
       </c>
       <c r="P30" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="Q30">
         <v>7</v>
@@ -6923,7 +6944,7 @@
         <v>80</v>
       </c>
       <c r="P31" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="Q31">
         <v>1</v>
@@ -7010,7 +7031,7 @@
         <v>2</v>
       </c>
       <c r="AS31">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AT31">
         <v>2.25</v>
@@ -7114,7 +7135,7 @@
         <v>102</v>
       </c>
       <c r="P32" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="Q32">
         <v>1</v>
@@ -7305,7 +7326,7 @@
         <v>103</v>
       </c>
       <c r="P33" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="Q33">
         <v>7</v>
@@ -7395,7 +7416,7 @@
         <v>1.69</v>
       </c>
       <c r="AT33">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AU33">
         <v>1.54</v>
@@ -7583,7 +7604,7 @@
         <v>0</v>
       </c>
       <c r="AS34">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AT34">
         <v>0</v>
@@ -7687,7 +7708,7 @@
         <v>105</v>
       </c>
       <c r="P35" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="Q35">
         <v>3</v>
@@ -7777,7 +7798,7 @@
         <v>1.42</v>
       </c>
       <c r="AT35">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AU35">
         <v>0</v>
@@ -7878,7 +7899,7 @@
         <v>80</v>
       </c>
       <c r="P36" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="Q36">
         <v>1</v>
@@ -8069,7 +8090,7 @@
         <v>106</v>
       </c>
       <c r="P37" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="Q37">
         <v>6</v>
@@ -8156,10 +8177,10 @@
         <v>0</v>
       </c>
       <c r="AS37">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AT37">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AU37">
         <v>1.19</v>
@@ -8260,7 +8281,7 @@
         <v>107</v>
       </c>
       <c r="P38" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="Q38">
         <v>6</v>
@@ -8642,7 +8663,7 @@
         <v>96</v>
       </c>
       <c r="P40" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="Q40">
         <v>7</v>
@@ -8923,7 +8944,7 @@
         <v>2.08</v>
       </c>
       <c r="AT41">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AU41">
         <v>1.16</v>
@@ -9111,7 +9132,7 @@
         <v>0</v>
       </c>
       <c r="AS42">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="AT42">
         <v>0.5</v>
@@ -9215,7 +9236,7 @@
         <v>111</v>
       </c>
       <c r="P43" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="Q43">
         <v>8</v>
@@ -9302,7 +9323,7 @@
         <v>1.67</v>
       </c>
       <c r="AS43">
-        <v>3</v>
+        <v>2.85</v>
       </c>
       <c r="AT43">
         <v>0.85</v>
@@ -9406,7 +9427,7 @@
         <v>112</v>
       </c>
       <c r="P44" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="Q44">
         <v>6</v>
@@ -9597,7 +9618,7 @@
         <v>80</v>
       </c>
       <c r="P45" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="Q45">
         <v>4</v>
@@ -9684,10 +9705,10 @@
         <v>1</v>
       </c>
       <c r="AS45">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AT45">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AU45">
         <v>1.26</v>
@@ -9878,7 +9899,7 @@
         <v>1.92</v>
       </c>
       <c r="AT46">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AU46">
         <v>1.79</v>
@@ -9979,7 +10000,7 @@
         <v>80</v>
       </c>
       <c r="P47" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="Q47">
         <v>6</v>
@@ -10170,7 +10191,7 @@
         <v>114</v>
       </c>
       <c r="P48" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="Q48">
         <v>4</v>
@@ -10361,7 +10382,7 @@
         <v>115</v>
       </c>
       <c r="P49" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="Q49">
         <v>6</v>
@@ -10448,7 +10469,7 @@
         <v>1.33</v>
       </c>
       <c r="AS49">
-        <v>3</v>
+        <v>2.85</v>
       </c>
       <c r="AT49">
         <v>1.33</v>
@@ -10552,7 +10573,7 @@
         <v>80</v>
       </c>
       <c r="P50" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="Q50">
         <v>0</v>
@@ -10642,7 +10663,7 @@
         <v>0.08</v>
       </c>
       <c r="AT50">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AU50">
         <v>1.52</v>
@@ -10830,7 +10851,7 @@
         <v>0</v>
       </c>
       <c r="AS51">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AT51">
         <v>0.83</v>
@@ -11125,7 +11146,7 @@
         <v>118</v>
       </c>
       <c r="P53" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="Q53">
         <v>4</v>
@@ -11215,7 +11236,7 @@
         <v>1.42</v>
       </c>
       <c r="AT53">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AU53">
         <v>1.04</v>
@@ -11403,10 +11424,10 @@
         <v>0.33</v>
       </c>
       <c r="AS54">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="AT54">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AU54">
         <v>1.64</v>
@@ -11698,7 +11719,7 @@
         <v>121</v>
       </c>
       <c r="P56" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="Q56">
         <v>4</v>
@@ -11785,7 +11806,7 @@
         <v>1</v>
       </c>
       <c r="AS56">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AT56">
         <v>1.33</v>
@@ -11979,7 +12000,7 @@
         <v>1.58</v>
       </c>
       <c r="AT57">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AU57">
         <v>0.85</v>
@@ -12080,7 +12101,7 @@
         <v>80</v>
       </c>
       <c r="P58" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="Q58">
         <v>4</v>
@@ -12358,10 +12379,10 @@
         <v>0.75</v>
       </c>
       <c r="AS59">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="AT59">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AU59">
         <v>1.59</v>
@@ -12462,7 +12483,7 @@
         <v>80</v>
       </c>
       <c r="P60" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="Q60">
         <v>2</v>
@@ -12552,7 +12573,7 @@
         <v>0.08</v>
       </c>
       <c r="AT60">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AU60">
         <v>1.28</v>
@@ -12653,7 +12674,7 @@
         <v>124</v>
       </c>
       <c r="P61" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="Q61">
         <v>3</v>
@@ -12844,7 +12865,7 @@
         <v>80</v>
       </c>
       <c r="P62" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="Q62">
         <v>5</v>
@@ -12931,10 +12952,10 @@
         <v>0.6</v>
       </c>
       <c r="AS62">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AT62">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AU62">
         <v>1.17</v>
@@ -13035,7 +13056,7 @@
         <v>125</v>
       </c>
       <c r="P63" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="Q63">
         <v>9</v>
@@ -13125,7 +13146,7 @@
         <v>1.92</v>
       </c>
       <c r="AT63">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AU63">
         <v>1.58</v>
@@ -13226,7 +13247,7 @@
         <v>80</v>
       </c>
       <c r="P64" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="Q64">
         <v>5</v>
@@ -13504,7 +13525,7 @@
         <v>0.25</v>
       </c>
       <c r="AS65">
-        <v>3</v>
+        <v>2.85</v>
       </c>
       <c r="AT65">
         <v>0.5</v>
@@ -13886,7 +13907,7 @@
         <v>0</v>
       </c>
       <c r="AS67">
-        <v>3</v>
+        <v>2.85</v>
       </c>
       <c r="AT67">
         <v>0.83</v>
@@ -13990,7 +14011,7 @@
         <v>129</v>
       </c>
       <c r="P68" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="Q68">
         <v>2</v>
@@ -14077,7 +14098,7 @@
         <v>1.4</v>
       </c>
       <c r="AS68">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="AT68">
         <v>1.33</v>
@@ -14181,7 +14202,7 @@
         <v>130</v>
       </c>
       <c r="P69" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="Q69">
         <v>1</v>
@@ -14372,7 +14393,7 @@
         <v>131</v>
       </c>
       <c r="P70" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="Q70">
         <v>2</v>
@@ -14563,7 +14584,7 @@
         <v>80</v>
       </c>
       <c r="P71" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="Q71">
         <v>4</v>
@@ -14844,7 +14865,7 @@
         <v>2.08</v>
       </c>
       <c r="AT72">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AU72">
         <v>1.02</v>
@@ -14945,7 +14966,7 @@
         <v>80</v>
       </c>
       <c r="P73" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="Q73">
         <v>2</v>
@@ -15414,7 +15435,7 @@
         <v>0</v>
       </c>
       <c r="AS75">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AT75">
         <v>0</v>
@@ -15518,7 +15539,7 @@
         <v>80</v>
       </c>
       <c r="P76" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="Q76">
         <v>4</v>
@@ -15608,7 +15629,7 @@
         <v>1.69</v>
       </c>
       <c r="AT76">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AU76">
         <v>1.52</v>
@@ -15709,7 +15730,7 @@
         <v>80</v>
       </c>
       <c r="P77" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="Q77">
         <v>5</v>
@@ -15799,7 +15820,7 @@
         <v>1.42</v>
       </c>
       <c r="AT77">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AU77">
         <v>1.17</v>
@@ -15987,10 +16008,10 @@
         <v>1</v>
       </c>
       <c r="AS78">
-        <v>3</v>
+        <v>2.85</v>
       </c>
       <c r="AT78">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AU78">
         <v>2.19</v>
@@ -16091,7 +16112,7 @@
         <v>80</v>
       </c>
       <c r="P79" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="Q79">
         <v>2</v>
@@ -16178,7 +16199,7 @@
         <v>1.2</v>
       </c>
       <c r="AS79">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AT79">
         <v>1.33</v>
@@ -16282,7 +16303,7 @@
         <v>136</v>
       </c>
       <c r="P80" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="Q80">
         <v>8</v>
@@ -16369,7 +16390,7 @@
         <v>0.6</v>
       </c>
       <c r="AS80">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="AT80">
         <v>0.83</v>
@@ -16473,7 +16494,7 @@
         <v>137</v>
       </c>
       <c r="P81" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="Q81">
         <v>5</v>
@@ -16664,7 +16685,7 @@
         <v>138</v>
       </c>
       <c r="P82" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="Q82">
         <v>7</v>
@@ -16754,7 +16775,7 @@
         <v>0.08</v>
       </c>
       <c r="AT82">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AU82">
         <v>1.07</v>
@@ -16855,7 +16876,7 @@
         <v>112</v>
       </c>
       <c r="P83" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="Q83">
         <v>9</v>
@@ -17136,7 +17157,7 @@
         <v>2.33</v>
       </c>
       <c r="AT84">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AU84">
         <v>1.46</v>
@@ -17515,10 +17536,10 @@
         <v>0.86</v>
       </c>
       <c r="AS86">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AT86">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AU86">
         <v>1.41</v>
@@ -17619,7 +17640,7 @@
         <v>140</v>
       </c>
       <c r="P87" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="Q87">
         <v>3</v>
@@ -17709,7 +17730,7 @@
         <v>1.92</v>
       </c>
       <c r="AT87">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AU87">
         <v>1.45</v>
@@ -17810,7 +17831,7 @@
         <v>141</v>
       </c>
       <c r="P88" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="Q88">
         <v>4</v>
@@ -18001,7 +18022,7 @@
         <v>105</v>
       </c>
       <c r="P89" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="Q89">
         <v>7</v>
@@ -18470,7 +18491,7 @@
         <v>0.5</v>
       </c>
       <c r="AS91">
-        <v>3</v>
+        <v>2.85</v>
       </c>
       <c r="AT91">
         <v>0.54</v>
@@ -18664,7 +18685,7 @@
         <v>1.42</v>
       </c>
       <c r="AT92">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AU92">
         <v>1.2</v>
@@ -18852,10 +18873,10 @@
         <v>1</v>
       </c>
       <c r="AS93">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AT93">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AU93">
         <v>1.11</v>
@@ -18956,7 +18977,7 @@
         <v>146</v>
       </c>
       <c r="P94" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="Q94">
         <v>0</v>
@@ -19043,7 +19064,7 @@
         <v>0.57</v>
       </c>
       <c r="AS94">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AT94">
         <v>0.5</v>
@@ -19237,7 +19258,7 @@
         <v>2.33</v>
       </c>
       <c r="AT95">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AU95">
         <v>1.4</v>
@@ -19425,7 +19446,7 @@
         <v>0.43</v>
       </c>
       <c r="AS96">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="AT96">
         <v>0.54</v>
@@ -19529,7 +19550,7 @@
         <v>149</v>
       </c>
       <c r="P97" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="Q97">
         <v>5</v>
@@ -19720,7 +19741,7 @@
         <v>80</v>
       </c>
       <c r="P98" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="Q98">
         <v>8</v>
@@ -19807,10 +19828,10 @@
         <v>1.38</v>
       </c>
       <c r="AS98">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AT98">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AU98">
         <v>1.35</v>
@@ -19911,7 +19932,7 @@
         <v>150</v>
       </c>
       <c r="P99" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="Q99">
         <v>5</v>
@@ -20102,7 +20123,7 @@
         <v>151</v>
       </c>
       <c r="P100" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="Q100">
         <v>4</v>
@@ -20293,7 +20314,7 @@
         <v>152</v>
       </c>
       <c r="P101" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="Q101">
         <v>4</v>
@@ -20380,7 +20401,7 @@
         <v>2.43</v>
       </c>
       <c r="AS101">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="AT101">
         <v>2.25</v>
@@ -20675,7 +20696,7 @@
         <v>125</v>
       </c>
       <c r="P103" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="Q103">
         <v>8</v>
@@ -20765,7 +20786,7 @@
         <v>1.69</v>
       </c>
       <c r="AT103">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AU103">
         <v>1.46</v>
@@ -20866,7 +20887,7 @@
         <v>154</v>
       </c>
       <c r="P104" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="Q104">
         <v>3</v>
@@ -21057,7 +21078,7 @@
         <v>155</v>
       </c>
       <c r="P105" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="Q105">
         <v>1</v>
@@ -21144,10 +21165,10 @@
         <v>0.78</v>
       </c>
       <c r="AS105">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AT105">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AU105">
         <v>1.32</v>
@@ -21335,7 +21356,7 @@
         <v>0</v>
       </c>
       <c r="AS106">
-        <v>3</v>
+        <v>2.85</v>
       </c>
       <c r="AT106">
         <v>0</v>
@@ -21439,7 +21460,7 @@
         <v>132</v>
       </c>
       <c r="P107" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="Q107">
         <v>5</v>
@@ -21529,7 +21550,7 @@
         <v>2.17</v>
       </c>
       <c r="AT107">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AU107">
         <v>1.6</v>
@@ -21717,7 +21738,7 @@
         <v>1</v>
       </c>
       <c r="AS108">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="AT108">
         <v>0.85</v>
@@ -21908,7 +21929,7 @@
         <v>0.33</v>
       </c>
       <c r="AS109">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AT109">
         <v>0.54</v>
@@ -22293,7 +22314,7 @@
         <v>2.33</v>
       </c>
       <c r="AT111">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AU111">
         <v>1.38</v>
@@ -22394,7 +22415,7 @@
         <v>80</v>
       </c>
       <c r="P112" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="Q112">
         <v>2</v>
@@ -22967,7 +22988,7 @@
         <v>160</v>
       </c>
       <c r="P115" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="Q115">
         <v>4</v>
@@ -23054,10 +23075,10 @@
         <v>1.78</v>
       </c>
       <c r="AS115">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AT115">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AU115">
         <v>1.32</v>
@@ -23540,7 +23561,7 @@
         <v>162</v>
       </c>
       <c r="P118" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="Q118">
         <v>6</v>
@@ -23731,7 +23752,7 @@
         <v>163</v>
       </c>
       <c r="P119" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="Q119">
         <v>4</v>
@@ -23922,7 +23943,7 @@
         <v>80</v>
       </c>
       <c r="P120" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="Q120">
         <v>1</v>
@@ -24012,7 +24033,7 @@
         <v>0.08</v>
       </c>
       <c r="AT120">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AU120">
         <v>1.03</v>
@@ -24391,7 +24412,7 @@
         <v>1.63</v>
       </c>
       <c r="AS122">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AT122">
         <v>1.33</v>
@@ -24495,7 +24516,7 @@
         <v>165</v>
       </c>
       <c r="P123" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="Q123">
         <v>5</v>
@@ -24582,10 +24603,10 @@
         <v>0.7</v>
       </c>
       <c r="AS123">
-        <v>3</v>
+        <v>2.85</v>
       </c>
       <c r="AT123">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AU123">
         <v>2.62</v>
@@ -24877,7 +24898,7 @@
         <v>80</v>
       </c>
       <c r="P125" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="Q125">
         <v>6</v>
@@ -25068,7 +25089,7 @@
         <v>154</v>
       </c>
       <c r="P126" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="Q126">
         <v>0</v>
@@ -25259,7 +25280,7 @@
         <v>80</v>
       </c>
       <c r="P127" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="Q127">
         <v>1</v>
@@ -25349,7 +25370,7 @@
         <v>1.58</v>
       </c>
       <c r="AT127">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AU127">
         <v>1.02</v>
@@ -25450,7 +25471,7 @@
         <v>166</v>
       </c>
       <c r="P128" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="Q128">
         <v>9</v>
@@ -26301,10 +26322,10 @@
         <v>1.6</v>
       </c>
       <c r="AS132">
-        <v>3</v>
+        <v>2.85</v>
       </c>
       <c r="AT132">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AU132">
         <v>2.61</v>
@@ -26405,7 +26426,7 @@
         <v>171</v>
       </c>
       <c r="P133" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="Q133">
         <v>7</v>
@@ -26596,7 +26617,7 @@
         <v>172</v>
       </c>
       <c r="P134" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="Q134">
         <v>2</v>
@@ -26877,7 +26898,7 @@
         <v>2.08</v>
       </c>
       <c r="AT135">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="AU135">
         <v>1.27</v>
@@ -27065,7 +27086,7 @@
         <v>1.36</v>
       </c>
       <c r="AS136">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AT136">
         <v>1.33</v>
@@ -27259,7 +27280,7 @@
         <v>1.69</v>
       </c>
       <c r="AT137">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AU137">
         <v>1.29</v>
@@ -27638,7 +27659,7 @@
         <v>0</v>
       </c>
       <c r="AS139">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AT139">
         <v>0</v>
@@ -27742,7 +27763,7 @@
         <v>177</v>
       </c>
       <c r="P140" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="Q140">
         <v>6</v>
@@ -27832,7 +27853,7 @@
         <v>2.17</v>
       </c>
       <c r="AT140">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AU140">
         <v>1.61</v>
@@ -27933,7 +27954,7 @@
         <v>80</v>
       </c>
       <c r="P141" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="Q141">
         <v>-1</v>
@@ -28124,7 +28145,7 @@
         <v>178</v>
       </c>
       <c r="P142" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="Q142">
         <v>4</v>
@@ -28315,7 +28336,7 @@
         <v>179</v>
       </c>
       <c r="P143" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="Q143">
         <v>9</v>
@@ -28593,7 +28614,7 @@
         <v>1.45</v>
       </c>
       <c r="AS144">
-        <v>3</v>
+        <v>2.85</v>
       </c>
       <c r="AT144">
         <v>1.33</v>
@@ -28784,10 +28805,10 @@
         <v>1.45</v>
       </c>
       <c r="AS145">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="AT145">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="AU145">
         <v>1.64</v>
@@ -28888,7 +28909,7 @@
         <v>182</v>
       </c>
       <c r="P146" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="Q146">
         <v>5</v>
@@ -29079,16 +29100,16 @@
         <v>183</v>
       </c>
       <c r="P147" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="Q147">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="R147">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="S147">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="T147">
         <v>0</v>
@@ -29205,21 +29226,785 @@
         <v>0</v>
       </c>
       <c r="BF147">
+        <v>8</v>
+      </c>
+      <c r="BG147">
+        <v>7</v>
+      </c>
+      <c r="BH147">
+        <v>6</v>
+      </c>
+      <c r="BI147">
+        <v>8</v>
+      </c>
+      <c r="BJ147">
+        <v>14</v>
+      </c>
+      <c r="BK147">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="148" spans="1:63">
+      <c r="A148" s="1">
+        <v>147</v>
+      </c>
+      <c r="B148">
+        <v>5170239</v>
+      </c>
+      <c r="C148" t="s">
+        <v>63</v>
+      </c>
+      <c r="D148" t="s">
+        <v>64</v>
+      </c>
+      <c r="E148" s="2">
+        <v>44982.40625</v>
+      </c>
+      <c r="F148">
+        <v>3</v>
+      </c>
+      <c r="G148" t="s">
+        <v>72</v>
+      </c>
+      <c r="H148" t="s">
+        <v>70</v>
+      </c>
+      <c r="I148">
+        <v>1</v>
+      </c>
+      <c r="J148">
+        <v>0</v>
+      </c>
+      <c r="K148">
+        <v>1</v>
+      </c>
+      <c r="L148">
+        <v>1</v>
+      </c>
+      <c r="M148">
+        <v>1</v>
+      </c>
+      <c r="N148">
+        <v>2</v>
+      </c>
+      <c r="O148" t="s">
+        <v>184</v>
+      </c>
+      <c r="P148" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q148">
         <v>-1</v>
       </c>
-      <c r="BG147">
+      <c r="R148">
         <v>-1</v>
       </c>
-      <c r="BH147">
+      <c r="S148">
         <v>-1</v>
       </c>
-      <c r="BI147">
+      <c r="T148">
+        <v>1.39</v>
+      </c>
+      <c r="U148">
+        <v>3.3</v>
+      </c>
+      <c r="V148">
+        <v>10.5</v>
+      </c>
+      <c r="W148">
+        <v>1.18</v>
+      </c>
+      <c r="X148">
+        <v>4.33</v>
+      </c>
+      <c r="Y148">
+        <v>1.85</v>
+      </c>
+      <c r="Z148">
+        <v>1.91</v>
+      </c>
+      <c r="AA148">
+        <v>3.6</v>
+      </c>
+      <c r="AB148">
+        <v>1.25</v>
+      </c>
+      <c r="AC148">
+        <v>1.08</v>
+      </c>
+      <c r="AD148">
+        <v>6.14</v>
+      </c>
+      <c r="AE148">
+        <v>12.18</v>
+      </c>
+      <c r="AF148">
+        <v>1.01</v>
+      </c>
+      <c r="AG148">
+        <v>17</v>
+      </c>
+      <c r="AH148">
+        <v>1.05</v>
+      </c>
+      <c r="AI148">
+        <v>6.95</v>
+      </c>
+      <c r="AJ148">
+        <v>1.27</v>
+      </c>
+      <c r="AK148">
+        <v>3.28</v>
+      </c>
+      <c r="AL148">
+        <v>2.1</v>
+      </c>
+      <c r="AM148">
+        <v>1.65</v>
+      </c>
+      <c r="AN148">
+        <v>1.01</v>
+      </c>
+      <c r="AO148">
+        <v>1.06</v>
+      </c>
+      <c r="AP148">
+        <v>6</v>
+      </c>
+      <c r="AQ148">
+        <v>3</v>
+      </c>
+      <c r="AR148">
+        <v>1.58</v>
+      </c>
+      <c r="AS148">
+        <v>2.85</v>
+      </c>
+      <c r="AT148">
+        <v>1.54</v>
+      </c>
+      <c r="AU148">
+        <v>2.69</v>
+      </c>
+      <c r="AV148">
+        <v>1.41</v>
+      </c>
+      <c r="AW148">
+        <v>4.1</v>
+      </c>
+      <c r="AX148">
+        <v>0</v>
+      </c>
+      <c r="AY148">
+        <v>0</v>
+      </c>
+      <c r="AZ148">
+        <v>0</v>
+      </c>
+      <c r="BA148">
+        <v>0</v>
+      </c>
+      <c r="BB148">
+        <v>0</v>
+      </c>
+      <c r="BC148">
+        <v>0</v>
+      </c>
+      <c r="BD148">
+        <v>0</v>
+      </c>
+      <c r="BE148">
+        <v>0</v>
+      </c>
+      <c r="BF148">
         <v>-1</v>
       </c>
-      <c r="BJ147">
+      <c r="BG148">
         <v>-1</v>
       </c>
-      <c r="BK147">
+      <c r="BH148">
+        <v>-1</v>
+      </c>
+      <c r="BI148">
+        <v>-1</v>
+      </c>
+      <c r="BJ148">
+        <v>-1</v>
+      </c>
+      <c r="BK148">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:63">
+      <c r="A149" s="1">
+        <v>148</v>
+      </c>
+      <c r="B149">
+        <v>5170240</v>
+      </c>
+      <c r="C149" t="s">
+        <v>63</v>
+      </c>
+      <c r="D149" t="s">
+        <v>64</v>
+      </c>
+      <c r="E149" s="2">
+        <v>44982.47916666666</v>
+      </c>
+      <c r="F149">
+        <v>3</v>
+      </c>
+      <c r="G149" t="s">
+        <v>71</v>
+      </c>
+      <c r="H149" t="s">
+        <v>66</v>
+      </c>
+      <c r="I149">
+        <v>1</v>
+      </c>
+      <c r="J149">
+        <v>0</v>
+      </c>
+      <c r="K149">
+        <v>1</v>
+      </c>
+      <c r="L149">
+        <v>2</v>
+      </c>
+      <c r="M149">
+        <v>1</v>
+      </c>
+      <c r="N149">
+        <v>3</v>
+      </c>
+      <c r="O149" t="s">
+        <v>185</v>
+      </c>
+      <c r="P149" t="s">
+        <v>259</v>
+      </c>
+      <c r="Q149">
+        <v>3</v>
+      </c>
+      <c r="R149">
+        <v>6</v>
+      </c>
+      <c r="S149">
+        <v>9</v>
+      </c>
+      <c r="T149">
+        <v>2.29</v>
+      </c>
+      <c r="U149">
+        <v>2.2</v>
+      </c>
+      <c r="V149">
+        <v>4.75</v>
+      </c>
+      <c r="W149">
+        <v>1.39</v>
+      </c>
+      <c r="X149">
+        <v>2.85</v>
+      </c>
+      <c r="Y149">
+        <v>2.8</v>
+      </c>
+      <c r="Z149">
+        <v>1.38</v>
+      </c>
+      <c r="AA149">
+        <v>6</v>
+      </c>
+      <c r="AB149">
+        <v>1.09</v>
+      </c>
+      <c r="AC149">
+        <v>1.6</v>
+      </c>
+      <c r="AD149">
+        <v>3.55</v>
+      </c>
+      <c r="AE149">
+        <v>4.85</v>
+      </c>
+      <c r="AF149">
+        <v>1.02</v>
+      </c>
+      <c r="AG149">
+        <v>9</v>
+      </c>
+      <c r="AH149">
+        <v>1.3</v>
+      </c>
+      <c r="AI149">
+        <v>3.2</v>
+      </c>
+      <c r="AJ149">
+        <v>1.91</v>
+      </c>
+      <c r="AK149">
+        <v>1.82</v>
+      </c>
+      <c r="AL149">
+        <v>1.85</v>
+      </c>
+      <c r="AM149">
+        <v>1.85</v>
+      </c>
+      <c r="AN149">
+        <v>1.22</v>
+      </c>
+      <c r="AO149">
+        <v>1.29</v>
+      </c>
+      <c r="AP149">
+        <v>1.98</v>
+      </c>
+      <c r="AQ149">
+        <v>2.5</v>
+      </c>
+      <c r="AR149">
+        <v>1.33</v>
+      </c>
+      <c r="AS149">
+        <v>2.54</v>
+      </c>
+      <c r="AT149">
+        <v>1.23</v>
+      </c>
+      <c r="AU149">
+        <v>1.57</v>
+      </c>
+      <c r="AV149">
+        <v>1.09</v>
+      </c>
+      <c r="AW149">
+        <v>2.66</v>
+      </c>
+      <c r="AX149">
+        <v>0</v>
+      </c>
+      <c r="AY149">
+        <v>0</v>
+      </c>
+      <c r="AZ149">
+        <v>0</v>
+      </c>
+      <c r="BA149">
+        <v>0</v>
+      </c>
+      <c r="BB149">
+        <v>1.9</v>
+      </c>
+      <c r="BC149">
+        <v>0</v>
+      </c>
+      <c r="BD149">
+        <v>0</v>
+      </c>
+      <c r="BE149">
+        <v>0</v>
+      </c>
+      <c r="BF149">
+        <v>5</v>
+      </c>
+      <c r="BG149">
+        <v>6</v>
+      </c>
+      <c r="BH149">
+        <v>4</v>
+      </c>
+      <c r="BI149">
+        <v>2</v>
+      </c>
+      <c r="BJ149">
+        <v>9</v>
+      </c>
+      <c r="BK149">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="150" spans="1:63">
+      <c r="A150" s="1">
+        <v>149</v>
+      </c>
+      <c r="B150">
+        <v>5170241</v>
+      </c>
+      <c r="C150" t="s">
+        <v>63</v>
+      </c>
+      <c r="D150" t="s">
+        <v>64</v>
+      </c>
+      <c r="E150" s="2">
+        <v>44982.47916666666</v>
+      </c>
+      <c r="F150">
+        <v>3</v>
+      </c>
+      <c r="G150" t="s">
+        <v>68</v>
+      </c>
+      <c r="H150" t="s">
+        <v>74</v>
+      </c>
+      <c r="I150">
+        <v>0</v>
+      </c>
+      <c r="J150">
+        <v>1</v>
+      </c>
+      <c r="K150">
+        <v>1</v>
+      </c>
+      <c r="L150">
+        <v>3</v>
+      </c>
+      <c r="M150">
+        <v>2</v>
+      </c>
+      <c r="N150">
+        <v>5</v>
+      </c>
+      <c r="O150" t="s">
+        <v>186</v>
+      </c>
+      <c r="P150" t="s">
+        <v>260</v>
+      </c>
+      <c r="Q150">
+        <v>3</v>
+      </c>
+      <c r="R150">
+        <v>7</v>
+      </c>
+      <c r="S150">
+        <v>10</v>
+      </c>
+      <c r="T150">
+        <v>3.32</v>
+      </c>
+      <c r="U150">
+        <v>2.14</v>
+      </c>
+      <c r="V150">
+        <v>2.88</v>
+      </c>
+      <c r="W150">
+        <v>1.36</v>
+      </c>
+      <c r="X150">
+        <v>2.99</v>
+      </c>
+      <c r="Y150">
+        <v>2.66</v>
+      </c>
+      <c r="Z150">
+        <v>1.44</v>
+      </c>
+      <c r="AA150">
+        <v>6</v>
+      </c>
+      <c r="AB150">
+        <v>1.09</v>
+      </c>
+      <c r="AC150">
+        <v>2.75</v>
+      </c>
+      <c r="AD150">
+        <v>3.3</v>
+      </c>
+      <c r="AE150">
+        <v>2.25</v>
+      </c>
+      <c r="AF150">
+        <v>1.01</v>
+      </c>
+      <c r="AG150">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AH150">
+        <v>1.24</v>
+      </c>
+      <c r="AI150">
+        <v>3.48</v>
+      </c>
+      <c r="AJ150">
+        <v>1.79</v>
+      </c>
+      <c r="AK150">
+        <v>1.95</v>
+      </c>
+      <c r="AL150">
+        <v>1.63</v>
+      </c>
+      <c r="AM150">
+        <v>2.09</v>
+      </c>
+      <c r="AN150">
+        <v>1.57</v>
+      </c>
+      <c r="AO150">
+        <v>1.3</v>
+      </c>
+      <c r="AP150">
+        <v>1.44</v>
+      </c>
+      <c r="AQ150">
+        <v>1.5</v>
+      </c>
+      <c r="AR150">
+        <v>1.42</v>
+      </c>
+      <c r="AS150">
+        <v>1.62</v>
+      </c>
+      <c r="AT150">
+        <v>1.31</v>
+      </c>
+      <c r="AU150">
+        <v>1.26</v>
+      </c>
+      <c r="AV150">
+        <v>1.75</v>
+      </c>
+      <c r="AW150">
+        <v>3.01</v>
+      </c>
+      <c r="AX150">
+        <v>0</v>
+      </c>
+      <c r="AY150">
+        <v>0</v>
+      </c>
+      <c r="AZ150">
+        <v>0</v>
+      </c>
+      <c r="BA150">
+        <v>0</v>
+      </c>
+      <c r="BB150">
+        <v>0</v>
+      </c>
+      <c r="BC150">
+        <v>2</v>
+      </c>
+      <c r="BD150">
+        <v>0</v>
+      </c>
+      <c r="BE150">
+        <v>0</v>
+      </c>
+      <c r="BF150">
+        <v>8</v>
+      </c>
+      <c r="BG150">
+        <v>7</v>
+      </c>
+      <c r="BH150">
+        <v>6</v>
+      </c>
+      <c r="BI150">
+        <v>5</v>
+      </c>
+      <c r="BJ150">
+        <v>14</v>
+      </c>
+      <c r="BK150">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="151" spans="1:63">
+      <c r="A151" s="1">
+        <v>150</v>
+      </c>
+      <c r="B151">
+        <v>5170242</v>
+      </c>
+      <c r="C151" t="s">
+        <v>63</v>
+      </c>
+      <c r="D151" t="s">
+        <v>64</v>
+      </c>
+      <c r="E151" s="2">
+        <v>44982.47916666666</v>
+      </c>
+      <c r="F151">
+        <v>3</v>
+      </c>
+      <c r="G151" t="s">
+        <v>69</v>
+      </c>
+      <c r="H151" t="s">
+        <v>67</v>
+      </c>
+      <c r="I151">
+        <v>1</v>
+      </c>
+      <c r="J151">
+        <v>1</v>
+      </c>
+      <c r="K151">
+        <v>2</v>
+      </c>
+      <c r="L151">
+        <v>2</v>
+      </c>
+      <c r="M151">
+        <v>1</v>
+      </c>
+      <c r="N151">
+        <v>3</v>
+      </c>
+      <c r="O151" t="s">
+        <v>187</v>
+      </c>
+      <c r="P151" t="s">
+        <v>261</v>
+      </c>
+      <c r="Q151">
+        <v>-1</v>
+      </c>
+      <c r="R151">
+        <v>-1</v>
+      </c>
+      <c r="S151">
+        <v>-1</v>
+      </c>
+      <c r="T151">
+        <v>0</v>
+      </c>
+      <c r="U151">
+        <v>0</v>
+      </c>
+      <c r="V151">
+        <v>0</v>
+      </c>
+      <c r="W151">
+        <v>0</v>
+      </c>
+      <c r="X151">
+        <v>0</v>
+      </c>
+      <c r="Y151">
+        <v>0</v>
+      </c>
+      <c r="Z151">
+        <v>0</v>
+      </c>
+      <c r="AA151">
+        <v>0</v>
+      </c>
+      <c r="AB151">
+        <v>0</v>
+      </c>
+      <c r="AC151">
+        <v>2.75</v>
+      </c>
+      <c r="AD151">
+        <v>3.45</v>
+      </c>
+      <c r="AE151">
+        <v>2.2</v>
+      </c>
+      <c r="AF151">
+        <v>0</v>
+      </c>
+      <c r="AG151">
+        <v>0</v>
+      </c>
+      <c r="AH151">
+        <v>0</v>
+      </c>
+      <c r="AI151">
+        <v>0</v>
+      </c>
+      <c r="AJ151">
+        <v>1.65</v>
+      </c>
+      <c r="AK151">
+        <v>2.14</v>
+      </c>
+      <c r="AL151">
+        <v>0</v>
+      </c>
+      <c r="AM151">
+        <v>0</v>
+      </c>
+      <c r="AN151">
+        <v>0</v>
+      </c>
+      <c r="AO151">
+        <v>0</v>
+      </c>
+      <c r="AP151">
+        <v>0</v>
+      </c>
+      <c r="AQ151">
+        <v>1.5</v>
+      </c>
+      <c r="AR151">
+        <v>0.58</v>
+      </c>
+      <c r="AS151">
+        <v>1.62</v>
+      </c>
+      <c r="AT151">
+        <v>0.54</v>
+      </c>
+      <c r="AU151">
+        <v>1.44</v>
+      </c>
+      <c r="AV151">
+        <v>1.19</v>
+      </c>
+      <c r="AW151">
+        <v>2.63</v>
+      </c>
+      <c r="AX151">
+        <v>0</v>
+      </c>
+      <c r="AY151">
+        <v>0</v>
+      </c>
+      <c r="AZ151">
+        <v>0</v>
+      </c>
+      <c r="BA151">
+        <v>0</v>
+      </c>
+      <c r="BB151">
+        <v>0</v>
+      </c>
+      <c r="BC151">
+        <v>0</v>
+      </c>
+      <c r="BD151">
+        <v>0</v>
+      </c>
+      <c r="BE151">
+        <v>0</v>
+      </c>
+      <c r="BF151">
+        <v>-1</v>
+      </c>
+      <c r="BG151">
+        <v>-1</v>
+      </c>
+      <c r="BH151">
+        <v>-1</v>
+      </c>
+      <c r="BI151">
+        <v>-1</v>
+      </c>
+      <c r="BJ151">
+        <v>-1</v>
+      </c>
+      <c r="BK151">
         <v>-1</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2023)/Wales Welsh Premier League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Wales Welsh Premier League_20222023.xlsx
@@ -29294,13 +29294,13 @@
         <v>217</v>
       </c>
       <c r="Q148">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="R148">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="S148">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="T148">
         <v>1.39</v>
@@ -29417,22 +29417,22 @@
         <v>0</v>
       </c>
       <c r="BF148">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BG148">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BH148">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="BI148">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BJ148">
-        <v>-1</v>
+        <v>15</v>
       </c>
       <c r="BK148">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="149" spans="1:63">
@@ -29867,13 +29867,13 @@
         <v>261</v>
       </c>
       <c r="Q151">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="R151">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="S151">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="T151">
         <v>0</v>
@@ -29990,22 +29990,22 @@
         <v>0</v>
       </c>
       <c r="BF151">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="BG151">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="BH151">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="BI151">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BJ151">
-        <v>-1</v>
+        <v>13</v>
       </c>
       <c r="BK151">
-        <v>-1</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Wales Welsh Premier League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Wales Welsh Premier League_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="963" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="969" uniqueCount="262">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1161,7 +1161,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK151"/>
+  <dimension ref="A1:BK152"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1683,7 +1683,7 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>2.33</v>
+        <v>2.23</v>
       </c>
       <c r="AT3">
         <v>1.33</v>
@@ -3787,7 +3787,7 @@
         <v>2.08</v>
       </c>
       <c r="AT14">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU14">
         <v>0.86</v>
@@ -5503,7 +5503,7 @@
         <v>0</v>
       </c>
       <c r="AS23">
-        <v>2.33</v>
+        <v>2.23</v>
       </c>
       <c r="AT23">
         <v>0.5</v>
@@ -6458,7 +6458,7 @@
         <v>2.25</v>
       </c>
       <c r="AS28">
-        <v>2.33</v>
+        <v>2.23</v>
       </c>
       <c r="AT28">
         <v>0.85</v>
@@ -6843,7 +6843,7 @@
         <v>1.92</v>
       </c>
       <c r="AT30">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU30">
         <v>2.4</v>
@@ -7986,7 +7986,7 @@
         <v>2.33</v>
       </c>
       <c r="AS36">
-        <v>2.33</v>
+        <v>2.23</v>
       </c>
       <c r="AT36">
         <v>2.25</v>
@@ -8371,7 +8371,7 @@
         <v>0.08</v>
       </c>
       <c r="AT38">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU38">
         <v>1.47</v>
@@ -10472,7 +10472,7 @@
         <v>2.85</v>
       </c>
       <c r="AT49">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU49">
         <v>2.26</v>
@@ -11042,7 +11042,7 @@
         <v>1</v>
       </c>
       <c r="AS52">
-        <v>2.33</v>
+        <v>2.23</v>
       </c>
       <c r="AT52">
         <v>0.54</v>
@@ -11809,7 +11809,7 @@
         <v>1.62</v>
       </c>
       <c r="AT56">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU56">
         <v>1.45</v>
@@ -14101,7 +14101,7 @@
         <v>2.54</v>
       </c>
       <c r="AT68">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU68">
         <v>1.53</v>
@@ -14671,7 +14671,7 @@
         <v>0</v>
       </c>
       <c r="AS71">
-        <v>2.33</v>
+        <v>2.23</v>
       </c>
       <c r="AT71">
         <v>0.83</v>
@@ -16966,7 +16966,7 @@
         <v>1.42</v>
       </c>
       <c r="AT83">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU83">
         <v>1.13</v>
@@ -17154,7 +17154,7 @@
         <v>1.86</v>
       </c>
       <c r="AS84">
-        <v>2.33</v>
+        <v>2.23</v>
       </c>
       <c r="AT84">
         <v>1.31</v>
@@ -17921,7 +17921,7 @@
         <v>1.69</v>
       </c>
       <c r="AT88">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU88">
         <v>1.52</v>
@@ -19255,7 +19255,7 @@
         <v>0.88</v>
       </c>
       <c r="AS95">
-        <v>2.33</v>
+        <v>2.23</v>
       </c>
       <c r="AT95">
         <v>0.54</v>
@@ -19637,10 +19637,10 @@
         <v>1.63</v>
       </c>
       <c r="AS97">
-        <v>2.33</v>
+        <v>2.23</v>
       </c>
       <c r="AT97">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU97">
         <v>1.37</v>
@@ -20977,7 +20977,7 @@
         <v>1.58</v>
       </c>
       <c r="AT104">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU104">
         <v>1.02</v>
@@ -22311,7 +22311,7 @@
         <v>1.56</v>
       </c>
       <c r="AS111">
-        <v>2.33</v>
+        <v>2.23</v>
       </c>
       <c r="AT111">
         <v>1.54</v>
@@ -25749,7 +25749,7 @@
         <v>0</v>
       </c>
       <c r="AS129">
-        <v>2.33</v>
+        <v>2.23</v>
       </c>
       <c r="AT129">
         <v>0</v>
@@ -26134,7 +26134,7 @@
         <v>2.17</v>
       </c>
       <c r="AT131">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU131">
         <v>1.61</v>
@@ -26704,7 +26704,7 @@
         <v>2.45</v>
       </c>
       <c r="AS134">
-        <v>2.33</v>
+        <v>2.23</v>
       </c>
       <c r="AT134">
         <v>2.25</v>
@@ -28617,7 +28617,7 @@
         <v>2.85</v>
       </c>
       <c r="AT144">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU144">
         <v>2.66</v>
@@ -30006,6 +30006,197 @@
       </c>
       <c r="BK151">
         <v>5</v>
+      </c>
+    </row>
+    <row r="152" spans="1:63">
+      <c r="A152" s="1">
+        <v>151</v>
+      </c>
+      <c r="B152">
+        <v>5170244</v>
+      </c>
+      <c r="C152" t="s">
+        <v>63</v>
+      </c>
+      <c r="D152" t="s">
+        <v>64</v>
+      </c>
+      <c r="E152" s="2">
+        <v>44995.69791666666</v>
+      </c>
+      <c r="F152">
+        <v>4</v>
+      </c>
+      <c r="G152" t="s">
+        <v>66</v>
+      </c>
+      <c r="H152" t="s">
+        <v>68</v>
+      </c>
+      <c r="I152">
+        <v>0</v>
+      </c>
+      <c r="J152">
+        <v>0</v>
+      </c>
+      <c r="K152">
+        <v>0</v>
+      </c>
+      <c r="L152">
+        <v>0</v>
+      </c>
+      <c r="M152">
+        <v>0</v>
+      </c>
+      <c r="N152">
+        <v>0</v>
+      </c>
+      <c r="O152" t="s">
+        <v>80</v>
+      </c>
+      <c r="P152" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q152">
+        <v>5</v>
+      </c>
+      <c r="R152">
+        <v>5</v>
+      </c>
+      <c r="S152">
+        <v>10</v>
+      </c>
+      <c r="T152">
+        <v>2.38</v>
+      </c>
+      <c r="U152">
+        <v>2.3</v>
+      </c>
+      <c r="V152">
+        <v>4</v>
+      </c>
+      <c r="W152">
+        <v>1.3</v>
+      </c>
+      <c r="X152">
+        <v>3.4</v>
+      </c>
+      <c r="Y152">
+        <v>2.38</v>
+      </c>
+      <c r="Z152">
+        <v>1.53</v>
+      </c>
+      <c r="AA152">
+        <v>6</v>
+      </c>
+      <c r="AB152">
+        <v>1.13</v>
+      </c>
+      <c r="AC152">
+        <v>1.83</v>
+      </c>
+      <c r="AD152">
+        <v>3.4</v>
+      </c>
+      <c r="AE152">
+        <v>3.6</v>
+      </c>
+      <c r="AF152">
+        <v>1.04</v>
+      </c>
+      <c r="AG152">
+        <v>10.5</v>
+      </c>
+      <c r="AH152">
+        <v>1.23</v>
+      </c>
+      <c r="AI152">
+        <v>3.7</v>
+      </c>
+      <c r="AJ152">
+        <v>1.57</v>
+      </c>
+      <c r="AK152">
+        <v>2.2</v>
+      </c>
+      <c r="AL152">
+        <v>1.62</v>
+      </c>
+      <c r="AM152">
+        <v>2.2</v>
+      </c>
+      <c r="AN152">
+        <v>1.28</v>
+      </c>
+      <c r="AO152">
+        <v>1.27</v>
+      </c>
+      <c r="AP152">
+        <v>1.8</v>
+      </c>
+      <c r="AQ152">
+        <v>2.33</v>
+      </c>
+      <c r="AR152">
+        <v>1.33</v>
+      </c>
+      <c r="AS152">
+        <v>2.23</v>
+      </c>
+      <c r="AT152">
+        <v>1.31</v>
+      </c>
+      <c r="AU152">
+        <v>1.32</v>
+      </c>
+      <c r="AV152">
+        <v>1.31</v>
+      </c>
+      <c r="AW152">
+        <v>2.63</v>
+      </c>
+      <c r="AX152">
+        <v>0</v>
+      </c>
+      <c r="AY152">
+        <v>0</v>
+      </c>
+      <c r="AZ152">
+        <v>0</v>
+      </c>
+      <c r="BA152">
+        <v>1.36</v>
+      </c>
+      <c r="BB152">
+        <v>1.66</v>
+      </c>
+      <c r="BC152">
+        <v>2.14</v>
+      </c>
+      <c r="BD152">
+        <v>2.9</v>
+      </c>
+      <c r="BE152">
+        <v>0</v>
+      </c>
+      <c r="BF152">
+        <v>4</v>
+      </c>
+      <c r="BG152">
+        <v>0</v>
+      </c>
+      <c r="BH152">
+        <v>3</v>
+      </c>
+      <c r="BI152">
+        <v>4</v>
+      </c>
+      <c r="BJ152">
+        <v>7</v>
+      </c>
+      <c r="BK152">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Wales Welsh Premier League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Wales Welsh Premier League_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="969" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="993" uniqueCount="264">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -580,6 +580,15 @@
     <t>['33', '50']</t>
   </si>
   <si>
+    <t>['39']</t>
+  </si>
+  <si>
+    <t>['5', '59']</t>
+  </si>
+  <si>
+    <t>['81']</t>
+  </si>
+  <si>
     <t>['40', '75']</t>
   </si>
   <si>
@@ -590,9 +599,6 @@
   </si>
   <si>
     <t>['9', '29', '34', '70']</t>
-  </si>
-  <si>
-    <t>['39']</t>
   </si>
   <si>
     <t>['30']</t>
@@ -665,9 +671,6 @@
   </si>
   <si>
     <t>['27', '81', '88']</t>
-  </si>
-  <si>
-    <t>['81']</t>
   </si>
   <si>
     <t>['50', '54', '61', '69']</t>
@@ -800,6 +803,9 @@
   </si>
   <si>
     <t>['24']</t>
+  </si>
+  <si>
+    <t>['52']</t>
   </si>
 </sst>
 </file>
@@ -1161,7 +1167,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK152"/>
+  <dimension ref="A1:BK156"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1405,7 +1411,7 @@
         <v>77</v>
       </c>
       <c r="P2" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="Q2">
         <v>5</v>
@@ -1686,7 +1692,7 @@
         <v>2.23</v>
       </c>
       <c r="AT3">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -1877,7 +1883,7 @@
         <v>1.92</v>
       </c>
       <c r="AT4">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -2169,7 +2175,7 @@
         <v>80</v>
       </c>
       <c r="P6" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q6">
         <v>6</v>
@@ -2256,7 +2262,7 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AT6">
         <v>0.85</v>
@@ -2447,7 +2453,7 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>2.17</v>
+        <v>2.08</v>
       </c>
       <c r="AT7">
         <v>1.31</v>
@@ -2742,7 +2748,7 @@
         <v>80</v>
       </c>
       <c r="P9" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q9">
         <v>11</v>
@@ -3405,7 +3411,7 @@
         <v>2.08</v>
       </c>
       <c r="AT12">
-        <v>0.54</v>
+        <v>0.71</v>
       </c>
       <c r="AU12">
         <v>0</v>
@@ -3506,7 +3512,7 @@
         <v>80</v>
       </c>
       <c r="P13" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Q13">
         <v>2</v>
@@ -3593,7 +3599,7 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AT13">
         <v>1.23</v>
@@ -3888,7 +3894,7 @@
         <v>87</v>
       </c>
       <c r="P15" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="Q15">
         <v>6</v>
@@ -3978,7 +3984,7 @@
         <v>2.85</v>
       </c>
       <c r="AT15">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU15">
         <v>2.27</v>
@@ -4079,7 +4085,7 @@
         <v>88</v>
       </c>
       <c r="P16" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q16">
         <v>3</v>
@@ -4461,7 +4467,7 @@
         <v>90</v>
       </c>
       <c r="P18" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q18">
         <v>5</v>
@@ -4548,7 +4554,7 @@
         <v>3</v>
       </c>
       <c r="AS18">
-        <v>2.17</v>
+        <v>2.08</v>
       </c>
       <c r="AT18">
         <v>0.85</v>
@@ -4739,7 +4745,7 @@
         <v>3</v>
       </c>
       <c r="AS19">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AT19">
         <v>0.54</v>
@@ -4843,7 +4849,7 @@
         <v>92</v>
       </c>
       <c r="P20" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q20">
         <v>7</v>
@@ -4930,10 +4936,10 @@
         <v>1</v>
       </c>
       <c r="AS20">
-        <v>2.17</v>
+        <v>2.08</v>
       </c>
       <c r="AT20">
-        <v>0.54</v>
+        <v>0.71</v>
       </c>
       <c r="AU20">
         <v>1.86</v>
@@ -5124,7 +5130,7 @@
         <v>1.62</v>
       </c>
       <c r="AT21">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AU21">
         <v>1.14</v>
@@ -5225,7 +5231,7 @@
         <v>94</v>
       </c>
       <c r="P22" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q22">
         <v>3</v>
@@ -5798,7 +5804,7 @@
         <v>80</v>
       </c>
       <c r="P25" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q25">
         <v>1</v>
@@ -5885,7 +5891,7 @@
         <v>1</v>
       </c>
       <c r="AS25">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AT25">
         <v>2.25</v>
@@ -5989,7 +5995,7 @@
         <v>97</v>
       </c>
       <c r="P26" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q26">
         <v>7</v>
@@ -6180,7 +6186,7 @@
         <v>98</v>
       </c>
       <c r="P27" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q27">
         <v>2</v>
@@ -6267,7 +6273,7 @@
         <v>0</v>
       </c>
       <c r="AS27">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AT27">
         <v>1.31</v>
@@ -6753,7 +6759,7 @@
         <v>101</v>
       </c>
       <c r="P30" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q30">
         <v>7</v>
@@ -6944,7 +6950,7 @@
         <v>80</v>
       </c>
       <c r="P31" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q31">
         <v>1</v>
@@ -7031,7 +7037,7 @@
         <v>2</v>
       </c>
       <c r="AS31">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AT31">
         <v>2.25</v>
@@ -7135,7 +7141,7 @@
         <v>102</v>
       </c>
       <c r="P32" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q32">
         <v>1</v>
@@ -7222,10 +7228,10 @@
         <v>0</v>
       </c>
       <c r="AS32">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AT32">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU32">
         <v>0.67</v>
@@ -7326,7 +7332,7 @@
         <v>103</v>
       </c>
       <c r="P33" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q33">
         <v>7</v>
@@ -7416,7 +7422,7 @@
         <v>1.69</v>
       </c>
       <c r="AT33">
-        <v>0.54</v>
+        <v>0.71</v>
       </c>
       <c r="AU33">
         <v>1.54</v>
@@ -7604,7 +7610,7 @@
         <v>0</v>
       </c>
       <c r="AS34">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AT34">
         <v>0</v>
@@ -7708,7 +7714,7 @@
         <v>105</v>
       </c>
       <c r="P35" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q35">
         <v>3</v>
@@ -7795,7 +7801,7 @@
         <v>1</v>
       </c>
       <c r="AS35">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AT35">
         <v>1.31</v>
@@ -7899,7 +7905,7 @@
         <v>80</v>
       </c>
       <c r="P36" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q36">
         <v>1</v>
@@ -8090,7 +8096,7 @@
         <v>106</v>
       </c>
       <c r="P37" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q37">
         <v>6</v>
@@ -8281,7 +8287,7 @@
         <v>107</v>
       </c>
       <c r="P38" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q38">
         <v>6</v>
@@ -8559,7 +8565,7 @@
         <v>1.5</v>
       </c>
       <c r="AS39">
-        <v>2.17</v>
+        <v>2.08</v>
       </c>
       <c r="AT39">
         <v>0.54</v>
@@ -8663,7 +8669,7 @@
         <v>96</v>
       </c>
       <c r="P40" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q40">
         <v>7</v>
@@ -9236,7 +9242,7 @@
         <v>111</v>
       </c>
       <c r="P43" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q43">
         <v>8</v>
@@ -9427,7 +9433,7 @@
         <v>112</v>
       </c>
       <c r="P44" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q44">
         <v>6</v>
@@ -9514,7 +9520,7 @@
         <v>0</v>
       </c>
       <c r="AS44">
-        <v>2.17</v>
+        <v>2.08</v>
       </c>
       <c r="AT44">
         <v>0.5</v>
@@ -9618,7 +9624,7 @@
         <v>80</v>
       </c>
       <c r="P45" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q45">
         <v>4</v>
@@ -10000,7 +10006,7 @@
         <v>80</v>
       </c>
       <c r="P47" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q47">
         <v>6</v>
@@ -10090,7 +10096,7 @@
         <v>1.69</v>
       </c>
       <c r="AT47">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU47">
         <v>1.48</v>
@@ -10191,7 +10197,7 @@
         <v>114</v>
       </c>
       <c r="P48" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q48">
         <v>4</v>
@@ -10278,7 +10284,7 @@
         <v>0</v>
       </c>
       <c r="AS48">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AT48">
         <v>0</v>
@@ -10382,7 +10388,7 @@
         <v>115</v>
       </c>
       <c r="P49" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q49">
         <v>6</v>
@@ -10573,7 +10579,7 @@
         <v>80</v>
       </c>
       <c r="P50" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q50">
         <v>0</v>
@@ -10851,10 +10857,10 @@
         <v>0</v>
       </c>
       <c r="AS51">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AT51">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AU51">
         <v>1.44</v>
@@ -11146,7 +11152,7 @@
         <v>118</v>
       </c>
       <c r="P53" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q53">
         <v>4</v>
@@ -11233,7 +11239,7 @@
         <v>1</v>
       </c>
       <c r="AS53">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AT53">
         <v>1.54</v>
@@ -11427,7 +11433,7 @@
         <v>2.54</v>
       </c>
       <c r="AT54">
-        <v>0.54</v>
+        <v>0.71</v>
       </c>
       <c r="AU54">
         <v>1.64</v>
@@ -11719,7 +11725,7 @@
         <v>121</v>
       </c>
       <c r="P56" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q56">
         <v>4</v>
@@ -11806,7 +11812,7 @@
         <v>1</v>
       </c>
       <c r="AS56">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AT56">
         <v>1.31</v>
@@ -11997,10 +12003,10 @@
         <v>0.25</v>
       </c>
       <c r="AS57">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AT57">
-        <v>0.54</v>
+        <v>0.71</v>
       </c>
       <c r="AU57">
         <v>0.85</v>
@@ -12101,7 +12107,7 @@
         <v>80</v>
       </c>
       <c r="P58" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q58">
         <v>4</v>
@@ -12483,7 +12489,7 @@
         <v>80</v>
       </c>
       <c r="P60" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q60">
         <v>2</v>
@@ -12674,7 +12680,7 @@
         <v>124</v>
       </c>
       <c r="P61" t="s">
-        <v>217</v>
+        <v>190</v>
       </c>
       <c r="Q61">
         <v>3</v>
@@ -12865,7 +12871,7 @@
         <v>80</v>
       </c>
       <c r="P62" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q62">
         <v>5</v>
@@ -13056,7 +13062,7 @@
         <v>125</v>
       </c>
       <c r="P63" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q63">
         <v>9</v>
@@ -13247,7 +13253,7 @@
         <v>80</v>
       </c>
       <c r="P64" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q64">
         <v>5</v>
@@ -13334,10 +13340,10 @@
         <v>0.75</v>
       </c>
       <c r="AS64">
-        <v>2.17</v>
+        <v>2.08</v>
       </c>
       <c r="AT64">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU64">
         <v>1.87</v>
@@ -13716,7 +13722,7 @@
         <v>0</v>
       </c>
       <c r="AS66">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AT66">
         <v>0</v>
@@ -13910,7 +13916,7 @@
         <v>2.85</v>
       </c>
       <c r="AT67">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AU67">
         <v>1.95</v>
@@ -14011,7 +14017,7 @@
         <v>129</v>
       </c>
       <c r="P68" t="s">
-        <v>217</v>
+        <v>190</v>
       </c>
       <c r="Q68">
         <v>2</v>
@@ -14202,7 +14208,7 @@
         <v>130</v>
       </c>
       <c r="P69" t="s">
-        <v>217</v>
+        <v>190</v>
       </c>
       <c r="Q69">
         <v>1</v>
@@ -14289,7 +14295,7 @@
         <v>1.25</v>
       </c>
       <c r="AS69">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AT69">
         <v>0.85</v>
@@ -14393,7 +14399,7 @@
         <v>131</v>
       </c>
       <c r="P70" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q70">
         <v>2</v>
@@ -14584,7 +14590,7 @@
         <v>80</v>
       </c>
       <c r="P71" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q71">
         <v>4</v>
@@ -14674,7 +14680,7 @@
         <v>2.23</v>
       </c>
       <c r="AT71">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AU71">
         <v>1.5</v>
@@ -14966,7 +14972,7 @@
         <v>80</v>
       </c>
       <c r="P73" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q73">
         <v>2</v>
@@ -15539,7 +15545,7 @@
         <v>80</v>
       </c>
       <c r="P76" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q76">
         <v>4</v>
@@ -15730,7 +15736,7 @@
         <v>80</v>
       </c>
       <c r="P77" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q77">
         <v>5</v>
@@ -15817,10 +15823,10 @@
         <v>0.2</v>
       </c>
       <c r="AS77">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AT77">
-        <v>0.54</v>
+        <v>0.71</v>
       </c>
       <c r="AU77">
         <v>1.17</v>
@@ -16112,7 +16118,7 @@
         <v>80</v>
       </c>
       <c r="P79" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q79">
         <v>2</v>
@@ -16199,10 +16205,10 @@
         <v>1.2</v>
       </c>
       <c r="AS79">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AT79">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU79">
         <v>1.44</v>
@@ -16303,7 +16309,7 @@
         <v>136</v>
       </c>
       <c r="P80" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q80">
         <v>8</v>
@@ -16393,7 +16399,7 @@
         <v>2.54</v>
       </c>
       <c r="AT80">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AU80">
         <v>1.58</v>
@@ -16494,7 +16500,7 @@
         <v>137</v>
       </c>
       <c r="P81" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q81">
         <v>5</v>
@@ -16581,7 +16587,7 @@
         <v>0.67</v>
       </c>
       <c r="AS81">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AT81">
         <v>0.5</v>
@@ -16685,7 +16691,7 @@
         <v>138</v>
       </c>
       <c r="P82" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q82">
         <v>7</v>
@@ -16775,7 +16781,7 @@
         <v>0.08</v>
       </c>
       <c r="AT82">
-        <v>0.54</v>
+        <v>0.71</v>
       </c>
       <c r="AU82">
         <v>1.07</v>
@@ -16876,7 +16882,7 @@
         <v>112</v>
       </c>
       <c r="P83" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q83">
         <v>9</v>
@@ -16963,7 +16969,7 @@
         <v>1.17</v>
       </c>
       <c r="AS83">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AT83">
         <v>1.31</v>
@@ -17345,7 +17351,7 @@
         <v>2.67</v>
       </c>
       <c r="AS85">
-        <v>2.17</v>
+        <v>2.08</v>
       </c>
       <c r="AT85">
         <v>2.25</v>
@@ -17536,7 +17542,7 @@
         <v>0.86</v>
       </c>
       <c r="AS86">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AT86">
         <v>1.23</v>
@@ -17640,7 +17646,7 @@
         <v>140</v>
       </c>
       <c r="P87" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q87">
         <v>3</v>
@@ -17831,7 +17837,7 @@
         <v>141</v>
       </c>
       <c r="P88" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q88">
         <v>4</v>
@@ -18022,7 +18028,7 @@
         <v>105</v>
       </c>
       <c r="P89" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q89">
         <v>7</v>
@@ -18112,7 +18118,7 @@
         <v>0.08</v>
       </c>
       <c r="AT89">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU89">
         <v>1.09</v>
@@ -18682,7 +18688,7 @@
         <v>1.13</v>
       </c>
       <c r="AS92">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AT92">
         <v>1.23</v>
@@ -18876,7 +18882,7 @@
         <v>1.62</v>
       </c>
       <c r="AT93">
-        <v>0.54</v>
+        <v>0.71</v>
       </c>
       <c r="AU93">
         <v>1.11</v>
@@ -18977,7 +18983,7 @@
         <v>146</v>
       </c>
       <c r="P94" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q94">
         <v>0</v>
@@ -19258,7 +19264,7 @@
         <v>2.23</v>
       </c>
       <c r="AT95">
-        <v>0.54</v>
+        <v>0.71</v>
       </c>
       <c r="AU95">
         <v>1.4</v>
@@ -19550,7 +19556,7 @@
         <v>149</v>
       </c>
       <c r="P97" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q97">
         <v>5</v>
@@ -19741,7 +19747,7 @@
         <v>80</v>
       </c>
       <c r="P98" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q98">
         <v>8</v>
@@ -19828,7 +19834,7 @@
         <v>1.38</v>
       </c>
       <c r="AS98">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AT98">
         <v>1.54</v>
@@ -19932,7 +19938,7 @@
         <v>150</v>
       </c>
       <c r="P99" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q99">
         <v>5</v>
@@ -20123,7 +20129,7 @@
         <v>151</v>
       </c>
       <c r="P100" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q100">
         <v>4</v>
@@ -20210,10 +20216,10 @@
         <v>0.67</v>
       </c>
       <c r="AS100">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AT100">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AU100">
         <v>1.12</v>
@@ -20314,7 +20320,7 @@
         <v>152</v>
       </c>
       <c r="P101" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q101">
         <v>4</v>
@@ -20696,7 +20702,7 @@
         <v>125</v>
       </c>
       <c r="P103" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q103">
         <v>8</v>
@@ -20887,7 +20893,7 @@
         <v>154</v>
       </c>
       <c r="P104" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q104">
         <v>3</v>
@@ -20974,7 +20980,7 @@
         <v>1.44</v>
       </c>
       <c r="AS104">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AT104">
         <v>1.31</v>
@@ -21078,7 +21084,7 @@
         <v>155</v>
       </c>
       <c r="P105" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q105">
         <v>1</v>
@@ -21165,10 +21171,10 @@
         <v>0.78</v>
       </c>
       <c r="AS105">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AT105">
-        <v>0.54</v>
+        <v>0.71</v>
       </c>
       <c r="AU105">
         <v>1.32</v>
@@ -21460,7 +21466,7 @@
         <v>132</v>
       </c>
       <c r="P107" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q107">
         <v>5</v>
@@ -21547,7 +21553,7 @@
         <v>1.11</v>
       </c>
       <c r="AS107">
-        <v>2.17</v>
+        <v>2.08</v>
       </c>
       <c r="AT107">
         <v>1.23</v>
@@ -22123,7 +22129,7 @@
         <v>2.08</v>
       </c>
       <c r="AT110">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AU110">
         <v>1.3</v>
@@ -22415,7 +22421,7 @@
         <v>80</v>
       </c>
       <c r="P112" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q112">
         <v>2</v>
@@ -22693,10 +22699,10 @@
         <v>1.71</v>
       </c>
       <c r="AS113">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AT113">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU113">
         <v>1.25</v>
@@ -22988,7 +22994,7 @@
         <v>160</v>
       </c>
       <c r="P115" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q115">
         <v>4</v>
@@ -23075,7 +23081,7 @@
         <v>1.78</v>
       </c>
       <c r="AS115">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AT115">
         <v>1.31</v>
@@ -23266,7 +23272,7 @@
         <v>0</v>
       </c>
       <c r="AS116">
-        <v>2.17</v>
+        <v>2.08</v>
       </c>
       <c r="AT116">
         <v>0</v>
@@ -23561,7 +23567,7 @@
         <v>162</v>
       </c>
       <c r="P118" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q118">
         <v>6</v>
@@ -23648,7 +23654,7 @@
         <v>0.3</v>
       </c>
       <c r="AS118">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AT118">
         <v>0.54</v>
@@ -23752,7 +23758,7 @@
         <v>163</v>
       </c>
       <c r="P119" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q119">
         <v>4</v>
@@ -23839,10 +23845,10 @@
         <v>0.5</v>
       </c>
       <c r="AS119">
-        <v>2.17</v>
+        <v>2.08</v>
       </c>
       <c r="AT119">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AU119">
         <v>1.61</v>
@@ -23943,7 +23949,7 @@
         <v>80</v>
       </c>
       <c r="P120" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q120">
         <v>1</v>
@@ -24415,7 +24421,7 @@
         <v>1.62</v>
       </c>
       <c r="AT122">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU122">
         <v>1.29</v>
@@ -24516,7 +24522,7 @@
         <v>165</v>
       </c>
       <c r="P123" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q123">
         <v>5</v>
@@ -24606,7 +24612,7 @@
         <v>2.85</v>
       </c>
       <c r="AT123">
-        <v>0.54</v>
+        <v>0.71</v>
       </c>
       <c r="AU123">
         <v>2.62</v>
@@ -24797,7 +24803,7 @@
         <v>2.08</v>
       </c>
       <c r="AT124">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU124">
         <v>1.34</v>
@@ -24898,7 +24904,7 @@
         <v>80</v>
       </c>
       <c r="P125" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q125">
         <v>6</v>
@@ -24988,7 +24994,7 @@
         <v>0.08</v>
       </c>
       <c r="AT125">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AU125">
         <v>1.04</v>
@@ -25089,7 +25095,7 @@
         <v>154</v>
       </c>
       <c r="P126" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q126">
         <v>0</v>
@@ -25176,7 +25182,7 @@
         <v>2.4</v>
       </c>
       <c r="AS126">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AT126">
         <v>2.25</v>
@@ -25280,7 +25286,7 @@
         <v>80</v>
       </c>
       <c r="P127" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q127">
         <v>1</v>
@@ -25367,7 +25373,7 @@
         <v>1.5</v>
       </c>
       <c r="AS127">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AT127">
         <v>1.54</v>
@@ -25471,7 +25477,7 @@
         <v>166</v>
       </c>
       <c r="P128" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q128">
         <v>9</v>
@@ -25558,10 +25564,10 @@
         <v>0.7</v>
       </c>
       <c r="AS128">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AT128">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AU128">
         <v>1.01</v>
@@ -25940,7 +25946,7 @@
         <v>0.5</v>
       </c>
       <c r="AS130">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AT130">
         <v>0.5</v>
@@ -26131,7 +26137,7 @@
         <v>1.6</v>
       </c>
       <c r="AS131">
-        <v>2.17</v>
+        <v>2.08</v>
       </c>
       <c r="AT131">
         <v>1.31</v>
@@ -26426,7 +26432,7 @@
         <v>171</v>
       </c>
       <c r="P133" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q133">
         <v>7</v>
@@ -26516,7 +26522,7 @@
         <v>1.92</v>
       </c>
       <c r="AT133">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU133">
         <v>1.38</v>
@@ -26617,7 +26623,7 @@
         <v>172</v>
       </c>
       <c r="P134" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q134">
         <v>2</v>
@@ -27089,7 +27095,7 @@
         <v>1.62</v>
       </c>
       <c r="AT136">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AU136">
         <v>1.3</v>
@@ -27280,7 +27286,7 @@
         <v>1.69</v>
       </c>
       <c r="AT137">
-        <v>0.54</v>
+        <v>0.71</v>
       </c>
       <c r="AU137">
         <v>1.29</v>
@@ -27468,7 +27474,7 @@
         <v>0.36</v>
       </c>
       <c r="AS138">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AT138">
         <v>0.54</v>
@@ -27659,7 +27665,7 @@
         <v>0</v>
       </c>
       <c r="AS139">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AT139">
         <v>0</v>
@@ -27763,7 +27769,7 @@
         <v>177</v>
       </c>
       <c r="P140" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q140">
         <v>6</v>
@@ -27850,7 +27856,7 @@
         <v>1.45</v>
       </c>
       <c r="AS140">
-        <v>2.17</v>
+        <v>2.08</v>
       </c>
       <c r="AT140">
         <v>1.23</v>
@@ -27954,7 +27960,7 @@
         <v>80</v>
       </c>
       <c r="P141" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q141">
         <v>-1</v>
@@ -28044,7 +28050,7 @@
         <v>0.08</v>
       </c>
       <c r="AT141">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AU141">
         <v>1.1</v>
@@ -28145,7 +28151,7 @@
         <v>178</v>
       </c>
       <c r="P142" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q142">
         <v>4</v>
@@ -28232,7 +28238,7 @@
         <v>0.45</v>
       </c>
       <c r="AS142">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AT142">
         <v>0.5</v>
@@ -28336,7 +28342,7 @@
         <v>179</v>
       </c>
       <c r="P143" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q143">
         <v>9</v>
@@ -28909,7 +28915,7 @@
         <v>182</v>
       </c>
       <c r="P146" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q146">
         <v>5</v>
@@ -29100,7 +29106,7 @@
         <v>183</v>
       </c>
       <c r="P147" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q147">
         <v>4</v>
@@ -29291,7 +29297,7 @@
         <v>184</v>
       </c>
       <c r="P148" t="s">
-        <v>217</v>
+        <v>190</v>
       </c>
       <c r="Q148">
         <v>9</v>
@@ -29482,7 +29488,7 @@
         <v>185</v>
       </c>
       <c r="P149" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q149">
         <v>3</v>
@@ -29673,7 +29679,7 @@
         <v>186</v>
       </c>
       <c r="P150" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q150">
         <v>3</v>
@@ -29864,7 +29870,7 @@
         <v>187</v>
       </c>
       <c r="P151" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q151">
         <v>4</v>
@@ -29951,10 +29957,10 @@
         <v>0.58</v>
       </c>
       <c r="AS151">
-        <v>1.62</v>
+        <v>1.71</v>
       </c>
       <c r="AT151">
-        <v>0.54</v>
+        <v>0.71</v>
       </c>
       <c r="AU151">
         <v>1.44</v>
@@ -30197,6 +30203,770 @@
       </c>
       <c r="BK152">
         <v>4</v>
+      </c>
+    </row>
+    <row r="153" spans="1:63">
+      <c r="A153" s="1">
+        <v>152</v>
+      </c>
+      <c r="B153">
+        <v>5170246</v>
+      </c>
+      <c r="C153" t="s">
+        <v>63</v>
+      </c>
+      <c r="D153" t="s">
+        <v>64</v>
+      </c>
+      <c r="E153" s="2">
+        <v>44996.47916666666</v>
+      </c>
+      <c r="F153">
+        <v>4</v>
+      </c>
+      <c r="G153" t="s">
+        <v>75</v>
+      </c>
+      <c r="H153" t="s">
+        <v>67</v>
+      </c>
+      <c r="I153">
+        <v>0</v>
+      </c>
+      <c r="J153">
+        <v>0</v>
+      </c>
+      <c r="K153">
+        <v>0</v>
+      </c>
+      <c r="L153">
+        <v>0</v>
+      </c>
+      <c r="M153">
+        <v>1</v>
+      </c>
+      <c r="N153">
+        <v>1</v>
+      </c>
+      <c r="O153" t="s">
+        <v>80</v>
+      </c>
+      <c r="P153" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q153">
+        <v>4</v>
+      </c>
+      <c r="R153">
+        <v>3</v>
+      </c>
+      <c r="S153">
+        <v>7</v>
+      </c>
+      <c r="T153">
+        <v>3.1</v>
+      </c>
+      <c r="U153">
+        <v>2.25</v>
+      </c>
+      <c r="V153">
+        <v>2.88</v>
+      </c>
+      <c r="W153">
+        <v>1.33</v>
+      </c>
+      <c r="X153">
+        <v>3.25</v>
+      </c>
+      <c r="Y153">
+        <v>2.5</v>
+      </c>
+      <c r="Z153">
+        <v>1.5</v>
+      </c>
+      <c r="AA153">
+        <v>6</v>
+      </c>
+      <c r="AB153">
+        <v>1.13</v>
+      </c>
+      <c r="AC153">
+        <v>2.55</v>
+      </c>
+      <c r="AD153">
+        <v>3.4</v>
+      </c>
+      <c r="AE153">
+        <v>2.4</v>
+      </c>
+      <c r="AF153">
+        <v>1.03</v>
+      </c>
+      <c r="AG153">
+        <v>12</v>
+      </c>
+      <c r="AH153">
+        <v>1.2</v>
+      </c>
+      <c r="AI153">
+        <v>4.1</v>
+      </c>
+      <c r="AJ153">
+        <v>1.55</v>
+      </c>
+      <c r="AK153">
+        <v>2.3</v>
+      </c>
+      <c r="AL153">
+        <v>1.57</v>
+      </c>
+      <c r="AM153">
+        <v>2.25</v>
+      </c>
+      <c r="AN153">
+        <v>1.58</v>
+      </c>
+      <c r="AO153">
+        <v>1.29</v>
+      </c>
+      <c r="AP153">
+        <v>1.41</v>
+      </c>
+      <c r="AQ153">
+        <v>1.58</v>
+      </c>
+      <c r="AR153">
+        <v>0.54</v>
+      </c>
+      <c r="AS153">
+        <v>1.46</v>
+      </c>
+      <c r="AT153">
+        <v>0.71</v>
+      </c>
+      <c r="AU153">
+        <v>1.09</v>
+      </c>
+      <c r="AV153">
+        <v>1.16</v>
+      </c>
+      <c r="AW153">
+        <v>2.25</v>
+      </c>
+      <c r="AX153">
+        <v>0</v>
+      </c>
+      <c r="AY153">
+        <v>0</v>
+      </c>
+      <c r="AZ153">
+        <v>0</v>
+      </c>
+      <c r="BA153">
+        <v>0</v>
+      </c>
+      <c r="BB153">
+        <v>0</v>
+      </c>
+      <c r="BC153">
+        <v>0</v>
+      </c>
+      <c r="BD153">
+        <v>0</v>
+      </c>
+      <c r="BE153">
+        <v>0</v>
+      </c>
+      <c r="BF153">
+        <v>3</v>
+      </c>
+      <c r="BG153">
+        <v>6</v>
+      </c>
+      <c r="BH153">
+        <v>1</v>
+      </c>
+      <c r="BI153">
+        <v>6</v>
+      </c>
+      <c r="BJ153">
+        <v>4</v>
+      </c>
+      <c r="BK153">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="154" spans="1:63">
+      <c r="A154" s="1">
+        <v>153</v>
+      </c>
+      <c r="B154">
+        <v>5170248</v>
+      </c>
+      <c r="C154" t="s">
+        <v>63</v>
+      </c>
+      <c r="D154" t="s">
+        <v>64</v>
+      </c>
+      <c r="E154" s="2">
+        <v>44996.47916666666</v>
+      </c>
+      <c r="F154">
+        <v>4</v>
+      </c>
+      <c r="G154" t="s">
+        <v>69</v>
+      </c>
+      <c r="H154" t="s">
+        <v>73</v>
+      </c>
+      <c r="I154">
+        <v>1</v>
+      </c>
+      <c r="J154">
+        <v>0</v>
+      </c>
+      <c r="K154">
+        <v>1</v>
+      </c>
+      <c r="L154">
+        <v>1</v>
+      </c>
+      <c r="M154">
+        <v>0</v>
+      </c>
+      <c r="N154">
+        <v>1</v>
+      </c>
+      <c r="O154" t="s">
+        <v>188</v>
+      </c>
+      <c r="P154" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q154">
+        <v>3</v>
+      </c>
+      <c r="R154">
+        <v>5</v>
+      </c>
+      <c r="S154">
+        <v>8</v>
+      </c>
+      <c r="T154">
+        <v>3</v>
+      </c>
+      <c r="U154">
+        <v>2.25</v>
+      </c>
+      <c r="V154">
+        <v>3.1</v>
+      </c>
+      <c r="W154">
+        <v>1.33</v>
+      </c>
+      <c r="X154">
+        <v>3.25</v>
+      </c>
+      <c r="Y154">
+        <v>2.63</v>
+      </c>
+      <c r="Z154">
+        <v>1.44</v>
+      </c>
+      <c r="AA154">
+        <v>6.5</v>
+      </c>
+      <c r="AB154">
+        <v>1.11</v>
+      </c>
+      <c r="AC154">
+        <v>2.4</v>
+      </c>
+      <c r="AD154">
+        <v>3.35</v>
+      </c>
+      <c r="AE154">
+        <v>2.55</v>
+      </c>
+      <c r="AF154">
+        <v>1.02</v>
+      </c>
+      <c r="AG154">
+        <v>14</v>
+      </c>
+      <c r="AH154">
+        <v>1.21</v>
+      </c>
+      <c r="AI154">
+        <v>4</v>
+      </c>
+      <c r="AJ154">
+        <v>1.65</v>
+      </c>
+      <c r="AK154">
+        <v>2.1</v>
+      </c>
+      <c r="AL154">
+        <v>1.62</v>
+      </c>
+      <c r="AM154">
+        <v>2.2</v>
+      </c>
+      <c r="AN154">
+        <v>1.38</v>
+      </c>
+      <c r="AO154">
+        <v>1.28</v>
+      </c>
+      <c r="AP154">
+        <v>1.47</v>
+      </c>
+      <c r="AQ154">
+        <v>1.62</v>
+      </c>
+      <c r="AR154">
+        <v>0.83</v>
+      </c>
+      <c r="AS154">
+        <v>1.71</v>
+      </c>
+      <c r="AT154">
+        <v>0.77</v>
+      </c>
+      <c r="AU154">
+        <v>1.45</v>
+      </c>
+      <c r="AV154">
+        <v>1.31</v>
+      </c>
+      <c r="AW154">
+        <v>2.76</v>
+      </c>
+      <c r="AX154">
+        <v>0</v>
+      </c>
+      <c r="AY154">
+        <v>0</v>
+      </c>
+      <c r="AZ154">
+        <v>0</v>
+      </c>
+      <c r="BA154">
+        <v>0</v>
+      </c>
+      <c r="BB154">
+        <v>0</v>
+      </c>
+      <c r="BC154">
+        <v>0</v>
+      </c>
+      <c r="BD154">
+        <v>0</v>
+      </c>
+      <c r="BE154">
+        <v>0</v>
+      </c>
+      <c r="BF154">
+        <v>7</v>
+      </c>
+      <c r="BG154">
+        <v>3</v>
+      </c>
+      <c r="BH154">
+        <v>9</v>
+      </c>
+      <c r="BI154">
+        <v>1</v>
+      </c>
+      <c r="BJ154">
+        <v>16</v>
+      </c>
+      <c r="BK154">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="155" spans="1:63">
+      <c r="A155" s="1">
+        <v>154</v>
+      </c>
+      <c r="B155">
+        <v>5170247</v>
+      </c>
+      <c r="C155" t="s">
+        <v>63</v>
+      </c>
+      <c r="D155" t="s">
+        <v>64</v>
+      </c>
+      <c r="E155" s="2">
+        <v>44996.47916666666</v>
+      </c>
+      <c r="F155">
+        <v>4</v>
+      </c>
+      <c r="G155" t="s">
+        <v>76</v>
+      </c>
+      <c r="H155" t="s">
+        <v>65</v>
+      </c>
+      <c r="I155">
+        <v>1</v>
+      </c>
+      <c r="J155">
+        <v>1</v>
+      </c>
+      <c r="K155">
+        <v>2</v>
+      </c>
+      <c r="L155">
+        <v>2</v>
+      </c>
+      <c r="M155">
+        <v>1</v>
+      </c>
+      <c r="N155">
+        <v>3</v>
+      </c>
+      <c r="O155" t="s">
+        <v>189</v>
+      </c>
+      <c r="P155" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q155">
+        <v>4</v>
+      </c>
+      <c r="R155">
+        <v>7</v>
+      </c>
+      <c r="S155">
+        <v>11</v>
+      </c>
+      <c r="T155">
+        <v>1.3</v>
+      </c>
+      <c r="U155">
+        <v>3.6</v>
+      </c>
+      <c r="V155">
+        <v>15</v>
+      </c>
+      <c r="W155">
+        <v>1.14</v>
+      </c>
+      <c r="X155">
+        <v>5.5</v>
+      </c>
+      <c r="Y155">
+        <v>1.73</v>
+      </c>
+      <c r="Z155">
+        <v>2</v>
+      </c>
+      <c r="AA155">
+        <v>3.25</v>
+      </c>
+      <c r="AB155">
+        <v>1.33</v>
+      </c>
+      <c r="AC155">
+        <v>1.11</v>
+      </c>
+      <c r="AD155">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AE155">
+        <v>17.75</v>
+      </c>
+      <c r="AF155">
+        <v>1.01</v>
+      </c>
+      <c r="AG155">
+        <v>54</v>
+      </c>
+      <c r="AH155">
+        <v>1.07</v>
+      </c>
+      <c r="AI155">
+        <v>7.5</v>
+      </c>
+      <c r="AJ155">
+        <v>1.21</v>
+      </c>
+      <c r="AK155">
+        <v>3.63</v>
+      </c>
+      <c r="AL155">
+        <v>2.25</v>
+      </c>
+      <c r="AM155">
+        <v>1.57</v>
+      </c>
+      <c r="AN155">
+        <v>1</v>
+      </c>
+      <c r="AO155">
+        <v>1.04</v>
+      </c>
+      <c r="AP155">
+        <v>8.25</v>
+      </c>
+      <c r="AQ155">
+        <v>1.42</v>
+      </c>
+      <c r="AR155">
+        <v>0</v>
+      </c>
+      <c r="AS155">
+        <v>1.54</v>
+      </c>
+      <c r="AT155">
+        <v>0</v>
+      </c>
+      <c r="AU155">
+        <v>1.28</v>
+      </c>
+      <c r="AV155">
+        <v>0.76</v>
+      </c>
+      <c r="AW155">
+        <v>2.04</v>
+      </c>
+      <c r="AX155">
+        <v>0</v>
+      </c>
+      <c r="AY155">
+        <v>0</v>
+      </c>
+      <c r="AZ155">
+        <v>0</v>
+      </c>
+      <c r="BA155">
+        <v>0</v>
+      </c>
+      <c r="BB155">
+        <v>0</v>
+      </c>
+      <c r="BC155">
+        <v>0</v>
+      </c>
+      <c r="BD155">
+        <v>0</v>
+      </c>
+      <c r="BE155">
+        <v>0</v>
+      </c>
+      <c r="BF155">
+        <v>4</v>
+      </c>
+      <c r="BG155">
+        <v>3</v>
+      </c>
+      <c r="BH155">
+        <v>7</v>
+      </c>
+      <c r="BI155">
+        <v>3</v>
+      </c>
+      <c r="BJ155">
+        <v>11</v>
+      </c>
+      <c r="BK155">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="156" spans="1:63">
+      <c r="A156" s="1">
+        <v>155</v>
+      </c>
+      <c r="B156">
+        <v>5170245</v>
+      </c>
+      <c r="C156" t="s">
+        <v>63</v>
+      </c>
+      <c r="D156" t="s">
+        <v>64</v>
+      </c>
+      <c r="E156" s="2">
+        <v>44996.47916666666</v>
+      </c>
+      <c r="F156">
+        <v>4</v>
+      </c>
+      <c r="G156" t="s">
+        <v>70</v>
+      </c>
+      <c r="H156" t="s">
+        <v>71</v>
+      </c>
+      <c r="I156">
+        <v>0</v>
+      </c>
+      <c r="J156">
+        <v>0</v>
+      </c>
+      <c r="K156">
+        <v>0</v>
+      </c>
+      <c r="L156">
+        <v>1</v>
+      </c>
+      <c r="M156">
+        <v>1</v>
+      </c>
+      <c r="N156">
+        <v>2</v>
+      </c>
+      <c r="O156" t="s">
+        <v>190</v>
+      </c>
+      <c r="P156" t="s">
+        <v>139</v>
+      </c>
+      <c r="Q156">
+        <v>9</v>
+      </c>
+      <c r="R156">
+        <v>3</v>
+      </c>
+      <c r="S156">
+        <v>12</v>
+      </c>
+      <c r="T156">
+        <v>2.88</v>
+      </c>
+      <c r="U156">
+        <v>2.1</v>
+      </c>
+      <c r="V156">
+        <v>3.5</v>
+      </c>
+      <c r="W156">
+        <v>1.4</v>
+      </c>
+      <c r="X156">
+        <v>2.75</v>
+      </c>
+      <c r="Y156">
+        <v>3</v>
+      </c>
+      <c r="Z156">
+        <v>1.36</v>
+      </c>
+      <c r="AA156">
+        <v>8</v>
+      </c>
+      <c r="AB156">
+        <v>1.08</v>
+      </c>
+      <c r="AC156">
+        <v>2.45</v>
+      </c>
+      <c r="AD156">
+        <v>3.15</v>
+      </c>
+      <c r="AE156">
+        <v>2.6</v>
+      </c>
+      <c r="AF156">
+        <v>1.03</v>
+      </c>
+      <c r="AG156">
+        <v>10</v>
+      </c>
+      <c r="AH156">
+        <v>1.29</v>
+      </c>
+      <c r="AI156">
+        <v>3.5</v>
+      </c>
+      <c r="AJ156">
+        <v>1.9</v>
+      </c>
+      <c r="AK156">
+        <v>1.8</v>
+      </c>
+      <c r="AL156">
+        <v>1.8</v>
+      </c>
+      <c r="AM156">
+        <v>1.91</v>
+      </c>
+      <c r="AN156">
+        <v>1.35</v>
+      </c>
+      <c r="AO156">
+        <v>1.28</v>
+      </c>
+      <c r="AP156">
+        <v>1.6</v>
+      </c>
+      <c r="AQ156">
+        <v>2.17</v>
+      </c>
+      <c r="AR156">
+        <v>1.33</v>
+      </c>
+      <c r="AS156">
+        <v>2.08</v>
+      </c>
+      <c r="AT156">
+        <v>1.31</v>
+      </c>
+      <c r="AU156">
+        <v>1.58</v>
+      </c>
+      <c r="AV156">
+        <v>1.55</v>
+      </c>
+      <c r="AW156">
+        <v>3.13</v>
+      </c>
+      <c r="AX156">
+        <v>0</v>
+      </c>
+      <c r="AY156">
+        <v>0</v>
+      </c>
+      <c r="AZ156">
+        <v>0</v>
+      </c>
+      <c r="BA156">
+        <v>0</v>
+      </c>
+      <c r="BB156">
+        <v>0</v>
+      </c>
+      <c r="BC156">
+        <v>0</v>
+      </c>
+      <c r="BD156">
+        <v>0</v>
+      </c>
+      <c r="BE156">
+        <v>0</v>
+      </c>
+      <c r="BF156">
+        <v>4</v>
+      </c>
+      <c r="BG156">
+        <v>3</v>
+      </c>
+      <c r="BH156">
+        <v>7</v>
+      </c>
+      <c r="BI156">
+        <v>3</v>
+      </c>
+      <c r="BJ156">
+        <v>11</v>
+      </c>
+      <c r="BK156">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Wales Welsh Premier League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Wales Welsh Premier League_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="993" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="999" uniqueCount="265">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -587,6 +587,9 @@
   </si>
   <si>
     <t>['81']</t>
+  </si>
+  <si>
+    <t>['28', '89']</t>
   </si>
   <si>
     <t>['40', '75']</t>
@@ -1167,7 +1170,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK156"/>
+  <dimension ref="A1:BK157"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1411,7 +1414,7 @@
         <v>77</v>
       </c>
       <c r="P2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q2">
         <v>5</v>
@@ -2175,7 +2178,7 @@
         <v>80</v>
       </c>
       <c r="P6" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q6">
         <v>6</v>
@@ -2456,7 +2459,7 @@
         <v>2.08</v>
       </c>
       <c r="AT7">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -2748,7 +2751,7 @@
         <v>80</v>
       </c>
       <c r="P9" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q9">
         <v>11</v>
@@ -3026,7 +3029,7 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>2.85</v>
+        <v>2.86</v>
       </c>
       <c r="AT10">
         <v>1.54</v>
@@ -3512,7 +3515,7 @@
         <v>80</v>
       </c>
       <c r="P13" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q13">
         <v>2</v>
@@ -3981,7 +3984,7 @@
         <v>0</v>
       </c>
       <c r="AS15">
-        <v>2.85</v>
+        <v>2.86</v>
       </c>
       <c r="AT15">
         <v>1.31</v>
@@ -4085,7 +4088,7 @@
         <v>88</v>
       </c>
       <c r="P16" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q16">
         <v>3</v>
@@ -4467,7 +4470,7 @@
         <v>90</v>
       </c>
       <c r="P18" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q18">
         <v>5</v>
@@ -4849,7 +4852,7 @@
         <v>92</v>
       </c>
       <c r="P20" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q20">
         <v>7</v>
@@ -5231,7 +5234,7 @@
         <v>94</v>
       </c>
       <c r="P22" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q22">
         <v>3</v>
@@ -5703,7 +5706,7 @@
         <v>2.54</v>
       </c>
       <c r="AT24">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU24">
         <v>1.67</v>
@@ -5804,7 +5807,7 @@
         <v>80</v>
       </c>
       <c r="P25" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q25">
         <v>1</v>
@@ -5995,7 +5998,7 @@
         <v>97</v>
       </c>
       <c r="P26" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q26">
         <v>7</v>
@@ -6186,7 +6189,7 @@
         <v>98</v>
       </c>
       <c r="P27" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q27">
         <v>2</v>
@@ -6276,7 +6279,7 @@
         <v>1.46</v>
       </c>
       <c r="AT27">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU27">
         <v>0.36</v>
@@ -6759,7 +6762,7 @@
         <v>101</v>
       </c>
       <c r="P30" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q30">
         <v>7</v>
@@ -6950,7 +6953,7 @@
         <v>80</v>
       </c>
       <c r="P31" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q31">
         <v>1</v>
@@ -7141,7 +7144,7 @@
         <v>102</v>
       </c>
       <c r="P32" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q32">
         <v>1</v>
@@ -7332,7 +7335,7 @@
         <v>103</v>
       </c>
       <c r="P33" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q33">
         <v>7</v>
@@ -7714,7 +7717,7 @@
         <v>105</v>
       </c>
       <c r="P35" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q35">
         <v>3</v>
@@ -7804,7 +7807,7 @@
         <v>1.54</v>
       </c>
       <c r="AT35">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU35">
         <v>0</v>
@@ -7905,7 +7908,7 @@
         <v>80</v>
       </c>
       <c r="P36" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q36">
         <v>1</v>
@@ -8096,7 +8099,7 @@
         <v>106</v>
       </c>
       <c r="P37" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q37">
         <v>6</v>
@@ -8287,7 +8290,7 @@
         <v>107</v>
       </c>
       <c r="P38" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q38">
         <v>6</v>
@@ -8669,7 +8672,7 @@
         <v>96</v>
       </c>
       <c r="P40" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q40">
         <v>7</v>
@@ -9242,7 +9245,7 @@
         <v>111</v>
       </c>
       <c r="P43" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q43">
         <v>8</v>
@@ -9329,7 +9332,7 @@
         <v>1.67</v>
       </c>
       <c r="AS43">
-        <v>2.85</v>
+        <v>2.86</v>
       </c>
       <c r="AT43">
         <v>0.85</v>
@@ -9433,7 +9436,7 @@
         <v>112</v>
       </c>
       <c r="P44" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q44">
         <v>6</v>
@@ -9624,7 +9627,7 @@
         <v>80</v>
       </c>
       <c r="P45" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q45">
         <v>4</v>
@@ -9714,7 +9717,7 @@
         <v>1.62</v>
       </c>
       <c r="AT45">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU45">
         <v>1.26</v>
@@ -10006,7 +10009,7 @@
         <v>80</v>
       </c>
       <c r="P47" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q47">
         <v>6</v>
@@ -10197,7 +10200,7 @@
         <v>114</v>
       </c>
       <c r="P48" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q48">
         <v>4</v>
@@ -10388,7 +10391,7 @@
         <v>115</v>
       </c>
       <c r="P49" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q49">
         <v>6</v>
@@ -10475,7 +10478,7 @@
         <v>1.33</v>
       </c>
       <c r="AS49">
-        <v>2.85</v>
+        <v>2.86</v>
       </c>
       <c r="AT49">
         <v>1.31</v>
@@ -10579,7 +10582,7 @@
         <v>80</v>
       </c>
       <c r="P50" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q50">
         <v>0</v>
@@ -10669,7 +10672,7 @@
         <v>0.08</v>
       </c>
       <c r="AT50">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU50">
         <v>1.52</v>
@@ -11152,7 +11155,7 @@
         <v>118</v>
       </c>
       <c r="P53" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q53">
         <v>4</v>
@@ -11725,7 +11728,7 @@
         <v>121</v>
       </c>
       <c r="P56" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q56">
         <v>4</v>
@@ -12107,7 +12110,7 @@
         <v>80</v>
       </c>
       <c r="P58" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q58">
         <v>4</v>
@@ -12489,7 +12492,7 @@
         <v>80</v>
       </c>
       <c r="P60" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q60">
         <v>2</v>
@@ -12871,7 +12874,7 @@
         <v>80</v>
       </c>
       <c r="P62" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q62">
         <v>5</v>
@@ -13062,7 +13065,7 @@
         <v>125</v>
       </c>
       <c r="P63" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q63">
         <v>9</v>
@@ -13152,7 +13155,7 @@
         <v>1.92</v>
       </c>
       <c r="AT63">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU63">
         <v>1.58</v>
@@ -13253,7 +13256,7 @@
         <v>80</v>
       </c>
       <c r="P64" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q64">
         <v>5</v>
@@ -13531,7 +13534,7 @@
         <v>0.25</v>
       </c>
       <c r="AS65">
-        <v>2.85</v>
+        <v>2.86</v>
       </c>
       <c r="AT65">
         <v>0.5</v>
@@ -13913,7 +13916,7 @@
         <v>0</v>
       </c>
       <c r="AS67">
-        <v>2.85</v>
+        <v>2.86</v>
       </c>
       <c r="AT67">
         <v>0.77</v>
@@ -14399,7 +14402,7 @@
         <v>131</v>
       </c>
       <c r="P70" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q70">
         <v>2</v>
@@ -14590,7 +14593,7 @@
         <v>80</v>
       </c>
       <c r="P71" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q71">
         <v>4</v>
@@ -14972,7 +14975,7 @@
         <v>80</v>
       </c>
       <c r="P73" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q73">
         <v>2</v>
@@ -15545,7 +15548,7 @@
         <v>80</v>
       </c>
       <c r="P76" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q76">
         <v>4</v>
@@ -15736,7 +15739,7 @@
         <v>80</v>
       </c>
       <c r="P77" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q77">
         <v>5</v>
@@ -16014,7 +16017,7 @@
         <v>1</v>
       </c>
       <c r="AS78">
-        <v>2.85</v>
+        <v>2.86</v>
       </c>
       <c r="AT78">
         <v>1.23</v>
@@ -16118,7 +16121,7 @@
         <v>80</v>
       </c>
       <c r="P79" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q79">
         <v>2</v>
@@ -16309,7 +16312,7 @@
         <v>136</v>
       </c>
       <c r="P80" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q80">
         <v>8</v>
@@ -16500,7 +16503,7 @@
         <v>137</v>
       </c>
       <c r="P81" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q81">
         <v>5</v>
@@ -16691,7 +16694,7 @@
         <v>138</v>
       </c>
       <c r="P82" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q82">
         <v>7</v>
@@ -16882,7 +16885,7 @@
         <v>112</v>
       </c>
       <c r="P83" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q83">
         <v>9</v>
@@ -17163,7 +17166,7 @@
         <v>2.23</v>
       </c>
       <c r="AT84">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU84">
         <v>1.46</v>
@@ -17646,7 +17649,7 @@
         <v>140</v>
       </c>
       <c r="P87" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q87">
         <v>3</v>
@@ -17837,7 +17840,7 @@
         <v>141</v>
       </c>
       <c r="P88" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q88">
         <v>4</v>
@@ -18028,7 +18031,7 @@
         <v>105</v>
       </c>
       <c r="P89" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q89">
         <v>7</v>
@@ -18497,7 +18500,7 @@
         <v>0.5</v>
       </c>
       <c r="AS91">
-        <v>2.85</v>
+        <v>2.86</v>
       </c>
       <c r="AT91">
         <v>0.54</v>
@@ -18983,7 +18986,7 @@
         <v>146</v>
       </c>
       <c r="P94" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q94">
         <v>0</v>
@@ -19556,7 +19559,7 @@
         <v>149</v>
       </c>
       <c r="P97" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q97">
         <v>5</v>
@@ -19747,7 +19750,7 @@
         <v>80</v>
       </c>
       <c r="P98" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q98">
         <v>8</v>
@@ -19938,7 +19941,7 @@
         <v>150</v>
       </c>
       <c r="P99" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q99">
         <v>5</v>
@@ -20129,7 +20132,7 @@
         <v>151</v>
       </c>
       <c r="P100" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q100">
         <v>4</v>
@@ -20320,7 +20323,7 @@
         <v>152</v>
       </c>
       <c r="P101" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q101">
         <v>4</v>
@@ -20702,7 +20705,7 @@
         <v>125</v>
       </c>
       <c r="P103" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q103">
         <v>8</v>
@@ -20792,7 +20795,7 @@
         <v>1.69</v>
       </c>
       <c r="AT103">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU103">
         <v>1.46</v>
@@ -20893,7 +20896,7 @@
         <v>154</v>
       </c>
       <c r="P104" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q104">
         <v>3</v>
@@ -21084,7 +21087,7 @@
         <v>155</v>
       </c>
       <c r="P105" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q105">
         <v>1</v>
@@ -21362,7 +21365,7 @@
         <v>0</v>
       </c>
       <c r="AS106">
-        <v>2.85</v>
+        <v>2.86</v>
       </c>
       <c r="AT106">
         <v>0</v>
@@ -21466,7 +21469,7 @@
         <v>132</v>
       </c>
       <c r="P107" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q107">
         <v>5</v>
@@ -22421,7 +22424,7 @@
         <v>80</v>
       </c>
       <c r="P112" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q112">
         <v>2</v>
@@ -22994,7 +22997,7 @@
         <v>160</v>
       </c>
       <c r="P115" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q115">
         <v>4</v>
@@ -23084,7 +23087,7 @@
         <v>1.71</v>
       </c>
       <c r="AT115">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU115">
         <v>1.32</v>
@@ -23567,7 +23570,7 @@
         <v>162</v>
       </c>
       <c r="P118" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q118">
         <v>6</v>
@@ -23758,7 +23761,7 @@
         <v>163</v>
       </c>
       <c r="P119" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q119">
         <v>4</v>
@@ -23949,7 +23952,7 @@
         <v>80</v>
       </c>
       <c r="P120" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q120">
         <v>1</v>
@@ -24522,7 +24525,7 @@
         <v>165</v>
       </c>
       <c r="P123" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q123">
         <v>5</v>
@@ -24609,7 +24612,7 @@
         <v>0.7</v>
       </c>
       <c r="AS123">
-        <v>2.85</v>
+        <v>2.86</v>
       </c>
       <c r="AT123">
         <v>0.71</v>
@@ -24904,7 +24907,7 @@
         <v>80</v>
       </c>
       <c r="P125" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q125">
         <v>6</v>
@@ -25095,7 +25098,7 @@
         <v>154</v>
       </c>
       <c r="P126" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q126">
         <v>0</v>
@@ -25286,7 +25289,7 @@
         <v>80</v>
       </c>
       <c r="P127" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q127">
         <v>1</v>
@@ -25477,7 +25480,7 @@
         <v>166</v>
       </c>
       <c r="P128" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q128">
         <v>9</v>
@@ -26328,10 +26331,10 @@
         <v>1.6</v>
       </c>
       <c r="AS132">
-        <v>2.85</v>
+        <v>2.86</v>
       </c>
       <c r="AT132">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU132">
         <v>2.61</v>
@@ -26432,7 +26435,7 @@
         <v>171</v>
       </c>
       <c r="P133" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q133">
         <v>7</v>
@@ -26623,7 +26626,7 @@
         <v>172</v>
       </c>
       <c r="P134" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q134">
         <v>2</v>
@@ -27769,7 +27772,7 @@
         <v>177</v>
       </c>
       <c r="P140" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q140">
         <v>6</v>
@@ -27960,7 +27963,7 @@
         <v>80</v>
       </c>
       <c r="P141" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q141">
         <v>-1</v>
@@ -28151,7 +28154,7 @@
         <v>178</v>
       </c>
       <c r="P142" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q142">
         <v>4</v>
@@ -28342,7 +28345,7 @@
         <v>179</v>
       </c>
       <c r="P143" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q143">
         <v>9</v>
@@ -28620,7 +28623,7 @@
         <v>1.45</v>
       </c>
       <c r="AS144">
-        <v>2.85</v>
+        <v>2.86</v>
       </c>
       <c r="AT144">
         <v>1.31</v>
@@ -28814,7 +28817,7 @@
         <v>2.54</v>
       </c>
       <c r="AT145">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU145">
         <v>1.64</v>
@@ -28915,7 +28918,7 @@
         <v>182</v>
       </c>
       <c r="P146" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q146">
         <v>5</v>
@@ -29106,7 +29109,7 @@
         <v>183</v>
       </c>
       <c r="P147" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q147">
         <v>4</v>
@@ -29384,7 +29387,7 @@
         <v>1.58</v>
       </c>
       <c r="AS148">
-        <v>2.85</v>
+        <v>2.86</v>
       </c>
       <c r="AT148">
         <v>1.54</v>
@@ -29488,7 +29491,7 @@
         <v>185</v>
       </c>
       <c r="P149" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q149">
         <v>3</v>
@@ -29679,7 +29682,7 @@
         <v>186</v>
       </c>
       <c r="P150" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q150">
         <v>3</v>
@@ -29769,7 +29772,7 @@
         <v>1.62</v>
       </c>
       <c r="AT150">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU150">
         <v>1.26</v>
@@ -29870,7 +29873,7 @@
         <v>187</v>
       </c>
       <c r="P151" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q151">
         <v>4</v>
@@ -30252,7 +30255,7 @@
         <v>80</v>
       </c>
       <c r="P153" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q153">
         <v>4</v>
@@ -30967,6 +30970,197 @@
       </c>
       <c r="BK156">
         <v>6</v>
+      </c>
+    </row>
+    <row r="157" spans="1:63">
+      <c r="A157" s="1">
+        <v>156</v>
+      </c>
+      <c r="B157">
+        <v>5170273</v>
+      </c>
+      <c r="C157" t="s">
+        <v>63</v>
+      </c>
+      <c r="D157" t="s">
+        <v>64</v>
+      </c>
+      <c r="E157" s="2">
+        <v>44998.6875</v>
+      </c>
+      <c r="F157">
+        <v>4</v>
+      </c>
+      <c r="G157" t="s">
+        <v>72</v>
+      </c>
+      <c r="H157" t="s">
+        <v>74</v>
+      </c>
+      <c r="I157">
+        <v>1</v>
+      </c>
+      <c r="J157">
+        <v>1</v>
+      </c>
+      <c r="K157">
+        <v>2</v>
+      </c>
+      <c r="L157">
+        <v>2</v>
+      </c>
+      <c r="M157">
+        <v>1</v>
+      </c>
+      <c r="N157">
+        <v>3</v>
+      </c>
+      <c r="O157" t="s">
+        <v>191</v>
+      </c>
+      <c r="P157" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q157">
+        <v>12</v>
+      </c>
+      <c r="R157">
+        <v>1</v>
+      </c>
+      <c r="S157">
+        <v>13</v>
+      </c>
+      <c r="T157">
+        <v>1.68</v>
+      </c>
+      <c r="U157">
+        <v>2.6</v>
+      </c>
+      <c r="V157">
+        <v>7.25</v>
+      </c>
+      <c r="W157">
+        <v>1.26</v>
+      </c>
+      <c r="X157">
+        <v>3.5</v>
+      </c>
+      <c r="Y157">
+        <v>2.2</v>
+      </c>
+      <c r="Z157">
+        <v>1.58</v>
+      </c>
+      <c r="AA157">
+        <v>5</v>
+      </c>
+      <c r="AB157">
+        <v>1.15</v>
+      </c>
+      <c r="AC157">
+        <v>1.26</v>
+      </c>
+      <c r="AD157">
+        <v>5.8</v>
+      </c>
+      <c r="AE157">
+        <v>9.6</v>
+      </c>
+      <c r="AF157">
+        <v>1.02</v>
+      </c>
+      <c r="AG157">
+        <v>21</v>
+      </c>
+      <c r="AH157">
+        <v>1.16</v>
+      </c>
+      <c r="AI157">
+        <v>4.75</v>
+      </c>
+      <c r="AJ157">
+        <v>1.47</v>
+      </c>
+      <c r="AK157">
+        <v>2.39</v>
+      </c>
+      <c r="AL157">
+        <v>1.95</v>
+      </c>
+      <c r="AM157">
+        <v>1.73</v>
+      </c>
+      <c r="AN157">
+        <v>1.06</v>
+      </c>
+      <c r="AO157">
+        <v>1.13</v>
+      </c>
+      <c r="AP157">
+        <v>3.7</v>
+      </c>
+      <c r="AQ157">
+        <v>2.85</v>
+      </c>
+      <c r="AR157">
+        <v>1.31</v>
+      </c>
+      <c r="AS157">
+        <v>2.86</v>
+      </c>
+      <c r="AT157">
+        <v>1.21</v>
+      </c>
+      <c r="AU157">
+        <v>2.61</v>
+      </c>
+      <c r="AV157">
+        <v>1.75</v>
+      </c>
+      <c r="AW157">
+        <v>4.36</v>
+      </c>
+      <c r="AX157">
+        <v>1.12</v>
+      </c>
+      <c r="AY157">
+        <v>13.75</v>
+      </c>
+      <c r="AZ157">
+        <v>6.65</v>
+      </c>
+      <c r="BA157">
+        <v>1.26</v>
+      </c>
+      <c r="BB157">
+        <v>1.49</v>
+      </c>
+      <c r="BC157">
+        <v>1.86</v>
+      </c>
+      <c r="BD157">
+        <v>2.45</v>
+      </c>
+      <c r="BE157">
+        <v>3.35</v>
+      </c>
+      <c r="BF157">
+        <v>14</v>
+      </c>
+      <c r="BG157">
+        <v>6</v>
+      </c>
+      <c r="BH157">
+        <v>12</v>
+      </c>
+      <c r="BI157">
+        <v>4</v>
+      </c>
+      <c r="BJ157">
+        <v>26</v>
+      </c>
+      <c r="BK157">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Wales Welsh Premier League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Wales Welsh Premier League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK157"/>
+  <dimension ref="A1:BK163"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,7 +903,7 @@
         <v>0.08</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.54</v>
+        <v>0.71</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT4" t="n">
         <v>0.77</v>
@@ -1509,10 +1509,10 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AT5" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>2.54</v>
+        <v>2.43</v>
       </c>
       <c r="AT8" t="n">
         <v>0</v>
@@ -2321,7 +2321,7 @@
         <v>3</v>
       </c>
       <c r="AS9" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AT9" t="n">
         <v>0.85</v>
@@ -2527,7 +2527,7 @@
         <v>2.86</v>
       </c>
       <c r="AT10" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -2727,10 +2727,10 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AT11" t="n">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -2930,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AT12" t="n">
         <v>0.71</v>
@@ -3136,7 +3136,7 @@
         <v>1.46</v>
       </c>
       <c r="AT13" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -3336,7 +3336,7 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AT14" t="n">
         <v>1.31</v>
@@ -3742,10 +3742,10 @@
         <v>3</v>
       </c>
       <c r="AS16" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AT16" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AU16" t="n">
         <v>1.64</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT17" t="n">
         <v>0</v>
@@ -4354,7 +4354,7 @@
         <v>1.71</v>
       </c>
       <c r="AT19" t="n">
-        <v>0.54</v>
+        <v>0.71</v>
       </c>
       <c r="AU19" t="n">
         <v>1.01</v>
@@ -4757,7 +4757,7 @@
         <v>0</v>
       </c>
       <c r="AS21" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AT21" t="n">
         <v>0.77</v>
@@ -5166,7 +5166,7 @@
         <v>2.23</v>
       </c>
       <c r="AT23" t="n">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="AU23" t="n">
         <v>1.94</v>
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="AS24" t="n">
-        <v>2.54</v>
+        <v>2.43</v>
       </c>
       <c r="AT24" t="n">
         <v>1.21</v>
@@ -5572,7 +5572,7 @@
         <v>1.46</v>
       </c>
       <c r="AT25" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="AU25" t="n">
         <v>0.36</v>
@@ -5772,7 +5772,7 @@
         <v>0</v>
       </c>
       <c r="AS26" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AT26" t="n">
         <v>0</v>
@@ -6381,10 +6381,10 @@
         <v>0</v>
       </c>
       <c r="AS29" t="n">
-        <v>2.54</v>
+        <v>2.43</v>
       </c>
       <c r="AT29" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AU29" t="n">
         <v>1.49</v>
@@ -6584,7 +6584,7 @@
         <v>0</v>
       </c>
       <c r="AS30" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT30" t="n">
         <v>1.31</v>
@@ -6790,7 +6790,7 @@
         <v>1.71</v>
       </c>
       <c r="AT31" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="AU31" t="n">
         <v>1.33</v>
@@ -7193,7 +7193,7 @@
         <v>0.5</v>
       </c>
       <c r="AS33" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AT33" t="n">
         <v>0.71</v>
@@ -7599,7 +7599,7 @@
         <v>1</v>
       </c>
       <c r="AS35" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AT35" t="n">
         <v>1.21</v>
@@ -7805,7 +7805,7 @@
         <v>2.23</v>
       </c>
       <c r="AT36" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="AU36" t="n">
         <v>1.89</v>
@@ -8005,10 +8005,10 @@
         <v>0</v>
       </c>
       <c r="AS37" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AT37" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AU37" t="n">
         <v>1.19</v>
@@ -8414,7 +8414,7 @@
         <v>2.08</v>
       </c>
       <c r="AT39" t="n">
-        <v>0.54</v>
+        <v>0.71</v>
       </c>
       <c r="AU39" t="n">
         <v>1.87</v>
@@ -8614,7 +8614,7 @@
         <v>1.8</v>
       </c>
       <c r="AS40" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT40" t="n">
         <v>0.85</v>
@@ -8817,10 +8817,10 @@
         <v>1.5</v>
       </c>
       <c r="AS41" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AT41" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AU41" t="n">
         <v>1.16</v>
@@ -9020,10 +9020,10 @@
         <v>0</v>
       </c>
       <c r="AS42" t="n">
-        <v>2.54</v>
+        <v>2.43</v>
       </c>
       <c r="AT42" t="n">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="AU42" t="n">
         <v>1.62</v>
@@ -9429,7 +9429,7 @@
         <v>2.08</v>
       </c>
       <c r="AT44" t="n">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="AU44" t="n">
         <v>1.89</v>
@@ -9629,7 +9629,7 @@
         <v>1</v>
       </c>
       <c r="AS45" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AT45" t="n">
         <v>1.21</v>
@@ -9832,10 +9832,10 @@
         <v>1</v>
       </c>
       <c r="AS46" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT46" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AU46" t="n">
         <v>1.79</v>
@@ -10035,7 +10035,7 @@
         <v>0</v>
       </c>
       <c r="AS47" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AT47" t="n">
         <v>1.31</v>
@@ -11053,7 +11053,7 @@
         <v>2.23</v>
       </c>
       <c r="AT52" t="n">
-        <v>0.54</v>
+        <v>0.71</v>
       </c>
       <c r="AU52" t="n">
         <v>1.55</v>
@@ -11253,10 +11253,10 @@
         <v>1</v>
       </c>
       <c r="AS53" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AT53" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AU53" t="n">
         <v>1.04</v>
@@ -11456,7 +11456,7 @@
         <v>0.33</v>
       </c>
       <c r="AS54" t="n">
-        <v>2.54</v>
+        <v>2.43</v>
       </c>
       <c r="AT54" t="n">
         <v>0.71</v>
@@ -11659,7 +11659,7 @@
         <v>1.43</v>
       </c>
       <c r="AS55" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AT55" t="n">
         <v>0.85</v>
@@ -12268,10 +12268,10 @@
         <v>2.5</v>
       </c>
       <c r="AS58" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AT58" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="AU58" t="n">
         <v>1.18</v>
@@ -12471,10 +12471,10 @@
         <v>0.75</v>
       </c>
       <c r="AS59" t="n">
-        <v>2.54</v>
+        <v>2.43</v>
       </c>
       <c r="AT59" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AU59" t="n">
         <v>1.59</v>
@@ -12677,7 +12677,7 @@
         <v>0.08</v>
       </c>
       <c r="AT60" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AU60" t="n">
         <v>1.28</v>
@@ -12877,10 +12877,10 @@
         <v>0.75</v>
       </c>
       <c r="AS61" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AT61" t="n">
-        <v>0.54</v>
+        <v>0.71</v>
       </c>
       <c r="AU61" t="n">
         <v>1.51</v>
@@ -13080,10 +13080,10 @@
         <v>0.6</v>
       </c>
       <c r="AS62" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AT62" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AU62" t="n">
         <v>1.17</v>
@@ -13283,7 +13283,7 @@
         <v>1.67</v>
       </c>
       <c r="AS63" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT63" t="n">
         <v>1.21</v>
@@ -13692,7 +13692,7 @@
         <v>2.86</v>
       </c>
       <c r="AT65" t="n">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="AU65" t="n">
         <v>2.08</v>
@@ -13892,7 +13892,7 @@
         <v>0</v>
       </c>
       <c r="AS66" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AT66" t="n">
         <v>0</v>
@@ -14298,7 +14298,7 @@
         <v>1.4</v>
       </c>
       <c r="AS68" t="n">
-        <v>2.54</v>
+        <v>2.43</v>
       </c>
       <c r="AT68" t="n">
         <v>1.31</v>
@@ -14704,10 +14704,10 @@
         <v>2.6</v>
       </c>
       <c r="AS70" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT70" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="AU70" t="n">
         <v>1.49</v>
@@ -15110,10 +15110,10 @@
         <v>1.4</v>
       </c>
       <c r="AS72" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AT72" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AU72" t="n">
         <v>1.02</v>
@@ -15316,7 +15316,7 @@
         <v>0.08</v>
       </c>
       <c r="AT73" t="n">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="AU73" t="n">
         <v>1.12</v>
@@ -15516,10 +15516,10 @@
         <v>0.6</v>
       </c>
       <c r="AS74" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AT74" t="n">
-        <v>0.54</v>
+        <v>0.71</v>
       </c>
       <c r="AU74" t="n">
         <v>1.06</v>
@@ -15719,7 +15719,7 @@
         <v>0</v>
       </c>
       <c r="AS75" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AT75" t="n">
         <v>0</v>
@@ -15922,10 +15922,10 @@
         <v>1.33</v>
       </c>
       <c r="AS76" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AT76" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AU76" t="n">
         <v>1.52</v>
@@ -16125,7 +16125,7 @@
         <v>0.2</v>
       </c>
       <c r="AS77" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AT77" t="n">
         <v>0.71</v>
@@ -16331,7 +16331,7 @@
         <v>2.86</v>
       </c>
       <c r="AT78" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AU78" t="n">
         <v>2.19</v>
@@ -16734,7 +16734,7 @@
         <v>0.6</v>
       </c>
       <c r="AS80" t="n">
-        <v>2.54</v>
+        <v>2.43</v>
       </c>
       <c r="AT80" t="n">
         <v>0.77</v>
@@ -16940,7 +16940,7 @@
         <v>1.46</v>
       </c>
       <c r="AT81" t="n">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="AU81" t="n">
         <v>1</v>
@@ -17343,7 +17343,7 @@
         <v>1.17</v>
       </c>
       <c r="AS83" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AT83" t="n">
         <v>1.31</v>
@@ -17752,7 +17752,7 @@
         <v>2.08</v>
       </c>
       <c r="AT85" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="AU85" t="n">
         <v>1.75</v>
@@ -17955,7 +17955,7 @@
         <v>1.71</v>
       </c>
       <c r="AT86" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AU86" t="n">
         <v>1.41</v>
@@ -18155,10 +18155,10 @@
         <v>1.57</v>
       </c>
       <c r="AS87" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT87" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AU87" t="n">
         <v>1.45</v>
@@ -18358,7 +18358,7 @@
         <v>1.43</v>
       </c>
       <c r="AS88" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AT88" t="n">
         <v>1.31</v>
@@ -18764,7 +18764,7 @@
         <v>1.11</v>
       </c>
       <c r="AS90" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AT90" t="n">
         <v>0.85</v>
@@ -18970,7 +18970,7 @@
         <v>2.86</v>
       </c>
       <c r="AT91" t="n">
-        <v>0.54</v>
+        <v>0.71</v>
       </c>
       <c r="AU91" t="n">
         <v>2.27</v>
@@ -19170,10 +19170,10 @@
         <v>1.13</v>
       </c>
       <c r="AS92" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AT92" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AU92" t="n">
         <v>1.2</v>
@@ -19373,7 +19373,7 @@
         <v>1</v>
       </c>
       <c r="AS93" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AT93" t="n">
         <v>0.71</v>
@@ -19576,10 +19576,10 @@
         <v>0.57</v>
       </c>
       <c r="AS94" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AT94" t="n">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="AU94" t="n">
         <v>1.12</v>
@@ -19982,10 +19982,10 @@
         <v>0.43</v>
       </c>
       <c r="AS96" t="n">
-        <v>2.54</v>
+        <v>2.43</v>
       </c>
       <c r="AT96" t="n">
-        <v>0.54</v>
+        <v>0.71</v>
       </c>
       <c r="AU96" t="n">
         <v>1.63</v>
@@ -20391,7 +20391,7 @@
         <v>1.71</v>
       </c>
       <c r="AT98" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AU98" t="n">
         <v>1.35</v>
@@ -20591,10 +20591,10 @@
         <v>0.38</v>
       </c>
       <c r="AS99" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT99" t="n">
-        <v>0.54</v>
+        <v>0.71</v>
       </c>
       <c r="AU99" t="n">
         <v>1.41</v>
@@ -20794,7 +20794,7 @@
         <v>0.67</v>
       </c>
       <c r="AS100" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AT100" t="n">
         <v>0.77</v>
@@ -20997,10 +20997,10 @@
         <v>2.43</v>
       </c>
       <c r="AS101" t="n">
-        <v>2.54</v>
+        <v>2.43</v>
       </c>
       <c r="AT101" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="AU101" t="n">
         <v>1.71</v>
@@ -21200,7 +21200,7 @@
         <v>0</v>
       </c>
       <c r="AS102" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AT102" t="n">
         <v>0</v>
@@ -21403,7 +21403,7 @@
         <v>1.63</v>
       </c>
       <c r="AS103" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AT103" t="n">
         <v>1.21</v>
@@ -22218,7 +22218,7 @@
         <v>2.08</v>
       </c>
       <c r="AT107" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AU107" t="n">
         <v>1.6</v>
@@ -22418,7 +22418,7 @@
         <v>1</v>
       </c>
       <c r="AS108" t="n">
-        <v>2.54</v>
+        <v>2.43</v>
       </c>
       <c r="AT108" t="n">
         <v>0.85</v>
@@ -22621,10 +22621,10 @@
         <v>0.33</v>
       </c>
       <c r="AS109" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AT109" t="n">
-        <v>0.54</v>
+        <v>0.71</v>
       </c>
       <c r="AU109" t="n">
         <v>1.18</v>
@@ -22824,7 +22824,7 @@
         <v>0.57</v>
       </c>
       <c r="AS110" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AT110" t="n">
         <v>0.77</v>
@@ -23030,7 +23030,7 @@
         <v>2.23</v>
       </c>
       <c r="AT111" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AU111" t="n">
         <v>1.38</v>
@@ -23233,7 +23233,7 @@
         <v>0.08</v>
       </c>
       <c r="AT112" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="AU112" t="n">
         <v>1.11</v>
@@ -23433,7 +23433,7 @@
         <v>1.71</v>
       </c>
       <c r="AS113" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AT113" t="n">
         <v>1.31</v>
@@ -23636,10 +23636,10 @@
         <v>0.5</v>
       </c>
       <c r="AS114" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT114" t="n">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="AU114" t="n">
         <v>1.46</v>
@@ -24245,10 +24245,10 @@
         <v>2.33</v>
       </c>
       <c r="AS117" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AT117" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="AU117" t="n">
         <v>1.4</v>
@@ -24448,10 +24448,10 @@
         <v>0.3</v>
       </c>
       <c r="AS118" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AT118" t="n">
-        <v>0.54</v>
+        <v>0.71</v>
       </c>
       <c r="AU118" t="n">
         <v>1.22</v>
@@ -24857,7 +24857,7 @@
         <v>0.08</v>
       </c>
       <c r="AT120" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AU120" t="n">
         <v>1.03</v>
@@ -25057,10 +25057,10 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS121" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AT121" t="n">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="AU121" t="n">
         <v>1.32</v>
@@ -25260,7 +25260,7 @@
         <v>1.63</v>
       </c>
       <c r="AS122" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AT122" t="n">
         <v>1.31</v>
@@ -25666,7 +25666,7 @@
         <v>1.56</v>
       </c>
       <c r="AS124" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AT124" t="n">
         <v>1.31</v>
@@ -26072,10 +26072,10 @@
         <v>2.4</v>
       </c>
       <c r="AS126" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AT126" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="AU126" t="n">
         <v>1.25</v>
@@ -26278,7 +26278,7 @@
         <v>1.46</v>
       </c>
       <c r="AT127" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AU127" t="n">
         <v>1.02</v>
@@ -26884,10 +26884,10 @@
         <v>0.5</v>
       </c>
       <c r="AS130" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AT130" t="n">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="AU130" t="n">
         <v>1.18</v>
@@ -27493,7 +27493,7 @@
         <v>1.5</v>
       </c>
       <c r="AS133" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT133" t="n">
         <v>1.31</v>
@@ -27699,7 +27699,7 @@
         <v>2.23</v>
       </c>
       <c r="AT134" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="AU134" t="n">
         <v>1.34</v>
@@ -27899,10 +27899,10 @@
         <v>1.64</v>
       </c>
       <c r="AS135" t="n">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AT135" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AU135" t="n">
         <v>1.27</v>
@@ -28102,7 +28102,7 @@
         <v>1.36</v>
       </c>
       <c r="AS136" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AT136" t="n">
         <v>1.31</v>
@@ -28305,7 +28305,7 @@
         <v>0.64</v>
       </c>
       <c r="AS137" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AT137" t="n">
         <v>0.71</v>
@@ -28508,10 +28508,10 @@
         <v>0.36</v>
       </c>
       <c r="AS138" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AT138" t="n">
-        <v>0.54</v>
+        <v>0.71</v>
       </c>
       <c r="AU138" t="n">
         <v>1.23</v>
@@ -28917,7 +28917,7 @@
         <v>2.08</v>
       </c>
       <c r="AT140" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AU140" t="n">
         <v>1.61</v>
@@ -29323,7 +29323,7 @@
         <v>1.46</v>
       </c>
       <c r="AT142" t="n">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="AU142" t="n">
         <v>1.07</v>
@@ -29523,7 +29523,7 @@
         <v>0.91</v>
       </c>
       <c r="AS143" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AT143" t="n">
         <v>0.85</v>
@@ -29929,7 +29929,7 @@
         <v>1.45</v>
       </c>
       <c r="AS145" t="n">
-        <v>2.54</v>
+        <v>2.43</v>
       </c>
       <c r="AT145" t="n">
         <v>1.21</v>
@@ -30135,7 +30135,7 @@
         <v>0.08</v>
       </c>
       <c r="AT146" t="n">
-        <v>0.54</v>
+        <v>0.71</v>
       </c>
       <c r="AU146" t="n">
         <v>1.1</v>
@@ -30335,7 +30335,7 @@
         <v>0.83</v>
       </c>
       <c r="AS147" t="n">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AT147" t="n">
         <v>0.85</v>
@@ -30541,7 +30541,7 @@
         <v>2.86</v>
       </c>
       <c r="AT148" t="n">
-        <v>1.54</v>
+        <v>1.64</v>
       </c>
       <c r="AU148" t="n">
         <v>2.69</v>
@@ -30741,10 +30741,10 @@
         <v>1.33</v>
       </c>
       <c r="AS149" t="n">
-        <v>2.54</v>
+        <v>2.43</v>
       </c>
       <c r="AT149" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AU149" t="n">
         <v>1.57</v>
@@ -30944,7 +30944,7 @@
         <v>1.42</v>
       </c>
       <c r="AS150" t="n">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AT150" t="n">
         <v>1.21</v>
@@ -31959,7 +31959,7 @@
         <v>0</v>
       </c>
       <c r="AS155" t="n">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="AT155" t="n">
         <v>0</v>
@@ -32420,6 +32420,1224 @@
       </c>
       <c r="BK157" t="n">
         <v>10</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B158" t="n">
+        <v>5170249</v>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>Wales Welsh Premier League</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E158" s="2" t="n">
+        <v>45002.69791666666</v>
+      </c>
+      <c r="F158" t="n">
+        <v>5</v>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>Connah's Quay</t>
+        </is>
+      </c>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>The New Saints</t>
+        </is>
+      </c>
+      <c r="I158" t="n">
+        <v>0</v>
+      </c>
+      <c r="J158" t="n">
+        <v>0</v>
+      </c>
+      <c r="K158" t="n">
+        <v>0</v>
+      </c>
+      <c r="L158" t="n">
+        <v>0</v>
+      </c>
+      <c r="M158" t="n">
+        <v>0</v>
+      </c>
+      <c r="N158" t="n">
+        <v>0</v>
+      </c>
+      <c r="O158" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P158" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q158" t="n">
+        <v>3</v>
+      </c>
+      <c r="R158" t="n">
+        <v>10</v>
+      </c>
+      <c r="S158" t="n">
+        <v>13</v>
+      </c>
+      <c r="T158" t="n">
+        <v>5</v>
+      </c>
+      <c r="U158" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V158" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="W158" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X158" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y158" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Z158" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA158" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB158" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC158" t="n">
+        <v>4.46</v>
+      </c>
+      <c r="AD158" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="AE158" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AF158" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG158" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AH158" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI158" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AJ158" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AK158" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AL158" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AM158" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN158" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AO158" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP158" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AQ158" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="AR158" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AS158" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AT158" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AU158" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AV158" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AW158" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="AX158" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY158" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ158" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA158" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB158" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BC158" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="BD158" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BE158" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BF158" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG158" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH158" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI158" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ158" t="n">
+        <v>4</v>
+      </c>
+      <c r="BK158" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B159" t="n">
+        <v>5170250</v>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>Wales Welsh Premier League</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E159" s="2" t="n">
+        <v>45002.69791666666</v>
+      </c>
+      <c r="F159" t="n">
+        <v>5</v>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>Caernarfon Town</t>
+        </is>
+      </c>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>Aberystwyth Town</t>
+        </is>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="n">
+        <v>1</v>
+      </c>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="n">
+        <v>0</v>
+      </c>
+      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+      <c r="N159" t="n">
+        <v>1</v>
+      </c>
+      <c r="O159" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P159" t="inlineStr">
+        <is>
+          <t>['41']</t>
+        </is>
+      </c>
+      <c r="Q159" t="n">
+        <v>4</v>
+      </c>
+      <c r="R159" t="n">
+        <v>7</v>
+      </c>
+      <c r="S159" t="n">
+        <v>11</v>
+      </c>
+      <c r="T159" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="U159" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V159" t="n">
+        <v>4.72</v>
+      </c>
+      <c r="W159" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X159" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y159" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Z159" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA159" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB159" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC159" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AD159" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AE159" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AF159" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG159" t="n">
+        <v>14.75</v>
+      </c>
+      <c r="AH159" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI159" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AJ159" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AK159" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AL159" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AM159" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN159" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AO159" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP159" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AQ159" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AR159" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="AS159" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AT159" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AU159" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AV159" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AW159" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AX159" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY159" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ159" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA159" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB159" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC159" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD159" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE159" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF159" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG159" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH159" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI159" t="n">
+        <v>11</v>
+      </c>
+      <c r="BJ159" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK159" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B160" t="n">
+        <v>5170251</v>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>Wales Welsh Premier League</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E160" s="2" t="n">
+        <v>45003.47916666666</v>
+      </c>
+      <c r="F160" t="n">
+        <v>5</v>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>Bala Town</t>
+        </is>
+      </c>
+      <c r="H160" t="inlineStr">
+        <is>
+          <t>Cardiff MU</t>
+        </is>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="n">
+        <v>0</v>
+      </c>
+      <c r="K160" t="n">
+        <v>0</v>
+      </c>
+      <c r="L160" t="n">
+        <v>0</v>
+      </c>
+      <c r="M160" t="n">
+        <v>0</v>
+      </c>
+      <c r="N160" t="n">
+        <v>0</v>
+      </c>
+      <c r="O160" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P160" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q160" t="n">
+        <v>3</v>
+      </c>
+      <c r="R160" t="n">
+        <v>7</v>
+      </c>
+      <c r="S160" t="n">
+        <v>10</v>
+      </c>
+      <c r="T160" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="U160" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V160" t="n">
+        <v>4</v>
+      </c>
+      <c r="W160" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="X160" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="Y160" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z160" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AA160" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB160" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC160" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AD160" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE160" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AF160" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG160" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AH160" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AI160" t="n">
+        <v>3.97</v>
+      </c>
+      <c r="AJ160" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AK160" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AL160" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AM160" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AN160" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO160" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP160" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AQ160" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AR160" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AS160" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT160" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AU160" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AV160" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AW160" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="AX160" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY160" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ160" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA160" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BB160" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BC160" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="BD160" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE160" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF160" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG160" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH160" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI160" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ160" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK160" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B161" t="n">
+        <v>5170252</v>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>Wales Welsh Premier League</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E161" s="2" t="n">
+        <v>45003.47916666666</v>
+      </c>
+      <c r="F161" t="n">
+        <v>5</v>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>Newtown</t>
+        </is>
+      </c>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t>Penybont</t>
+        </is>
+      </c>
+      <c r="I161" t="n">
+        <v>0</v>
+      </c>
+      <c r="J161" t="n">
+        <v>0</v>
+      </c>
+      <c r="K161" t="n">
+        <v>0</v>
+      </c>
+      <c r="L161" t="n">
+        <v>0</v>
+      </c>
+      <c r="M161" t="n">
+        <v>1</v>
+      </c>
+      <c r="N161" t="n">
+        <v>1</v>
+      </c>
+      <c r="O161" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P161" t="inlineStr">
+        <is>
+          <t>['59']</t>
+        </is>
+      </c>
+      <c r="Q161" t="n">
+        <v>3</v>
+      </c>
+      <c r="R161" t="n">
+        <v>4</v>
+      </c>
+      <c r="S161" t="n">
+        <v>7</v>
+      </c>
+      <c r="T161" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="U161" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V161" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W161" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="X161" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="Y161" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z161" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AA161" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB161" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC161" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AD161" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE161" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AF161" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG161" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AH161" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AI161" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="AJ161" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AK161" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AL161" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AM161" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AN161" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AO161" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP161" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AQ161" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AR161" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AS161" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT161" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AU161" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AV161" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AW161" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AX161" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY161" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ161" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA161" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BB161" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BC161" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="BD161" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="BE161" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="BF161" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG161" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH161" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI161" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ161" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK161" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B162" t="n">
+        <v>5170253</v>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>Wales Welsh Premier League</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E162" s="2" t="n">
+        <v>45003.47916666666</v>
+      </c>
+      <c r="F162" t="n">
+        <v>5</v>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>Flint Town United</t>
+        </is>
+      </c>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t>Pontypridd Town AFC</t>
+        </is>
+      </c>
+      <c r="I162" t="n">
+        <v>0</v>
+      </c>
+      <c r="J162" t="n">
+        <v>0</v>
+      </c>
+      <c r="K162" t="n">
+        <v>0</v>
+      </c>
+      <c r="L162" t="n">
+        <v>0</v>
+      </c>
+      <c r="M162" t="n">
+        <v>0</v>
+      </c>
+      <c r="N162" t="n">
+        <v>0</v>
+      </c>
+      <c r="O162" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P162" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q162" t="n">
+        <v>5</v>
+      </c>
+      <c r="R162" t="n">
+        <v>0</v>
+      </c>
+      <c r="S162" t="n">
+        <v>5</v>
+      </c>
+      <c r="T162" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="U162" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V162" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W162" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="X162" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="Y162" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z162" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AA162" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB162" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC162" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD162" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AE162" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AF162" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG162" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AH162" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AI162" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="AJ162" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AK162" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="AL162" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AM162" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AN162" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AO162" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP162" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AQ162" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AR162" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AS162" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT162" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="AU162" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AV162" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AW162" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AX162" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY162" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ162" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA162" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BB162" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="BC162" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="BD162" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="BE162" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF162" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG162" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH162" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI162" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ162" t="n">
+        <v>2</v>
+      </c>
+      <c r="BK162" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B163" t="n">
+        <v>5170254</v>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>Wales Welsh Premier League</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E163" s="2" t="n">
+        <v>45003.47916666666</v>
+      </c>
+      <c r="F163" t="n">
+        <v>5</v>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>Haverfordwest County</t>
+        </is>
+      </c>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>Airbus UK</t>
+        </is>
+      </c>
+      <c r="I163" t="n">
+        <v>1</v>
+      </c>
+      <c r="J163" t="n">
+        <v>0</v>
+      </c>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="n">
+        <v>3</v>
+      </c>
+      <c r="M163" t="n">
+        <v>0</v>
+      </c>
+      <c r="N163" t="n">
+        <v>3</v>
+      </c>
+      <c r="O163" t="inlineStr">
+        <is>
+          <t>['33', '63', '74']</t>
+        </is>
+      </c>
+      <c r="P163" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q163" t="n">
+        <v>9</v>
+      </c>
+      <c r="R163" t="n">
+        <v>2</v>
+      </c>
+      <c r="S163" t="n">
+        <v>11</v>
+      </c>
+      <c r="T163" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="U163" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="V163" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="W163" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="X163" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="Y163" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="Z163" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AA163" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="AB163" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AC163" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD163" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="AE163" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="AF163" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG163" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="AH163" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AI163" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AJ163" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AK163" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="AL163" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AM163" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AN163" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO163" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AP163" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AQ163" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AR163" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS163" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT163" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU163" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AV163" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="AW163" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="AX163" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY163" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ163" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA163" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB163" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC163" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD163" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE163" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF163" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG163" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH163" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI163" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ163" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK163" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Wales Welsh Premier League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Wales Welsh Premier League_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1035" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1071" uniqueCount="276">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -595,6 +595,21 @@
     <t>['33', '63', '74', '88']</t>
   </si>
   <si>
+    <t>['50', '70']</t>
+  </si>
+  <si>
+    <t>['10', '71']</t>
+  </si>
+  <si>
+    <t>['90+3']</t>
+  </si>
+  <si>
+    <t>['8', '19', '25', '40', '58', '75', '89']</t>
+  </si>
+  <si>
+    <t>['4', '88']</t>
+  </si>
+  <si>
     <t>['40', '75']</t>
   </si>
   <si>
@@ -815,6 +830,18 @@
   </si>
   <si>
     <t>['59']</t>
+  </si>
+  <si>
+    <t>['12', '74']</t>
+  </si>
+  <si>
+    <t>['34', '42', '90+1']</t>
+  </si>
+  <si>
+    <t>['4']</t>
+  </si>
+  <si>
+    <t>['61', '77']</t>
   </si>
 </sst>
 </file>
@@ -1176,7 +1203,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK163"/>
+  <dimension ref="A1:BK169"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1420,7 +1447,7 @@
         <v>77</v>
       </c>
       <c r="P2" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="Q2">
         <v>5</v>
@@ -1507,7 +1534,7 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AT2">
         <v>0.71</v>
@@ -1889,10 +1916,10 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AT4">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -2184,7 +2211,7 @@
         <v>80</v>
       </c>
       <c r="P6" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="Q6">
         <v>6</v>
@@ -2274,7 +2301,7 @@
         <v>1.71</v>
       </c>
       <c r="AT6">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -2462,10 +2489,10 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AT7">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -2653,7 +2680,7 @@
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>2.43</v>
+        <v>2.47</v>
       </c>
       <c r="AT8">
         <v>0</v>
@@ -2757,7 +2784,7 @@
         <v>80</v>
       </c>
       <c r="P9" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="Q9">
         <v>11</v>
@@ -2847,7 +2874,7 @@
         <v>1.5</v>
       </c>
       <c r="AT9">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AU9">
         <v>0.51</v>
@@ -3035,7 +3062,7 @@
         <v>0</v>
       </c>
       <c r="AS10">
-        <v>2.86</v>
+        <v>2.87</v>
       </c>
       <c r="AT10">
         <v>1.64</v>
@@ -3229,7 +3256,7 @@
         <v>1.57</v>
       </c>
       <c r="AT11">
-        <v>0.54</v>
+        <v>0.71</v>
       </c>
       <c r="AU11">
         <v>0</v>
@@ -3521,7 +3548,7 @@
         <v>80</v>
       </c>
       <c r="P13" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="Q13">
         <v>2</v>
@@ -3608,10 +3635,10 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AT13">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AU13">
         <v>0</v>
@@ -3802,7 +3829,7 @@
         <v>2</v>
       </c>
       <c r="AT14">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU14">
         <v>0.86</v>
@@ -3990,7 +4017,7 @@
         <v>0</v>
       </c>
       <c r="AS15">
-        <v>2.86</v>
+        <v>2.87</v>
       </c>
       <c r="AT15">
         <v>1.31</v>
@@ -4094,7 +4121,7 @@
         <v>88</v>
       </c>
       <c r="P16" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="Q16">
         <v>3</v>
@@ -4184,7 +4211,7 @@
         <v>1.57</v>
       </c>
       <c r="AT16">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AU16">
         <v>1.64</v>
@@ -4372,7 +4399,7 @@
         <v>0</v>
       </c>
       <c r="AS17">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AT17">
         <v>0</v>
@@ -4476,7 +4503,7 @@
         <v>90</v>
       </c>
       <c r="P18" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="Q18">
         <v>5</v>
@@ -4563,10 +4590,10 @@
         <v>3</v>
       </c>
       <c r="AS18">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AT18">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AU18">
         <v>1.75</v>
@@ -4858,7 +4885,7 @@
         <v>92</v>
       </c>
       <c r="P20" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="Q20">
         <v>7</v>
@@ -4945,7 +4972,7 @@
         <v>1</v>
       </c>
       <c r="AS20">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AT20">
         <v>0.71</v>
@@ -5139,7 +5166,7 @@
         <v>1.5</v>
       </c>
       <c r="AT21">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AU21">
         <v>1.14</v>
@@ -5240,7 +5267,7 @@
         <v>94</v>
       </c>
       <c r="P22" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="Q22">
         <v>3</v>
@@ -5327,10 +5354,10 @@
         <v>2</v>
       </c>
       <c r="AS22">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AT22">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AU22">
         <v>1.58</v>
@@ -5521,7 +5548,7 @@
         <v>2.23</v>
       </c>
       <c r="AT23">
-        <v>0.54</v>
+        <v>0.71</v>
       </c>
       <c r="AU23">
         <v>1.94</v>
@@ -5709,10 +5736,10 @@
         <v>0</v>
       </c>
       <c r="AS24">
-        <v>2.43</v>
+        <v>2.47</v>
       </c>
       <c r="AT24">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AU24">
         <v>1.67</v>
@@ -5813,7 +5840,7 @@
         <v>80</v>
       </c>
       <c r="P25" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="Q25">
         <v>1</v>
@@ -5900,7 +5927,7 @@
         <v>1</v>
       </c>
       <c r="AS25">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AT25">
         <v>2.15</v>
@@ -6004,7 +6031,7 @@
         <v>97</v>
       </c>
       <c r="P26" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="Q26">
         <v>7</v>
@@ -6195,7 +6222,7 @@
         <v>98</v>
       </c>
       <c r="P27" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="Q27">
         <v>2</v>
@@ -6282,10 +6309,10 @@
         <v>0</v>
       </c>
       <c r="AS27">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AT27">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AU27">
         <v>0.36</v>
@@ -6476,7 +6503,7 @@
         <v>2.23</v>
       </c>
       <c r="AT28">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AU28">
         <v>1.94</v>
@@ -6664,7 +6691,7 @@
         <v>0</v>
       </c>
       <c r="AS29">
-        <v>2.43</v>
+        <v>2.47</v>
       </c>
       <c r="AT29">
         <v>1.64</v>
@@ -6768,7 +6795,7 @@
         <v>101</v>
       </c>
       <c r="P30" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="Q30">
         <v>7</v>
@@ -6855,10 +6882,10 @@
         <v>0</v>
       </c>
       <c r="AS30">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AT30">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU30">
         <v>2.4</v>
@@ -6959,7 +6986,7 @@
         <v>80</v>
       </c>
       <c r="P31" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="Q31">
         <v>1</v>
@@ -7150,7 +7177,7 @@
         <v>102</v>
       </c>
       <c r="P32" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="Q32">
         <v>1</v>
@@ -7237,7 +7264,7 @@
         <v>0</v>
       </c>
       <c r="AS32">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AT32">
         <v>1.31</v>
@@ -7341,7 +7368,7 @@
         <v>103</v>
       </c>
       <c r="P33" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="Q33">
         <v>7</v>
@@ -7723,7 +7750,7 @@
         <v>105</v>
       </c>
       <c r="P35" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="Q35">
         <v>3</v>
@@ -7813,7 +7840,7 @@
         <v>1.5</v>
       </c>
       <c r="AT35">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AU35">
         <v>0</v>
@@ -7914,7 +7941,7 @@
         <v>80</v>
       </c>
       <c r="P36" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="Q36">
         <v>1</v>
@@ -8105,7 +8132,7 @@
         <v>106</v>
       </c>
       <c r="P37" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="Q37">
         <v>6</v>
@@ -8296,7 +8323,7 @@
         <v>107</v>
       </c>
       <c r="P38" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="Q38">
         <v>6</v>
@@ -8383,10 +8410,10 @@
         <v>1.5</v>
       </c>
       <c r="AS38">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AT38">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU38">
         <v>1.47</v>
@@ -8574,7 +8601,7 @@
         <v>1.5</v>
       </c>
       <c r="AS39">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AT39">
         <v>0.71</v>
@@ -8678,7 +8705,7 @@
         <v>96</v>
       </c>
       <c r="P40" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="Q40">
         <v>7</v>
@@ -8765,10 +8792,10 @@
         <v>1.8</v>
       </c>
       <c r="AS40">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AT40">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AU40">
         <v>1.93</v>
@@ -8959,7 +8986,7 @@
         <v>2</v>
       </c>
       <c r="AT41">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AU41">
         <v>1.16</v>
@@ -9147,10 +9174,10 @@
         <v>0</v>
       </c>
       <c r="AS42">
-        <v>2.43</v>
+        <v>2.47</v>
       </c>
       <c r="AT42">
-        <v>0.54</v>
+        <v>0.71</v>
       </c>
       <c r="AU42">
         <v>1.62</v>
@@ -9251,7 +9278,7 @@
         <v>111</v>
       </c>
       <c r="P43" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="Q43">
         <v>8</v>
@@ -9338,10 +9365,10 @@
         <v>1.67</v>
       </c>
       <c r="AS43">
-        <v>2.86</v>
+        <v>2.87</v>
       </c>
       <c r="AT43">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AU43">
         <v>2.26</v>
@@ -9442,7 +9469,7 @@
         <v>112</v>
       </c>
       <c r="P44" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="Q44">
         <v>6</v>
@@ -9529,10 +9556,10 @@
         <v>0</v>
       </c>
       <c r="AS44">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AT44">
-        <v>0.54</v>
+        <v>0.71</v>
       </c>
       <c r="AU44">
         <v>1.89</v>
@@ -9633,7 +9660,7 @@
         <v>80</v>
       </c>
       <c r="P45" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="Q45">
         <v>4</v>
@@ -9723,7 +9750,7 @@
         <v>1.5</v>
       </c>
       <c r="AT45">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AU45">
         <v>1.26</v>
@@ -9911,10 +9938,10 @@
         <v>1</v>
       </c>
       <c r="AS46">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AT46">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AU46">
         <v>1.79</v>
@@ -10015,7 +10042,7 @@
         <v>80</v>
       </c>
       <c r="P47" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="Q47">
         <v>6</v>
@@ -10206,7 +10233,7 @@
         <v>114</v>
       </c>
       <c r="P48" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="Q48">
         <v>4</v>
@@ -10293,7 +10320,7 @@
         <v>0</v>
       </c>
       <c r="AS48">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AT48">
         <v>0</v>
@@ -10397,7 +10424,7 @@
         <v>115</v>
       </c>
       <c r="P49" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="Q49">
         <v>6</v>
@@ -10484,10 +10511,10 @@
         <v>1.33</v>
       </c>
       <c r="AS49">
-        <v>2.86</v>
+        <v>2.87</v>
       </c>
       <c r="AT49">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU49">
         <v>2.26</v>
@@ -10588,7 +10615,7 @@
         <v>80</v>
       </c>
       <c r="P50" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="Q50">
         <v>0</v>
@@ -10675,10 +10702,10 @@
         <v>1.4</v>
       </c>
       <c r="AS50">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AT50">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AU50">
         <v>1.52</v>
@@ -10869,7 +10896,7 @@
         <v>1.71</v>
       </c>
       <c r="AT51">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AU51">
         <v>1.44</v>
@@ -11161,7 +11188,7 @@
         <v>118</v>
       </c>
       <c r="P53" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="Q53">
         <v>4</v>
@@ -11439,7 +11466,7 @@
         <v>0.33</v>
       </c>
       <c r="AS54">
-        <v>2.43</v>
+        <v>2.47</v>
       </c>
       <c r="AT54">
         <v>0.71</v>
@@ -11633,7 +11660,7 @@
         <v>1.57</v>
       </c>
       <c r="AT55">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AU55">
         <v>1.46</v>
@@ -11734,7 +11761,7 @@
         <v>121</v>
       </c>
       <c r="P56" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="Q56">
         <v>4</v>
@@ -11824,7 +11851,7 @@
         <v>1.71</v>
       </c>
       <c r="AT56">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU56">
         <v>1.45</v>
@@ -12012,7 +12039,7 @@
         <v>0.25</v>
       </c>
       <c r="AS57">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AT57">
         <v>0.71</v>
@@ -12116,7 +12143,7 @@
         <v>80</v>
       </c>
       <c r="P58" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="Q58">
         <v>4</v>
@@ -12394,10 +12421,10 @@
         <v>0.75</v>
       </c>
       <c r="AS59">
-        <v>2.43</v>
+        <v>2.47</v>
       </c>
       <c r="AT59">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AU59">
         <v>1.59</v>
@@ -12498,7 +12525,7 @@
         <v>80</v>
       </c>
       <c r="P60" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="Q60">
         <v>2</v>
@@ -12585,7 +12612,7 @@
         <v>1</v>
       </c>
       <c r="AS60">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AT60">
         <v>1.64</v>
@@ -12880,7 +12907,7 @@
         <v>80</v>
       </c>
       <c r="P62" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="Q62">
         <v>5</v>
@@ -12970,7 +12997,7 @@
         <v>1.5</v>
       </c>
       <c r="AT62">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AU62">
         <v>1.17</v>
@@ -13071,7 +13098,7 @@
         <v>125</v>
       </c>
       <c r="P63" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="Q63">
         <v>9</v>
@@ -13158,10 +13185,10 @@
         <v>1.67</v>
       </c>
       <c r="AS63">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AT63">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AU63">
         <v>1.58</v>
@@ -13262,7 +13289,7 @@
         <v>80</v>
       </c>
       <c r="P64" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="Q64">
         <v>5</v>
@@ -13349,7 +13376,7 @@
         <v>0.75</v>
       </c>
       <c r="AS64">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AT64">
         <v>1.31</v>
@@ -13540,10 +13567,10 @@
         <v>0.25</v>
       </c>
       <c r="AS65">
-        <v>2.86</v>
+        <v>2.87</v>
       </c>
       <c r="AT65">
-        <v>0.54</v>
+        <v>0.71</v>
       </c>
       <c r="AU65">
         <v>2.08</v>
@@ -13922,10 +13949,10 @@
         <v>0</v>
       </c>
       <c r="AS67">
-        <v>2.86</v>
+        <v>2.87</v>
       </c>
       <c r="AT67">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AU67">
         <v>1.95</v>
@@ -14113,10 +14140,10 @@
         <v>1.4</v>
       </c>
       <c r="AS68">
-        <v>2.43</v>
+        <v>2.47</v>
       </c>
       <c r="AT68">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU68">
         <v>1.53</v>
@@ -14304,10 +14331,10 @@
         <v>1.25</v>
       </c>
       <c r="AS69">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AT69">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AU69">
         <v>0.91</v>
@@ -14408,7 +14435,7 @@
         <v>131</v>
       </c>
       <c r="P70" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="Q70">
         <v>2</v>
@@ -14495,7 +14522,7 @@
         <v>2.6</v>
       </c>
       <c r="AS70">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AT70">
         <v>2.15</v>
@@ -14599,7 +14626,7 @@
         <v>80</v>
       </c>
       <c r="P71" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="Q71">
         <v>4</v>
@@ -14689,7 +14716,7 @@
         <v>2.23</v>
       </c>
       <c r="AT71">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AU71">
         <v>1.5</v>
@@ -14981,7 +15008,7 @@
         <v>80</v>
       </c>
       <c r="P73" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="Q73">
         <v>2</v>
@@ -15068,10 +15095,10 @@
         <v>0.2</v>
       </c>
       <c r="AS73">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AT73">
-        <v>0.54</v>
+        <v>0.71</v>
       </c>
       <c r="AU73">
         <v>1.12</v>
@@ -15554,7 +15581,7 @@
         <v>80</v>
       </c>
       <c r="P76" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="Q76">
         <v>4</v>
@@ -15745,7 +15772,7 @@
         <v>80</v>
       </c>
       <c r="P77" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="Q77">
         <v>5</v>
@@ -16023,10 +16050,10 @@
         <v>1</v>
       </c>
       <c r="AS78">
-        <v>2.86</v>
+        <v>2.87</v>
       </c>
       <c r="AT78">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AU78">
         <v>2.19</v>
@@ -16127,7 +16154,7 @@
         <v>80</v>
       </c>
       <c r="P79" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="Q79">
         <v>2</v>
@@ -16318,7 +16345,7 @@
         <v>136</v>
       </c>
       <c r="P80" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="Q80">
         <v>8</v>
@@ -16405,10 +16432,10 @@
         <v>0.6</v>
       </c>
       <c r="AS80">
-        <v>2.43</v>
+        <v>2.47</v>
       </c>
       <c r="AT80">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AU80">
         <v>1.58</v>
@@ -16509,7 +16536,7 @@
         <v>137</v>
       </c>
       <c r="P81" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="Q81">
         <v>5</v>
@@ -16596,10 +16623,10 @@
         <v>0.67</v>
       </c>
       <c r="AS81">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AT81">
-        <v>0.54</v>
+        <v>0.71</v>
       </c>
       <c r="AU81">
         <v>1</v>
@@ -16700,7 +16727,7 @@
         <v>138</v>
       </c>
       <c r="P82" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="Q82">
         <v>7</v>
@@ -16787,7 +16814,7 @@
         <v>0.67</v>
       </c>
       <c r="AS82">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AT82">
         <v>0.71</v>
@@ -16891,7 +16918,7 @@
         <v>112</v>
       </c>
       <c r="P83" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="Q83">
         <v>9</v>
@@ -16981,7 +17008,7 @@
         <v>1.5</v>
       </c>
       <c r="AT83">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU83">
         <v>1.13</v>
@@ -17172,7 +17199,7 @@
         <v>2.23</v>
       </c>
       <c r="AT84">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AU84">
         <v>1.46</v>
@@ -17360,7 +17387,7 @@
         <v>2.67</v>
       </c>
       <c r="AS85">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AT85">
         <v>2.15</v>
@@ -17554,7 +17581,7 @@
         <v>1.71</v>
       </c>
       <c r="AT86">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AU86">
         <v>1.41</v>
@@ -17655,7 +17682,7 @@
         <v>140</v>
       </c>
       <c r="P87" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="Q87">
         <v>3</v>
@@ -17742,7 +17769,7 @@
         <v>1.57</v>
       </c>
       <c r="AS87">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AT87">
         <v>1.64</v>
@@ -17846,7 +17873,7 @@
         <v>141</v>
       </c>
       <c r="P88" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="Q88">
         <v>4</v>
@@ -17936,7 +17963,7 @@
         <v>1.57</v>
       </c>
       <c r="AT88">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU88">
         <v>1.52</v>
@@ -18037,7 +18064,7 @@
         <v>105</v>
       </c>
       <c r="P89" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="Q89">
         <v>7</v>
@@ -18124,7 +18151,7 @@
         <v>1.5</v>
       </c>
       <c r="AS89">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AT89">
         <v>1.31</v>
@@ -18318,7 +18345,7 @@
         <v>2</v>
       </c>
       <c r="AT90">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AU90">
         <v>1.15</v>
@@ -18506,7 +18533,7 @@
         <v>0.5</v>
       </c>
       <c r="AS91">
-        <v>2.86</v>
+        <v>2.87</v>
       </c>
       <c r="AT91">
         <v>0.71</v>
@@ -18700,7 +18727,7 @@
         <v>1.5</v>
       </c>
       <c r="AT92">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AU92">
         <v>1.2</v>
@@ -18992,7 +19019,7 @@
         <v>146</v>
       </c>
       <c r="P94" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="Q94">
         <v>0</v>
@@ -19082,7 +19109,7 @@
         <v>1.5</v>
       </c>
       <c r="AT94">
-        <v>0.54</v>
+        <v>0.71</v>
       </c>
       <c r="AU94">
         <v>1.12</v>
@@ -19461,7 +19488,7 @@
         <v>0.43</v>
       </c>
       <c r="AS96">
-        <v>2.43</v>
+        <v>2.47</v>
       </c>
       <c r="AT96">
         <v>0.71</v>
@@ -19565,7 +19592,7 @@
         <v>149</v>
       </c>
       <c r="P97" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="Q97">
         <v>5</v>
@@ -19655,7 +19682,7 @@
         <v>2.23</v>
       </c>
       <c r="AT97">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU97">
         <v>1.37</v>
@@ -19756,7 +19783,7 @@
         <v>80</v>
       </c>
       <c r="P98" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="Q98">
         <v>8</v>
@@ -19947,7 +19974,7 @@
         <v>150</v>
       </c>
       <c r="P99" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="Q99">
         <v>5</v>
@@ -20034,7 +20061,7 @@
         <v>0.38</v>
       </c>
       <c r="AS99">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AT99">
         <v>0.71</v>
@@ -20138,7 +20165,7 @@
         <v>151</v>
       </c>
       <c r="P100" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="Q100">
         <v>4</v>
@@ -20228,7 +20255,7 @@
         <v>1.5</v>
       </c>
       <c r="AT100">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AU100">
         <v>1.12</v>
@@ -20329,7 +20356,7 @@
         <v>152</v>
       </c>
       <c r="P101" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="Q101">
         <v>4</v>
@@ -20416,7 +20443,7 @@
         <v>2.43</v>
       </c>
       <c r="AS101">
-        <v>2.43</v>
+        <v>2.47</v>
       </c>
       <c r="AT101">
         <v>2.15</v>
@@ -20711,7 +20738,7 @@
         <v>125</v>
       </c>
       <c r="P103" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="Q103">
         <v>8</v>
@@ -20801,7 +20828,7 @@
         <v>1.57</v>
       </c>
       <c r="AT103">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AU103">
         <v>1.46</v>
@@ -20902,7 +20929,7 @@
         <v>154</v>
       </c>
       <c r="P104" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="Q104">
         <v>3</v>
@@ -20989,10 +21016,10 @@
         <v>1.44</v>
       </c>
       <c r="AS104">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AT104">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU104">
         <v>1.02</v>
@@ -21093,7 +21120,7 @@
         <v>155</v>
       </c>
       <c r="P105" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="Q105">
         <v>1</v>
@@ -21371,7 +21398,7 @@
         <v>0</v>
       </c>
       <c r="AS106">
-        <v>2.86</v>
+        <v>2.87</v>
       </c>
       <c r="AT106">
         <v>0</v>
@@ -21475,7 +21502,7 @@
         <v>132</v>
       </c>
       <c r="P107" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="Q107">
         <v>5</v>
@@ -21562,10 +21589,10 @@
         <v>1.11</v>
       </c>
       <c r="AS107">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AT107">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AU107">
         <v>1.6</v>
@@ -21753,10 +21780,10 @@
         <v>1</v>
       </c>
       <c r="AS108">
-        <v>2.43</v>
+        <v>2.47</v>
       </c>
       <c r="AT108">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AU108">
         <v>1.64</v>
@@ -22138,7 +22165,7 @@
         <v>2</v>
       </c>
       <c r="AT110">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AU110">
         <v>1.3</v>
@@ -22430,7 +22457,7 @@
         <v>80</v>
       </c>
       <c r="P112" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="Q112">
         <v>2</v>
@@ -22517,7 +22544,7 @@
         <v>2.25</v>
       </c>
       <c r="AS112">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AT112">
         <v>2.15</v>
@@ -22899,10 +22926,10 @@
         <v>0.5</v>
       </c>
       <c r="AS114">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AT114">
-        <v>0.54</v>
+        <v>0.71</v>
       </c>
       <c r="AU114">
         <v>1.46</v>
@@ -23003,7 +23030,7 @@
         <v>160</v>
       </c>
       <c r="P115" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
       <c r="Q115">
         <v>4</v>
@@ -23093,7 +23120,7 @@
         <v>1.71</v>
       </c>
       <c r="AT115">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AU115">
         <v>1.32</v>
@@ -23281,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="AS116">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AT116">
         <v>0</v>
@@ -23576,7 +23603,7 @@
         <v>162</v>
       </c>
       <c r="P118" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="Q118">
         <v>6</v>
@@ -23767,7 +23794,7 @@
         <v>163</v>
       </c>
       <c r="P119" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="Q119">
         <v>4</v>
@@ -23854,10 +23881,10 @@
         <v>0.5</v>
       </c>
       <c r="AS119">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AT119">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AU119">
         <v>1.61</v>
@@ -23958,7 +23985,7 @@
         <v>80</v>
       </c>
       <c r="P120" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="Q120">
         <v>1</v>
@@ -24045,10 +24072,10 @@
         <v>1.3</v>
       </c>
       <c r="AS120">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AT120">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AU120">
         <v>1.03</v>
@@ -24239,7 +24266,7 @@
         <v>2</v>
       </c>
       <c r="AT121">
-        <v>0.54</v>
+        <v>0.71</v>
       </c>
       <c r="AU121">
         <v>1.32</v>
@@ -24531,7 +24558,7 @@
         <v>165</v>
       </c>
       <c r="P123" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="Q123">
         <v>5</v>
@@ -24618,7 +24645,7 @@
         <v>0.7</v>
       </c>
       <c r="AS123">
-        <v>2.86</v>
+        <v>2.87</v>
       </c>
       <c r="AT123">
         <v>0.71</v>
@@ -24913,7 +24940,7 @@
         <v>80</v>
       </c>
       <c r="P125" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="Q125">
         <v>6</v>
@@ -25000,10 +25027,10 @@
         <v>0.44</v>
       </c>
       <c r="AS125">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AT125">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AU125">
         <v>1.04</v>
@@ -25104,7 +25131,7 @@
         <v>154</v>
       </c>
       <c r="P126" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="Q126">
         <v>0</v>
@@ -25295,7 +25322,7 @@
         <v>80</v>
       </c>
       <c r="P127" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="Q127">
         <v>1</v>
@@ -25382,7 +25409,7 @@
         <v>1.5</v>
       </c>
       <c r="AS127">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AT127">
         <v>1.64</v>
@@ -25486,7 +25513,7 @@
         <v>166</v>
       </c>
       <c r="P128" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="Q128">
         <v>9</v>
@@ -25573,10 +25600,10 @@
         <v>0.7</v>
       </c>
       <c r="AS128">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AT128">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AU128">
         <v>1.01</v>
@@ -25958,7 +25985,7 @@
         <v>1.5</v>
       </c>
       <c r="AT130">
-        <v>0.54</v>
+        <v>0.71</v>
       </c>
       <c r="AU130">
         <v>1.18</v>
@@ -26146,10 +26173,10 @@
         <v>1.6</v>
       </c>
       <c r="AS131">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AT131">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU131">
         <v>1.61</v>
@@ -26337,10 +26364,10 @@
         <v>1.6</v>
       </c>
       <c r="AS132">
-        <v>2.86</v>
+        <v>2.87</v>
       </c>
       <c r="AT132">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AU132">
         <v>2.61</v>
@@ -26441,7 +26468,7 @@
         <v>171</v>
       </c>
       <c r="P133" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="Q133">
         <v>7</v>
@@ -26528,7 +26555,7 @@
         <v>1.5</v>
       </c>
       <c r="AS133">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AT133">
         <v>1.31</v>
@@ -26632,7 +26659,7 @@
         <v>172</v>
       </c>
       <c r="P134" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="Q134">
         <v>2</v>
@@ -27778,7 +27805,7 @@
         <v>177</v>
       </c>
       <c r="P140" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="Q140">
         <v>6</v>
@@ -27865,10 +27892,10 @@
         <v>1.45</v>
       </c>
       <c r="AS140">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AT140">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AU140">
         <v>1.61</v>
@@ -27969,7 +27996,7 @@
         <v>80</v>
       </c>
       <c r="P141" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="Q141">
         <v>-1</v>
@@ -28056,10 +28083,10 @@
         <v>0.64</v>
       </c>
       <c r="AS141">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AT141">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AU141">
         <v>1.1</v>
@@ -28160,7 +28187,7 @@
         <v>178</v>
       </c>
       <c r="P142" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="Q142">
         <v>4</v>
@@ -28247,10 +28274,10 @@
         <v>0.45</v>
       </c>
       <c r="AS142">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AT142">
-        <v>0.54</v>
+        <v>0.71</v>
       </c>
       <c r="AU142">
         <v>1.07</v>
@@ -28351,7 +28378,7 @@
         <v>179</v>
       </c>
       <c r="P143" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="Q143">
         <v>9</v>
@@ -28438,10 +28465,10 @@
         <v>0.91</v>
       </c>
       <c r="AS143">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AT143">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AU143">
         <v>1.36</v>
@@ -28629,10 +28656,10 @@
         <v>1.45</v>
       </c>
       <c r="AS144">
-        <v>2.86</v>
+        <v>2.87</v>
       </c>
       <c r="AT144">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU144">
         <v>2.66</v>
@@ -28820,10 +28847,10 @@
         <v>1.45</v>
       </c>
       <c r="AS145">
-        <v>2.43</v>
+        <v>2.47</v>
       </c>
       <c r="AT145">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AU145">
         <v>1.64</v>
@@ -28924,7 +28951,7 @@
         <v>182</v>
       </c>
       <c r="P146" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="Q146">
         <v>5</v>
@@ -29011,7 +29038,7 @@
         <v>0.33</v>
       </c>
       <c r="AS146">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AT146">
         <v>0.71</v>
@@ -29115,7 +29142,7 @@
         <v>183</v>
       </c>
       <c r="P147" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="Q147">
         <v>4</v>
@@ -29205,7 +29232,7 @@
         <v>1.57</v>
       </c>
       <c r="AT147">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="AU147">
         <v>1.35</v>
@@ -29393,7 +29420,7 @@
         <v>1.58</v>
       </c>
       <c r="AS148">
-        <v>2.86</v>
+        <v>2.87</v>
       </c>
       <c r="AT148">
         <v>1.64</v>
@@ -29497,7 +29524,7 @@
         <v>185</v>
       </c>
       <c r="P149" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="Q149">
         <v>3</v>
@@ -29584,10 +29611,10 @@
         <v>1.33</v>
       </c>
       <c r="AS149">
-        <v>2.43</v>
+        <v>2.47</v>
       </c>
       <c r="AT149">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AU149">
         <v>1.57</v>
@@ -29688,7 +29715,7 @@
         <v>186</v>
       </c>
       <c r="P150" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="Q150">
         <v>3</v>
@@ -29778,7 +29805,7 @@
         <v>1.5</v>
       </c>
       <c r="AT150">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AU150">
         <v>1.26</v>
@@ -29879,7 +29906,7 @@
         <v>187</v>
       </c>
       <c r="P151" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="Q151">
         <v>4</v>
@@ -30160,7 +30187,7 @@
         <v>2.23</v>
       </c>
       <c r="AT152">
-        <v>1.31</v>
+        <v>1.21</v>
       </c>
       <c r="AU152">
         <v>1.32</v>
@@ -30261,7 +30288,7 @@
         <v>80</v>
       </c>
       <c r="P153" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="Q153">
         <v>4</v>
@@ -30348,7 +30375,7 @@
         <v>0.54</v>
       </c>
       <c r="AS153">
-        <v>1.46</v>
+        <v>1.57</v>
       </c>
       <c r="AT153">
         <v>0.71</v>
@@ -30542,7 +30569,7 @@
         <v>1.71</v>
       </c>
       <c r="AT154">
-        <v>0.77</v>
+        <v>0.79</v>
       </c>
       <c r="AU154">
         <v>1.45</v>
@@ -30921,7 +30948,7 @@
         <v>1.33</v>
       </c>
       <c r="AS156">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="AT156">
         <v>1.31</v>
@@ -31025,7 +31052,7 @@
         <v>191</v>
       </c>
       <c r="P157" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="Q157">
         <v>12</v>
@@ -31112,10 +31139,10 @@
         <v>1.31</v>
       </c>
       <c r="AS157">
-        <v>2.86</v>
+        <v>2.87</v>
       </c>
       <c r="AT157">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AU157">
         <v>2.61</v>
@@ -31303,7 +31330,7 @@
         <v>2.25</v>
       </c>
       <c r="AS158">
-        <v>2.43</v>
+        <v>2.47</v>
       </c>
       <c r="AT158">
         <v>2.15</v>
@@ -31407,7 +31434,7 @@
         <v>80</v>
       </c>
       <c r="P159" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="Q159">
         <v>4</v>
@@ -31688,7 +31715,7 @@
         <v>2</v>
       </c>
       <c r="AT160">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AU160">
         <v>1.28</v>
@@ -31789,7 +31816,7 @@
         <v>80</v>
       </c>
       <c r="P161" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="Q161">
         <v>3</v>
@@ -32070,7 +32097,7 @@
         <v>1.5</v>
       </c>
       <c r="AT162">
-        <v>0.54</v>
+        <v>0.71</v>
       </c>
       <c r="AU162">
         <v>1.3</v>
@@ -32258,7 +32285,7 @@
         <v>0</v>
       </c>
       <c r="AS163">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AT163">
         <v>0</v>
@@ -32313,6 +32340,1152 @@
       </c>
       <c r="BK163">
         <v>6</v>
+      </c>
+    </row>
+    <row r="164" spans="1:63">
+      <c r="A164" s="1">
+        <v>163</v>
+      </c>
+      <c r="B164">
+        <v>5170255</v>
+      </c>
+      <c r="C164" t="s">
+        <v>63</v>
+      </c>
+      <c r="D164" t="s">
+        <v>64</v>
+      </c>
+      <c r="E164" s="2">
+        <v>45009.69791666666</v>
+      </c>
+      <c r="F164">
+        <v>6</v>
+      </c>
+      <c r="G164" t="s">
+        <v>71</v>
+      </c>
+      <c r="H164" t="s">
+        <v>68</v>
+      </c>
+      <c r="I164">
+        <v>0</v>
+      </c>
+      <c r="J164">
+        <v>0</v>
+      </c>
+      <c r="K164">
+        <v>0</v>
+      </c>
+      <c r="L164">
+        <v>2</v>
+      </c>
+      <c r="M164">
+        <v>0</v>
+      </c>
+      <c r="N164">
+        <v>2</v>
+      </c>
+      <c r="O164" t="s">
+        <v>193</v>
+      </c>
+      <c r="P164" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q164">
+        <v>14</v>
+      </c>
+      <c r="R164">
+        <v>4</v>
+      </c>
+      <c r="S164">
+        <v>18</v>
+      </c>
+      <c r="T164">
+        <v>2.08</v>
+      </c>
+      <c r="U164">
+        <v>2.29</v>
+      </c>
+      <c r="V164">
+        <v>5.3</v>
+      </c>
+      <c r="W164">
+        <v>1.33</v>
+      </c>
+      <c r="X164">
+        <v>3.14</v>
+      </c>
+      <c r="Y164">
+        <v>2.54</v>
+      </c>
+      <c r="Z164">
+        <v>1.48</v>
+      </c>
+      <c r="AA164">
+        <v>5.7</v>
+      </c>
+      <c r="AB164">
+        <v>1.11</v>
+      </c>
+      <c r="AC164">
+        <v>1.57</v>
+      </c>
+      <c r="AD164">
+        <v>3.7</v>
+      </c>
+      <c r="AE164">
+        <v>5</v>
+      </c>
+      <c r="AF164">
+        <v>1.02</v>
+      </c>
+      <c r="AG164">
+        <v>14</v>
+      </c>
+      <c r="AH164">
+        <v>1.22</v>
+      </c>
+      <c r="AI164">
+        <v>4</v>
+      </c>
+      <c r="AJ164">
+        <v>1.67</v>
+      </c>
+      <c r="AK164">
+        <v>2.1</v>
+      </c>
+      <c r="AL164">
+        <v>1.74</v>
+      </c>
+      <c r="AM164">
+        <v>2.04</v>
+      </c>
+      <c r="AN164">
+        <v>1.13</v>
+      </c>
+      <c r="AO164">
+        <v>1.21</v>
+      </c>
+      <c r="AP164">
+        <v>2.31</v>
+      </c>
+      <c r="AQ164">
+        <v>2.43</v>
+      </c>
+      <c r="AR164">
+        <v>1.31</v>
+      </c>
+      <c r="AS164">
+        <v>2.47</v>
+      </c>
+      <c r="AT164">
+        <v>1.21</v>
+      </c>
+      <c r="AU164">
+        <v>1.52</v>
+      </c>
+      <c r="AV164">
+        <v>1.26</v>
+      </c>
+      <c r="AW164">
+        <v>2.78</v>
+      </c>
+      <c r="AX164">
+        <v>0</v>
+      </c>
+      <c r="AY164">
+        <v>0</v>
+      </c>
+      <c r="AZ164">
+        <v>0</v>
+      </c>
+      <c r="BA164">
+        <v>0</v>
+      </c>
+      <c r="BB164">
+        <v>0</v>
+      </c>
+      <c r="BC164">
+        <v>0</v>
+      </c>
+      <c r="BD164">
+        <v>0</v>
+      </c>
+      <c r="BE164">
+        <v>0</v>
+      </c>
+      <c r="BF164">
+        <v>5</v>
+      </c>
+      <c r="BG164">
+        <v>0</v>
+      </c>
+      <c r="BH164">
+        <v>7</v>
+      </c>
+      <c r="BI164">
+        <v>5</v>
+      </c>
+      <c r="BJ164">
+        <v>12</v>
+      </c>
+      <c r="BK164">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="165" spans="1:63">
+      <c r="A165" s="1">
+        <v>164</v>
+      </c>
+      <c r="B165">
+        <v>5170260</v>
+      </c>
+      <c r="C165" t="s">
+        <v>63</v>
+      </c>
+      <c r="D165" t="s">
+        <v>64</v>
+      </c>
+      <c r="E165" s="2">
+        <v>45010.47916666666</v>
+      </c>
+      <c r="F165">
+        <v>6</v>
+      </c>
+      <c r="G165" t="s">
+        <v>67</v>
+      </c>
+      <c r="H165" t="s">
+        <v>73</v>
+      </c>
+      <c r="I165">
+        <v>1</v>
+      </c>
+      <c r="J165">
+        <v>1</v>
+      </c>
+      <c r="K165">
+        <v>2</v>
+      </c>
+      <c r="L165">
+        <v>2</v>
+      </c>
+      <c r="M165">
+        <v>2</v>
+      </c>
+      <c r="N165">
+        <v>4</v>
+      </c>
+      <c r="O165" t="s">
+        <v>194</v>
+      </c>
+      <c r="P165" t="s">
+        <v>272</v>
+      </c>
+      <c r="Q165">
+        <v>1</v>
+      </c>
+      <c r="R165">
+        <v>6</v>
+      </c>
+      <c r="S165">
+        <v>7</v>
+      </c>
+      <c r="T165">
+        <v>2.4</v>
+      </c>
+      <c r="U165">
+        <v>2.3</v>
+      </c>
+      <c r="V165">
+        <v>3.9</v>
+      </c>
+      <c r="W165">
+        <v>1.3</v>
+      </c>
+      <c r="X165">
+        <v>3.2</v>
+      </c>
+      <c r="Y165">
+        <v>2.35</v>
+      </c>
+      <c r="Z165">
+        <v>1.52</v>
+      </c>
+      <c r="AA165">
+        <v>5.25</v>
+      </c>
+      <c r="AB165">
+        <v>1.13</v>
+      </c>
+      <c r="AC165">
+        <v>1.9</v>
+      </c>
+      <c r="AD165">
+        <v>3.45</v>
+      </c>
+      <c r="AE165">
+        <v>3.5</v>
+      </c>
+      <c r="AF165">
+        <v>1.03</v>
+      </c>
+      <c r="AG165">
+        <v>16.25</v>
+      </c>
+      <c r="AH165">
+        <v>1.18</v>
+      </c>
+      <c r="AI165">
+        <v>4.27</v>
+      </c>
+      <c r="AJ165">
+        <v>1.57</v>
+      </c>
+      <c r="AK165">
+        <v>2.15</v>
+      </c>
+      <c r="AL165">
+        <v>1.55</v>
+      </c>
+      <c r="AM165">
+        <v>2.25</v>
+      </c>
+      <c r="AN165">
+        <v>1.27</v>
+      </c>
+      <c r="AO165">
+        <v>1.25</v>
+      </c>
+      <c r="AP165">
+        <v>1.82</v>
+      </c>
+      <c r="AQ165">
+        <v>2</v>
+      </c>
+      <c r="AR165">
+        <v>0.77</v>
+      </c>
+      <c r="AS165">
+        <v>1.93</v>
+      </c>
+      <c r="AT165">
+        <v>0.79</v>
+      </c>
+      <c r="AU165">
+        <v>1.42</v>
+      </c>
+      <c r="AV165">
+        <v>1.26</v>
+      </c>
+      <c r="AW165">
+        <v>2.68</v>
+      </c>
+      <c r="AX165">
+        <v>0</v>
+      </c>
+      <c r="AY165">
+        <v>0</v>
+      </c>
+      <c r="AZ165">
+        <v>0</v>
+      </c>
+      <c r="BA165">
+        <v>0</v>
+      </c>
+      <c r="BB165">
+        <v>0</v>
+      </c>
+      <c r="BC165">
+        <v>0</v>
+      </c>
+      <c r="BD165">
+        <v>0</v>
+      </c>
+      <c r="BE165">
+        <v>0</v>
+      </c>
+      <c r="BF165">
+        <v>5</v>
+      </c>
+      <c r="BG165">
+        <v>6</v>
+      </c>
+      <c r="BH165">
+        <v>9</v>
+      </c>
+      <c r="BI165">
+        <v>6</v>
+      </c>
+      <c r="BJ165">
+        <v>14</v>
+      </c>
+      <c r="BK165">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="166" spans="1:63">
+      <c r="A166" s="1">
+        <v>165</v>
+      </c>
+      <c r="B166">
+        <v>5170259</v>
+      </c>
+      <c r="C166" t="s">
+        <v>63</v>
+      </c>
+      <c r="D166" t="s">
+        <v>64</v>
+      </c>
+      <c r="E166" s="2">
+        <v>45010.47916666666</v>
+      </c>
+      <c r="F166">
+        <v>6</v>
+      </c>
+      <c r="G166" t="s">
+        <v>65</v>
+      </c>
+      <c r="H166" t="s">
+        <v>69</v>
+      </c>
+      <c r="I166">
+        <v>0</v>
+      </c>
+      <c r="J166">
+        <v>2</v>
+      </c>
+      <c r="K166">
+        <v>2</v>
+      </c>
+      <c r="L166">
+        <v>0</v>
+      </c>
+      <c r="M166">
+        <v>3</v>
+      </c>
+      <c r="N166">
+        <v>3</v>
+      </c>
+      <c r="O166" t="s">
+        <v>80</v>
+      </c>
+      <c r="P166" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q166">
+        <v>3</v>
+      </c>
+      <c r="R166">
+        <v>3</v>
+      </c>
+      <c r="S166">
+        <v>6</v>
+      </c>
+      <c r="T166">
+        <v>6.55</v>
+      </c>
+      <c r="U166">
+        <v>2.55</v>
+      </c>
+      <c r="V166">
+        <v>1.78</v>
+      </c>
+      <c r="W166">
+        <v>1.26</v>
+      </c>
+      <c r="X166">
+        <v>3.5</v>
+      </c>
+      <c r="Y166">
+        <v>2.27</v>
+      </c>
+      <c r="Z166">
+        <v>1.61</v>
+      </c>
+      <c r="AA166">
+        <v>4.75</v>
+      </c>
+      <c r="AB166">
+        <v>1.16</v>
+      </c>
+      <c r="AC166">
+        <v>16.95</v>
+      </c>
+      <c r="AD166">
+        <v>14.15</v>
+      </c>
+      <c r="AE166">
+        <v>1.04</v>
+      </c>
+      <c r="AF166">
+        <v>1.01</v>
+      </c>
+      <c r="AG166">
+        <v>22</v>
+      </c>
+      <c r="AH166">
+        <v>1.15</v>
+      </c>
+      <c r="AI166">
+        <v>4.8</v>
+      </c>
+      <c r="AJ166">
+        <v>1.45</v>
+      </c>
+      <c r="AK166">
+        <v>2.56</v>
+      </c>
+      <c r="AL166">
+        <v>1.75</v>
+      </c>
+      <c r="AM166">
+        <v>1.93</v>
+      </c>
+      <c r="AN166">
+        <v>3.1</v>
+      </c>
+      <c r="AO166">
+        <v>1.13</v>
+      </c>
+      <c r="AP166">
+        <v>1.08</v>
+      </c>
+      <c r="AQ166">
+        <v>0.08</v>
+      </c>
+      <c r="AR166">
+        <v>0.54</v>
+      </c>
+      <c r="AS166">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="AT166">
+        <v>0.71</v>
+      </c>
+      <c r="AU166">
+        <v>1.1</v>
+      </c>
+      <c r="AV166">
+        <v>1.11</v>
+      </c>
+      <c r="AW166">
+        <v>2.21</v>
+      </c>
+      <c r="AX166">
+        <v>0</v>
+      </c>
+      <c r="AY166">
+        <v>0</v>
+      </c>
+      <c r="AZ166">
+        <v>0</v>
+      </c>
+      <c r="BA166">
+        <v>0</v>
+      </c>
+      <c r="BB166">
+        <v>0</v>
+      </c>
+      <c r="BC166">
+        <v>0</v>
+      </c>
+      <c r="BD166">
+        <v>0</v>
+      </c>
+      <c r="BE166">
+        <v>0</v>
+      </c>
+      <c r="BF166">
+        <v>3</v>
+      </c>
+      <c r="BG166">
+        <v>4</v>
+      </c>
+      <c r="BH166">
+        <v>5</v>
+      </c>
+      <c r="BI166">
+        <v>3</v>
+      </c>
+      <c r="BJ166">
+        <v>8</v>
+      </c>
+      <c r="BK166">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="167" spans="1:63">
+      <c r="A167" s="1">
+        <v>166</v>
+      </c>
+      <c r="B167">
+        <v>5170258</v>
+      </c>
+      <c r="C167" t="s">
+        <v>63</v>
+      </c>
+      <c r="D167" t="s">
+        <v>64</v>
+      </c>
+      <c r="E167" s="2">
+        <v>45010.47916666666</v>
+      </c>
+      <c r="F167">
+        <v>6</v>
+      </c>
+      <c r="G167" t="s">
+        <v>75</v>
+      </c>
+      <c r="H167" t="s">
+        <v>76</v>
+      </c>
+      <c r="I167">
+        <v>0</v>
+      </c>
+      <c r="J167">
+        <v>0</v>
+      </c>
+      <c r="K167">
+        <v>0</v>
+      </c>
+      <c r="L167">
+        <v>1</v>
+      </c>
+      <c r="M167">
+        <v>0</v>
+      </c>
+      <c r="N167">
+        <v>1</v>
+      </c>
+      <c r="O167" t="s">
+        <v>195</v>
+      </c>
+      <c r="P167" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q167">
+        <v>7</v>
+      </c>
+      <c r="R167">
+        <v>7</v>
+      </c>
+      <c r="S167">
+        <v>14</v>
+      </c>
+      <c r="T167">
+        <v>3.64</v>
+      </c>
+      <c r="U167">
+        <v>2.16</v>
+      </c>
+      <c r="V167">
+        <v>2.72</v>
+      </c>
+      <c r="W167">
+        <v>1.35</v>
+      </c>
+      <c r="X167">
+        <v>2.9</v>
+      </c>
+      <c r="Y167">
+        <v>2.6</v>
+      </c>
+      <c r="Z167">
+        <v>1.45</v>
+      </c>
+      <c r="AA167">
+        <v>5.75</v>
+      </c>
+      <c r="AB167">
+        <v>1.1</v>
+      </c>
+      <c r="AC167">
+        <v>2.85</v>
+      </c>
+      <c r="AD167">
+        <v>3.2</v>
+      </c>
+      <c r="AE167">
+        <v>2.25</v>
+      </c>
+      <c r="AF167">
+        <v>1.04</v>
+      </c>
+      <c r="AG167">
+        <v>13</v>
+      </c>
+      <c r="AH167">
+        <v>1.23</v>
+      </c>
+      <c r="AI167">
+        <v>3.72</v>
+      </c>
+      <c r="AJ167">
+        <v>1.7</v>
+      </c>
+      <c r="AK167">
+        <v>1.95</v>
+      </c>
+      <c r="AL167">
+        <v>1.62</v>
+      </c>
+      <c r="AM167">
+        <v>2.23</v>
+      </c>
+      <c r="AN167">
+        <v>1.6</v>
+      </c>
+      <c r="AO167">
+        <v>1.28</v>
+      </c>
+      <c r="AP167">
+        <v>1.35</v>
+      </c>
+      <c r="AQ167">
+        <v>1.46</v>
+      </c>
+      <c r="AR167">
+        <v>0.85</v>
+      </c>
+      <c r="AS167">
+        <v>1.57</v>
+      </c>
+      <c r="AT167">
+        <v>0.79</v>
+      </c>
+      <c r="AU167">
+        <v>1.07</v>
+      </c>
+      <c r="AV167">
+        <v>1.25</v>
+      </c>
+      <c r="AW167">
+        <v>2.32</v>
+      </c>
+      <c r="AX167">
+        <v>0</v>
+      </c>
+      <c r="AY167">
+        <v>0</v>
+      </c>
+      <c r="AZ167">
+        <v>0</v>
+      </c>
+      <c r="BA167">
+        <v>0</v>
+      </c>
+      <c r="BB167">
+        <v>0</v>
+      </c>
+      <c r="BC167">
+        <v>0</v>
+      </c>
+      <c r="BD167">
+        <v>0</v>
+      </c>
+      <c r="BE167">
+        <v>0</v>
+      </c>
+      <c r="BF167">
+        <v>4</v>
+      </c>
+      <c r="BG167">
+        <v>2</v>
+      </c>
+      <c r="BH167">
+        <v>0</v>
+      </c>
+      <c r="BI167">
+        <v>4</v>
+      </c>
+      <c r="BJ167">
+        <v>4</v>
+      </c>
+      <c r="BK167">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="168" spans="1:63">
+      <c r="A168" s="1">
+        <v>167</v>
+      </c>
+      <c r="B168">
+        <v>5170257</v>
+      </c>
+      <c r="C168" t="s">
+        <v>63</v>
+      </c>
+      <c r="D168" t="s">
+        <v>64</v>
+      </c>
+      <c r="E168" s="2">
+        <v>45010.47916666666</v>
+      </c>
+      <c r="F168">
+        <v>6</v>
+      </c>
+      <c r="G168" t="s">
+        <v>72</v>
+      </c>
+      <c r="H168" t="s">
+        <v>66</v>
+      </c>
+      <c r="I168">
+        <v>4</v>
+      </c>
+      <c r="J168">
+        <v>1</v>
+      </c>
+      <c r="K168">
+        <v>5</v>
+      </c>
+      <c r="L168">
+        <v>7</v>
+      </c>
+      <c r="M168">
+        <v>1</v>
+      </c>
+      <c r="N168">
+        <v>8</v>
+      </c>
+      <c r="O168" t="s">
+        <v>196</v>
+      </c>
+      <c r="P168" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q168">
+        <v>7</v>
+      </c>
+      <c r="R168">
+        <v>1</v>
+      </c>
+      <c r="S168">
+        <v>8</v>
+      </c>
+      <c r="T168">
+        <v>1.44</v>
+      </c>
+      <c r="U168">
+        <v>3.13</v>
+      </c>
+      <c r="V168">
+        <v>11</v>
+      </c>
+      <c r="W168">
+        <v>1.17</v>
+      </c>
+      <c r="X168">
+        <v>4.4</v>
+      </c>
+      <c r="Y168">
+        <v>1.96</v>
+      </c>
+      <c r="Z168">
+        <v>1.79</v>
+      </c>
+      <c r="AA168">
+        <v>3.7</v>
+      </c>
+      <c r="AB168">
+        <v>1.23</v>
+      </c>
+      <c r="AC168">
+        <v>1.1</v>
+      </c>
+      <c r="AD168">
+        <v>5.87</v>
+      </c>
+      <c r="AE168">
+        <v>11.47</v>
+      </c>
+      <c r="AF168">
+        <v>1.01</v>
+      </c>
+      <c r="AG168">
+        <v>22</v>
+      </c>
+      <c r="AH168">
+        <v>1.1</v>
+      </c>
+      <c r="AI168">
+        <v>6</v>
+      </c>
+      <c r="AJ168">
+        <v>1.33</v>
+      </c>
+      <c r="AK168">
+        <v>3.1</v>
+      </c>
+      <c r="AL168">
+        <v>2.04</v>
+      </c>
+      <c r="AM168">
+        <v>1.74</v>
+      </c>
+      <c r="AN168">
+        <v>1.01</v>
+      </c>
+      <c r="AO168">
+        <v>1.05</v>
+      </c>
+      <c r="AP168">
+        <v>5.5</v>
+      </c>
+      <c r="AQ168">
+        <v>2.86</v>
+      </c>
+      <c r="AR168">
+        <v>1.21</v>
+      </c>
+      <c r="AS168">
+        <v>2.87</v>
+      </c>
+      <c r="AT168">
+        <v>1.13</v>
+      </c>
+      <c r="AU168">
+        <v>2.66</v>
+      </c>
+      <c r="AV168">
+        <v>1.11</v>
+      </c>
+      <c r="AW168">
+        <v>3.77</v>
+      </c>
+      <c r="AX168">
+        <v>0</v>
+      </c>
+      <c r="AY168">
+        <v>0</v>
+      </c>
+      <c r="AZ168">
+        <v>0</v>
+      </c>
+      <c r="BA168">
+        <v>0</v>
+      </c>
+      <c r="BB168">
+        <v>0</v>
+      </c>
+      <c r="BC168">
+        <v>0</v>
+      </c>
+      <c r="BD168">
+        <v>0</v>
+      </c>
+      <c r="BE168">
+        <v>0</v>
+      </c>
+      <c r="BF168">
+        <v>10</v>
+      </c>
+      <c r="BG168">
+        <v>2</v>
+      </c>
+      <c r="BH168">
+        <v>5</v>
+      </c>
+      <c r="BI168">
+        <v>3</v>
+      </c>
+      <c r="BJ168">
+        <v>15</v>
+      </c>
+      <c r="BK168">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="169" spans="1:63">
+      <c r="A169" s="1">
+        <v>168</v>
+      </c>
+      <c r="B169">
+        <v>5170256</v>
+      </c>
+      <c r="C169" t="s">
+        <v>63</v>
+      </c>
+      <c r="D169" t="s">
+        <v>64</v>
+      </c>
+      <c r="E169" s="2">
+        <v>45010.47916666666</v>
+      </c>
+      <c r="F169">
+        <v>6</v>
+      </c>
+      <c r="G169" t="s">
+        <v>70</v>
+      </c>
+      <c r="H169" t="s">
+        <v>74</v>
+      </c>
+      <c r="I169">
+        <v>1</v>
+      </c>
+      <c r="J169">
+        <v>0</v>
+      </c>
+      <c r="K169">
+        <v>1</v>
+      </c>
+      <c r="L169">
+        <v>2</v>
+      </c>
+      <c r="M169">
+        <v>2</v>
+      </c>
+      <c r="N169">
+        <v>4</v>
+      </c>
+      <c r="O169" t="s">
+        <v>197</v>
+      </c>
+      <c r="P169" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q169">
+        <v>4</v>
+      </c>
+      <c r="R169">
+        <v>2</v>
+      </c>
+      <c r="S169">
+        <v>6</v>
+      </c>
+      <c r="T169">
+        <v>2.6</v>
+      </c>
+      <c r="U169">
+        <v>2.17</v>
+      </c>
+      <c r="V169">
+        <v>3.84</v>
+      </c>
+      <c r="W169">
+        <v>1.35</v>
+      </c>
+      <c r="X169">
+        <v>3.04</v>
+      </c>
+      <c r="Y169">
+        <v>2.63</v>
+      </c>
+      <c r="Z169">
+        <v>1.45</v>
+      </c>
+      <c r="AA169">
+        <v>6.1</v>
+      </c>
+      <c r="AB169">
+        <v>1.09</v>
+      </c>
+      <c r="AC169">
+        <v>2.2</v>
+      </c>
+      <c r="AD169">
+        <v>3.25</v>
+      </c>
+      <c r="AE169">
+        <v>3</v>
+      </c>
+      <c r="AF169">
+        <v>1.02</v>
+      </c>
+      <c r="AG169">
+        <v>12</v>
+      </c>
+      <c r="AH169">
+        <v>1.25</v>
+      </c>
+      <c r="AI169">
+        <v>3.75</v>
+      </c>
+      <c r="AJ169">
+        <v>1.7</v>
+      </c>
+      <c r="AK169">
+        <v>1.95</v>
+      </c>
+      <c r="AL169">
+        <v>1.63</v>
+      </c>
+      <c r="AM169">
+        <v>2.22</v>
+      </c>
+      <c r="AN169">
+        <v>1.31</v>
+      </c>
+      <c r="AO169">
+        <v>1.27</v>
+      </c>
+      <c r="AP169">
+        <v>1.69</v>
+      </c>
+      <c r="AQ169">
+        <v>2.08</v>
+      </c>
+      <c r="AR169">
+        <v>1.21</v>
+      </c>
+      <c r="AS169">
+        <v>2</v>
+      </c>
+      <c r="AT169">
+        <v>1.2</v>
+      </c>
+      <c r="AU169">
+        <v>1.57</v>
+      </c>
+      <c r="AV169">
+        <v>1.73</v>
+      </c>
+      <c r="AW169">
+        <v>3.3</v>
+      </c>
+      <c r="AX169">
+        <v>0</v>
+      </c>
+      <c r="AY169">
+        <v>0</v>
+      </c>
+      <c r="AZ169">
+        <v>0</v>
+      </c>
+      <c r="BA169">
+        <v>0</v>
+      </c>
+      <c r="BB169">
+        <v>0</v>
+      </c>
+      <c r="BC169">
+        <v>0</v>
+      </c>
+      <c r="BD169">
+        <v>0</v>
+      </c>
+      <c r="BE169">
+        <v>0</v>
+      </c>
+      <c r="BF169">
+        <v>7</v>
+      </c>
+      <c r="BG169">
+        <v>5</v>
+      </c>
+      <c r="BH169">
+        <v>7</v>
+      </c>
+      <c r="BI169">
+        <v>2</v>
+      </c>
+      <c r="BJ169">
+        <v>14</v>
+      </c>
+      <c r="BK169">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Wales Welsh Premier League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Wales Welsh Premier League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK169"/>
+  <dimension ref="A1:BK175"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,7 +903,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1103,10 +1103,10 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>2.23</v>
+        <v>2.07</v>
       </c>
       <c r="AT3" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1509,10 +1509,10 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AT5" t="n">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AT6" t="n">
         <v>0.79</v>
@@ -2321,7 +2321,7 @@
         <v>3</v>
       </c>
       <c r="AS9" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AT9" t="n">
         <v>0.79</v>
@@ -2527,7 +2527,7 @@
         <v>2.87</v>
       </c>
       <c r="AT10" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AT11" t="n">
         <v>0.71</v>
@@ -2930,10 +2930,10 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AT12" t="n">
-        <v>0.71</v>
+        <v>0.87</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3336,7 +3336,7 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AT14" t="n">
         <v>1.21</v>
@@ -3542,7 +3542,7 @@
         <v>2.87</v>
       </c>
       <c r="AT15" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AU15" t="n">
         <v>2.27</v>
@@ -3742,7 +3742,7 @@
         <v>3</v>
       </c>
       <c r="AS16" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AT16" t="n">
         <v>1.13</v>
@@ -4351,10 +4351,10 @@
         <v>3</v>
       </c>
       <c r="AS19" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AT19" t="n">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="AU19" t="n">
         <v>1.01</v>
@@ -4557,7 +4557,7 @@
         <v>2</v>
       </c>
       <c r="AT20" t="n">
-        <v>0.71</v>
+        <v>0.87</v>
       </c>
       <c r="AU20" t="n">
         <v>1.86</v>
@@ -4757,7 +4757,7 @@
         <v>0</v>
       </c>
       <c r="AS21" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AT21" t="n">
         <v>0.79</v>
@@ -5163,7 +5163,7 @@
         <v>0</v>
       </c>
       <c r="AS23" t="n">
-        <v>2.23</v>
+        <v>2.07</v>
       </c>
       <c r="AT23" t="n">
         <v>0.71</v>
@@ -5572,7 +5572,7 @@
         <v>1.57</v>
       </c>
       <c r="AT25" t="n">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AU25" t="n">
         <v>0.36</v>
@@ -5772,7 +5772,7 @@
         <v>0</v>
       </c>
       <c r="AS26" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AT26" t="n">
         <v>0</v>
@@ -6178,7 +6178,7 @@
         <v>2.25</v>
       </c>
       <c r="AS28" t="n">
-        <v>2.23</v>
+        <v>2.07</v>
       </c>
       <c r="AT28" t="n">
         <v>0.79</v>
@@ -6384,7 +6384,7 @@
         <v>2.47</v>
       </c>
       <c r="AT29" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AU29" t="n">
         <v>1.49</v>
@@ -6787,10 +6787,10 @@
         <v>2</v>
       </c>
       <c r="AS31" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AT31" t="n">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AU31" t="n">
         <v>1.33</v>
@@ -6993,7 +6993,7 @@
         <v>1.57</v>
       </c>
       <c r="AT32" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AU32" t="n">
         <v>0.67</v>
@@ -7193,10 +7193,10 @@
         <v>0.5</v>
       </c>
       <c r="AS33" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AT33" t="n">
-        <v>0.71</v>
+        <v>0.87</v>
       </c>
       <c r="AU33" t="n">
         <v>1.54</v>
@@ -7396,7 +7396,7 @@
         <v>0</v>
       </c>
       <c r="AS34" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AT34" t="n">
         <v>0</v>
@@ -7599,7 +7599,7 @@
         <v>1</v>
       </c>
       <c r="AS35" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AT35" t="n">
         <v>1.2</v>
@@ -7802,10 +7802,10 @@
         <v>2.33</v>
       </c>
       <c r="AS36" t="n">
-        <v>2.23</v>
+        <v>2.07</v>
       </c>
       <c r="AT36" t="n">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AU36" t="n">
         <v>1.89</v>
@@ -8005,10 +8005,10 @@
         <v>0</v>
       </c>
       <c r="AS37" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AT37" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AU37" t="n">
         <v>1.19</v>
@@ -8414,7 +8414,7 @@
         <v>2</v>
       </c>
       <c r="AT39" t="n">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="AU39" t="n">
         <v>1.87</v>
@@ -8817,7 +8817,7 @@
         <v>1.5</v>
       </c>
       <c r="AS41" t="n">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AT41" t="n">
         <v>1.13</v>
@@ -9629,7 +9629,7 @@
         <v>1</v>
       </c>
       <c r="AS45" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AT45" t="n">
         <v>1.2</v>
@@ -10035,10 +10035,10 @@
         <v>0</v>
       </c>
       <c r="AS47" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AT47" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AU47" t="n">
         <v>1.48</v>
@@ -10847,7 +10847,7 @@
         <v>0</v>
       </c>
       <c r="AS51" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AT51" t="n">
         <v>0.79</v>
@@ -11050,10 +11050,10 @@
         <v>1</v>
       </c>
       <c r="AS52" t="n">
-        <v>2.23</v>
+        <v>2.07</v>
       </c>
       <c r="AT52" t="n">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="AU52" t="n">
         <v>1.55</v>
@@ -11253,10 +11253,10 @@
         <v>1</v>
       </c>
       <c r="AS53" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AT53" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AU53" t="n">
         <v>1.04</v>
@@ -11459,7 +11459,7 @@
         <v>2.47</v>
       </c>
       <c r="AT54" t="n">
-        <v>0.71</v>
+        <v>0.87</v>
       </c>
       <c r="AU54" t="n">
         <v>1.64</v>
@@ -11659,7 +11659,7 @@
         <v>1.43</v>
       </c>
       <c r="AS55" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AT55" t="n">
         <v>0.79</v>
@@ -11862,7 +11862,7 @@
         <v>1</v>
       </c>
       <c r="AS56" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AT56" t="n">
         <v>1.21</v>
@@ -12068,7 +12068,7 @@
         <v>1.57</v>
       </c>
       <c r="AT57" t="n">
-        <v>0.71</v>
+        <v>0.87</v>
       </c>
       <c r="AU57" t="n">
         <v>0.85</v>
@@ -12268,10 +12268,10 @@
         <v>2.5</v>
       </c>
       <c r="AS58" t="n">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AT58" t="n">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AU58" t="n">
         <v>1.18</v>
@@ -12677,7 +12677,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="AT60" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AU60" t="n">
         <v>1.28</v>
@@ -12877,10 +12877,10 @@
         <v>0.75</v>
       </c>
       <c r="AS61" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AT61" t="n">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="AU61" t="n">
         <v>1.51</v>
@@ -13080,7 +13080,7 @@
         <v>0.6</v>
       </c>
       <c r="AS62" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AT62" t="n">
         <v>1.13</v>
@@ -13489,7 +13489,7 @@
         <v>2</v>
       </c>
       <c r="AT64" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AU64" t="n">
         <v>1.87</v>
@@ -13892,7 +13892,7 @@
         <v>0</v>
       </c>
       <c r="AS66" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AT66" t="n">
         <v>0</v>
@@ -14707,7 +14707,7 @@
         <v>1.93</v>
       </c>
       <c r="AT70" t="n">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AU70" t="n">
         <v>1.49</v>
@@ -14907,7 +14907,7 @@
         <v>0</v>
       </c>
       <c r="AS71" t="n">
-        <v>2.23</v>
+        <v>2.07</v>
       </c>
       <c r="AT71" t="n">
         <v>0.79</v>
@@ -15110,10 +15110,10 @@
         <v>1.4</v>
       </c>
       <c r="AS72" t="n">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AT72" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AU72" t="n">
         <v>1.02</v>
@@ -15516,10 +15516,10 @@
         <v>0.6</v>
       </c>
       <c r="AS74" t="n">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AT74" t="n">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="AU74" t="n">
         <v>1.06</v>
@@ -15719,7 +15719,7 @@
         <v>0</v>
       </c>
       <c r="AS75" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AT75" t="n">
         <v>0</v>
@@ -15922,10 +15922,10 @@
         <v>1.33</v>
       </c>
       <c r="AS76" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AT76" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AU76" t="n">
         <v>1.52</v>
@@ -16125,10 +16125,10 @@
         <v>0.2</v>
       </c>
       <c r="AS77" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AT77" t="n">
-        <v>0.71</v>
+        <v>0.87</v>
       </c>
       <c r="AU77" t="n">
         <v>1.17</v>
@@ -16531,10 +16531,10 @@
         <v>1.2</v>
       </c>
       <c r="AS79" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AT79" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AU79" t="n">
         <v>1.44</v>
@@ -17143,7 +17143,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="AT82" t="n">
-        <v>0.71</v>
+        <v>0.87</v>
       </c>
       <c r="AU82" t="n">
         <v>1.07</v>
@@ -17343,7 +17343,7 @@
         <v>1.17</v>
       </c>
       <c r="AS83" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AT83" t="n">
         <v>1.21</v>
@@ -17546,7 +17546,7 @@
         <v>1.86</v>
       </c>
       <c r="AS84" t="n">
-        <v>2.23</v>
+        <v>2.07</v>
       </c>
       <c r="AT84" t="n">
         <v>1.2</v>
@@ -17752,7 +17752,7 @@
         <v>2</v>
       </c>
       <c r="AT85" t="n">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AU85" t="n">
         <v>1.75</v>
@@ -17952,7 +17952,7 @@
         <v>0.86</v>
       </c>
       <c r="AS86" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AT86" t="n">
         <v>1.13</v>
@@ -18158,7 +18158,7 @@
         <v>1.93</v>
       </c>
       <c r="AT87" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AU87" t="n">
         <v>1.45</v>
@@ -18358,7 +18358,7 @@
         <v>1.43</v>
       </c>
       <c r="AS88" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AT88" t="n">
         <v>1.21</v>
@@ -18564,7 +18564,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="AT89" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AU89" t="n">
         <v>1.09</v>
@@ -18764,7 +18764,7 @@
         <v>1.11</v>
       </c>
       <c r="AS90" t="n">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AT90" t="n">
         <v>0.79</v>
@@ -18970,7 +18970,7 @@
         <v>2.87</v>
       </c>
       <c r="AT91" t="n">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="AU91" t="n">
         <v>2.27</v>
@@ -19170,7 +19170,7 @@
         <v>1.13</v>
       </c>
       <c r="AS92" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AT92" t="n">
         <v>1.13</v>
@@ -19373,10 +19373,10 @@
         <v>1</v>
       </c>
       <c r="AS93" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AT93" t="n">
-        <v>0.71</v>
+        <v>0.87</v>
       </c>
       <c r="AU93" t="n">
         <v>1.11</v>
@@ -19576,7 +19576,7 @@
         <v>0.57</v>
       </c>
       <c r="AS94" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AT94" t="n">
         <v>0.71</v>
@@ -19779,10 +19779,10 @@
         <v>0.88</v>
       </c>
       <c r="AS95" t="n">
-        <v>2.23</v>
+        <v>2.07</v>
       </c>
       <c r="AT95" t="n">
-        <v>0.71</v>
+        <v>0.87</v>
       </c>
       <c r="AU95" t="n">
         <v>1.4</v>
@@ -19985,7 +19985,7 @@
         <v>2.47</v>
       </c>
       <c r="AT96" t="n">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="AU96" t="n">
         <v>1.63</v>
@@ -20185,7 +20185,7 @@
         <v>1.63</v>
       </c>
       <c r="AS97" t="n">
-        <v>2.23</v>
+        <v>2.07</v>
       </c>
       <c r="AT97" t="n">
         <v>1.21</v>
@@ -20388,10 +20388,10 @@
         <v>1.38</v>
       </c>
       <c r="AS98" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AT98" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AU98" t="n">
         <v>1.35</v>
@@ -20594,7 +20594,7 @@
         <v>1.93</v>
       </c>
       <c r="AT99" t="n">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="AU99" t="n">
         <v>1.41</v>
@@ -20794,7 +20794,7 @@
         <v>0.67</v>
       </c>
       <c r="AS100" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AT100" t="n">
         <v>0.79</v>
@@ -21000,7 +21000,7 @@
         <v>2.47</v>
       </c>
       <c r="AT101" t="n">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AU101" t="n">
         <v>1.71</v>
@@ -21200,7 +21200,7 @@
         <v>0</v>
       </c>
       <c r="AS102" t="n">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AT102" t="n">
         <v>0</v>
@@ -21403,7 +21403,7 @@
         <v>1.63</v>
       </c>
       <c r="AS103" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AT103" t="n">
         <v>1.2</v>
@@ -21809,10 +21809,10 @@
         <v>0.78</v>
       </c>
       <c r="AS105" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AT105" t="n">
-        <v>0.71</v>
+        <v>0.87</v>
       </c>
       <c r="AU105" t="n">
         <v>1.32</v>
@@ -22621,10 +22621,10 @@
         <v>0.33</v>
       </c>
       <c r="AS109" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AT109" t="n">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="AU109" t="n">
         <v>1.18</v>
@@ -22824,7 +22824,7 @@
         <v>0.57</v>
       </c>
       <c r="AS110" t="n">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AT110" t="n">
         <v>0.79</v>
@@ -23027,10 +23027,10 @@
         <v>1.56</v>
       </c>
       <c r="AS111" t="n">
-        <v>2.23</v>
+        <v>2.07</v>
       </c>
       <c r="AT111" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AU111" t="n">
         <v>1.38</v>
@@ -23233,7 +23233,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="AT112" t="n">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AU112" t="n">
         <v>1.11</v>
@@ -23433,10 +23433,10 @@
         <v>1.71</v>
       </c>
       <c r="AS113" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AT113" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AU113" t="n">
         <v>1.25</v>
@@ -23839,7 +23839,7 @@
         <v>1.78</v>
       </c>
       <c r="AS115" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AT115" t="n">
         <v>1.2</v>
@@ -24245,10 +24245,10 @@
         <v>2.33</v>
       </c>
       <c r="AS117" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AT117" t="n">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AU117" t="n">
         <v>1.4</v>
@@ -24448,10 +24448,10 @@
         <v>0.3</v>
       </c>
       <c r="AS118" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AT118" t="n">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="AU118" t="n">
         <v>1.22</v>
@@ -25057,7 +25057,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS121" t="n">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AT121" t="n">
         <v>0.71</v>
@@ -25260,10 +25260,10 @@
         <v>1.63</v>
       </c>
       <c r="AS122" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AT122" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AU122" t="n">
         <v>1.29</v>
@@ -25466,7 +25466,7 @@
         <v>2.87</v>
       </c>
       <c r="AT123" t="n">
-        <v>0.71</v>
+        <v>0.87</v>
       </c>
       <c r="AU123" t="n">
         <v>2.62</v>
@@ -25666,10 +25666,10 @@
         <v>1.56</v>
       </c>
       <c r="AS124" t="n">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AT124" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AU124" t="n">
         <v>1.34</v>
@@ -26072,10 +26072,10 @@
         <v>2.4</v>
       </c>
       <c r="AS126" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AT126" t="n">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AU126" t="n">
         <v>1.25</v>
@@ -26278,7 +26278,7 @@
         <v>1.57</v>
       </c>
       <c r="AT127" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AU127" t="n">
         <v>1.02</v>
@@ -26681,7 +26681,7 @@
         <v>0</v>
       </c>
       <c r="AS129" t="n">
-        <v>2.23</v>
+        <v>2.07</v>
       </c>
       <c r="AT129" t="n">
         <v>0</v>
@@ -26884,7 +26884,7 @@
         <v>0.5</v>
       </c>
       <c r="AS130" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AT130" t="n">
         <v>0.71</v>
@@ -27496,7 +27496,7 @@
         <v>1.93</v>
       </c>
       <c r="AT133" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AU133" t="n">
         <v>1.38</v>
@@ -27696,10 +27696,10 @@
         <v>2.45</v>
       </c>
       <c r="AS134" t="n">
-        <v>2.23</v>
+        <v>2.07</v>
       </c>
       <c r="AT134" t="n">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AU134" t="n">
         <v>1.34</v>
@@ -27899,10 +27899,10 @@
         <v>1.64</v>
       </c>
       <c r="AS135" t="n">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AT135" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AU135" t="n">
         <v>1.27</v>
@@ -28102,10 +28102,10 @@
         <v>1.36</v>
       </c>
       <c r="AS136" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AT136" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AU136" t="n">
         <v>1.3</v>
@@ -28305,10 +28305,10 @@
         <v>0.64</v>
       </c>
       <c r="AS137" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AT137" t="n">
-        <v>0.71</v>
+        <v>0.87</v>
       </c>
       <c r="AU137" t="n">
         <v>1.29</v>
@@ -28508,10 +28508,10 @@
         <v>0.36</v>
       </c>
       <c r="AS138" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AT138" t="n">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="AU138" t="n">
         <v>1.23</v>
@@ -28711,7 +28711,7 @@
         <v>0</v>
       </c>
       <c r="AS139" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AT139" t="n">
         <v>0</v>
@@ -30135,7 +30135,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="AT146" t="n">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="AU146" t="n">
         <v>1.1</v>
@@ -30335,7 +30335,7 @@
         <v>0.83</v>
       </c>
       <c r="AS147" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AT147" t="n">
         <v>0.79</v>
@@ -30541,7 +30541,7 @@
         <v>2.87</v>
       </c>
       <c r="AT148" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AU148" t="n">
         <v>2.69</v>
@@ -30944,7 +30944,7 @@
         <v>1.42</v>
       </c>
       <c r="AS150" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AT150" t="n">
         <v>1.2</v>
@@ -31147,10 +31147,10 @@
         <v>0.58</v>
       </c>
       <c r="AS151" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AT151" t="n">
-        <v>0.71</v>
+        <v>0.87</v>
       </c>
       <c r="AU151" t="n">
         <v>1.44</v>
@@ -31350,7 +31350,7 @@
         <v>1.33</v>
       </c>
       <c r="AS152" t="n">
-        <v>2.23</v>
+        <v>2.07</v>
       </c>
       <c r="AT152" t="n">
         <v>1.21</v>
@@ -31556,7 +31556,7 @@
         <v>1.57</v>
       </c>
       <c r="AT153" t="n">
-        <v>0.71</v>
+        <v>0.87</v>
       </c>
       <c r="AU153" t="n">
         <v>1.09</v>
@@ -31756,7 +31756,7 @@
         <v>0.83</v>
       </c>
       <c r="AS154" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AT154" t="n">
         <v>0.79</v>
@@ -31959,7 +31959,7 @@
         <v>0</v>
       </c>
       <c r="AS155" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AT155" t="n">
         <v>0</v>
@@ -32165,7 +32165,7 @@
         <v>2</v>
       </c>
       <c r="AT156" t="n">
-        <v>1.31</v>
+        <v>1.43</v>
       </c>
       <c r="AU156" t="n">
         <v>1.58</v>
@@ -32571,7 +32571,7 @@
         <v>2.47</v>
       </c>
       <c r="AT158" t="n">
-        <v>2.15</v>
+        <v>2.21</v>
       </c>
       <c r="AU158" t="n">
         <v>1.58</v>
@@ -32771,10 +32771,10 @@
         <v>0.54</v>
       </c>
       <c r="AS159" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="AT159" t="n">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="AU159" t="n">
         <v>1.38</v>
@@ -32974,7 +32974,7 @@
         <v>1.23</v>
       </c>
       <c r="AS160" t="n">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AT160" t="n">
         <v>1.13</v>
@@ -33177,10 +33177,10 @@
         <v>1.54</v>
       </c>
       <c r="AS161" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AT161" t="n">
-        <v>1.64</v>
+        <v>1.73</v>
       </c>
       <c r="AU161" t="n">
         <v>1.31</v>
@@ -33380,7 +33380,7 @@
         <v>0.5</v>
       </c>
       <c r="AS162" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AT162" t="n">
         <v>0.71</v>
@@ -34856,6 +34856,1224 @@
       </c>
       <c r="BK169" t="n">
         <v>7</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B170" t="n">
+        <v>5170261</v>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>Wales Welsh Premier League</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E170" s="2" t="n">
+        <v>45016.65625</v>
+      </c>
+      <c r="F170" t="n">
+        <v>7</v>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>Bala Town</t>
+        </is>
+      </c>
+      <c r="H170" t="inlineStr">
+        <is>
+          <t>Connah's Quay</t>
+        </is>
+      </c>
+      <c r="I170" t="n">
+        <v>1</v>
+      </c>
+      <c r="J170" t="n">
+        <v>2</v>
+      </c>
+      <c r="K170" t="n">
+        <v>3</v>
+      </c>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="n">
+        <v>2</v>
+      </c>
+      <c r="N170" t="n">
+        <v>3</v>
+      </c>
+      <c r="O170" t="inlineStr">
+        <is>
+          <t>['27']</t>
+        </is>
+      </c>
+      <c r="P170" t="inlineStr">
+        <is>
+          <t>['26', '42']</t>
+        </is>
+      </c>
+      <c r="Q170" t="n">
+        <v>7</v>
+      </c>
+      <c r="R170" t="n">
+        <v>6</v>
+      </c>
+      <c r="S170" t="n">
+        <v>13</v>
+      </c>
+      <c r="T170" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U170" t="n">
+        <v>2</v>
+      </c>
+      <c r="V170" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="W170" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X170" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y170" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z170" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA170" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB170" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC170" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="AD170" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="AE170" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AF170" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG170" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH170" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI170" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AJ170" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK170" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AL170" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM170" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN170" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AO170" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP170" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AQ170" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR170" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AS170" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AT170" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AU170" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AV170" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AW170" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="AX170" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY170" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ170" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA170" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB170" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC170" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD170" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE170" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF170" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG170" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH170" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI170" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ170" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK170" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B171" t="n">
+        <v>5170262</v>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>Wales Welsh Premier League</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E171" s="2" t="n">
+        <v>45016.65625</v>
+      </c>
+      <c r="F171" t="n">
+        <v>7</v>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>Cardiff MU</t>
+        </is>
+      </c>
+      <c r="H171" t="inlineStr">
+        <is>
+          <t>Penybont</t>
+        </is>
+      </c>
+      <c r="I171" t="n">
+        <v>1</v>
+      </c>
+      <c r="J171" t="n">
+        <v>0</v>
+      </c>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="n">
+        <v>2</v>
+      </c>
+      <c r="M171" t="n">
+        <v>3</v>
+      </c>
+      <c r="N171" t="n">
+        <v>5</v>
+      </c>
+      <c r="O171" t="inlineStr">
+        <is>
+          <t>['45+1', '46']</t>
+        </is>
+      </c>
+      <c r="P171" t="inlineStr">
+        <is>
+          <t>['64', '73', '79']</t>
+        </is>
+      </c>
+      <c r="Q171" t="n">
+        <v>1</v>
+      </c>
+      <c r="R171" t="n">
+        <v>6</v>
+      </c>
+      <c r="S171" t="n">
+        <v>7</v>
+      </c>
+      <c r="T171" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U171" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V171" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="W171" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X171" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y171" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z171" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA171" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB171" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC171" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AD171" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE171" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="AF171" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG171" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH171" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI171" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AJ171" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AK171" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AL171" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AM171" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN171" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AO171" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP171" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AQ171" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AR171" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AS171" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AT171" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AU171" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AV171" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AW171" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="AX171" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY171" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ171" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA171" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BB171" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BC171" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BD171" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="BE171" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF171" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG171" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH171" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI171" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ171" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK171" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B172" t="n">
+        <v>5170263</v>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>Wales Welsh Premier League</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E172" s="2" t="n">
+        <v>45016.65625</v>
+      </c>
+      <c r="F172" t="n">
+        <v>7</v>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>Caernarfon Town</t>
+        </is>
+      </c>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>Airbus UK</t>
+        </is>
+      </c>
+      <c r="I172" t="n">
+        <v>2</v>
+      </c>
+      <c r="J172" t="n">
+        <v>0</v>
+      </c>
+      <c r="K172" t="n">
+        <v>2</v>
+      </c>
+      <c r="L172" t="n">
+        <v>4</v>
+      </c>
+      <c r="M172" t="n">
+        <v>0</v>
+      </c>
+      <c r="N172" t="n">
+        <v>4</v>
+      </c>
+      <c r="O172" t="inlineStr">
+        <is>
+          <t>['1', '28', '49', '59']</t>
+        </is>
+      </c>
+      <c r="P172" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q172" t="n">
+        <v>7</v>
+      </c>
+      <c r="R172" t="n">
+        <v>3</v>
+      </c>
+      <c r="S172" t="n">
+        <v>10</v>
+      </c>
+      <c r="T172" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U172" t="n">
+        <v>3</v>
+      </c>
+      <c r="V172" t="n">
+        <v>12</v>
+      </c>
+      <c r="W172" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="X172" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="Y172" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="Z172" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AA172" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="AB172" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AC172" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AD172" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="AE172" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AF172" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG172" t="n">
+        <v>29</v>
+      </c>
+      <c r="AH172" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AI172" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="AJ172" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AK172" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AL172" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AM172" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AN172" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AO172" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AP172" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AQ172" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AR172" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS172" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AT172" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU172" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AV172" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="AW172" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AX172" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY172" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ172" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA172" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB172" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC172" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD172" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE172" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF172" t="n">
+        <v>10</v>
+      </c>
+      <c r="BG172" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH172" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI172" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ172" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK172" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B173" t="n">
+        <v>5170264</v>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>Wales Welsh Premier League</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E173" s="2" t="n">
+        <v>45017.4375</v>
+      </c>
+      <c r="F173" t="n">
+        <v>7</v>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>Newtown</t>
+        </is>
+      </c>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>The New Saints</t>
+        </is>
+      </c>
+      <c r="I173" t="n">
+        <v>0</v>
+      </c>
+      <c r="J173" t="n">
+        <v>2</v>
+      </c>
+      <c r="K173" t="n">
+        <v>2</v>
+      </c>
+      <c r="L173" t="n">
+        <v>0</v>
+      </c>
+      <c r="M173" t="n">
+        <v>5</v>
+      </c>
+      <c r="N173" t="n">
+        <v>5</v>
+      </c>
+      <c r="O173" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P173" t="inlineStr">
+        <is>
+          <t>['6', '44', '57', '68', '90+1']</t>
+        </is>
+      </c>
+      <c r="Q173" t="n">
+        <v>1</v>
+      </c>
+      <c r="R173" t="n">
+        <v>6</v>
+      </c>
+      <c r="S173" t="n">
+        <v>7</v>
+      </c>
+      <c r="T173" t="n">
+        <v>8</v>
+      </c>
+      <c r="U173" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="V173" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="W173" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="X173" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Y173" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="Z173" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AA173" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB173" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AC173" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AD173" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE173" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AF173" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG173" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH173" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AI173" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AJ173" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AK173" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AL173" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM173" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN173" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AO173" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AP173" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AQ173" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR173" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AS173" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AT173" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="AU173" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AV173" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AW173" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="AX173" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY173" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ173" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA173" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB173" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC173" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD173" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE173" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF173" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG173" t="n">
+        <v>12</v>
+      </c>
+      <c r="BH173" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI173" t="n">
+        <v>16</v>
+      </c>
+      <c r="BJ173" t="n">
+        <v>3</v>
+      </c>
+      <c r="BK173" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B174" t="n">
+        <v>5170265</v>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>Wales Welsh Premier League</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E174" s="2" t="n">
+        <v>45017.4375</v>
+      </c>
+      <c r="F174" t="n">
+        <v>7</v>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>Flint Town United</t>
+        </is>
+      </c>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>Haverfordwest County</t>
+        </is>
+      </c>
+      <c r="I174" t="n">
+        <v>0</v>
+      </c>
+      <c r="J174" t="n">
+        <v>2</v>
+      </c>
+      <c r="K174" t="n">
+        <v>2</v>
+      </c>
+      <c r="L174" t="n">
+        <v>0</v>
+      </c>
+      <c r="M174" t="n">
+        <v>2</v>
+      </c>
+      <c r="N174" t="n">
+        <v>2</v>
+      </c>
+      <c r="O174" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P174" t="inlineStr">
+        <is>
+          <t>['5', '26']</t>
+        </is>
+      </c>
+      <c r="Q174" t="n">
+        <v>4</v>
+      </c>
+      <c r="R174" t="n">
+        <v>5</v>
+      </c>
+      <c r="S174" t="n">
+        <v>9</v>
+      </c>
+      <c r="T174" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="U174" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V174" t="n">
+        <v>3</v>
+      </c>
+      <c r="W174" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X174" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y174" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z174" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA174" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB174" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC174" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AD174" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE174" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AF174" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG174" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH174" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI174" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AJ174" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK174" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL174" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AM174" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN174" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AO174" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP174" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AQ174" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR174" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AS174" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AT174" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="AU174" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AV174" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AW174" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="AX174" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY174" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ174" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA174" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB174" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC174" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD174" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE174" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF174" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG174" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH174" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI174" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ174" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK174" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B175" t="n">
+        <v>5170266</v>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>Wales Welsh Premier League</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E175" s="2" t="n">
+        <v>45017.55208333334</v>
+      </c>
+      <c r="F175" t="n">
+        <v>7</v>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>Pontypridd Town AFC</t>
+        </is>
+      </c>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>Aberystwyth Town</t>
+        </is>
+      </c>
+      <c r="I175" t="n">
+        <v>1</v>
+      </c>
+      <c r="J175" t="n">
+        <v>0</v>
+      </c>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="n">
+        <v>1</v>
+      </c>
+      <c r="N175" t="n">
+        <v>2</v>
+      </c>
+      <c r="O175" t="inlineStr">
+        <is>
+          <t>['32']</t>
+        </is>
+      </c>
+      <c r="P175" t="inlineStr">
+        <is>
+          <t>['90+6']</t>
+        </is>
+      </c>
+      <c r="Q175" t="n">
+        <v>6</v>
+      </c>
+      <c r="R175" t="n">
+        <v>6</v>
+      </c>
+      <c r="S175" t="n">
+        <v>12</v>
+      </c>
+      <c r="T175" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="U175" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V175" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W175" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X175" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Y175" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Z175" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AA175" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB175" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC175" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD175" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE175" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AF175" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG175" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH175" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI175" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ175" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AK175" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AL175" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AM175" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AN175" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO175" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP175" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AQ175" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AR175" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AS175" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AT175" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="AU175" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AV175" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AW175" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="AX175" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY175" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ175" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA175" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB175" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC175" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD175" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE175" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF175" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG175" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH175" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI175" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ175" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK175" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Wales Welsh Premier League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Wales Welsh Premier League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK175"/>
+  <dimension ref="A1:BK180"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1103,10 +1103,10 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AT3" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AT4" t="n">
         <v>0.79</v>
@@ -1512,7 +1512,7 @@
         <v>1.4</v>
       </c>
       <c r="AT5" t="n">
-        <v>2.21</v>
+        <v>2.27</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="AT7" t="n">
         <v>1.2</v>
@@ -2121,7 +2121,7 @@
         <v>2.47</v>
       </c>
       <c r="AT8" t="n">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>1.67</v>
       </c>
       <c r="AT11" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -2930,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="AT12" t="n">
         <v>0.87</v>
@@ -3133,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AT13" t="n">
         <v>1.13</v>
@@ -3336,10 +3336,10 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="AT14" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU14" t="n">
         <v>0.86</v>
@@ -3542,7 +3542,7 @@
         <v>2.87</v>
       </c>
       <c r="AT15" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AU15" t="n">
         <v>2.27</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AT17" t="n">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="AU17" t="n">
         <v>2.4</v>
@@ -4148,7 +4148,7 @@
         <v>3</v>
       </c>
       <c r="AS18" t="n">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="AT18" t="n">
         <v>0.79</v>
@@ -4554,7 +4554,7 @@
         <v>1</v>
       </c>
       <c r="AS20" t="n">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="AT20" t="n">
         <v>0.87</v>
@@ -5163,10 +5163,10 @@
         <v>0</v>
       </c>
       <c r="AS23" t="n">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AT23" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AU23" t="n">
         <v>1.94</v>
@@ -5569,10 +5569,10 @@
         <v>1</v>
       </c>
       <c r="AS25" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AT25" t="n">
-        <v>2.21</v>
+        <v>2.27</v>
       </c>
       <c r="AU25" t="n">
         <v>0.36</v>
@@ -5775,7 +5775,7 @@
         <v>1.67</v>
       </c>
       <c r="AT26" t="n">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="AU26" t="n">
         <v>1.49</v>
@@ -5975,7 +5975,7 @@
         <v>0</v>
       </c>
       <c r="AS27" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AT27" t="n">
         <v>1.2</v>
@@ -6178,7 +6178,7 @@
         <v>2.25</v>
       </c>
       <c r="AS28" t="n">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AT28" t="n">
         <v>0.79</v>
@@ -6584,10 +6584,10 @@
         <v>0</v>
       </c>
       <c r="AS30" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AT30" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU30" t="n">
         <v>2.4</v>
@@ -6790,7 +6790,7 @@
         <v>1.67</v>
       </c>
       <c r="AT31" t="n">
-        <v>2.21</v>
+        <v>2.27</v>
       </c>
       <c r="AU31" t="n">
         <v>1.33</v>
@@ -6990,10 +6990,10 @@
         <v>0</v>
       </c>
       <c r="AS32" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AT32" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AU32" t="n">
         <v>0.67</v>
@@ -7399,7 +7399,7 @@
         <v>1.67</v>
       </c>
       <c r="AT34" t="n">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="AU34" t="n">
         <v>1.04</v>
@@ -7802,10 +7802,10 @@
         <v>2.33</v>
       </c>
       <c r="AS36" t="n">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AT36" t="n">
-        <v>2.21</v>
+        <v>2.27</v>
       </c>
       <c r="AU36" t="n">
         <v>1.89</v>
@@ -8211,7 +8211,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="AT38" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU38" t="n">
         <v>1.47</v>
@@ -8411,7 +8411,7 @@
         <v>1.5</v>
       </c>
       <c r="AS39" t="n">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="AT39" t="n">
         <v>0.73</v>
@@ -8614,7 +8614,7 @@
         <v>1.8</v>
       </c>
       <c r="AS40" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AT40" t="n">
         <v>0.79</v>
@@ -8817,7 +8817,7 @@
         <v>1.5</v>
       </c>
       <c r="AS41" t="n">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="AT41" t="n">
         <v>1.13</v>
@@ -9023,7 +9023,7 @@
         <v>2.47</v>
       </c>
       <c r="AT42" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AU42" t="n">
         <v>1.62</v>
@@ -9426,10 +9426,10 @@
         <v>0</v>
       </c>
       <c r="AS44" t="n">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="AT44" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AU44" t="n">
         <v>1.89</v>
@@ -9832,7 +9832,7 @@
         <v>1</v>
       </c>
       <c r="AS46" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AT46" t="n">
         <v>1.13</v>
@@ -10038,7 +10038,7 @@
         <v>1.67</v>
       </c>
       <c r="AT47" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AU47" t="n">
         <v>1.48</v>
@@ -10238,10 +10238,10 @@
         <v>0</v>
       </c>
       <c r="AS48" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AT48" t="n">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="AU48" t="n">
         <v>0.78</v>
@@ -10444,7 +10444,7 @@
         <v>2.87</v>
       </c>
       <c r="AT49" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU49" t="n">
         <v>2.26</v>
@@ -11050,7 +11050,7 @@
         <v>1</v>
       </c>
       <c r="AS52" t="n">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AT52" t="n">
         <v>0.73</v>
@@ -11865,7 +11865,7 @@
         <v>1.67</v>
       </c>
       <c r="AT56" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU56" t="n">
         <v>1.45</v>
@@ -12065,7 +12065,7 @@
         <v>0.25</v>
       </c>
       <c r="AS57" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AT57" t="n">
         <v>0.87</v>
@@ -12268,10 +12268,10 @@
         <v>2.5</v>
       </c>
       <c r="AS58" t="n">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="AT58" t="n">
-        <v>2.21</v>
+        <v>2.27</v>
       </c>
       <c r="AU58" t="n">
         <v>1.18</v>
@@ -13283,7 +13283,7 @@
         <v>1.67</v>
       </c>
       <c r="AS63" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AT63" t="n">
         <v>1.2</v>
@@ -13486,10 +13486,10 @@
         <v>0.75</v>
       </c>
       <c r="AS64" t="n">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="AT64" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AU64" t="n">
         <v>1.87</v>
@@ -13692,7 +13692,7 @@
         <v>2.87</v>
       </c>
       <c r="AT65" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AU65" t="n">
         <v>2.08</v>
@@ -13895,7 +13895,7 @@
         <v>1.4</v>
       </c>
       <c r="AT66" t="n">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="AU66" t="n">
         <v>1.09</v>
@@ -14301,7 +14301,7 @@
         <v>2.47</v>
       </c>
       <c r="AT68" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU68" t="n">
         <v>1.53</v>
@@ -14501,7 +14501,7 @@
         <v>1.25</v>
       </c>
       <c r="AS69" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AT69" t="n">
         <v>0.79</v>
@@ -14704,10 +14704,10 @@
         <v>2.6</v>
       </c>
       <c r="AS70" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AT70" t="n">
-        <v>2.21</v>
+        <v>2.27</v>
       </c>
       <c r="AU70" t="n">
         <v>1.49</v>
@@ -14907,7 +14907,7 @@
         <v>0</v>
       </c>
       <c r="AS71" t="n">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AT71" t="n">
         <v>0.79</v>
@@ -15110,7 +15110,7 @@
         <v>1.4</v>
       </c>
       <c r="AS72" t="n">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="AT72" t="n">
         <v>1.73</v>
@@ -15316,7 +15316,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="AT73" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AU73" t="n">
         <v>1.12</v>
@@ -15516,7 +15516,7 @@
         <v>0.6</v>
       </c>
       <c r="AS74" t="n">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="AT74" t="n">
         <v>0.73</v>
@@ -15722,7 +15722,7 @@
         <v>1.4</v>
       </c>
       <c r="AT75" t="n">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="AU75" t="n">
         <v>1.03</v>
@@ -16534,7 +16534,7 @@
         <v>1.67</v>
       </c>
       <c r="AT79" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AU79" t="n">
         <v>1.44</v>
@@ -16937,10 +16937,10 @@
         <v>0.67</v>
       </c>
       <c r="AS81" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AT81" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AU81" t="n">
         <v>1</v>
@@ -17346,7 +17346,7 @@
         <v>1.4</v>
       </c>
       <c r="AT83" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU83" t="n">
         <v>1.13</v>
@@ -17546,7 +17546,7 @@
         <v>1.86</v>
       </c>
       <c r="AS84" t="n">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AT84" t="n">
         <v>1.2</v>
@@ -17749,10 +17749,10 @@
         <v>2.67</v>
       </c>
       <c r="AS85" t="n">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="AT85" t="n">
-        <v>2.21</v>
+        <v>2.27</v>
       </c>
       <c r="AU85" t="n">
         <v>1.75</v>
@@ -18155,7 +18155,7 @@
         <v>1.57</v>
       </c>
       <c r="AS87" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AT87" t="n">
         <v>1.73</v>
@@ -18361,7 +18361,7 @@
         <v>1.67</v>
       </c>
       <c r="AT88" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU88" t="n">
         <v>1.52</v>
@@ -18564,7 +18564,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="AT89" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AU89" t="n">
         <v>1.09</v>
@@ -18764,7 +18764,7 @@
         <v>1.11</v>
       </c>
       <c r="AS90" t="n">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="AT90" t="n">
         <v>0.79</v>
@@ -19579,7 +19579,7 @@
         <v>1.4</v>
       </c>
       <c r="AT94" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AU94" t="n">
         <v>1.12</v>
@@ -19779,7 +19779,7 @@
         <v>0.88</v>
       </c>
       <c r="AS95" t="n">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AT95" t="n">
         <v>0.87</v>
@@ -20185,10 +20185,10 @@
         <v>1.63</v>
       </c>
       <c r="AS97" t="n">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AT97" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU97" t="n">
         <v>1.37</v>
@@ -20591,7 +20591,7 @@
         <v>0.38</v>
       </c>
       <c r="AS99" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AT99" t="n">
         <v>0.73</v>
@@ -21000,7 +21000,7 @@
         <v>2.47</v>
       </c>
       <c r="AT101" t="n">
-        <v>2.21</v>
+        <v>2.27</v>
       </c>
       <c r="AU101" t="n">
         <v>1.71</v>
@@ -21200,10 +21200,10 @@
         <v>0</v>
       </c>
       <c r="AS102" t="n">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="AT102" t="n">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="AU102" t="n">
         <v>1.16</v>
@@ -21606,10 +21606,10 @@
         <v>1.44</v>
       </c>
       <c r="AS104" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AT104" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU104" t="n">
         <v>1.02</v>
@@ -22015,7 +22015,7 @@
         <v>2.87</v>
       </c>
       <c r="AT106" t="n">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="AU106" t="n">
         <v>2.6</v>
@@ -22215,7 +22215,7 @@
         <v>1.11</v>
       </c>
       <c r="AS107" t="n">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="AT107" t="n">
         <v>1.13</v>
@@ -22824,7 +22824,7 @@
         <v>0.57</v>
       </c>
       <c r="AS110" t="n">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="AT110" t="n">
         <v>0.79</v>
@@ -23027,7 +23027,7 @@
         <v>1.56</v>
       </c>
       <c r="AS111" t="n">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AT111" t="n">
         <v>1.73</v>
@@ -23233,7 +23233,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="AT112" t="n">
-        <v>2.21</v>
+        <v>2.27</v>
       </c>
       <c r="AU112" t="n">
         <v>1.11</v>
@@ -23436,7 +23436,7 @@
         <v>1.4</v>
       </c>
       <c r="AT113" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AU113" t="n">
         <v>1.25</v>
@@ -23636,10 +23636,10 @@
         <v>0.5</v>
       </c>
       <c r="AS114" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AT114" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AU114" t="n">
         <v>1.46</v>
@@ -24042,10 +24042,10 @@
         <v>0</v>
       </c>
       <c r="AS116" t="n">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="AT116" t="n">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="AU116" t="n">
         <v>1.59</v>
@@ -24248,7 +24248,7 @@
         <v>1.67</v>
       </c>
       <c r="AT117" t="n">
-        <v>2.21</v>
+        <v>2.27</v>
       </c>
       <c r="AU117" t="n">
         <v>1.4</v>
@@ -24651,7 +24651,7 @@
         <v>0.5</v>
       </c>
       <c r="AS119" t="n">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="AT119" t="n">
         <v>0.79</v>
@@ -25057,10 +25057,10 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS121" t="n">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="AT121" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AU121" t="n">
         <v>1.32</v>
@@ -25263,7 +25263,7 @@
         <v>1.4</v>
       </c>
       <c r="AT122" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AU122" t="n">
         <v>1.29</v>
@@ -25666,10 +25666,10 @@
         <v>1.56</v>
       </c>
       <c r="AS124" t="n">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="AT124" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AU124" t="n">
         <v>1.34</v>
@@ -26075,7 +26075,7 @@
         <v>1.4</v>
       </c>
       <c r="AT126" t="n">
-        <v>2.21</v>
+        <v>2.27</v>
       </c>
       <c r="AU126" t="n">
         <v>1.25</v>
@@ -26275,7 +26275,7 @@
         <v>1.5</v>
       </c>
       <c r="AS127" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AT127" t="n">
         <v>1.73</v>
@@ -26478,7 +26478,7 @@
         <v>0.7</v>
       </c>
       <c r="AS128" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AT128" t="n">
         <v>0.79</v>
@@ -26681,10 +26681,10 @@
         <v>0</v>
       </c>
       <c r="AS129" t="n">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AT129" t="n">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="AU129" t="n">
         <v>1.32</v>
@@ -26887,7 +26887,7 @@
         <v>1.4</v>
       </c>
       <c r="AT130" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AU130" t="n">
         <v>1.18</v>
@@ -27087,10 +27087,10 @@
         <v>1.6</v>
       </c>
       <c r="AS131" t="n">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="AT131" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU131" t="n">
         <v>1.61</v>
@@ -27493,10 +27493,10 @@
         <v>1.5</v>
       </c>
       <c r="AS133" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AT133" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AU133" t="n">
         <v>1.38</v>
@@ -27696,10 +27696,10 @@
         <v>2.45</v>
       </c>
       <c r="AS134" t="n">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AT134" t="n">
-        <v>2.21</v>
+        <v>2.27</v>
       </c>
       <c r="AU134" t="n">
         <v>1.34</v>
@@ -27899,7 +27899,7 @@
         <v>1.64</v>
       </c>
       <c r="AS135" t="n">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="AT135" t="n">
         <v>1.73</v>
@@ -28105,7 +28105,7 @@
         <v>1.4</v>
       </c>
       <c r="AT136" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AU136" t="n">
         <v>1.3</v>
@@ -28714,7 +28714,7 @@
         <v>1.67</v>
       </c>
       <c r="AT139" t="n">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="AU139" t="n">
         <v>1.34</v>
@@ -28914,7 +28914,7 @@
         <v>1.45</v>
       </c>
       <c r="AS140" t="n">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="AT140" t="n">
         <v>1.13</v>
@@ -29320,10 +29320,10 @@
         <v>0.45</v>
       </c>
       <c r="AS142" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AT142" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AU142" t="n">
         <v>1.07</v>
@@ -29523,7 +29523,7 @@
         <v>0.91</v>
       </c>
       <c r="AS143" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AT143" t="n">
         <v>0.79</v>
@@ -29729,7 +29729,7 @@
         <v>2.87</v>
       </c>
       <c r="AT144" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU144" t="n">
         <v>2.66</v>
@@ -31350,10 +31350,10 @@
         <v>1.33</v>
       </c>
       <c r="AS152" t="n">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AT152" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU152" t="n">
         <v>1.32</v>
@@ -31553,7 +31553,7 @@
         <v>0.54</v>
       </c>
       <c r="AS153" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AT153" t="n">
         <v>0.87</v>
@@ -31962,7 +31962,7 @@
         <v>1.4</v>
       </c>
       <c r="AT155" t="n">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="AU155" t="n">
         <v>1.28</v>
@@ -32162,10 +32162,10 @@
         <v>1.33</v>
       </c>
       <c r="AS156" t="n">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="AT156" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AU156" t="n">
         <v>1.58</v>
@@ -32571,7 +32571,7 @@
         <v>2.47</v>
       </c>
       <c r="AT158" t="n">
-        <v>2.21</v>
+        <v>2.27</v>
       </c>
       <c r="AU158" t="n">
         <v>1.58</v>
@@ -32974,7 +32974,7 @@
         <v>1.23</v>
       </c>
       <c r="AS160" t="n">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="AT160" t="n">
         <v>1.13</v>
@@ -33383,7 +33383,7 @@
         <v>1.4</v>
       </c>
       <c r="AT162" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AU162" t="n">
         <v>1.3</v>
@@ -33583,10 +33583,10 @@
         <v>0</v>
       </c>
       <c r="AS163" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AT163" t="n">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="AU163" t="n">
         <v>1.38</v>
@@ -33789,7 +33789,7 @@
         <v>2.47</v>
       </c>
       <c r="AT164" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="AU164" t="n">
         <v>1.52</v>
@@ -33989,7 +33989,7 @@
         <v>0.77</v>
       </c>
       <c r="AS165" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AT165" t="n">
         <v>0.79</v>
@@ -34195,7 +34195,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="AT166" t="n">
-        <v>0.71</v>
+        <v>0.67</v>
       </c>
       <c r="AU166" t="n">
         <v>1.1</v>
@@ -34395,7 +34395,7 @@
         <v>0.85</v>
       </c>
       <c r="AS167" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="AT167" t="n">
         <v>0.79</v>
@@ -34801,7 +34801,7 @@
         <v>1.21</v>
       </c>
       <c r="AS169" t="n">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="AT169" t="n">
         <v>1.2</v>
@@ -35004,10 +35004,10 @@
         <v>1.31</v>
       </c>
       <c r="AS170" t="n">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="AT170" t="n">
-        <v>1.43</v>
+        <v>1.53</v>
       </c>
       <c r="AU170" t="n">
         <v>1.27</v>
@@ -35207,7 +35207,7 @@
         <v>1.64</v>
       </c>
       <c r="AS171" t="n">
-        <v>2.07</v>
+        <v>1.93</v>
       </c>
       <c r="AT171" t="n">
         <v>1.73</v>
@@ -35413,7 +35413,7 @@
         <v>1.67</v>
       </c>
       <c r="AT172" t="n">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="AU172" t="n">
         <v>1.35</v>
@@ -35616,7 +35616,7 @@
         <v>1.4</v>
       </c>
       <c r="AT173" t="n">
-        <v>2.21</v>
+        <v>2.27</v>
       </c>
       <c r="AU173" t="n">
         <v>1.28</v>
@@ -36074,6 +36074,1021 @@
       </c>
       <c r="BK175" t="n">
         <v>5</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B176" t="n">
+        <v>5170267</v>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>Wales Welsh Premier League</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E176" s="2" t="n">
+        <v>45023.4375</v>
+      </c>
+      <c r="F176" t="n">
+        <v>8</v>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>Bala Town</t>
+        </is>
+      </c>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>Newtown</t>
+        </is>
+      </c>
+      <c r="I176" t="n">
+        <v>0</v>
+      </c>
+      <c r="J176" t="n">
+        <v>0</v>
+      </c>
+      <c r="K176" t="n">
+        <v>0</v>
+      </c>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="n">
+        <v>2</v>
+      </c>
+      <c r="N176" t="n">
+        <v>3</v>
+      </c>
+      <c r="O176" t="inlineStr">
+        <is>
+          <t>['83']</t>
+        </is>
+      </c>
+      <c r="P176" t="inlineStr">
+        <is>
+          <t>['49', '90+1']</t>
+        </is>
+      </c>
+      <c r="Q176" t="n">
+        <v>7</v>
+      </c>
+      <c r="R176" t="n">
+        <v>4</v>
+      </c>
+      <c r="S176" t="n">
+        <v>11</v>
+      </c>
+      <c r="T176" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="U176" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="V176" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="W176" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X176" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="Y176" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z176" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA176" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB176" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC176" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AD176" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE176" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="AF176" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG176" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH176" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AI176" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AJ176" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AK176" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AL176" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AM176" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN176" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AO176" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP176" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AQ176" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AR176" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AS176" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AT176" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AU176" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AV176" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AW176" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="AX176" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY176" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ176" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA176" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB176" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BC176" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BD176" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="BE176" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="BF176" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG176" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH176" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI176" t="n">
+        <v>7</v>
+      </c>
+      <c r="BJ176" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK176" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B177" t="n">
+        <v>5170268</v>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>Wales Welsh Premier League</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E177" s="2" t="n">
+        <v>45023.4375</v>
+      </c>
+      <c r="F177" t="n">
+        <v>8</v>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>Haverfordwest County</t>
+        </is>
+      </c>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>Pontypridd Town AFC</t>
+        </is>
+      </c>
+      <c r="I177" t="n">
+        <v>1</v>
+      </c>
+      <c r="J177" t="n">
+        <v>0</v>
+      </c>
+      <c r="K177" t="n">
+        <v>1</v>
+      </c>
+      <c r="L177" t="n">
+        <v>2</v>
+      </c>
+      <c r="M177" t="n">
+        <v>0</v>
+      </c>
+      <c r="N177" t="n">
+        <v>2</v>
+      </c>
+      <c r="O177" t="inlineStr">
+        <is>
+          <t>['28', '63']</t>
+        </is>
+      </c>
+      <c r="P177" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q177" t="n">
+        <v>4</v>
+      </c>
+      <c r="R177" t="n">
+        <v>7</v>
+      </c>
+      <c r="S177" t="n">
+        <v>11</v>
+      </c>
+      <c r="T177" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="U177" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V177" t="n">
+        <v>4</v>
+      </c>
+      <c r="W177" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X177" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y177" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="Z177" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AA177" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB177" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC177" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AD177" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AE177" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AF177" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG177" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH177" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI177" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ177" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AK177" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AL177" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AM177" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AN177" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AO177" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP177" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AQ177" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AR177" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AS177" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT177" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AU177" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AV177" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AW177" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="AX177" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY177" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ177" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA177" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB177" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC177" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD177" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE177" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF177" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG177" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH177" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI177" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ177" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK177" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B178" t="n">
+        <v>5170270</v>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>Wales Welsh Premier League</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E178" s="2" t="n">
+        <v>45024.4375</v>
+      </c>
+      <c r="F178" t="n">
+        <v>8</v>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>Cardiff MU</t>
+        </is>
+      </c>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>Connah's Quay</t>
+        </is>
+      </c>
+      <c r="I178" t="n">
+        <v>0</v>
+      </c>
+      <c r="J178" t="n">
+        <v>2</v>
+      </c>
+      <c r="K178" t="n">
+        <v>2</v>
+      </c>
+      <c r="L178" t="n">
+        <v>0</v>
+      </c>
+      <c r="M178" t="n">
+        <v>2</v>
+      </c>
+      <c r="N178" t="n">
+        <v>2</v>
+      </c>
+      <c r="O178" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P178" t="inlineStr">
+        <is>
+          <t>['32', '45+3']</t>
+        </is>
+      </c>
+      <c r="Q178" t="n">
+        <v>5</v>
+      </c>
+      <c r="R178" t="n">
+        <v>7</v>
+      </c>
+      <c r="S178" t="n">
+        <v>12</v>
+      </c>
+      <c r="T178" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="U178" t="n">
+        <v>2</v>
+      </c>
+      <c r="V178" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="W178" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="X178" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Y178" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z178" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA178" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB178" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC178" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AD178" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE178" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AF178" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG178" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH178" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI178" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="AJ178" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK178" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AL178" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AM178" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN178" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AO178" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP178" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AQ178" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AR178" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AS178" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AT178" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AU178" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AV178" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AW178" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AX178" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY178" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ178" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA178" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB178" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC178" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD178" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE178" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF178" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG178" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH178" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI178" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ178" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK178" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B179" t="n">
+        <v>5170271</v>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>Wales Welsh Premier League</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E179" s="2" t="n">
+        <v>45024.4375</v>
+      </c>
+      <c r="F179" t="n">
+        <v>8</v>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>Penybont</t>
+        </is>
+      </c>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>The New Saints</t>
+        </is>
+      </c>
+      <c r="I179" t="n">
+        <v>0</v>
+      </c>
+      <c r="J179" t="n">
+        <v>2</v>
+      </c>
+      <c r="K179" t="n">
+        <v>2</v>
+      </c>
+      <c r="L179" t="n">
+        <v>2</v>
+      </c>
+      <c r="M179" t="n">
+        <v>5</v>
+      </c>
+      <c r="N179" t="n">
+        <v>7</v>
+      </c>
+      <c r="O179" t="inlineStr">
+        <is>
+          <t>['55', '85']</t>
+        </is>
+      </c>
+      <c r="P179" t="inlineStr">
+        <is>
+          <t>['31', '39', '71', '72', '80']</t>
+        </is>
+      </c>
+      <c r="Q179" t="n">
+        <v>4</v>
+      </c>
+      <c r="R179" t="n">
+        <v>7</v>
+      </c>
+      <c r="S179" t="n">
+        <v>11</v>
+      </c>
+      <c r="T179" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="U179" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="V179" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="W179" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X179" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Y179" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="Z179" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AA179" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB179" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AC179" t="n">
+        <v>11</v>
+      </c>
+      <c r="AD179" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AE179" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AF179" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG179" t="n">
+        <v>12</v>
+      </c>
+      <c r="AH179" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AI179" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AJ179" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AK179" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AL179" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM179" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AN179" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AO179" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AP179" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AQ179" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR179" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="AS179" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AT179" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="AU179" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AV179" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AW179" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="AX179" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY179" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ179" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA179" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB179" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC179" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD179" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE179" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF179" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG179" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH179" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI179" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ179" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK179" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B180" t="n">
+        <v>5170272</v>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>Wales Welsh Premier League</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E180" s="2" t="n">
+        <v>45024.45833333334</v>
+      </c>
+      <c r="F180" t="n">
+        <v>8</v>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>Aberystwyth Town</t>
+        </is>
+      </c>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>Airbus UK</t>
+        </is>
+      </c>
+      <c r="I180" t="n">
+        <v>0</v>
+      </c>
+      <c r="J180" t="n">
+        <v>0</v>
+      </c>
+      <c r="K180" t="n">
+        <v>0</v>
+      </c>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="n">
+        <v>1</v>
+      </c>
+      <c r="N180" t="n">
+        <v>2</v>
+      </c>
+      <c r="O180" t="inlineStr">
+        <is>
+          <t>['86']</t>
+        </is>
+      </c>
+      <c r="P180" t="inlineStr">
+        <is>
+          <t>['54']</t>
+        </is>
+      </c>
+      <c r="Q180" t="n">
+        <v>-1</v>
+      </c>
+      <c r="R180" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S180" t="n">
+        <v>-1</v>
+      </c>
+      <c r="T180" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U180" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="V180" t="n">
+        <v>17</v>
+      </c>
+      <c r="W180" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="X180" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Y180" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Z180" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AA180" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB180" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AC180" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AD180" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE180" t="n">
+        <v>14</v>
+      </c>
+      <c r="AF180" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG180" t="n">
+        <v>13</v>
+      </c>
+      <c r="AH180" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AI180" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AJ180" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AK180" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="AL180" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AM180" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AN180" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AO180" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AP180" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="AQ180" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AR180" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS180" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AT180" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="AU180" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AV180" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="AW180" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AX180" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY180" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ180" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA180" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB180" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC180" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BD180" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE180" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF180" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BG180" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BH180" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BI180" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BJ180" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BK180" t="n">
+        <v>-1</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Wales Welsh Premier League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Wales Welsh Premier League_20222023.xlsx
@@ -36950,13 +36950,13 @@
         </is>
       </c>
       <c r="Q180" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="R180" t="n">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="S180" t="n">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="T180" t="n">
         <v>1.4</v>
@@ -37073,22 +37073,22 @@
         <v>0</v>
       </c>
       <c r="BF180" t="n">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="BG180" t="n">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="BH180" t="n">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="BI180" t="n">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="BJ180" t="n">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="BK180" t="n">
-        <v>-1</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Wales Welsh Premier League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Wales Welsh Premier League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK180"/>
+  <dimension ref="A1:BK182"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1512,7 +1512,7 @@
         <v>1.4</v>
       </c>
       <c r="AT5" t="n">
-        <v>2.27</v>
+        <v>2.31</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -1715,7 +1715,7 @@
         <v>1.67</v>
       </c>
       <c r="AT6" t="n">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -2324,7 +2324,7 @@
         <v>1.4</v>
       </c>
       <c r="AT9" t="n">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AU9" t="n">
         <v>0.51</v>
@@ -2930,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AT12" t="n">
         <v>0.87</v>
@@ -3336,7 +3336,7 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AT14" t="n">
         <v>1.33</v>
@@ -4151,7 +4151,7 @@
         <v>1.87</v>
       </c>
       <c r="AT18" t="n">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AU18" t="n">
         <v>1.75</v>
@@ -4963,7 +4963,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="AT22" t="n">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AU22" t="n">
         <v>1.58</v>
@@ -5572,7 +5572,7 @@
         <v>1.53</v>
       </c>
       <c r="AT25" t="n">
-        <v>2.27</v>
+        <v>2.31</v>
       </c>
       <c r="AU25" t="n">
         <v>0.36</v>
@@ -6181,7 +6181,7 @@
         <v>1.93</v>
       </c>
       <c r="AT28" t="n">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AU28" t="n">
         <v>1.94</v>
@@ -6790,7 +6790,7 @@
         <v>1.67</v>
       </c>
       <c r="AT31" t="n">
-        <v>2.27</v>
+        <v>2.31</v>
       </c>
       <c r="AU31" t="n">
         <v>1.33</v>
@@ -7805,7 +7805,7 @@
         <v>1.93</v>
       </c>
       <c r="AT36" t="n">
-        <v>2.27</v>
+        <v>2.31</v>
       </c>
       <c r="AU36" t="n">
         <v>1.89</v>
@@ -8617,7 +8617,7 @@
         <v>2</v>
       </c>
       <c r="AT40" t="n">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AU40" t="n">
         <v>1.93</v>
@@ -8817,7 +8817,7 @@
         <v>1.5</v>
       </c>
       <c r="AS41" t="n">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AT41" t="n">
         <v>1.13</v>
@@ -9226,7 +9226,7 @@
         <v>2.87</v>
       </c>
       <c r="AT43" t="n">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AU43" t="n">
         <v>2.26</v>
@@ -11662,7 +11662,7 @@
         <v>1.67</v>
       </c>
       <c r="AT55" t="n">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AU55" t="n">
         <v>1.46</v>
@@ -12268,10 +12268,10 @@
         <v>2.5</v>
       </c>
       <c r="AS58" t="n">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AT58" t="n">
-        <v>2.27</v>
+        <v>2.31</v>
       </c>
       <c r="AU58" t="n">
         <v>1.18</v>
@@ -14504,7 +14504,7 @@
         <v>1.53</v>
       </c>
       <c r="AT69" t="n">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AU69" t="n">
         <v>0.91</v>
@@ -14707,7 +14707,7 @@
         <v>2</v>
       </c>
       <c r="AT70" t="n">
-        <v>2.27</v>
+        <v>2.31</v>
       </c>
       <c r="AU70" t="n">
         <v>1.49</v>
@@ -15110,7 +15110,7 @@
         <v>1.4</v>
       </c>
       <c r="AS72" t="n">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AT72" t="n">
         <v>1.73</v>
@@ -15516,7 +15516,7 @@
         <v>0.6</v>
       </c>
       <c r="AS74" t="n">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AT74" t="n">
         <v>0.73</v>
@@ -17752,7 +17752,7 @@
         <v>1.87</v>
       </c>
       <c r="AT85" t="n">
-        <v>2.27</v>
+        <v>2.31</v>
       </c>
       <c r="AU85" t="n">
         <v>1.75</v>
@@ -18764,10 +18764,10 @@
         <v>1.11</v>
       </c>
       <c r="AS90" t="n">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AT90" t="n">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AU90" t="n">
         <v>1.15</v>
@@ -21000,7 +21000,7 @@
         <v>2.47</v>
       </c>
       <c r="AT101" t="n">
-        <v>2.27</v>
+        <v>2.31</v>
       </c>
       <c r="AU101" t="n">
         <v>1.71</v>
@@ -21200,7 +21200,7 @@
         <v>0</v>
       </c>
       <c r="AS102" t="n">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AT102" t="n">
         <v>0.06</v>
@@ -22421,7 +22421,7 @@
         <v>2.47</v>
       </c>
       <c r="AT108" t="n">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AU108" t="n">
         <v>1.64</v>
@@ -22824,7 +22824,7 @@
         <v>0.57</v>
       </c>
       <c r="AS110" t="n">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AT110" t="n">
         <v>0.79</v>
@@ -23233,7 +23233,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="AT112" t="n">
-        <v>2.27</v>
+        <v>2.31</v>
       </c>
       <c r="AU112" t="n">
         <v>1.11</v>
@@ -24248,7 +24248,7 @@
         <v>1.67</v>
       </c>
       <c r="AT117" t="n">
-        <v>2.27</v>
+        <v>2.31</v>
       </c>
       <c r="AU117" t="n">
         <v>1.4</v>
@@ -25057,7 +25057,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS121" t="n">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AT121" t="n">
         <v>0.67</v>
@@ -25666,7 +25666,7 @@
         <v>1.56</v>
       </c>
       <c r="AS124" t="n">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AT124" t="n">
         <v>1.53</v>
@@ -26075,7 +26075,7 @@
         <v>1.4</v>
       </c>
       <c r="AT126" t="n">
-        <v>2.27</v>
+        <v>2.31</v>
       </c>
       <c r="AU126" t="n">
         <v>1.25</v>
@@ -27699,7 +27699,7 @@
         <v>1.93</v>
       </c>
       <c r="AT134" t="n">
-        <v>2.27</v>
+        <v>2.31</v>
       </c>
       <c r="AU134" t="n">
         <v>1.34</v>
@@ -27899,7 +27899,7 @@
         <v>1.64</v>
       </c>
       <c r="AS135" t="n">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AT135" t="n">
         <v>1.73</v>
@@ -29526,7 +29526,7 @@
         <v>2</v>
       </c>
       <c r="AT143" t="n">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AU143" t="n">
         <v>1.36</v>
@@ -30338,7 +30338,7 @@
         <v>1.67</v>
       </c>
       <c r="AT147" t="n">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AU147" t="n">
         <v>1.35</v>
@@ -32571,7 +32571,7 @@
         <v>2.47</v>
       </c>
       <c r="AT158" t="n">
-        <v>2.27</v>
+        <v>2.31</v>
       </c>
       <c r="AU158" t="n">
         <v>1.58</v>
@@ -32974,7 +32974,7 @@
         <v>1.23</v>
       </c>
       <c r="AS160" t="n">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AT160" t="n">
         <v>1.13</v>
@@ -34398,7 +34398,7 @@
         <v>1.53</v>
       </c>
       <c r="AT167" t="n">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AU167" t="n">
         <v>1.07</v>
@@ -35004,7 +35004,7 @@
         <v>1.31</v>
       </c>
       <c r="AS170" t="n">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AT170" t="n">
         <v>1.53</v>
@@ -35616,7 +35616,7 @@
         <v>1.4</v>
       </c>
       <c r="AT173" t="n">
-        <v>2.27</v>
+        <v>2.31</v>
       </c>
       <c r="AU173" t="n">
         <v>1.28</v>
@@ -36222,7 +36222,7 @@
         <v>1.21</v>
       </c>
       <c r="AS176" t="n">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AT176" t="n">
         <v>1.33</v>
@@ -36834,7 +36834,7 @@
         <v>1.87</v>
       </c>
       <c r="AT179" t="n">
-        <v>2.27</v>
+        <v>2.31</v>
       </c>
       <c r="AU179" t="n">
         <v>1.58</v>
@@ -37089,6 +37089,412 @@
       </c>
       <c r="BK180" t="n">
         <v>9</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B181" t="n">
+        <v>5170243</v>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>Wales Welsh Premier League</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E181" s="2" t="n">
+        <v>45030.65625</v>
+      </c>
+      <c r="F181" t="n">
+        <v>9</v>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>Bala Town</t>
+        </is>
+      </c>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>The New Saints</t>
+        </is>
+      </c>
+      <c r="I181" t="n">
+        <v>0</v>
+      </c>
+      <c r="J181" t="n">
+        <v>0</v>
+      </c>
+      <c r="K181" t="n">
+        <v>0</v>
+      </c>
+      <c r="L181" t="n">
+        <v>0</v>
+      </c>
+      <c r="M181" t="n">
+        <v>2</v>
+      </c>
+      <c r="N181" t="n">
+        <v>2</v>
+      </c>
+      <c r="O181" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P181" t="inlineStr">
+        <is>
+          <t>['56', '59']</t>
+        </is>
+      </c>
+      <c r="Q181" t="n">
+        <v>0</v>
+      </c>
+      <c r="R181" t="n">
+        <v>1</v>
+      </c>
+      <c r="S181" t="n">
+        <v>1</v>
+      </c>
+      <c r="T181" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="U181" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="V181" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="W181" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="X181" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Y181" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Z181" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AA181" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AB181" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AC181" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD181" t="n">
+        <v>4.68</v>
+      </c>
+      <c r="AE181" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AF181" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AG181" t="n">
+        <v>20</v>
+      </c>
+      <c r="AH181" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AI181" t="n">
+        <v>4.58</v>
+      </c>
+      <c r="AJ181" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AK181" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AL181" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AM181" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN181" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AO181" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AP181" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AQ181" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AR181" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="AS181" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AT181" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="AU181" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AV181" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AW181" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="AX181" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY181" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ181" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA181" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB181" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC181" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD181" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE181" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF181" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG181" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH181" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI181" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ181" t="n">
+        <v>4</v>
+      </c>
+      <c r="BK181" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B182" t="n">
+        <v>5170274</v>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>Wales Welsh Premier League</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E182" s="2" t="n">
+        <v>45030.65625</v>
+      </c>
+      <c r="F182" t="n">
+        <v>9</v>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>Airbus UK</t>
+        </is>
+      </c>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>Flint Town United</t>
+        </is>
+      </c>
+      <c r="I182" t="n">
+        <v>0</v>
+      </c>
+      <c r="J182" t="n">
+        <v>1</v>
+      </c>
+      <c r="K182" t="n">
+        <v>1</v>
+      </c>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="n">
+        <v>3</v>
+      </c>
+      <c r="N182" t="n">
+        <v>4</v>
+      </c>
+      <c r="O182" t="inlineStr">
+        <is>
+          <t>['46']</t>
+        </is>
+      </c>
+      <c r="P182" t="inlineStr">
+        <is>
+          <t>['4', '64', '66']</t>
+        </is>
+      </c>
+      <c r="Q182" t="n">
+        <v>1</v>
+      </c>
+      <c r="R182" t="n">
+        <v>1</v>
+      </c>
+      <c r="S182" t="n">
+        <v>2</v>
+      </c>
+      <c r="T182" t="n">
+        <v>15</v>
+      </c>
+      <c r="U182" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="V182" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="W182" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="X182" t="n">
+        <v>4</v>
+      </c>
+      <c r="Y182" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z182" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AA182" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB182" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AC182" t="n">
+        <v>23</v>
+      </c>
+      <c r="AD182" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AE182" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AF182" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG182" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH182" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AI182" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AJ182" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AK182" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AL182" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AM182" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AN182" t="n">
+        <v>6.05</v>
+      </c>
+      <c r="AO182" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AP182" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AQ182" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="AR182" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="AS182" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="AT182" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="AU182" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AV182" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AW182" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AX182" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY182" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ182" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA182" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB182" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC182" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD182" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE182" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF182" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG182" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH182" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI182" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ182" t="n">
+        <v>5</v>
+      </c>
+      <c r="BK182" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Wales Welsh Premier League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Wales Welsh Premier League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK182"/>
+  <dimension ref="A1:BK186"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,7 +903,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AT4" t="n">
         <v>0.79</v>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AT5" t="n">
         <v>2.31</v>
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>2.47</v>
+        <v>2.38</v>
       </c>
       <c r="AT8" t="n">
         <v>0.06</v>
@@ -2321,7 +2321,7 @@
         <v>3</v>
       </c>
       <c r="AS9" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AT9" t="n">
         <v>0.93</v>
@@ -2527,7 +2527,7 @@
         <v>2.87</v>
       </c>
       <c r="AT10" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -2727,10 +2727,10 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AT11" t="n">
-        <v>0.67</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -3136,7 +3136,7 @@
         <v>1.53</v>
       </c>
       <c r="AT13" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -3742,10 +3742,10 @@
         <v>3</v>
       </c>
       <c r="AS16" t="n">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AT16" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AU16" t="n">
         <v>1.64</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AT17" t="n">
         <v>0.06</v>
@@ -4354,7 +4354,7 @@
         <v>1.67</v>
       </c>
       <c r="AT19" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU19" t="n">
         <v>1.01</v>
@@ -4757,7 +4757,7 @@
         <v>0</v>
       </c>
       <c r="AS21" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AT21" t="n">
         <v>0.79</v>
@@ -5166,7 +5166,7 @@
         <v>1.93</v>
       </c>
       <c r="AT23" t="n">
-        <v>0.67</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AU23" t="n">
         <v>1.94</v>
@@ -5366,7 +5366,7 @@
         <v>0</v>
       </c>
       <c r="AS24" t="n">
-        <v>2.47</v>
+        <v>2.38</v>
       </c>
       <c r="AT24" t="n">
         <v>1.2</v>
@@ -5772,7 +5772,7 @@
         <v>0</v>
       </c>
       <c r="AS26" t="n">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AT26" t="n">
         <v>0.06</v>
@@ -6381,10 +6381,10 @@
         <v>0</v>
       </c>
       <c r="AS29" t="n">
-        <v>2.47</v>
+        <v>2.38</v>
       </c>
       <c r="AT29" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AU29" t="n">
         <v>1.49</v>
@@ -6584,7 +6584,7 @@
         <v>0</v>
       </c>
       <c r="AS30" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AT30" t="n">
         <v>1.33</v>
@@ -7193,7 +7193,7 @@
         <v>0.5</v>
       </c>
       <c r="AS33" t="n">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AT33" t="n">
         <v>0.87</v>
@@ -8005,10 +8005,10 @@
         <v>0</v>
       </c>
       <c r="AS37" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AT37" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AU37" t="n">
         <v>1.19</v>
@@ -8414,7 +8414,7 @@
         <v>1.87</v>
       </c>
       <c r="AT39" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU39" t="n">
         <v>1.87</v>
@@ -8614,7 +8614,7 @@
         <v>1.8</v>
       </c>
       <c r="AS40" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AT40" t="n">
         <v>0.93</v>
@@ -8820,7 +8820,7 @@
         <v>1.63</v>
       </c>
       <c r="AT41" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AU41" t="n">
         <v>1.16</v>
@@ -9020,10 +9020,10 @@
         <v>0</v>
       </c>
       <c r="AS42" t="n">
-        <v>2.47</v>
+        <v>2.38</v>
       </c>
       <c r="AT42" t="n">
-        <v>0.67</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AU42" t="n">
         <v>1.62</v>
@@ -9429,7 +9429,7 @@
         <v>1.87</v>
       </c>
       <c r="AT44" t="n">
-        <v>0.67</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AU44" t="n">
         <v>1.89</v>
@@ -9629,7 +9629,7 @@
         <v>1</v>
       </c>
       <c r="AS45" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AT45" t="n">
         <v>1.2</v>
@@ -9832,10 +9832,10 @@
         <v>1</v>
       </c>
       <c r="AS46" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AT46" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AU46" t="n">
         <v>1.79</v>
@@ -10035,7 +10035,7 @@
         <v>0</v>
       </c>
       <c r="AS47" t="n">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AT47" t="n">
         <v>1.53</v>
@@ -11053,7 +11053,7 @@
         <v>1.93</v>
       </c>
       <c r="AT52" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU52" t="n">
         <v>1.55</v>
@@ -11256,7 +11256,7 @@
         <v>1.4</v>
       </c>
       <c r="AT53" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AU53" t="n">
         <v>1.04</v>
@@ -11456,7 +11456,7 @@
         <v>0.33</v>
       </c>
       <c r="AS54" t="n">
-        <v>2.47</v>
+        <v>2.38</v>
       </c>
       <c r="AT54" t="n">
         <v>0.87</v>
@@ -11659,7 +11659,7 @@
         <v>1.43</v>
       </c>
       <c r="AS55" t="n">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AT55" t="n">
         <v>0.93</v>
@@ -12471,10 +12471,10 @@
         <v>0.75</v>
       </c>
       <c r="AS59" t="n">
-        <v>2.47</v>
+        <v>2.38</v>
       </c>
       <c r="AT59" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AU59" t="n">
         <v>1.59</v>
@@ -12677,7 +12677,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="AT60" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AU60" t="n">
         <v>1.28</v>
@@ -12877,10 +12877,10 @@
         <v>0.75</v>
       </c>
       <c r="AS61" t="n">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AT61" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU61" t="n">
         <v>1.51</v>
@@ -13080,10 +13080,10 @@
         <v>0.6</v>
       </c>
       <c r="AS62" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AT62" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AU62" t="n">
         <v>1.17</v>
@@ -13283,7 +13283,7 @@
         <v>1.67</v>
       </c>
       <c r="AS63" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AT63" t="n">
         <v>1.2</v>
@@ -13692,7 +13692,7 @@
         <v>2.87</v>
       </c>
       <c r="AT65" t="n">
-        <v>0.67</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AU65" t="n">
         <v>2.08</v>
@@ -14298,7 +14298,7 @@
         <v>1.4</v>
       </c>
       <c r="AS68" t="n">
-        <v>2.47</v>
+        <v>2.38</v>
       </c>
       <c r="AT68" t="n">
         <v>1.33</v>
@@ -14704,7 +14704,7 @@
         <v>2.6</v>
       </c>
       <c r="AS70" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AT70" t="n">
         <v>2.31</v>
@@ -15113,7 +15113,7 @@
         <v>1.63</v>
       </c>
       <c r="AT72" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AU72" t="n">
         <v>1.02</v>
@@ -15316,7 +15316,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="AT73" t="n">
-        <v>0.67</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AU73" t="n">
         <v>1.12</v>
@@ -15519,7 +15519,7 @@
         <v>1.63</v>
       </c>
       <c r="AT74" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU74" t="n">
         <v>1.06</v>
@@ -15719,7 +15719,7 @@
         <v>0</v>
       </c>
       <c r="AS75" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AT75" t="n">
         <v>0.06</v>
@@ -15922,10 +15922,10 @@
         <v>1.33</v>
       </c>
       <c r="AS76" t="n">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AT76" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AU76" t="n">
         <v>1.52</v>
@@ -16331,7 +16331,7 @@
         <v>2.87</v>
       </c>
       <c r="AT78" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AU78" t="n">
         <v>2.19</v>
@@ -16734,7 +16734,7 @@
         <v>0.6</v>
       </c>
       <c r="AS80" t="n">
-        <v>2.47</v>
+        <v>2.38</v>
       </c>
       <c r="AT80" t="n">
         <v>0.79</v>
@@ -16940,7 +16940,7 @@
         <v>1.53</v>
       </c>
       <c r="AT81" t="n">
-        <v>0.67</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AU81" t="n">
         <v>1</v>
@@ -17955,7 +17955,7 @@
         <v>1.67</v>
       </c>
       <c r="AT86" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AU86" t="n">
         <v>1.41</v>
@@ -18155,10 +18155,10 @@
         <v>1.57</v>
       </c>
       <c r="AS87" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AT87" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AU87" t="n">
         <v>1.45</v>
@@ -18358,7 +18358,7 @@
         <v>1.43</v>
       </c>
       <c r="AS88" t="n">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AT88" t="n">
         <v>1.33</v>
@@ -18970,7 +18970,7 @@
         <v>2.87</v>
       </c>
       <c r="AT91" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU91" t="n">
         <v>2.27</v>
@@ -19173,7 +19173,7 @@
         <v>1.4</v>
       </c>
       <c r="AT92" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AU92" t="n">
         <v>1.2</v>
@@ -19373,7 +19373,7 @@
         <v>1</v>
       </c>
       <c r="AS93" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AT93" t="n">
         <v>0.87</v>
@@ -19576,10 +19576,10 @@
         <v>0.57</v>
       </c>
       <c r="AS94" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AT94" t="n">
-        <v>0.67</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AU94" t="n">
         <v>1.12</v>
@@ -19982,10 +19982,10 @@
         <v>0.43</v>
       </c>
       <c r="AS96" t="n">
-        <v>2.47</v>
+        <v>2.38</v>
       </c>
       <c r="AT96" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU96" t="n">
         <v>1.63</v>
@@ -20391,7 +20391,7 @@
         <v>1.67</v>
       </c>
       <c r="AT98" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AU98" t="n">
         <v>1.35</v>
@@ -20591,10 +20591,10 @@
         <v>0.38</v>
       </c>
       <c r="AS99" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AT99" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU99" t="n">
         <v>1.41</v>
@@ -20997,7 +20997,7 @@
         <v>2.43</v>
       </c>
       <c r="AS101" t="n">
-        <v>2.47</v>
+        <v>2.38</v>
       </c>
       <c r="AT101" t="n">
         <v>2.31</v>
@@ -21403,7 +21403,7 @@
         <v>1.63</v>
       </c>
       <c r="AS103" t="n">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AT103" t="n">
         <v>1.2</v>
@@ -22218,7 +22218,7 @@
         <v>1.87</v>
       </c>
       <c r="AT107" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AU107" t="n">
         <v>1.6</v>
@@ -22418,7 +22418,7 @@
         <v>1</v>
       </c>
       <c r="AS108" t="n">
-        <v>2.47</v>
+        <v>2.38</v>
       </c>
       <c r="AT108" t="n">
         <v>0.93</v>
@@ -22621,10 +22621,10 @@
         <v>0.33</v>
       </c>
       <c r="AS109" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AT109" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU109" t="n">
         <v>1.18</v>
@@ -23030,7 +23030,7 @@
         <v>1.93</v>
       </c>
       <c r="AT111" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AU111" t="n">
         <v>1.38</v>
@@ -23636,10 +23636,10 @@
         <v>0.5</v>
       </c>
       <c r="AS114" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AT114" t="n">
-        <v>0.67</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AU114" t="n">
         <v>1.46</v>
@@ -24245,7 +24245,7 @@
         <v>2.33</v>
       </c>
       <c r="AS117" t="n">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AT117" t="n">
         <v>2.31</v>
@@ -24451,7 +24451,7 @@
         <v>1.4</v>
       </c>
       <c r="AT118" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU118" t="n">
         <v>1.22</v>
@@ -24857,7 +24857,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="AT120" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AU120" t="n">
         <v>1.03</v>
@@ -25060,7 +25060,7 @@
         <v>1.63</v>
       </c>
       <c r="AT121" t="n">
-        <v>0.67</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AU121" t="n">
         <v>1.32</v>
@@ -25260,7 +25260,7 @@
         <v>1.63</v>
       </c>
       <c r="AS122" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AT122" t="n">
         <v>1.53</v>
@@ -26278,7 +26278,7 @@
         <v>1.53</v>
       </c>
       <c r="AT127" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AU127" t="n">
         <v>1.02</v>
@@ -26887,7 +26887,7 @@
         <v>1.4</v>
       </c>
       <c r="AT130" t="n">
-        <v>0.67</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AU130" t="n">
         <v>1.18</v>
@@ -27493,7 +27493,7 @@
         <v>1.5</v>
       </c>
       <c r="AS133" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AT133" t="n">
         <v>1.53</v>
@@ -27902,7 +27902,7 @@
         <v>1.63</v>
       </c>
       <c r="AT135" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AU135" t="n">
         <v>1.27</v>
@@ -28102,7 +28102,7 @@
         <v>1.36</v>
       </c>
       <c r="AS136" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AT136" t="n">
         <v>1.53</v>
@@ -28305,7 +28305,7 @@
         <v>0.64</v>
       </c>
       <c r="AS137" t="n">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AT137" t="n">
         <v>0.87</v>
@@ -28511,7 +28511,7 @@
         <v>1.4</v>
       </c>
       <c r="AT138" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU138" t="n">
         <v>1.23</v>
@@ -28917,7 +28917,7 @@
         <v>1.87</v>
       </c>
       <c r="AT140" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AU140" t="n">
         <v>1.61</v>
@@ -29323,7 +29323,7 @@
         <v>1.53</v>
       </c>
       <c r="AT142" t="n">
-        <v>0.67</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AU142" t="n">
         <v>1.07</v>
@@ -29523,7 +29523,7 @@
         <v>0.91</v>
       </c>
       <c r="AS143" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AT143" t="n">
         <v>0.93</v>
@@ -29929,7 +29929,7 @@
         <v>1.45</v>
       </c>
       <c r="AS145" t="n">
-        <v>2.47</v>
+        <v>2.38</v>
       </c>
       <c r="AT145" t="n">
         <v>1.2</v>
@@ -30135,7 +30135,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="AT146" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU146" t="n">
         <v>1.1</v>
@@ -30335,7 +30335,7 @@
         <v>0.83</v>
       </c>
       <c r="AS147" t="n">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AT147" t="n">
         <v>0.93</v>
@@ -30541,7 +30541,7 @@
         <v>2.87</v>
       </c>
       <c r="AT148" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AU148" t="n">
         <v>2.69</v>
@@ -30741,10 +30741,10 @@
         <v>1.33</v>
       </c>
       <c r="AS149" t="n">
-        <v>2.47</v>
+        <v>2.38</v>
       </c>
       <c r="AT149" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AU149" t="n">
         <v>1.57</v>
@@ -30944,7 +30944,7 @@
         <v>1.42</v>
       </c>
       <c r="AS150" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AT150" t="n">
         <v>1.2</v>
@@ -32568,7 +32568,7 @@
         <v>2.25</v>
       </c>
       <c r="AS158" t="n">
-        <v>2.47</v>
+        <v>2.38</v>
       </c>
       <c r="AT158" t="n">
         <v>2.31</v>
@@ -32771,10 +32771,10 @@
         <v>0.54</v>
       </c>
       <c r="AS159" t="n">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AT159" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU159" t="n">
         <v>1.38</v>
@@ -32977,7 +32977,7 @@
         <v>1.63</v>
       </c>
       <c r="AT160" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AU160" t="n">
         <v>1.28</v>
@@ -33177,10 +33177,10 @@
         <v>1.54</v>
       </c>
       <c r="AS161" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AT161" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AU161" t="n">
         <v>1.31</v>
@@ -33383,7 +33383,7 @@
         <v>1.4</v>
       </c>
       <c r="AT162" t="n">
-        <v>0.67</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AU162" t="n">
         <v>1.3</v>
@@ -33583,7 +33583,7 @@
         <v>0</v>
       </c>
       <c r="AS163" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AT163" t="n">
         <v>0.06</v>
@@ -33786,7 +33786,7 @@
         <v>1.31</v>
       </c>
       <c r="AS164" t="n">
-        <v>2.47</v>
+        <v>2.38</v>
       </c>
       <c r="AT164" t="n">
         <v>1.33</v>
@@ -33989,7 +33989,7 @@
         <v>0.77</v>
       </c>
       <c r="AS165" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="AT165" t="n">
         <v>0.79</v>
@@ -34195,7 +34195,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="AT166" t="n">
-        <v>0.67</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AU166" t="n">
         <v>1.1</v>
@@ -34601,7 +34601,7 @@
         <v>2.87</v>
       </c>
       <c r="AT168" t="n">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AU168" t="n">
         <v>2.66</v>
@@ -35210,7 +35210,7 @@
         <v>1.93</v>
       </c>
       <c r="AT171" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="AU171" t="n">
         <v>1.31</v>
@@ -35410,7 +35410,7 @@
         <v>0</v>
       </c>
       <c r="AS172" t="n">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AT172" t="n">
         <v>0.06</v>
@@ -35613,7 +35613,7 @@
         <v>2.15</v>
       </c>
       <c r="AS173" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AT173" t="n">
         <v>2.31</v>
@@ -36022,7 +36022,7 @@
         <v>1.67</v>
       </c>
       <c r="AT175" t="n">
-        <v>0.73</v>
+        <v>0.75</v>
       </c>
       <c r="AU175" t="n">
         <v>1.49</v>
@@ -36081,7 +36081,7 @@
         <v>175</v>
       </c>
       <c r="B176" t="n">
-        <v>5170267</v>
+        <v>5170268</v>
       </c>
       <c r="C176" t="inlineStr">
         <is>
@@ -36101,140 +36101,140 @@
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>Bala Town</t>
+          <t>Haverfordwest County</t>
         </is>
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>Newtown</t>
+          <t>Pontypridd Town AFC</t>
         </is>
       </c>
       <c r="I176" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J176" t="n">
         <v>0</v>
       </c>
       <c r="K176" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L176" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M176" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N176" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O176" t="inlineStr">
         <is>
-          <t>['83']</t>
+          <t>['28', '63']</t>
         </is>
       </c>
       <c r="P176" t="inlineStr">
         <is>
-          <t>['49', '90+1']</t>
+          <t>[]</t>
         </is>
       </c>
       <c r="Q176" t="n">
+        <v>4</v>
+      </c>
+      <c r="R176" t="n">
         <v>7</v>
-      </c>
-      <c r="R176" t="n">
-        <v>4</v>
       </c>
       <c r="S176" t="n">
         <v>11</v>
       </c>
       <c r="T176" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="U176" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V176" t="n">
+        <v>4</v>
+      </c>
+      <c r="W176" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X176" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y176" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="Z176" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AA176" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB176" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC176" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AD176" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AE176" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="AF176" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG176" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH176" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AI176" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ176" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AK176" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AL176" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AM176" t="n">
         <v>2.15</v>
       </c>
-      <c r="V176" t="n">
-        <v>4.2</v>
-      </c>
-      <c r="W176" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="X176" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="Y176" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Z176" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="AA176" t="n">
-        <v>6</v>
-      </c>
-      <c r="AB176" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="AC176" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="AD176" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="AE176" t="n">
-        <v>3.85</v>
-      </c>
-      <c r="AF176" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="AG176" t="n">
-        <v>9</v>
-      </c>
-      <c r="AH176" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="AI176" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="AJ176" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="AK176" t="n">
-        <v>1.96</v>
-      </c>
-      <c r="AL176" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="AM176" t="n">
-        <v>1.95</v>
-      </c>
       <c r="AN176" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="AO176" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AP176" t="n">
         <v>1.9</v>
       </c>
       <c r="AQ176" t="n">
-        <v>1.86</v>
+        <v>1.93</v>
       </c>
       <c r="AR176" t="n">
-        <v>1.21</v>
+        <v>0.71</v>
       </c>
       <c r="AS176" t="n">
-        <v>1.63</v>
+        <v>1.94</v>
       </c>
       <c r="AT176" t="n">
-        <v>1.33</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AU176" t="n">
-        <v>1.27</v>
+        <v>1.43</v>
       </c>
       <c r="AV176" t="n">
-        <v>1.22</v>
+        <v>1.13</v>
       </c>
       <c r="AW176" t="n">
-        <v>2.49</v>
+        <v>2.56</v>
       </c>
       <c r="AX176" t="n">
         <v>0</v>
@@ -36249,34 +36249,34 @@
         <v>0</v>
       </c>
       <c r="BB176" t="n">
-        <v>1.28</v>
+        <v>0</v>
       </c>
       <c r="BC176" t="n">
-        <v>1.83</v>
+        <v>0</v>
       </c>
       <c r="BD176" t="n">
-        <v>1.86</v>
+        <v>0</v>
       </c>
       <c r="BE176" t="n">
-        <v>2.43</v>
+        <v>0</v>
       </c>
       <c r="BF176" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="BG176" t="n">
         <v>4</v>
       </c>
       <c r="BH176" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI176" t="n">
         <v>8</v>
       </c>
-      <c r="BI176" t="n">
+      <c r="BJ176" t="n">
         <v>7</v>
       </c>
-      <c r="BJ176" t="n">
-        <v>14</v>
-      </c>
       <c r="BK176" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="177">
@@ -36284,7 +36284,7 @@
         <v>176</v>
       </c>
       <c r="B177" t="n">
-        <v>5170268</v>
+        <v>5170267</v>
       </c>
       <c r="C177" t="inlineStr">
         <is>
@@ -36304,140 +36304,140 @@
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>Haverfordwest County</t>
+          <t>Bala Town</t>
         </is>
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>Pontypridd Town AFC</t>
+          <t>Newtown</t>
         </is>
       </c>
       <c r="I177" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J177" t="n">
         <v>0</v>
       </c>
       <c r="K177" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L177" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N177" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O177" t="inlineStr">
         <is>
-          <t>['28', '63']</t>
+          <t>['83']</t>
         </is>
       </c>
       <c r="P177" t="inlineStr">
         <is>
-          <t>[]</t>
+          <t>['49', '90+1']</t>
         </is>
       </c>
       <c r="Q177" t="n">
+        <v>7</v>
+      </c>
+      <c r="R177" t="n">
         <v>4</v>
-      </c>
-      <c r="R177" t="n">
-        <v>7</v>
       </c>
       <c r="S177" t="n">
         <v>11</v>
       </c>
       <c r="T177" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="U177" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="V177" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="W177" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="X177" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="Y177" t="n">
-        <v>2.55</v>
+        <v>2.75</v>
       </c>
       <c r="Z177" t="n">
-        <v>1.46</v>
+        <v>1.4</v>
       </c>
       <c r="AA177" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AB177" t="n">
-        <v>1.11</v>
+        <v>1.09</v>
       </c>
       <c r="AC177" t="n">
-        <v>1.86</v>
+        <v>1.78</v>
       </c>
       <c r="AD177" t="n">
-        <v>3.45</v>
+        <v>3.6</v>
       </c>
       <c r="AE177" t="n">
-        <v>3.65</v>
+        <v>3.85</v>
       </c>
       <c r="AF177" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="AG177" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AH177" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AI177" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AJ177" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AK177" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AL177" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AM177" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AN177" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AO177" t="n">
         <v>1.22</v>
-      </c>
-      <c r="AI177" t="n">
-        <v>4</v>
-      </c>
-      <c r="AJ177" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="AK177" t="n">
-        <v>1.93</v>
-      </c>
-      <c r="AL177" t="n">
-        <v>1.66</v>
-      </c>
-      <c r="AM177" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="AN177" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="AO177" t="n">
-        <v>1.2</v>
       </c>
       <c r="AP177" t="n">
         <v>1.9</v>
       </c>
       <c r="AQ177" t="n">
-        <v>1.93</v>
+        <v>1.86</v>
       </c>
       <c r="AR177" t="n">
-        <v>0.71</v>
+        <v>1.21</v>
       </c>
       <c r="AS177" t="n">
-        <v>2</v>
+        <v>1.63</v>
       </c>
       <c r="AT177" t="n">
-        <v>0.67</v>
+        <v>1.33</v>
       </c>
       <c r="AU177" t="n">
-        <v>1.43</v>
+        <v>1.27</v>
       </c>
       <c r="AV177" t="n">
-        <v>1.13</v>
+        <v>1.22</v>
       </c>
       <c r="AW177" t="n">
-        <v>2.56</v>
+        <v>2.49</v>
       </c>
       <c r="AX177" t="n">
         <v>0</v>
@@ -36452,34 +36452,34 @@
         <v>0</v>
       </c>
       <c r="BB177" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="BC177" t="n">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="BD177" t="n">
-        <v>0</v>
+        <v>1.86</v>
       </c>
       <c r="BE177" t="n">
-        <v>0</v>
+        <v>2.43</v>
       </c>
       <c r="BF177" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BG177" t="n">
         <v>4</v>
       </c>
       <c r="BH177" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="BI177" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BJ177" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="BK177" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="178">
@@ -37156,10 +37156,10 @@
         <v>0</v>
       </c>
       <c r="R181" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S181" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T181" t="n">
         <v>8.300000000000001</v>
@@ -37276,22 +37276,22 @@
         <v>0</v>
       </c>
       <c r="BF181" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BG181" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BH181" t="n">
         <v>2</v>
       </c>
       <c r="BI181" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="BJ181" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BK181" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="182">
@@ -37356,13 +37356,13 @@
         </is>
       </c>
       <c r="Q182" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R182" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S182" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="T182" t="n">
         <v>15</v>
@@ -37479,22 +37479,834 @@
         <v>0</v>
       </c>
       <c r="BF182" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BG182" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BH182" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BI182" t="n">
         <v>3</v>
       </c>
       <c r="BJ182" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK182" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B183" t="n">
+        <v>5170276</v>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>Wales Welsh Premier League</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E183" s="2" t="n">
+        <v>45031.4375</v>
+      </c>
+      <c r="F183" t="n">
+        <v>9</v>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>Connah's Quay</t>
+        </is>
+      </c>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>Penybont</t>
+        </is>
+      </c>
+      <c r="I183" t="n">
+        <v>0</v>
+      </c>
+      <c r="J183" t="n">
+        <v>0</v>
+      </c>
+      <c r="K183" t="n">
+        <v>0</v>
+      </c>
+      <c r="L183" t="n">
+        <v>0</v>
+      </c>
+      <c r="M183" t="n">
+        <v>0</v>
+      </c>
+      <c r="N183" t="n">
+        <v>0</v>
+      </c>
+      <c r="O183" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P183" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q183" t="n">
+        <v>2</v>
+      </c>
+      <c r="R183" t="n">
+        <v>3</v>
+      </c>
+      <c r="S183" t="n">
         <v>5</v>
       </c>
-      <c r="BK182" t="n">
+      <c r="T183" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="U183" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="V183" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="W183" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X183" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="Y183" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="Z183" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AA183" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB183" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC183" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AD183" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AE183" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="AF183" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG183" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AH183" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI183" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AJ183" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AK183" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AL183" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM183" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AN183" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AO183" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AP183" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AQ183" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="AR183" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AS183" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AT183" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AU183" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AV183" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AW183" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AX183" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY183" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ183" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA183" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB183" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC183" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD183" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE183" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF183" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG183" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH183" t="n">
         <v>3</v>
+      </c>
+      <c r="BI183" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ183" t="n">
+        <v>3</v>
+      </c>
+      <c r="BK183" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B184" t="n">
+        <v>5170278</v>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>Wales Welsh Premier League</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E184" s="2" t="n">
+        <v>45031.4375</v>
+      </c>
+      <c r="F184" t="n">
+        <v>9</v>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>Caernarfon Town</t>
+        </is>
+      </c>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>Pontypridd Town AFC</t>
+        </is>
+      </c>
+      <c r="I184" t="n">
+        <v>0</v>
+      </c>
+      <c r="J184" t="n">
+        <v>0</v>
+      </c>
+      <c r="K184" t="n">
+        <v>0</v>
+      </c>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="n">
+        <v>2</v>
+      </c>
+      <c r="N184" t="n">
+        <v>3</v>
+      </c>
+      <c r="O184" t="inlineStr">
+        <is>
+          <t>['59']</t>
+        </is>
+      </c>
+      <c r="P184" t="inlineStr">
+        <is>
+          <t>['50', '72']</t>
+        </is>
+      </c>
+      <c r="Q184" t="n">
+        <v>4</v>
+      </c>
+      <c r="R184" t="n">
+        <v>4</v>
+      </c>
+      <c r="S184" t="n">
+        <v>8</v>
+      </c>
+      <c r="T184" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="U184" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V184" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="W184" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="X184" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="Y184" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="Z184" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AA184" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB184" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AC184" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AD184" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AE184" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="AF184" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG184" t="n">
+        <v>14.75</v>
+      </c>
+      <c r="AH184" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI184" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ184" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AK184" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AL184" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AM184" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="AN184" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AO184" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP184" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AQ184" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AR184" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AS184" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AT184" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="AU184" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AV184" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AW184" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="AX184" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY184" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ184" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA184" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB184" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC184" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD184" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE184" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF184" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG184" t="n">
+        <v>9</v>
+      </c>
+      <c r="BH184" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI184" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ184" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK184" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B185" t="n">
+        <v>5170277</v>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>Wales Welsh Premier League</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E185" s="2" t="n">
+        <v>45031.4375</v>
+      </c>
+      <c r="F185" t="n">
+        <v>9</v>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>Newtown</t>
+        </is>
+      </c>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>Cardiff MU</t>
+        </is>
+      </c>
+      <c r="I185" t="n">
+        <v>0</v>
+      </c>
+      <c r="J185" t="n">
+        <v>0</v>
+      </c>
+      <c r="K185" t="n">
+        <v>0</v>
+      </c>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="n">
+        <v>2</v>
+      </c>
+      <c r="N185" t="n">
+        <v>3</v>
+      </c>
+      <c r="O185" t="inlineStr">
+        <is>
+          <t>['49']</t>
+        </is>
+      </c>
+      <c r="P185" t="inlineStr">
+        <is>
+          <t>['54', '80']</t>
+        </is>
+      </c>
+      <c r="Q185" t="n">
+        <v>3</v>
+      </c>
+      <c r="R185" t="n">
+        <v>4</v>
+      </c>
+      <c r="S185" t="n">
+        <v>7</v>
+      </c>
+      <c r="T185" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="U185" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="V185" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="W185" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X185" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y185" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Z185" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AA185" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB185" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AC185" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AD185" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE185" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="AF185" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG185" t="n">
+        <v>9.4</v>
+      </c>
+      <c r="AH185" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI185" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AJ185" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AK185" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AL185" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AM185" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN185" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AO185" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP185" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AQ185" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AR185" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AS185" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AT185" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AU185" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AV185" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AW185" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AX185" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY185" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ185" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA185" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB185" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC185" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD185" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE185" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF185" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG185" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH185" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI185" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ185" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK185" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B186" t="n">
+        <v>5170275</v>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>Wales Welsh Premier League</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E186" s="2" t="n">
+        <v>45031.55208333334</v>
+      </c>
+      <c r="F186" t="n">
+        <v>9</v>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>Haverfordwest County</t>
+        </is>
+      </c>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>Aberystwyth Town</t>
+        </is>
+      </c>
+      <c r="I186" t="n">
+        <v>0</v>
+      </c>
+      <c r="J186" t="n">
+        <v>1</v>
+      </c>
+      <c r="K186" t="n">
+        <v>1</v>
+      </c>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="n">
+        <v>1</v>
+      </c>
+      <c r="N186" t="n">
+        <v>2</v>
+      </c>
+      <c r="O186" t="inlineStr">
+        <is>
+          <t>['54']</t>
+        </is>
+      </c>
+      <c r="P186" t="inlineStr">
+        <is>
+          <t>['45']</t>
+        </is>
+      </c>
+      <c r="Q186" t="n">
+        <v>8</v>
+      </c>
+      <c r="R186" t="n">
+        <v>8</v>
+      </c>
+      <c r="S186" t="n">
+        <v>16</v>
+      </c>
+      <c r="T186" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U186" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="V186" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="W186" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X186" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="Y186" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Z186" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AA186" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="AB186" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC186" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AD186" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AE186" t="n">
+        <v>4.39</v>
+      </c>
+      <c r="AF186" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG186" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AH186" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI186" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AJ186" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AK186" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AL186" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AM186" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN186" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AO186" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AP186" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AQ186" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR186" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="AS186" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AT186" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AU186" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AV186" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AW186" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="AX186" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY186" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ186" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA186" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB186" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC186" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD186" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE186" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF186" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG186" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH186" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI186" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ186" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK186" t="n">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Wales Welsh Premier League_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Wales Welsh Premier League_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK186"/>
+  <dimension ref="A1:BK187"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1309,7 +1309,7 @@
         <v>1.94</v>
       </c>
       <c r="AT4" t="n">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -4760,7 +4760,7 @@
         <v>1.31</v>
       </c>
       <c r="AT21" t="n">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AU21" t="n">
         <v>1.14</v>
@@ -7599,7 +7599,7 @@
         <v>1</v>
       </c>
       <c r="AS35" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AT35" t="n">
         <v>1.2</v>
@@ -10850,7 +10850,7 @@
         <v>1.67</v>
       </c>
       <c r="AT51" t="n">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AU51" t="n">
         <v>1.44</v>
@@ -11253,7 +11253,7 @@
         <v>1</v>
       </c>
       <c r="AS53" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AT53" t="n">
         <v>1.69</v>
@@ -13892,7 +13892,7 @@
         <v>0</v>
       </c>
       <c r="AS66" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AT66" t="n">
         <v>0.06</v>
@@ -14098,7 +14098,7 @@
         <v>2.87</v>
       </c>
       <c r="AT67" t="n">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AU67" t="n">
         <v>1.95</v>
@@ -14910,7 +14910,7 @@
         <v>1.93</v>
       </c>
       <c r="AT71" t="n">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AU71" t="n">
         <v>1.5</v>
@@ -16125,7 +16125,7 @@
         <v>0.2</v>
       </c>
       <c r="AS77" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AT77" t="n">
         <v>0.87</v>
@@ -16737,7 +16737,7 @@
         <v>2.38</v>
       </c>
       <c r="AT80" t="n">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AU80" t="n">
         <v>1.58</v>
@@ -17343,7 +17343,7 @@
         <v>1.17</v>
       </c>
       <c r="AS83" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AT83" t="n">
         <v>1.33</v>
@@ -19170,7 +19170,7 @@
         <v>1.13</v>
       </c>
       <c r="AS92" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AT92" t="n">
         <v>1.25</v>
@@ -20794,10 +20794,10 @@
         <v>0.67</v>
       </c>
       <c r="AS100" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AT100" t="n">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AU100" t="n">
         <v>1.12</v>
@@ -22827,7 +22827,7 @@
         <v>1.63</v>
       </c>
       <c r="AT110" t="n">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AU110" t="n">
         <v>1.3</v>
@@ -23433,7 +23433,7 @@
         <v>1.71</v>
       </c>
       <c r="AS113" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AT113" t="n">
         <v>1.53</v>
@@ -24448,7 +24448,7 @@
         <v>0.3</v>
       </c>
       <c r="AS118" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AT118" t="n">
         <v>0.75</v>
@@ -24654,7 +24654,7 @@
         <v>1.87</v>
       </c>
       <c r="AT119" t="n">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AU119" t="n">
         <v>1.61</v>
@@ -25872,7 +25872,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="AT125" t="n">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AU125" t="n">
         <v>1.04</v>
@@ -26072,7 +26072,7 @@
         <v>2.4</v>
       </c>
       <c r="AS126" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AT126" t="n">
         <v>2.31</v>
@@ -26481,7 +26481,7 @@
         <v>1.53</v>
       </c>
       <c r="AT128" t="n">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AU128" t="n">
         <v>1.01</v>
@@ -26884,7 +26884,7 @@
         <v>0.5</v>
       </c>
       <c r="AS130" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AT130" t="n">
         <v>0.8100000000000001</v>
@@ -28508,7 +28508,7 @@
         <v>0.36</v>
       </c>
       <c r="AS138" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AT138" t="n">
         <v>0.75</v>
@@ -29120,7 +29120,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="AT141" t="n">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AU141" t="n">
         <v>1.1</v>
@@ -31759,7 +31759,7 @@
         <v>1.67</v>
       </c>
       <c r="AT154" t="n">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AU154" t="n">
         <v>1.45</v>
@@ -31959,7 +31959,7 @@
         <v>0</v>
       </c>
       <c r="AS155" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AT155" t="n">
         <v>0.06</v>
@@ -33380,7 +33380,7 @@
         <v>0.5</v>
       </c>
       <c r="AS162" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AT162" t="n">
         <v>0.8100000000000001</v>
@@ -33992,7 +33992,7 @@
         <v>1.94</v>
       </c>
       <c r="AT165" t="n">
-        <v>0.79</v>
+        <v>0.93</v>
       </c>
       <c r="AU165" t="n">
         <v>1.42</v>
@@ -35816,7 +35816,7 @@
         <v>0.71</v>
       </c>
       <c r="AS174" t="n">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AT174" t="n">
         <v>0.87</v>
@@ -38307,6 +38307,209 @@
       </c>
       <c r="BK186" t="n">
         <v>12</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B187" t="n">
+        <v>5170269</v>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>Wales Welsh Premier League</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E187" s="2" t="n">
+        <v>45035.64583333334</v>
+      </c>
+      <c r="F187" t="n">
+        <v>8</v>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>Flint Town United</t>
+        </is>
+      </c>
+      <c r="H187" t="inlineStr">
+        <is>
+          <t>Caernarfon Town</t>
+        </is>
+      </c>
+      <c r="I187" t="n">
+        <v>2</v>
+      </c>
+      <c r="J187" t="n">
+        <v>1</v>
+      </c>
+      <c r="K187" t="n">
+        <v>3</v>
+      </c>
+      <c r="L187" t="n">
+        <v>2</v>
+      </c>
+      <c r="M187" t="n">
+        <v>3</v>
+      </c>
+      <c r="N187" t="n">
+        <v>5</v>
+      </c>
+      <c r="O187" t="inlineStr">
+        <is>
+          <t>['18', '35']</t>
+        </is>
+      </c>
+      <c r="P187" t="inlineStr">
+        <is>
+          <t>['31', '49', '86']</t>
+        </is>
+      </c>
+      <c r="Q187" t="n">
+        <v>2</v>
+      </c>
+      <c r="R187" t="n">
+        <v>1</v>
+      </c>
+      <c r="S187" t="n">
+        <v>3</v>
+      </c>
+      <c r="T187" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="U187" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V187" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="W187" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X187" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="Y187" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z187" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AA187" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB187" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AC187" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AD187" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AE187" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="AF187" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG187" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH187" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI187" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="AJ187" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AK187" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="AL187" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AM187" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AN187" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AO187" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP187" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AQ187" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AR187" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="AS187" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AT187" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="AU187" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AV187" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AW187" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="AX187" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY187" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ187" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA187" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB187" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC187" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD187" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BE187" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF187" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG187" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH187" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI187" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ187" t="n">
+        <v>4</v>
+      </c>
+      <c r="BK187" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
